--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Erin\Run Club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F5DEFA-E61F-46A0-AA94-123049AAEF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC41431C-CC88-4F33-AF2D-EEF924F7801B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E0803456-148F-4C82-AA5A-324EB5FFE85D}"/>
   </bookViews>
@@ -1722,12 +1722,12 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BD174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="8400" ySplit="2580" topLeftCell="AV61" activePane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="8400" ySplit="2580" topLeftCell="AV94" activePane="bottomRight"/>
       <selection activeCell="A3" sqref="A2:XFD3"/>
       <selection pane="topRight" activeCell="J5" sqref="J5"/>
-      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
-      <selection pane="bottomRight" activeCell="BD65" sqref="BD65"/>
+      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
+      <selection pane="bottomRight" activeCell="AY99" sqref="AY99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3379,7 +3379,9 @@
       <c r="AP24" s="8"/>
       <c r="AQ24" s="9"/>
       <c r="AS24" s="10"/>
-      <c r="AT24" s="11"/>
+      <c r="AT24" s="11">
+        <v>2</v>
+      </c>
       <c r="AU24" s="12"/>
       <c r="AV24" s="13"/>
       <c r="AX24" s="6"/>
@@ -3388,11 +3390,11 @@
       <c r="BA24" s="9"/>
       <c r="BC24" s="46">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BD24" s="47">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.35">
@@ -4388,17 +4390,19 @@
       <c r="AT36" s="11"/>
       <c r="AU36" s="12"/>
       <c r="AV36" s="13"/>
-      <c r="AX36" s="6"/>
+      <c r="AX36" s="6">
+        <v>7</v>
+      </c>
       <c r="AY36" s="7"/>
       <c r="AZ36" s="8"/>
       <c r="BA36" s="9"/>
       <c r="BC36" s="46">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="BD36" s="47">
         <f t="shared" si="0"/>
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="37" spans="1:56" x14ac:dyDescent="0.35">
@@ -4576,17 +4580,19 @@
       <c r="AT38" s="11"/>
       <c r="AU38" s="12"/>
       <c r="AV38" s="13"/>
-      <c r="AX38" s="6"/>
+      <c r="AX38" s="6">
+        <v>7</v>
+      </c>
       <c r="AY38" s="7"/>
       <c r="AZ38" s="8"/>
       <c r="BA38" s="9"/>
       <c r="BC38" s="46">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BD38" s="47">
         <f t="shared" si="0"/>
-        <v>19.8</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="39" spans="1:56" x14ac:dyDescent="0.35">
@@ -4719,7 +4725,9 @@
       <c r="AP40" s="8"/>
       <c r="AQ40" s="9"/>
       <c r="AS40" s="10"/>
-      <c r="AT40" s="11"/>
+      <c r="AT40" s="11">
+        <v>5</v>
+      </c>
       <c r="AU40" s="12"/>
       <c r="AV40" s="13"/>
       <c r="AX40" s="6"/>
@@ -4728,11 +4736,11 @@
       <c r="BA40" s="9"/>
       <c r="BC40" s="46">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="BD40" s="47">
         <f t="shared" si="0"/>
-        <v>5.7</v>
+        <v>7.1999999999999993</v>
       </c>
     </row>
     <row r="41" spans="1:56" x14ac:dyDescent="0.35">
@@ -5341,20 +5349,24 @@
         <v>6</v>
       </c>
       <c r="AS48" s="10"/>
-      <c r="AT48" s="11"/>
+      <c r="AT48" s="11">
+        <v>7</v>
+      </c>
       <c r="AU48" s="12"/>
       <c r="AV48" s="13"/>
-      <c r="AX48" s="6"/>
+      <c r="AX48" s="6">
+        <v>7</v>
+      </c>
       <c r="AY48" s="7"/>
       <c r="AZ48" s="8"/>
       <c r="BA48" s="9"/>
       <c r="BC48" s="46">
         <f t="shared" si="1"/>
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="BD48" s="47">
         <f t="shared" ref="BD48:BD85" si="8">(SUM(E48:BB48)*$D$2)</f>
-        <v>61.5</v>
+        <v>65.7</v>
       </c>
     </row>
     <row r="49" spans="1:56" x14ac:dyDescent="0.35">
@@ -5461,7 +5473,9 @@
         <v>5</v>
       </c>
       <c r="AS49" s="10"/>
-      <c r="AT49" s="11"/>
+      <c r="AT49" s="11">
+        <v>5</v>
+      </c>
       <c r="AU49" s="12"/>
       <c r="AV49" s="13"/>
       <c r="AX49" s="6"/>
@@ -5470,11 +5484,11 @@
       <c r="BA49" s="9"/>
       <c r="BC49" s="46">
         <f t="shared" ref="BC49:BC87" si="9">SUM(E49:BA49)</f>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="BD49" s="47">
         <f t="shared" si="8"/>
-        <v>54</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="50" spans="1:56" x14ac:dyDescent="0.35">
@@ -5573,7 +5587,9 @@
         <v>1</v>
       </c>
       <c r="AS50" s="10"/>
-      <c r="AT50" s="11"/>
+      <c r="AT50" s="11">
+        <v>1</v>
+      </c>
       <c r="AU50" s="12"/>
       <c r="AV50" s="13"/>
       <c r="AX50" s="6"/>
@@ -5582,11 +5598,11 @@
       <c r="BA50" s="9"/>
       <c r="BC50" s="46">
         <f t="shared" si="9"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BD50" s="47">
         <f t="shared" si="8"/>
-        <v>25.8</v>
+        <v>26.099999999999998</v>
       </c>
     </row>
     <row r="51" spans="1:56" x14ac:dyDescent="0.35">
@@ -6111,7 +6127,9 @@
         <v>2</v>
       </c>
       <c r="AS57" s="10"/>
-      <c r="AT57" s="11"/>
+      <c r="AT57" s="11">
+        <v>1</v>
+      </c>
       <c r="AU57" s="12"/>
       <c r="AV57" s="13"/>
       <c r="AX57" s="6"/>
@@ -6120,11 +6138,11 @@
       <c r="BA57" s="9"/>
       <c r="BC57" s="46">
         <f t="shared" si="9"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="BD57" s="47">
         <f t="shared" si="8"/>
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="58" spans="1:56" x14ac:dyDescent="0.35">
@@ -6338,17 +6356,19 @@
       <c r="AT60" s="11"/>
       <c r="AU60" s="12"/>
       <c r="AV60" s="13"/>
-      <c r="AX60" s="6"/>
+      <c r="AX60" s="6">
+        <v>4</v>
+      </c>
       <c r="AY60" s="7"/>
       <c r="AZ60" s="8"/>
       <c r="BA60" s="9"/>
       <c r="BC60" s="46">
         <f t="shared" si="9"/>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="BD60" s="47">
         <f t="shared" si="8"/>
-        <v>12.6</v>
+        <v>13.799999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:56" x14ac:dyDescent="0.35">
@@ -6425,20 +6445,24 @@
       <c r="AP61" s="8"/>
       <c r="AQ61" s="9"/>
       <c r="AS61" s="10"/>
-      <c r="AT61" s="11"/>
+      <c r="AT61" s="11">
+        <v>2</v>
+      </c>
       <c r="AU61" s="12"/>
       <c r="AV61" s="13"/>
-      <c r="AX61" s="6"/>
+      <c r="AX61" s="6">
+        <v>1</v>
+      </c>
       <c r="AY61" s="7"/>
       <c r="AZ61" s="8"/>
       <c r="BA61" s="9"/>
       <c r="BC61" s="46">
         <f t="shared" ref="BC61:BC62" si="12">SUM(E61:BA61)</f>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="BD61" s="47">
         <f t="shared" ref="BD61:BD62" si="13">(SUM(E61:BB61)*$D$2)</f>
-        <v>14.7</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="62" spans="1:56" x14ac:dyDescent="0.35">
@@ -6640,17 +6664,19 @@
       <c r="AT64" s="11"/>
       <c r="AU64" s="12"/>
       <c r="AV64" s="13"/>
-      <c r="AX64" s="6"/>
+      <c r="AX64" s="6">
+        <v>4</v>
+      </c>
       <c r="AY64" s="7"/>
       <c r="AZ64" s="8"/>
       <c r="BA64" s="9"/>
       <c r="BC64" s="46">
         <f t="shared" ref="BC64" si="14">SUM(E64:BA64)</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BD64" s="47">
         <f t="shared" ref="BD64" si="15">(SUM(E64:BB64)*$D$2)</f>
-        <v>7.5</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="65" spans="1:56" x14ac:dyDescent="0.35">
@@ -7397,17 +7423,19 @@
       <c r="AT75" s="11"/>
       <c r="AU75" s="12"/>
       <c r="AV75" s="13"/>
-      <c r="AX75" s="6"/>
+      <c r="AX75" s="6">
+        <v>3</v>
+      </c>
       <c r="AY75" s="7"/>
       <c r="AZ75" s="8"/>
       <c r="BA75" s="9"/>
       <c r="BC75" s="46">
         <f t="shared" si="9"/>
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="BD75" s="47">
         <f t="shared" si="8"/>
-        <v>15.899999999999999</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="76" spans="1:56" x14ac:dyDescent="0.35">
@@ -7616,7 +7644,9 @@
       <c r="AP78" s="8"/>
       <c r="AQ78" s="9"/>
       <c r="AS78" s="10"/>
-      <c r="AT78" s="11"/>
+      <c r="AT78" s="11">
+        <v>3</v>
+      </c>
       <c r="AU78" s="12"/>
       <c r="AV78" s="13"/>
       <c r="AX78" s="6"/>
@@ -7625,11 +7655,11 @@
       <c r="BA78" s="9"/>
       <c r="BC78" s="46">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BD78" s="47">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>6.8999999999999995</v>
       </c>
     </row>
     <row r="79" spans="1:56" x14ac:dyDescent="0.35">
@@ -8241,17 +8271,19 @@
       <c r="AT86" s="11"/>
       <c r="AU86" s="12"/>
       <c r="AV86" s="13"/>
-      <c r="AX86" s="6"/>
+      <c r="AX86" s="6">
+        <v>3</v>
+      </c>
       <c r="AY86" s="7"/>
       <c r="AZ86" s="8"/>
       <c r="BA86" s="9"/>
       <c r="BC86" s="46">
         <f t="shared" si="9"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BD86" s="47">
         <f t="shared" ref="BD86:BD124" si="20">(SUM(E86:BB86)*$D$2)</f>
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="87" spans="1:56" x14ac:dyDescent="0.35">
@@ -8784,7 +8816,9 @@
         <v>4</v>
       </c>
       <c r="AS93" s="10"/>
-      <c r="AT93" s="11"/>
+      <c r="AT93" s="11">
+        <v>5</v>
+      </c>
       <c r="AU93" s="12"/>
       <c r="AV93" s="13"/>
       <c r="AX93" s="6"/>
@@ -8793,11 +8827,11 @@
       <c r="BA93" s="9"/>
       <c r="BC93" s="46">
         <f t="shared" si="22"/>
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="BD93" s="47">
         <f t="shared" si="20"/>
-        <v>24.3</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="94" spans="1:56" x14ac:dyDescent="0.35">
@@ -9116,20 +9150,24 @@
         <v>1</v>
       </c>
       <c r="AS97" s="10"/>
-      <c r="AT97" s="11"/>
+      <c r="AT97" s="11">
+        <v>6</v>
+      </c>
       <c r="AU97" s="12"/>
       <c r="AV97" s="13"/>
-      <c r="AX97" s="6"/>
+      <c r="AX97" s="6">
+        <v>5</v>
+      </c>
       <c r="AY97" s="7"/>
       <c r="AZ97" s="8"/>
       <c r="BA97" s="9"/>
       <c r="BC97" s="46">
         <f t="shared" si="25"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="BD97" s="47">
         <f t="shared" si="26"/>
-        <v>9</v>
+        <v>12.299999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:56" x14ac:dyDescent="0.35">
@@ -9255,17 +9293,19 @@
       <c r="AT99" s="11"/>
       <c r="AU99" s="12"/>
       <c r="AV99" s="13"/>
-      <c r="AX99" s="6"/>
+      <c r="AX99" s="6">
+        <v>2</v>
+      </c>
       <c r="AY99" s="7"/>
       <c r="AZ99" s="8"/>
       <c r="BA99" s="9"/>
       <c r="BC99" s="46">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BD99" s="47">
         <f t="shared" si="20"/>
-        <v>0.3</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="100" spans="1:56" x14ac:dyDescent="0.35">
@@ -10392,7 +10432,9 @@
         <v>1</v>
       </c>
       <c r="AS114" s="10"/>
-      <c r="AT114" s="11"/>
+      <c r="AT114" s="11">
+        <v>1</v>
+      </c>
       <c r="AU114" s="12"/>
       <c r="AV114" s="13"/>
       <c r="AX114" s="6"/>
@@ -10401,11 +10443,11 @@
       <c r="BA114" s="9"/>
       <c r="BC114" s="46">
         <f t="shared" si="22"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD114" s="47">
         <f t="shared" si="20"/>
-        <v>5.7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:56" x14ac:dyDescent="0.35">
@@ -11742,7 +11784,9 @@
       <c r="AP132" s="8"/>
       <c r="AQ132" s="9"/>
       <c r="AS132" s="10"/>
-      <c r="AT132" s="11"/>
+      <c r="AT132" s="11">
+        <v>1</v>
+      </c>
       <c r="AU132" s="12"/>
       <c r="AV132" s="13"/>
       <c r="AX132" s="6"/>
@@ -11751,11 +11795,11 @@
       <c r="BA132" s="9"/>
       <c r="BC132" s="46">
         <f t="shared" si="37"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD132" s="47">
         <f t="shared" si="38"/>
-        <v>6.6</v>
+        <v>6.8999999999999995</v>
       </c>
     </row>
     <row r="133" spans="1:56" x14ac:dyDescent="0.35">
@@ -11830,7 +11874,9 @@
       </c>
       <c r="AQ133" s="9"/>
       <c r="AS133" s="10"/>
-      <c r="AT133" s="11"/>
+      <c r="AT133" s="11">
+        <v>1</v>
+      </c>
       <c r="AU133" s="12"/>
       <c r="AV133" s="13"/>
       <c r="AX133" s="6"/>
@@ -11839,11 +11885,11 @@
       <c r="BA133" s="9"/>
       <c r="BC133" s="46">
         <f t="shared" ref="BC133" si="41">SUM(E133:BA133)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD133" s="47">
         <f t="shared" ref="BD133" si="42">(SUM(E133:BB133)*$D$2)</f>
-        <v>8.6999999999999993</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:56" x14ac:dyDescent="0.35">
@@ -12146,7 +12192,9 @@
         <v>2</v>
       </c>
       <c r="AS137" s="10"/>
-      <c r="AT137" s="11"/>
+      <c r="AT137" s="11">
+        <v>2</v>
+      </c>
       <c r="AU137" s="12"/>
       <c r="AV137" s="13"/>
       <c r="AX137" s="6"/>
@@ -12155,11 +12203,11 @@
       <c r="BA137" s="9"/>
       <c r="BC137" s="46">
         <f t="shared" si="37"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BD137" s="47">
         <f t="shared" si="38"/>
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="138" spans="1:56" x14ac:dyDescent="0.35">
@@ -12837,17 +12885,19 @@
       <c r="AT146" s="11"/>
       <c r="AU146" s="12"/>
       <c r="AV146" s="13"/>
-      <c r="AX146" s="6"/>
+      <c r="AX146" s="6">
+        <v>3</v>
+      </c>
       <c r="AY146" s="7"/>
       <c r="AZ146" s="8"/>
       <c r="BA146" s="9"/>
       <c r="BC146" s="46">
         <f t="shared" si="37"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BD146" s="47">
         <f t="shared" si="38"/>
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="147" spans="1:56" x14ac:dyDescent="0.35">
@@ -13332,7 +13382,9 @@
         <v>4</v>
       </c>
       <c r="AS152" s="10"/>
-      <c r="AT152" s="11"/>
+      <c r="AT152" s="11">
+        <v>4</v>
+      </c>
       <c r="AU152" s="12"/>
       <c r="AV152" s="13"/>
       <c r="AX152" s="6"/>
@@ -13341,11 +13393,11 @@
       <c r="BA152" s="9"/>
       <c r="BC152" s="46">
         <f t="shared" si="37"/>
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="BD152" s="47">
         <f t="shared" si="38"/>
-        <v>29.7</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="153" spans="1:56" x14ac:dyDescent="0.35">
@@ -13408,20 +13460,24 @@
         <v>4</v>
       </c>
       <c r="AS153" s="10"/>
-      <c r="AT153" s="11"/>
+      <c r="AT153" s="11">
+        <v>6</v>
+      </c>
       <c r="AU153" s="12"/>
       <c r="AV153" s="13"/>
-      <c r="AX153" s="6"/>
+      <c r="AX153" s="6">
+        <v>4</v>
+      </c>
       <c r="AY153" s="7"/>
       <c r="AZ153" s="8"/>
       <c r="BA153" s="9"/>
       <c r="BC153" s="46">
         <f t="shared" si="37"/>
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="BD153" s="47">
         <f t="shared" si="38"/>
-        <v>9.9</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="154" spans="1:56" x14ac:dyDescent="0.35">
@@ -13744,7 +13800,9 @@
       <c r="AP158" s="8"/>
       <c r="AQ158" s="9"/>
       <c r="AS158" s="10"/>
-      <c r="AT158" s="11"/>
+      <c r="AT158" s="11">
+        <v>1</v>
+      </c>
       <c r="AU158" s="12"/>
       <c r="AV158" s="13"/>
       <c r="AX158" s="6"/>
@@ -13753,11 +13811,11 @@
       <c r="BA158" s="9"/>
       <c r="BC158" s="46">
         <f t="shared" si="47"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD158" s="47">
         <f t="shared" si="48"/>
-        <v>2.4</v>
+        <v>2.6999999999999997</v>
       </c>
     </row>
     <row r="159" spans="1:56" x14ac:dyDescent="0.35">
@@ -14141,17 +14199,19 @@
       <c r="AT164" s="11"/>
       <c r="AU164" s="12"/>
       <c r="AV164" s="13"/>
-      <c r="AX164" s="6"/>
+      <c r="AX164" s="6">
+        <v>3</v>
+      </c>
       <c r="AY164" s="7"/>
       <c r="AZ164" s="8"/>
       <c r="BA164" s="9"/>
       <c r="BC164" s="46">
         <f t="shared" si="51"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BD164" s="47">
         <f t="shared" si="52"/>
-        <v>0.89999999999999991</v>
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="165" spans="1:56" x14ac:dyDescent="0.35">
@@ -14673,20 +14733,24 @@
         <v>5</v>
       </c>
       <c r="AS171" s="10"/>
-      <c r="AT171" s="11"/>
+      <c r="AT171" s="11">
+        <v>7</v>
+      </c>
       <c r="AU171" s="12"/>
       <c r="AV171" s="13"/>
-      <c r="AX171" s="6"/>
+      <c r="AX171" s="6">
+        <v>8</v>
+      </c>
       <c r="AY171" s="7"/>
       <c r="AZ171" s="8"/>
       <c r="BA171" s="9"/>
       <c r="BC171" s="46">
         <f t="shared" si="49"/>
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="BD171" s="47">
         <f t="shared" si="50"/>
-        <v>22.2</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="172" spans="1:56" x14ac:dyDescent="0.35">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Erin\Run Club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC41431C-CC88-4F33-AF2D-EEF924F7801B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF89FE6B-FDB6-48E6-B397-76C769AFBEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E0803456-148F-4C82-AA5A-324EB5FFE85D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="339">
   <si>
     <t>Student Name</t>
   </si>
@@ -1044,6 +1044,15 @@
   </si>
   <si>
     <t>Teacher</t>
+  </si>
+  <si>
+    <t>Zoe B</t>
+  </si>
+  <si>
+    <t>Rick Cook</t>
+  </si>
+  <si>
+    <t>Skylah S</t>
   </si>
 </sst>
 </file>
@@ -1720,14 +1729,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C49B2EF-30E9-44A0-AFF1-956C44FD73DE}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BD174"/>
+  <dimension ref="A1:BD177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8400" ySplit="2580" topLeftCell="AV94" activePane="bottomRight"/>
+      <pane xSplit="8400" ySplit="2580" topLeftCell="AV81" activePane="bottomRight"/>
       <selection activeCell="A3" sqref="A2:XFD3"/>
       <selection pane="topRight" activeCell="J5" sqref="J5"/>
-      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
-      <selection pane="bottomRight" activeCell="AY99" sqref="AY99"/>
+      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
+      <selection pane="bottomRight" activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2142,15 +2151,17 @@
       <c r="AV6" s="13"/>
       <c r="AX6" s="6"/>
       <c r="AY6" s="7"/>
-      <c r="AZ6" s="8"/>
+      <c r="AZ6" s="8">
+        <v>4</v>
+      </c>
       <c r="BA6" s="9"/>
       <c r="BC6" s="46">
         <f t="shared" ref="BC6:BC48" si="1">SUM(E6:BA6)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BD6" s="47">
         <f t="shared" si="0"/>
-        <v>5.0999999999999996</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.35">
@@ -3565,14 +3576,16 @@
       <c r="AX26" s="6"/>
       <c r="AY26" s="7"/>
       <c r="AZ26" s="8"/>
-      <c r="BA26" s="9"/>
+      <c r="BA26" s="9">
+        <v>2</v>
+      </c>
       <c r="BC26" s="46">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="BD26" s="47">
         <f t="shared" si="0"/>
-        <v>25.8</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="27" spans="1:56" x14ac:dyDescent="0.35">
@@ -4477,14 +4490,16 @@
       <c r="AX37" s="6"/>
       <c r="AY37" s="7"/>
       <c r="AZ37" s="8"/>
-      <c r="BA37" s="9"/>
+      <c r="BA37" s="9">
+        <v>3</v>
+      </c>
       <c r="BC37" s="46">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="BD37" s="47">
         <f t="shared" si="0"/>
-        <v>10.799999999999999</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="38" spans="1:56" x14ac:dyDescent="0.35">
@@ -4659,14 +4674,16 @@
       <c r="AX39" s="6"/>
       <c r="AY39" s="7"/>
       <c r="AZ39" s="8"/>
-      <c r="BA39" s="9"/>
+      <c r="BA39" s="9">
+        <v>3</v>
+      </c>
       <c r="BC39" s="46">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BD39" s="47">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>5.3999999999999995</v>
       </c>
     </row>
     <row r="40" spans="1:56" x14ac:dyDescent="0.35">
@@ -5365,7 +5382,7 @@
         <v>219</v>
       </c>
       <c r="BD48" s="47">
-        <f t="shared" ref="BD48:BD85" si="8">(SUM(E48:BB48)*$D$2)</f>
+        <f t="shared" ref="BD48:BD86" si="8">(SUM(E48:BB48)*$D$2)</f>
         <v>65.7</v>
       </c>
     </row>
@@ -5480,15 +5497,19 @@
       <c r="AV49" s="13"/>
       <c r="AX49" s="6"/>
       <c r="AY49" s="7"/>
-      <c r="AZ49" s="8"/>
-      <c r="BA49" s="9"/>
+      <c r="AZ49" s="8">
+        <v>2</v>
+      </c>
+      <c r="BA49" s="9">
+        <v>3</v>
+      </c>
       <c r="BC49" s="46">
-        <f t="shared" ref="BC49:BC87" si="9">SUM(E49:BA49)</f>
-        <v>185</v>
+        <f t="shared" ref="BC49:BC88" si="9">SUM(E49:BA49)</f>
+        <v>190</v>
       </c>
       <c r="BD49" s="47">
         <f t="shared" si="8"/>
-        <v>55.5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:56" x14ac:dyDescent="0.35">
@@ -6205,14 +6226,16 @@
       <c r="AX58" s="6"/>
       <c r="AY58" s="7"/>
       <c r="AZ58" s="8"/>
-      <c r="BA58" s="9"/>
+      <c r="BA58" s="9">
+        <v>1</v>
+      </c>
       <c r="BC58" s="46">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD58" s="47">
         <f t="shared" si="8"/>
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="59" spans="1:56" x14ac:dyDescent="0.35">
@@ -6361,14 +6384,16 @@
       </c>
       <c r="AY60" s="7"/>
       <c r="AZ60" s="8"/>
-      <c r="BA60" s="9"/>
+      <c r="BA60" s="9">
+        <v>1</v>
+      </c>
       <c r="BC60" s="46">
         <f t="shared" si="9"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="BD60" s="47">
         <f t="shared" si="8"/>
-        <v>13.799999999999999</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="61" spans="1:56" x14ac:dyDescent="0.35">
@@ -6455,14 +6480,16 @@
       </c>
       <c r="AY61" s="7"/>
       <c r="AZ61" s="8"/>
-      <c r="BA61" s="9"/>
+      <c r="BA61" s="9">
+        <v>1</v>
+      </c>
       <c r="BC61" s="46">
         <f t="shared" ref="BC61:BC62" si="12">SUM(E61:BA61)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BD61" s="47">
         <f t="shared" ref="BD61:BD62" si="13">(SUM(E61:BB61)*$D$2)</f>
-        <v>15.6</v>
+        <v>15.899999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:56" x14ac:dyDescent="0.35">
@@ -6521,14 +6548,16 @@
       <c r="AX62" s="6"/>
       <c r="AY62" s="7"/>
       <c r="AZ62" s="8"/>
-      <c r="BA62" s="9"/>
+      <c r="BA62" s="9">
+        <v>3</v>
+      </c>
       <c r="BC62" s="46">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BD62" s="47">
         <f t="shared" si="13"/>
-        <v>0.89999999999999991</v>
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="63" spans="1:56" x14ac:dyDescent="0.35">
@@ -6668,15 +6697,17 @@
         <v>4</v>
       </c>
       <c r="AY64" s="7"/>
-      <c r="AZ64" s="8"/>
+      <c r="AZ64" s="8">
+        <v>4</v>
+      </c>
       <c r="BA64" s="9"/>
       <c r="BC64" s="46">
         <f t="shared" ref="BC64" si="14">SUM(E64:BA64)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="BD64" s="47">
         <f t="shared" ref="BD64" si="15">(SUM(E64:BB64)*$D$2)</f>
-        <v>8.6999999999999993</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="65" spans="1:56" x14ac:dyDescent="0.35">
@@ -6731,15 +6762,17 @@
       <c r="AV65" s="13"/>
       <c r="AX65" s="6"/>
       <c r="AY65" s="7"/>
-      <c r="AZ65" s="8"/>
+      <c r="AZ65" s="8">
+        <v>8</v>
+      </c>
       <c r="BA65" s="9"/>
       <c r="BC65" s="46">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BD65" s="47">
         <f t="shared" si="8"/>
-        <v>1.7999999999999998</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="66" spans="1:56" x14ac:dyDescent="0.35">
@@ -8102,17 +8135,17 @@
       <c r="AZ84" s="8"/>
       <c r="BA84" s="9"/>
       <c r="BC84" s="46">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="BC84" si="20">SUM(E84:BA84)</f>
         <v>12</v>
       </c>
       <c r="BD84" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="BD84" si="21">(SUM(E84:BB84)*$D$2)</f>
         <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="85" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A85" s="42" t="s">
-        <v>202</v>
+        <v>338</v>
       </c>
       <c r="B85" s="43">
         <v>5</v>
@@ -8123,50 +8156,26 @@
       <c r="D85" t="s">
         <v>58</v>
       </c>
-      <c r="E85" s="10">
-        <v>0</v>
-      </c>
-      <c r="F85" s="11">
-        <v>0</v>
-      </c>
-      <c r="G85" s="12">
-        <v>3</v>
-      </c>
-      <c r="H85" s="13">
-        <v>6</v>
-      </c>
+      <c r="E85" s="10"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="13"/>
       <c r="J85" s="6">
-        <v>4</v>
-      </c>
-      <c r="K85" s="7">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K85" s="7"/>
       <c r="L85" s="8"/>
       <c r="M85" s="9"/>
-      <c r="O85" s="10">
-        <v>3</v>
-      </c>
+      <c r="O85" s="10"/>
       <c r="P85" s="11"/>
-      <c r="Q85" s="12">
-        <v>4</v>
-      </c>
+      <c r="Q85" s="12"/>
       <c r="R85" s="13"/>
-      <c r="T85" s="6">
-        <v>5</v>
-      </c>
-      <c r="U85" s="7">
-        <v>5</v>
-      </c>
-      <c r="V85" s="8">
-        <v>6</v>
-      </c>
-      <c r="W85" s="9">
-        <v>5</v>
-      </c>
+      <c r="T85" s="6"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="8"/>
+      <c r="W85" s="9"/>
       <c r="Y85" s="10"/>
-      <c r="Z85" s="11">
-        <v>3</v>
-      </c>
+      <c r="Z85" s="11"/>
       <c r="AA85" s="12"/>
       <c r="AB85" s="13"/>
       <c r="AD85" s="6"/>
@@ -8176,15 +8185,11 @@
       <c r="AI85" s="10"/>
       <c r="AJ85" s="11"/>
       <c r="AK85" s="12"/>
-      <c r="AL85" s="13">
-        <v>2</v>
-      </c>
+      <c r="AL85" s="13"/>
       <c r="AN85" s="6"/>
       <c r="AO85" s="7"/>
       <c r="AP85" s="8"/>
-      <c r="AQ85" s="9">
-        <v>3</v>
-      </c>
+      <c r="AQ85" s="9"/>
       <c r="AS85" s="10"/>
       <c r="AT85" s="11"/>
       <c r="AU85" s="12"/>
@@ -8192,19 +8197,21 @@
       <c r="AX85" s="6"/>
       <c r="AY85" s="7"/>
       <c r="AZ85" s="8"/>
-      <c r="BA85" s="9"/>
+      <c r="BA85" s="9">
+        <v>2</v>
+      </c>
       <c r="BC85" s="46">
         <f t="shared" si="9"/>
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="BD85" s="47">
         <f t="shared" si="8"/>
-        <v>16.2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="86" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A86" s="42" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B86" s="43">
         <v>5</v>
@@ -8215,15 +8222,23 @@
       <c r="D86" t="s">
         <v>58</v>
       </c>
-      <c r="E86" s="10"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="13"/>
+      <c r="E86" s="10">
+        <v>0</v>
+      </c>
+      <c r="F86" s="11">
+        <v>0</v>
+      </c>
+      <c r="G86" s="12">
+        <v>3</v>
+      </c>
+      <c r="H86" s="13">
+        <v>6</v>
+      </c>
       <c r="J86" s="6">
         <v>4</v>
       </c>
       <c r="K86" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L86" s="8"/>
       <c r="M86" s="9"/>
@@ -8232,18 +8247,24 @@
       </c>
       <c r="P86" s="11"/>
       <c r="Q86" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R86" s="13"/>
       <c r="T86" s="6">
-        <v>2</v>
-      </c>
-      <c r="U86" s="7"/>
-      <c r="V86" s="8"/>
-      <c r="W86" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="U86" s="7">
+        <v>5</v>
+      </c>
+      <c r="V86" s="8">
+        <v>6</v>
+      </c>
+      <c r="W86" s="9">
+        <v>5</v>
+      </c>
       <c r="Y86" s="10"/>
       <c r="Z86" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA86" s="12"/>
       <c r="AB86" s="13"/>
@@ -8252,18 +8273,14 @@
       <c r="AF86" s="8"/>
       <c r="AG86" s="9"/>
       <c r="AI86" s="10"/>
-      <c r="AJ86" s="11">
-        <v>2</v>
-      </c>
+      <c r="AJ86" s="11"/>
       <c r="AK86" s="12"/>
       <c r="AL86" s="13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AN86" s="6"/>
       <c r="AO86" s="7"/>
-      <c r="AP86" s="8">
-        <v>3</v>
-      </c>
+      <c r="AP86" s="8"/>
       <c r="AQ86" s="9">
         <v>3</v>
       </c>
@@ -8271,24 +8288,22 @@
       <c r="AT86" s="11"/>
       <c r="AU86" s="12"/>
       <c r="AV86" s="13"/>
-      <c r="AX86" s="6">
-        <v>3</v>
-      </c>
+      <c r="AX86" s="6"/>
       <c r="AY86" s="7"/>
       <c r="AZ86" s="8"/>
       <c r="BA86" s="9"/>
       <c r="BC86" s="46">
         <f t="shared" si="9"/>
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="BD86" s="47">
-        <f t="shared" ref="BD86:BD124" si="20">(SUM(E86:BB86)*$D$2)</f>
-        <v>10.5</v>
+        <f t="shared" si="8"/>
+        <v>16.2</v>
       </c>
     </row>
     <row r="87" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A87" s="42" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B87" s="43">
         <v>5</v>
@@ -8299,36 +8314,36 @@
       <c r="D87" t="s">
         <v>58</v>
       </c>
-      <c r="E87" s="10">
-        <v>0</v>
-      </c>
-      <c r="F87" s="11">
-        <v>0</v>
-      </c>
-      <c r="G87" s="12">
-        <v>3</v>
-      </c>
-      <c r="H87" s="13">
-        <v>1</v>
-      </c>
-      <c r="J87" s="6"/>
-      <c r="K87" s="7"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="13"/>
+      <c r="J87" s="6">
+        <v>4</v>
+      </c>
+      <c r="K87" s="7">
+        <v>0</v>
+      </c>
       <c r="L87" s="8"/>
       <c r="M87" s="9"/>
-      <c r="O87" s="10"/>
+      <c r="O87" s="10">
+        <v>3</v>
+      </c>
       <c r="P87" s="11"/>
       <c r="Q87" s="12">
-        <v>3</v>
-      </c>
-      <c r="R87" s="13">
-        <v>3</v>
-      </c>
-      <c r="T87" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="R87" s="13"/>
+      <c r="T87" s="6">
+        <v>2</v>
+      </c>
       <c r="U87" s="7"/>
       <c r="V87" s="8"/>
       <c r="W87" s="9"/>
       <c r="Y87" s="10"/>
-      <c r="Z87" s="11"/>
+      <c r="Z87" s="11">
+        <v>4</v>
+      </c>
       <c r="AA87" s="12"/>
       <c r="AB87" s="13"/>
       <c r="AD87" s="6"/>
@@ -8336,46 +8351,52 @@
       <c r="AF87" s="8"/>
       <c r="AG87" s="9"/>
       <c r="AI87" s="10"/>
-      <c r="AJ87" s="11"/>
-      <c r="AK87" s="12">
-        <v>4</v>
-      </c>
-      <c r="AL87" s="13"/>
+      <c r="AJ87" s="11">
+        <v>2</v>
+      </c>
+      <c r="AK87" s="12"/>
+      <c r="AL87" s="13">
+        <v>6</v>
+      </c>
       <c r="AN87" s="6"/>
       <c r="AO87" s="7"/>
       <c r="AP87" s="8">
-        <v>1</v>
-      </c>
-      <c r="AQ87" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="AQ87" s="9">
+        <v>3</v>
+      </c>
       <c r="AS87" s="10"/>
       <c r="AT87" s="11"/>
       <c r="AU87" s="12"/>
       <c r="AV87" s="13"/>
-      <c r="AX87" s="6"/>
+      <c r="AX87" s="6">
+        <v>3</v>
+      </c>
       <c r="AY87" s="7"/>
       <c r="AZ87" s="8"/>
       <c r="BA87" s="9"/>
       <c r="BC87" s="46">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="BD87" s="47">
-        <f t="shared" ref="BD87" si="21">(SUM(E87:BB87)*$D$2)</f>
-        <v>4.5</v>
+        <f t="shared" ref="BD87:BD125" si="22">(SUM(E87:BB87)*$D$2)</f>
+        <v>10.5</v>
       </c>
     </row>
     <row r="88" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A88" s="42" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B88" s="43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C88" s="42" t="s">
         <v>64</v>
       </c>
       <c r="D88" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E88" s="10">
         <v>0</v>
@@ -8383,19 +8404,25 @@
       <c r="F88" s="11">
         <v>0</v>
       </c>
-      <c r="G88" s="12"/>
-      <c r="H88" s="13"/>
+      <c r="G88" s="12">
+        <v>3</v>
+      </c>
+      <c r="H88" s="13">
+        <v>1</v>
+      </c>
       <c r="J88" s="6"/>
       <c r="K88" s="7"/>
       <c r="L88" s="8"/>
       <c r="M88" s="9"/>
       <c r="O88" s="10"/>
       <c r="P88" s="11"/>
-      <c r="Q88" s="12"/>
-      <c r="R88" s="13"/>
-      <c r="T88" s="6">
-        <v>1</v>
-      </c>
+      <c r="Q88" s="12">
+        <v>3</v>
+      </c>
+      <c r="R88" s="13">
+        <v>3</v>
+      </c>
+      <c r="T88" s="6"/>
       <c r="U88" s="7"/>
       <c r="V88" s="8"/>
       <c r="W88" s="9"/>
@@ -8409,11 +8436,15 @@
       <c r="AG88" s="9"/>
       <c r="AI88" s="10"/>
       <c r="AJ88" s="11"/>
-      <c r="AK88" s="12"/>
+      <c r="AK88" s="12">
+        <v>4</v>
+      </c>
       <c r="AL88" s="13"/>
       <c r="AN88" s="6"/>
       <c r="AO88" s="7"/>
-      <c r="AP88" s="8"/>
+      <c r="AP88" s="8">
+        <v>1</v>
+      </c>
       <c r="AQ88" s="9"/>
       <c r="AS88" s="10"/>
       <c r="AT88" s="11"/>
@@ -8421,20 +8452,22 @@
       <c r="AV88" s="13"/>
       <c r="AX88" s="6"/>
       <c r="AY88" s="7"/>
-      <c r="AZ88" s="8"/>
+      <c r="AZ88" s="8">
+        <v>4</v>
+      </c>
       <c r="BA88" s="9"/>
       <c r="BC88" s="46">
-        <f t="shared" ref="BC88:BC124" si="22">SUM(E88:BA88)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>19</v>
       </c>
       <c r="BD88" s="47">
-        <f t="shared" si="20"/>
-        <v>0.3</v>
+        <f t="shared" ref="BD88" si="23">(SUM(E88:BB88)*$D$2)</f>
+        <v>5.7</v>
       </c>
     </row>
     <row r="89" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A89" s="42" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B89" s="43">
         <v>4</v>
@@ -8451,33 +8484,21 @@
       <c r="F89" s="11">
         <v>0</v>
       </c>
-      <c r="G89" s="12">
-        <v>1</v>
-      </c>
-      <c r="H89" s="13">
-        <v>3</v>
-      </c>
-      <c r="J89" s="6">
-        <v>0</v>
-      </c>
-      <c r="K89" s="7">
-        <v>1</v>
-      </c>
+      <c r="G89" s="12"/>
+      <c r="H89" s="13"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="7"/>
       <c r="L89" s="8"/>
-      <c r="M89" s="9">
-        <v>4</v>
-      </c>
+      <c r="M89" s="9"/>
       <c r="O89" s="10"/>
       <c r="P89" s="11"/>
       <c r="Q89" s="12"/>
       <c r="R89" s="13"/>
-      <c r="T89" s="6"/>
-      <c r="U89" s="7">
-        <v>1</v>
-      </c>
-      <c r="V89" s="8">
-        <v>4</v>
-      </c>
+      <c r="T89" s="6">
+        <v>1</v>
+      </c>
+      <c r="U89" s="7"/>
+      <c r="V89" s="8"/>
       <c r="W89" s="9"/>
       <c r="Y89" s="10"/>
       <c r="Z89" s="11"/>
@@ -8486,9 +8507,7 @@
       <c r="AD89" s="6"/>
       <c r="AE89" s="7"/>
       <c r="AF89" s="8"/>
-      <c r="AG89" s="9">
-        <v>4</v>
-      </c>
+      <c r="AG89" s="9"/>
       <c r="AI89" s="10"/>
       <c r="AJ89" s="11"/>
       <c r="AK89" s="12"/>
@@ -8506,17 +8525,17 @@
       <c r="AZ89" s="8"/>
       <c r="BA89" s="9"/>
       <c r="BC89" s="46">
+        <f t="shared" ref="BC89:BC125" si="24">SUM(E89:BA89)</f>
+        <v>1</v>
+      </c>
+      <c r="BD89" s="47">
         <f t="shared" si="22"/>
-        <v>18</v>
-      </c>
-      <c r="BD89" s="47">
-        <f t="shared" si="20"/>
-        <v>5.3999999999999995</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="90" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A90" s="42" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B90" s="43">
         <v>4</v>
@@ -8531,27 +8550,35 @@
         <v>0</v>
       </c>
       <c r="F90" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" s="13">
-        <v>2</v>
-      </c>
-      <c r="J90" s="6"/>
-      <c r="K90" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="J90" s="6">
+        <v>0</v>
+      </c>
+      <c r="K90" s="7">
+        <v>1</v>
+      </c>
       <c r="L90" s="8"/>
-      <c r="M90" s="9"/>
-      <c r="O90" s="10">
-        <v>1</v>
-      </c>
+      <c r="M90" s="9">
+        <v>4</v>
+      </c>
+      <c r="O90" s="10"/>
       <c r="P90" s="11"/>
       <c r="Q90" s="12"/>
       <c r="R90" s="13"/>
       <c r="T90" s="6"/>
-      <c r="U90" s="7"/>
-      <c r="V90" s="8"/>
+      <c r="U90" s="7">
+        <v>1</v>
+      </c>
+      <c r="V90" s="8">
+        <v>4</v>
+      </c>
       <c r="W90" s="9"/>
       <c r="Y90" s="10"/>
       <c r="Z90" s="11"/>
@@ -8560,7 +8587,9 @@
       <c r="AD90" s="6"/>
       <c r="AE90" s="7"/>
       <c r="AF90" s="8"/>
-      <c r="AG90" s="9"/>
+      <c r="AG90" s="9">
+        <v>4</v>
+      </c>
       <c r="AI90" s="10"/>
       <c r="AJ90" s="11"/>
       <c r="AK90" s="12"/>
@@ -8578,17 +8607,17 @@
       <c r="AZ90" s="8"/>
       <c r="BA90" s="9"/>
       <c r="BC90" s="46">
-        <f t="shared" ref="BC90" si="23">SUM(E90:BA90)</f>
-        <v>4</v>
+        <f t="shared" si="24"/>
+        <v>18</v>
       </c>
       <c r="BD90" s="47">
-        <f t="shared" ref="BD90" si="24">(SUM(E90:BB90)*$D$2)</f>
-        <v>1.2</v>
+        <f t="shared" si="22"/>
+        <v>5.3999999999999995</v>
       </c>
     </row>
     <row r="91" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A91" s="42" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B91" s="43">
         <v>4</v>
@@ -8602,21 +8631,25 @@
       <c r="E91" s="10">
         <v>0</v>
       </c>
-      <c r="F91" s="11"/>
+      <c r="F91" s="11">
+        <v>1</v>
+      </c>
       <c r="G91" s="12">
         <v>0</v>
       </c>
-      <c r="H91" s="13"/>
+      <c r="H91" s="13">
+        <v>2</v>
+      </c>
       <c r="J91" s="6"/>
       <c r="K91" s="7"/>
       <c r="L91" s="8"/>
       <c r="M91" s="9"/>
-      <c r="O91" s="10"/>
+      <c r="O91" s="10">
+        <v>1</v>
+      </c>
       <c r="P91" s="11"/>
       <c r="Q91" s="12"/>
-      <c r="R91" s="13">
-        <v>2</v>
-      </c>
+      <c r="R91" s="13"/>
       <c r="T91" s="6"/>
       <c r="U91" s="7"/>
       <c r="V91" s="8"/>
@@ -8626,9 +8659,7 @@
       <c r="AA91" s="12"/>
       <c r="AB91" s="13"/>
       <c r="AD91" s="6"/>
-      <c r="AE91" s="7">
-        <v>1</v>
-      </c>
+      <c r="AE91" s="7"/>
       <c r="AF91" s="8"/>
       <c r="AG91" s="9"/>
       <c r="AI91" s="10"/>
@@ -8648,17 +8679,17 @@
       <c r="AZ91" s="8"/>
       <c r="BA91" s="9"/>
       <c r="BC91" s="46">
-        <f t="shared" si="22"/>
-        <v>3</v>
+        <f t="shared" ref="BC91" si="25">SUM(E91:BA91)</f>
+        <v>4</v>
       </c>
       <c r="BD91" s="47">
-        <f t="shared" si="20"/>
-        <v>0.89999999999999991</v>
+        <f t="shared" ref="BD91" si="26">(SUM(E91:BB91)*$D$2)</f>
+        <v>1.2</v>
       </c>
     </row>
     <row r="92" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A92" s="42" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B92" s="43">
         <v>4</v>
@@ -8669,29 +8700,25 @@
       <c r="D92" t="s">
         <v>55</v>
       </c>
-      <c r="E92" s="10"/>
+      <c r="E92" s="10">
+        <v>0</v>
+      </c>
       <c r="F92" s="11"/>
-      <c r="G92" s="12"/>
+      <c r="G92" s="12">
+        <v>0</v>
+      </c>
       <c r="H92" s="13"/>
-      <c r="J92" s="6">
-        <v>2</v>
-      </c>
-      <c r="K92" s="7">
-        <v>5</v>
-      </c>
+      <c r="J92" s="6"/>
+      <c r="K92" s="7"/>
       <c r="L92" s="8"/>
       <c r="M92" s="9"/>
-      <c r="O92" s="10">
-        <v>4</v>
-      </c>
-      <c r="P92" s="11">
-        <v>3</v>
-      </c>
+      <c r="O92" s="10"/>
+      <c r="P92" s="11"/>
       <c r="Q92" s="12"/>
-      <c r="R92" s="13"/>
-      <c r="T92" s="6">
-        <v>3</v>
-      </c>
+      <c r="R92" s="13">
+        <v>2</v>
+      </c>
+      <c r="T92" s="6"/>
       <c r="U92" s="7"/>
       <c r="V92" s="8"/>
       <c r="W92" s="9"/>
@@ -8700,7 +8727,9 @@
       <c r="AA92" s="12"/>
       <c r="AB92" s="13"/>
       <c r="AD92" s="6"/>
-      <c r="AE92" s="7"/>
+      <c r="AE92" s="7">
+        <v>1</v>
+      </c>
       <c r="AF92" s="8"/>
       <c r="AG92" s="9"/>
       <c r="AI92" s="10"/>
@@ -8720,17 +8749,17 @@
       <c r="AZ92" s="8"/>
       <c r="BA92" s="9"/>
       <c r="BC92" s="46">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="BD92" s="47">
         <f t="shared" si="22"/>
-        <v>17</v>
-      </c>
-      <c r="BD92" s="47">
-        <f t="shared" si="20"/>
-        <v>5.0999999999999996</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="93" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A93" s="42" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B93" s="43">
         <v>4</v>
@@ -8741,84 +8770,50 @@
       <c r="D93" t="s">
         <v>55</v>
       </c>
-      <c r="E93" s="10">
-        <v>3</v>
-      </c>
-      <c r="F93" s="11">
-        <v>4</v>
-      </c>
-      <c r="G93" s="12">
-        <v>6</v>
-      </c>
-      <c r="H93" s="13">
-        <v>0</v>
-      </c>
+      <c r="E93" s="10"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="13"/>
       <c r="J93" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K93" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L93" s="8"/>
-      <c r="M93" s="9">
-        <v>2</v>
-      </c>
-      <c r="O93" s="10"/>
+      <c r="M93" s="9"/>
+      <c r="O93" s="10">
+        <v>4</v>
+      </c>
       <c r="P93" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q93" s="12"/>
       <c r="R93" s="13"/>
       <c r="T93" s="6">
-        <v>5</v>
-      </c>
-      <c r="U93" s="7">
-        <v>6</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="U93" s="7"/>
       <c r="V93" s="8"/>
-      <c r="W93" s="9">
-        <v>3</v>
-      </c>
-      <c r="Y93" s="10">
-        <v>4</v>
-      </c>
+      <c r="W93" s="9"/>
+      <c r="Y93" s="10"/>
       <c r="Z93" s="11"/>
-      <c r="AA93" s="12">
-        <v>6</v>
-      </c>
+      <c r="AA93" s="12"/>
       <c r="AB93" s="13"/>
       <c r="AD93" s="6"/>
       <c r="AE93" s="7"/>
-      <c r="AF93" s="8">
-        <v>6</v>
-      </c>
-      <c r="AG93" s="9">
-        <v>4</v>
-      </c>
-      <c r="AI93" s="10">
-        <v>2</v>
-      </c>
+      <c r="AF93" s="8"/>
+      <c r="AG93" s="9"/>
+      <c r="AI93" s="10"/>
       <c r="AJ93" s="11"/>
-      <c r="AK93" s="12">
-        <v>2</v>
-      </c>
-      <c r="AL93" s="13">
-        <v>4</v>
-      </c>
+      <c r="AK93" s="12"/>
+      <c r="AL93" s="13"/>
       <c r="AN93" s="6"/>
-      <c r="AO93" s="7">
-        <v>7</v>
-      </c>
-      <c r="AP93" s="8">
-        <v>6</v>
-      </c>
-      <c r="AQ93" s="9">
-        <v>4</v>
-      </c>
+      <c r="AO93" s="7"/>
+      <c r="AP93" s="8"/>
+      <c r="AQ93" s="9"/>
       <c r="AS93" s="10"/>
-      <c r="AT93" s="11">
-        <v>5</v>
-      </c>
+      <c r="AT93" s="11"/>
       <c r="AU93" s="12"/>
       <c r="AV93" s="13"/>
       <c r="AX93" s="6"/>
@@ -8826,83 +8821,105 @@
       <c r="AZ93" s="8"/>
       <c r="BA93" s="9"/>
       <c r="BC93" s="46">
+        <f t="shared" si="24"/>
+        <v>17</v>
+      </c>
+      <c r="BD93" s="47">
         <f t="shared" si="22"/>
-        <v>86</v>
-      </c>
-      <c r="BD93" s="47">
-        <f t="shared" si="20"/>
-        <v>25.8</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="94" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A94" s="42" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B94" s="43">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C94" s="42" t="s">
         <v>64</v>
       </c>
       <c r="D94" t="s">
-        <v>50</v>
-      </c>
-      <c r="E94" s="10"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="13"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="8">
-        <v>2</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E94" s="10">
+        <v>3</v>
+      </c>
+      <c r="F94" s="11">
+        <v>4</v>
+      </c>
+      <c r="G94" s="12">
+        <v>6</v>
+      </c>
+      <c r="H94" s="13">
+        <v>0</v>
+      </c>
+      <c r="J94" s="6">
+        <v>4</v>
+      </c>
+      <c r="K94" s="7">
+        <v>1</v>
+      </c>
+      <c r="L94" s="8"/>
       <c r="M94" s="9">
         <v>2</v>
       </c>
-      <c r="O94" s="10">
-        <v>2</v>
-      </c>
+      <c r="O94" s="10"/>
       <c r="P94" s="11">
         <v>2</v>
       </c>
-      <c r="Q94" s="12">
-        <v>4</v>
-      </c>
-      <c r="R94" s="13">
-        <v>1</v>
-      </c>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="13"/>
       <c r="T94" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U94" s="7">
-        <v>3</v>
-      </c>
-      <c r="V94" s="8">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="V94" s="8"/>
       <c r="W94" s="9">
         <v>3</v>
       </c>
       <c r="Y94" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z94" s="11"/>
-      <c r="AA94" s="12"/>
+      <c r="AA94" s="12">
+        <v>6</v>
+      </c>
       <c r="AB94" s="13"/>
       <c r="AD94" s="6"/>
       <c r="AE94" s="7"/>
-      <c r="AF94" s="8"/>
-      <c r="AG94" s="9"/>
-      <c r="AI94" s="10"/>
+      <c r="AF94" s="8">
+        <v>6</v>
+      </c>
+      <c r="AG94" s="9">
+        <v>4</v>
+      </c>
+      <c r="AI94" s="10">
+        <v>2</v>
+      </c>
       <c r="AJ94" s="11"/>
-      <c r="AK94" s="12"/>
-      <c r="AL94" s="13"/>
+      <c r="AK94" s="12">
+        <v>2</v>
+      </c>
+      <c r="AL94" s="13">
+        <v>4</v>
+      </c>
       <c r="AN94" s="6"/>
-      <c r="AO94" s="7"/>
-      <c r="AP94" s="8"/>
-      <c r="AQ94" s="9"/>
+      <c r="AO94" s="7">
+        <v>7</v>
+      </c>
+      <c r="AP94" s="8">
+        <v>6</v>
+      </c>
+      <c r="AQ94" s="9">
+        <v>4</v>
+      </c>
       <c r="AS94" s="10"/>
-      <c r="AT94" s="11"/>
+      <c r="AT94" s="11">
+        <v>5</v>
+      </c>
       <c r="AU94" s="12"/>
       <c r="AV94" s="13"/>
       <c r="AX94" s="6"/>
@@ -8910,17 +8927,17 @@
       <c r="AZ94" s="8"/>
       <c r="BA94" s="9"/>
       <c r="BC94" s="46">
+        <f t="shared" si="24"/>
+        <v>86</v>
+      </c>
+      <c r="BD94" s="47">
         <f t="shared" si="22"/>
-        <v>26</v>
-      </c>
-      <c r="BD94" s="47">
-        <f t="shared" si="20"/>
-        <v>7.8</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="95" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A95" s="42" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B95" s="43">
         <v>6</v>
@@ -8937,19 +8954,39 @@
       <c r="H95" s="13"/>
       <c r="J95" s="6"/>
       <c r="K95" s="7"/>
-      <c r="L95" s="8"/>
+      <c r="L95" s="8">
+        <v>2</v>
+      </c>
       <c r="M95" s="9">
-        <v>6</v>
-      </c>
-      <c r="O95" s="10"/>
-      <c r="P95" s="11"/>
-      <c r="Q95" s="12"/>
-      <c r="R95" s="13"/>
-      <c r="T95" s="6"/>
-      <c r="U95" s="7"/>
-      <c r="V95" s="8"/>
-      <c r="W95" s="9"/>
-      <c r="Y95" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="O95" s="10">
+        <v>2</v>
+      </c>
+      <c r="P95" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q95" s="12">
+        <v>4</v>
+      </c>
+      <c r="R95" s="13">
+        <v>1</v>
+      </c>
+      <c r="T95" s="6">
+        <v>2</v>
+      </c>
+      <c r="U95" s="7">
+        <v>3</v>
+      </c>
+      <c r="V95" s="8">
+        <v>3</v>
+      </c>
+      <c r="W95" s="9">
+        <v>3</v>
+      </c>
+      <c r="Y95" s="10">
+        <v>2</v>
+      </c>
       <c r="Z95" s="11"/>
       <c r="AA95" s="12"/>
       <c r="AB95" s="13"/>
@@ -8959,9 +8996,7 @@
       <c r="AG95" s="9"/>
       <c r="AI95" s="10"/>
       <c r="AJ95" s="11"/>
-      <c r="AK95" s="12">
-        <v>4</v>
-      </c>
+      <c r="AK95" s="12"/>
       <c r="AL95" s="13"/>
       <c r="AN95" s="6"/>
       <c r="AO95" s="7"/>
@@ -8974,22 +9009,24 @@
       <c r="AX95" s="6"/>
       <c r="AY95" s="7"/>
       <c r="AZ95" s="8"/>
-      <c r="BA95" s="9"/>
+      <c r="BA95" s="9">
+        <v>3</v>
+      </c>
       <c r="BC95" s="46">
+        <f t="shared" si="24"/>
+        <v>29</v>
+      </c>
+      <c r="BD95" s="47">
         <f t="shared" si="22"/>
-        <v>10</v>
-      </c>
-      <c r="BD95" s="47">
-        <f t="shared" si="20"/>
-        <v>3</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="96" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A96" s="42" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B96" s="43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C96" s="42" t="s">
         <v>64</v>
@@ -8997,72 +9034,42 @@
       <c r="D96" t="s">
         <v>50</v>
       </c>
-      <c r="E96" s="10">
-        <v>0</v>
-      </c>
-      <c r="F96" s="11">
-        <v>0</v>
-      </c>
-      <c r="G96" s="12">
+      <c r="E96" s="10"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="13"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="9">
         <v>6</v>
       </c>
-      <c r="H96" s="13">
-        <v>5</v>
-      </c>
-      <c r="J96" s="6">
-        <v>5</v>
-      </c>
-      <c r="K96" s="7">
-        <v>0</v>
-      </c>
-      <c r="L96" s="8"/>
-      <c r="M96" s="9"/>
       <c r="O96" s="10"/>
       <c r="P96" s="11"/>
-      <c r="Q96" s="12">
-        <v>5</v>
-      </c>
+      <c r="Q96" s="12"/>
       <c r="R96" s="13"/>
       <c r="T96" s="6"/>
       <c r="U96" s="7"/>
-      <c r="V96" s="8">
-        <v>2</v>
-      </c>
-      <c r="W96" s="9">
-        <v>1</v>
-      </c>
+      <c r="V96" s="8"/>
+      <c r="W96" s="9"/>
       <c r="Y96" s="10"/>
-      <c r="Z96" s="11">
-        <v>4</v>
-      </c>
-      <c r="AA96" s="12">
-        <v>3</v>
-      </c>
+      <c r="Z96" s="11"/>
+      <c r="AA96" s="12"/>
       <c r="AB96" s="13"/>
       <c r="AD96" s="6"/>
       <c r="AE96" s="7"/>
-      <c r="AF96" s="8">
-        <v>3</v>
-      </c>
+      <c r="AF96" s="8"/>
       <c r="AG96" s="9"/>
-      <c r="AI96" s="10">
-        <v>1</v>
-      </c>
-      <c r="AJ96" s="11">
-        <v>3</v>
-      </c>
-      <c r="AK96" s="12"/>
-      <c r="AL96" s="13">
-        <v>5</v>
-      </c>
+      <c r="AI96" s="10"/>
+      <c r="AJ96" s="11"/>
+      <c r="AK96" s="12">
+        <v>4</v>
+      </c>
+      <c r="AL96" s="13"/>
       <c r="AN96" s="6"/>
       <c r="AO96" s="7"/>
-      <c r="AP96" s="8">
-        <v>1</v>
-      </c>
-      <c r="AQ96" s="9">
-        <v>2</v>
-      </c>
+      <c r="AP96" s="8"/>
+      <c r="AQ96" s="9"/>
       <c r="AS96" s="10"/>
       <c r="AT96" s="11"/>
       <c r="AU96" s="12"/>
@@ -9072,17 +9079,17 @@
       <c r="AZ96" s="8"/>
       <c r="BA96" s="9"/>
       <c r="BC96" s="46">
-        <f t="shared" ref="BC96:BC98" si="25">SUM(E96:BA96)</f>
-        <v>46</v>
+        <f t="shared" si="24"/>
+        <v>10</v>
       </c>
       <c r="BD96" s="47">
-        <f t="shared" ref="BD96:BD98" si="26">(SUM(E96:BB96)*$D$2)</f>
-        <v>13.799999999999999</v>
+        <f t="shared" si="22"/>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A97" s="42" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B97" s="43">
         <v>7</v>
@@ -9099,9 +9106,15 @@
       <c r="F97" s="11">
         <v>0</v>
       </c>
-      <c r="G97" s="12"/>
-      <c r="H97" s="13"/>
-      <c r="J97" s="6"/>
+      <c r="G97" s="12">
+        <v>6</v>
+      </c>
+      <c r="H97" s="13">
+        <v>5</v>
+      </c>
+      <c r="J97" s="6">
+        <v>5</v>
+      </c>
       <c r="K97" s="7">
         <v>0</v>
       </c>
@@ -9109,70 +9122,70 @@
       <c r="M97" s="9"/>
       <c r="O97" s="10"/>
       <c r="P97" s="11"/>
-      <c r="Q97" s="12"/>
-      <c r="R97" s="13">
-        <v>4</v>
-      </c>
+      <c r="Q97" s="12">
+        <v>5</v>
+      </c>
+      <c r="R97" s="13"/>
       <c r="T97" s="6"/>
       <c r="U97" s="7"/>
       <c r="V97" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W97" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y97" s="10"/>
-      <c r="Z97" s="11"/>
-      <c r="AA97" s="12"/>
+      <c r="Z97" s="11">
+        <v>4</v>
+      </c>
+      <c r="AA97" s="12">
+        <v>3</v>
+      </c>
       <c r="AB97" s="13"/>
       <c r="AD97" s="6"/>
       <c r="AE97" s="7"/>
       <c r="AF97" s="8">
+        <v>3</v>
+      </c>
+      <c r="AG97" s="9"/>
+      <c r="AI97" s="10">
+        <v>1</v>
+      </c>
+      <c r="AJ97" s="11">
+        <v>3</v>
+      </c>
+      <c r="AK97" s="12"/>
+      <c r="AL97" s="13">
         <v>5</v>
-      </c>
-      <c r="AG97" s="9">
-        <v>3</v>
-      </c>
-      <c r="AI97" s="10"/>
-      <c r="AJ97" s="11"/>
-      <c r="AK97" s="12">
-        <v>4</v>
-      </c>
-      <c r="AL97" s="13">
-        <v>2</v>
       </c>
       <c r="AN97" s="6"/>
       <c r="AO97" s="7"/>
       <c r="AP97" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AQ97" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS97" s="10"/>
-      <c r="AT97" s="11">
-        <v>6</v>
-      </c>
+      <c r="AT97" s="11"/>
       <c r="AU97" s="12"/>
       <c r="AV97" s="13"/>
-      <c r="AX97" s="6">
-        <v>5</v>
-      </c>
+      <c r="AX97" s="6"/>
       <c r="AY97" s="7"/>
       <c r="AZ97" s="8"/>
       <c r="BA97" s="9"/>
       <c r="BC97" s="46">
-        <f t="shared" si="25"/>
-        <v>41</v>
+        <f t="shared" ref="BC97:BC99" si="27">SUM(E97:BA97)</f>
+        <v>46</v>
       </c>
       <c r="BD97" s="47">
-        <f t="shared" si="26"/>
-        <v>12.299999999999999</v>
+        <f t="shared" ref="BD97:BD99" si="28">(SUM(E97:BB97)*$D$2)</f>
+        <v>13.799999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A98" s="42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B98" s="43">
         <v>7</v>
@@ -9192,55 +9205,79 @@
       <c r="G98" s="12"/>
       <c r="H98" s="13"/>
       <c r="J98" s="6"/>
-      <c r="K98" s="7"/>
+      <c r="K98" s="7">
+        <v>0</v>
+      </c>
       <c r="L98" s="8"/>
       <c r="M98" s="9"/>
       <c r="O98" s="10"/>
       <c r="P98" s="11"/>
       <c r="Q98" s="12"/>
-      <c r="R98" s="13"/>
+      <c r="R98" s="13">
+        <v>4</v>
+      </c>
       <c r="T98" s="6"/>
       <c r="U98" s="7"/>
-      <c r="V98" s="8"/>
-      <c r="W98" s="9"/>
+      <c r="V98" s="8">
+        <v>3</v>
+      </c>
+      <c r="W98" s="9">
+        <v>3</v>
+      </c>
       <c r="Y98" s="10"/>
       <c r="Z98" s="11"/>
-      <c r="AA98" s="12">
-        <v>1</v>
-      </c>
+      <c r="AA98" s="12"/>
       <c r="AB98" s="13"/>
       <c r="AD98" s="6"/>
       <c r="AE98" s="7"/>
-      <c r="AF98" s="8"/>
-      <c r="AG98" s="9"/>
+      <c r="AF98" s="8">
+        <v>5</v>
+      </c>
+      <c r="AG98" s="9">
+        <v>3</v>
+      </c>
       <c r="AI98" s="10"/>
       <c r="AJ98" s="11"/>
-      <c r="AK98" s="12"/>
-      <c r="AL98" s="13"/>
+      <c r="AK98" s="12">
+        <v>4</v>
+      </c>
+      <c r="AL98" s="13">
+        <v>2</v>
+      </c>
       <c r="AN98" s="6"/>
       <c r="AO98" s="7"/>
-      <c r="AP98" s="8"/>
-      <c r="AQ98" s="9"/>
+      <c r="AP98" s="8">
+        <v>5</v>
+      </c>
+      <c r="AQ98" s="9">
+        <v>1</v>
+      </c>
       <c r="AS98" s="10"/>
-      <c r="AT98" s="11"/>
+      <c r="AT98" s="11">
+        <v>6</v>
+      </c>
       <c r="AU98" s="12"/>
       <c r="AV98" s="13"/>
-      <c r="AX98" s="6"/>
+      <c r="AX98" s="6">
+        <v>5</v>
+      </c>
       <c r="AY98" s="7"/>
-      <c r="AZ98" s="8"/>
+      <c r="AZ98" s="8">
+        <v>6</v>
+      </c>
       <c r="BA98" s="9"/>
       <c r="BC98" s="46">
-        <f t="shared" si="25"/>
-        <v>1</v>
+        <f t="shared" si="27"/>
+        <v>47</v>
       </c>
       <c r="BD98" s="47">
-        <f t="shared" si="26"/>
-        <v>0.3</v>
+        <f t="shared" si="28"/>
+        <v>14.1</v>
       </c>
     </row>
     <row r="99" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A99" s="42" t="s">
-        <v>332</v>
+        <v>189</v>
       </c>
       <c r="B99" s="43">
         <v>7</v>
@@ -9273,7 +9310,9 @@
       <c r="W99" s="9"/>
       <c r="Y99" s="10"/>
       <c r="Z99" s="11"/>
-      <c r="AA99" s="12"/>
+      <c r="AA99" s="12">
+        <v>1</v>
+      </c>
       <c r="AB99" s="13"/>
       <c r="AD99" s="6"/>
       <c r="AE99" s="7"/>
@@ -9284,68 +9323,58 @@
       <c r="AK99" s="12"/>
       <c r="AL99" s="13"/>
       <c r="AN99" s="6"/>
-      <c r="AO99" s="7">
-        <v>1</v>
-      </c>
+      <c r="AO99" s="7"/>
       <c r="AP99" s="8"/>
       <c r="AQ99" s="9"/>
       <c r="AS99" s="10"/>
       <c r="AT99" s="11"/>
       <c r="AU99" s="12"/>
       <c r="AV99" s="13"/>
-      <c r="AX99" s="6">
-        <v>2</v>
-      </c>
+      <c r="AX99" s="6"/>
       <c r="AY99" s="7"/>
       <c r="AZ99" s="8"/>
       <c r="BA99" s="9"/>
       <c r="BC99" s="46">
-        <f t="shared" si="22"/>
-        <v>3</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="BD99" s="47">
-        <f t="shared" si="20"/>
-        <v>0.89999999999999991</v>
+        <f t="shared" si="28"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="100" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A100" s="42" t="s">
-        <v>188</v>
+        <v>332</v>
       </c>
       <c r="B100" s="43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C100" s="42" t="s">
         <v>64</v>
       </c>
       <c r="D100" t="s">
-        <v>51</v>
-      </c>
-      <c r="E100" s="10"/>
-      <c r="F100" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="E100" s="10">
+        <v>0</v>
+      </c>
+      <c r="F100" s="11">
+        <v>0</v>
+      </c>
       <c r="G100" s="12"/>
       <c r="H100" s="13"/>
       <c r="J100" s="6"/>
       <c r="K100" s="7"/>
-      <c r="L100" s="8">
-        <v>2</v>
-      </c>
+      <c r="L100" s="8"/>
       <c r="M100" s="9"/>
       <c r="O100" s="10"/>
       <c r="P100" s="11"/>
-      <c r="Q100" s="12">
-        <v>4</v>
-      </c>
-      <c r="R100" s="13">
-        <v>4</v>
-      </c>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="13"/>
       <c r="T100" s="6"/>
-      <c r="U100" s="7">
-        <v>3</v>
-      </c>
-      <c r="V100" s="8">
-        <v>1</v>
-      </c>
+      <c r="U100" s="7"/>
+      <c r="V100" s="8"/>
       <c r="W100" s="9"/>
       <c r="Y100" s="10"/>
       <c r="Z100" s="11"/>
@@ -9360,29 +9389,35 @@
       <c r="AK100" s="12"/>
       <c r="AL100" s="13"/>
       <c r="AN100" s="6"/>
-      <c r="AO100" s="7"/>
+      <c r="AO100" s="7">
+        <v>1</v>
+      </c>
       <c r="AP100" s="8"/>
       <c r="AQ100" s="9"/>
       <c r="AS100" s="10"/>
       <c r="AT100" s="11"/>
       <c r="AU100" s="12"/>
       <c r="AV100" s="13"/>
-      <c r="AX100" s="6"/>
+      <c r="AX100" s="6">
+        <v>2</v>
+      </c>
       <c r="AY100" s="7"/>
-      <c r="AZ100" s="8"/>
+      <c r="AZ100" s="8">
+        <v>3</v>
+      </c>
       <c r="BA100" s="9"/>
       <c r="BC100" s="46">
-        <f t="shared" ref="BC100:BC101" si="27">SUM(E100:BA100)</f>
-        <v>14</v>
+        <f t="shared" si="24"/>
+        <v>6</v>
       </c>
       <c r="BD100" s="47">
-        <f t="shared" ref="BD100:BD101" si="28">(SUM(E100:BB100)*$D$2)</f>
-        <v>4.2</v>
+        <f t="shared" si="22"/>
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="101" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A101" s="42" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="B101" s="43">
         <v>6</v>
@@ -9399,15 +9434,25 @@
       <c r="H101" s="13"/>
       <c r="J101" s="6"/>
       <c r="K101" s="7"/>
-      <c r="L101" s="8"/>
+      <c r="L101" s="8">
+        <v>2</v>
+      </c>
       <c r="M101" s="9"/>
       <c r="O101" s="10"/>
       <c r="P101" s="11"/>
-      <c r="Q101" s="12"/>
-      <c r="R101" s="13"/>
+      <c r="Q101" s="12">
+        <v>4</v>
+      </c>
+      <c r="R101" s="13">
+        <v>4</v>
+      </c>
       <c r="T101" s="6"/>
-      <c r="U101" s="7"/>
-      <c r="V101" s="8"/>
+      <c r="U101" s="7">
+        <v>3</v>
+      </c>
+      <c r="V101" s="8">
+        <v>1</v>
+      </c>
       <c r="W101" s="9"/>
       <c r="Y101" s="10"/>
       <c r="Z101" s="11"/>
@@ -9419,9 +9464,7 @@
       <c r="AG101" s="9"/>
       <c r="AI101" s="10"/>
       <c r="AJ101" s="11"/>
-      <c r="AK101" s="12">
-        <v>3</v>
-      </c>
+      <c r="AK101" s="12"/>
       <c r="AL101" s="13"/>
       <c r="AN101" s="6"/>
       <c r="AO101" s="7"/>
@@ -9434,19 +9477,21 @@
       <c r="AX101" s="6"/>
       <c r="AY101" s="7"/>
       <c r="AZ101" s="8"/>
-      <c r="BA101" s="9"/>
+      <c r="BA101" s="9">
+        <v>2</v>
+      </c>
       <c r="BC101" s="46">
-        <f t="shared" si="27"/>
-        <v>3</v>
+        <f t="shared" ref="BC101:BC102" si="29">SUM(E101:BA101)</f>
+        <v>16</v>
       </c>
       <c r="BD101" s="47">
-        <f t="shared" si="28"/>
-        <v>0.89999999999999991</v>
+        <f t="shared" ref="BD101:BD102" si="30">(SUM(E101:BB101)*$D$2)</f>
+        <v>4.8</v>
       </c>
     </row>
     <row r="102" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A102" s="42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B102" s="43">
         <v>6</v>
@@ -9484,17 +9529,13 @@
       <c r="AI102" s="10"/>
       <c r="AJ102" s="11"/>
       <c r="AK102" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL102" s="13"/>
       <c r="AN102" s="6"/>
-      <c r="AO102" s="7">
-        <v>1</v>
-      </c>
+      <c r="AO102" s="7"/>
       <c r="AP102" s="8"/>
-      <c r="AQ102" s="9">
-        <v>1</v>
-      </c>
+      <c r="AQ102" s="9"/>
       <c r="AS102" s="10"/>
       <c r="AT102" s="11"/>
       <c r="AU102" s="12"/>
@@ -9504,17 +9545,17 @@
       <c r="AZ102" s="8"/>
       <c r="BA102" s="9"/>
       <c r="BC102" s="46">
-        <f t="shared" si="22"/>
-        <v>4</v>
+        <f t="shared" si="29"/>
+        <v>3</v>
       </c>
       <c r="BD102" s="47">
-        <f t="shared" si="20"/>
-        <v>1.2</v>
+        <f t="shared" si="30"/>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="103" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A103" s="42" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="B103" s="43">
         <v>6</v>
@@ -9531,27 +9572,15 @@
       <c r="H103" s="13"/>
       <c r="J103" s="6"/>
       <c r="K103" s="7"/>
-      <c r="L103" s="8">
-        <v>2</v>
-      </c>
+      <c r="L103" s="8"/>
       <c r="M103" s="9"/>
-      <c r="O103" s="10">
-        <v>2</v>
-      </c>
-      <c r="P103" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q103" s="12">
-        <v>4</v>
-      </c>
+      <c r="O103" s="10"/>
+      <c r="P103" s="11"/>
+      <c r="Q103" s="12"/>
       <c r="R103" s="13"/>
-      <c r="T103" s="6">
-        <v>2</v>
-      </c>
+      <c r="T103" s="6"/>
       <c r="U103" s="7"/>
-      <c r="V103" s="8">
-        <v>3</v>
-      </c>
+      <c r="V103" s="8"/>
       <c r="W103" s="9"/>
       <c r="Y103" s="10"/>
       <c r="Z103" s="11"/>
@@ -9563,12 +9592,18 @@
       <c r="AG103" s="9"/>
       <c r="AI103" s="10"/>
       <c r="AJ103" s="11"/>
-      <c r="AK103" s="12"/>
+      <c r="AK103" s="12">
+        <v>2</v>
+      </c>
       <c r="AL103" s="13"/>
       <c r="AN103" s="6"/>
-      <c r="AO103" s="7"/>
+      <c r="AO103" s="7">
+        <v>1</v>
+      </c>
       <c r="AP103" s="8"/>
-      <c r="AQ103" s="9"/>
+      <c r="AQ103" s="9">
+        <v>1</v>
+      </c>
       <c r="AS103" s="10"/>
       <c r="AT103" s="11"/>
       <c r="AU103" s="12"/>
@@ -9578,17 +9613,17 @@
       <c r="AZ103" s="8"/>
       <c r="BA103" s="9"/>
       <c r="BC103" s="46">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="BD103" s="47">
         <f t="shared" si="22"/>
-        <v>15</v>
-      </c>
-      <c r="BD103" s="47">
-        <f t="shared" si="20"/>
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="104" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A104" s="42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B104" s="43">
         <v>6</v>
@@ -9603,13 +9638,11 @@
       <c r="F104" s="11"/>
       <c r="G104" s="12"/>
       <c r="H104" s="13"/>
-      <c r="J104" s="6">
-        <v>1</v>
-      </c>
-      <c r="K104" s="7">
-        <v>3</v>
-      </c>
-      <c r="L104" s="8"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="8">
+        <v>2</v>
+      </c>
       <c r="M104" s="9"/>
       <c r="O104" s="10">
         <v>2</v>
@@ -9618,20 +9651,20 @@
         <v>2</v>
       </c>
       <c r="Q104" s="12">
-        <v>6</v>
-      </c>
-      <c r="R104" s="13">
-        <v>3</v>
-      </c>
-      <c r="T104" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="R104" s="13"/>
+      <c r="T104" s="6">
+        <v>2</v>
+      </c>
       <c r="U104" s="7"/>
-      <c r="V104" s="8"/>
+      <c r="V104" s="8">
+        <v>3</v>
+      </c>
       <c r="W104" s="9"/>
       <c r="Y104" s="10"/>
       <c r="Z104" s="11"/>
-      <c r="AA104" s="12">
-        <v>3</v>
-      </c>
+      <c r="AA104" s="12"/>
       <c r="AB104" s="13"/>
       <c r="AD104" s="6"/>
       <c r="AE104" s="7"/>
@@ -9652,50 +9685,64 @@
       <c r="AX104" s="6"/>
       <c r="AY104" s="7"/>
       <c r="AZ104" s="8"/>
-      <c r="BA104" s="9"/>
+      <c r="BA104" s="9">
+        <v>2</v>
+      </c>
       <c r="BC104" s="46">
+        <f t="shared" si="24"/>
+        <v>17</v>
+      </c>
+      <c r="BD104" s="47">
         <f t="shared" si="22"/>
-        <v>20</v>
-      </c>
-      <c r="BD104" s="47">
-        <f t="shared" si="20"/>
-        <v>6</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="105" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A105" s="42" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B105" s="43">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C105" s="42" t="s">
         <v>64</v>
       </c>
       <c r="D105" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E105" s="10"/>
       <c r="F105" s="11"/>
       <c r="G105" s="12"/>
       <c r="H105" s="13"/>
-      <c r="J105" s="6"/>
-      <c r="K105" s="7"/>
+      <c r="J105" s="6">
+        <v>1</v>
+      </c>
+      <c r="K105" s="7">
+        <v>3</v>
+      </c>
       <c r="L105" s="8"/>
-      <c r="M105" s="9">
-        <v>1</v>
-      </c>
-      <c r="O105" s="10"/>
-      <c r="P105" s="11"/>
-      <c r="Q105" s="12"/>
-      <c r="R105" s="13"/>
+      <c r="M105" s="9"/>
+      <c r="O105" s="10">
+        <v>2</v>
+      </c>
+      <c r="P105" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q105" s="12">
+        <v>6</v>
+      </c>
+      <c r="R105" s="13">
+        <v>3</v>
+      </c>
       <c r="T105" s="6"/>
       <c r="U105" s="7"/>
       <c r="V105" s="8"/>
       <c r="W105" s="9"/>
       <c r="Y105" s="10"/>
       <c r="Z105" s="11"/>
-      <c r="AA105" s="12"/>
+      <c r="AA105" s="12">
+        <v>3</v>
+      </c>
       <c r="AB105" s="13"/>
       <c r="AD105" s="6"/>
       <c r="AE105" s="7"/>
@@ -9718,17 +9765,17 @@
       <c r="AZ105" s="8"/>
       <c r="BA105" s="9"/>
       <c r="BC105" s="46">
-        <f t="shared" ref="BC105:BC107" si="29">SUM(E105:BA105)</f>
-        <v>1</v>
+        <f t="shared" si="24"/>
+        <v>20</v>
       </c>
       <c r="BD105" s="47">
-        <f t="shared" ref="BD105:BD107" si="30">(SUM(E105:BB105)*$D$2)</f>
-        <v>0.3</v>
+        <f t="shared" si="22"/>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A106" s="42" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B106" s="43">
         <v>8</v>
@@ -9746,7 +9793,9 @@
       <c r="J106" s="6"/>
       <c r="K106" s="7"/>
       <c r="L106" s="8"/>
-      <c r="M106" s="9"/>
+      <c r="M106" s="9">
+        <v>1</v>
+      </c>
       <c r="O106" s="10"/>
       <c r="P106" s="11"/>
       <c r="Q106" s="12"/>
@@ -9762,9 +9811,7 @@
       <c r="AD106" s="6"/>
       <c r="AE106" s="7"/>
       <c r="AF106" s="8"/>
-      <c r="AG106" s="9">
-        <v>3</v>
-      </c>
+      <c r="AG106" s="9"/>
       <c r="AI106" s="10"/>
       <c r="AJ106" s="11"/>
       <c r="AK106" s="12"/>
@@ -9782,17 +9829,17 @@
       <c r="AZ106" s="8"/>
       <c r="BA106" s="9"/>
       <c r="BC106" s="46">
-        <f t="shared" si="29"/>
-        <v>3</v>
+        <f t="shared" ref="BC106:BC108" si="31">SUM(E106:BA106)</f>
+        <v>1</v>
       </c>
       <c r="BD106" s="47">
-        <f t="shared" si="30"/>
-        <v>0.89999999999999991</v>
+        <f t="shared" ref="BD106:BD108" si="32">(SUM(E106:BB106)*$D$2)</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="107" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A107" s="42" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B107" s="43">
         <v>8</v>
@@ -9826,19 +9873,17 @@
       <c r="AD107" s="6"/>
       <c r="AE107" s="7"/>
       <c r="AF107" s="8"/>
-      <c r="AG107" s="9"/>
+      <c r="AG107" s="9">
+        <v>3</v>
+      </c>
       <c r="AI107" s="10"/>
       <c r="AJ107" s="11"/>
-      <c r="AK107" s="12">
-        <v>3</v>
-      </c>
+      <c r="AK107" s="12"/>
       <c r="AL107" s="13"/>
       <c r="AN107" s="6"/>
       <c r="AO107" s="7"/>
       <c r="AP107" s="8"/>
-      <c r="AQ107" s="9">
-        <v>2</v>
-      </c>
+      <c r="AQ107" s="9"/>
       <c r="AS107" s="10"/>
       <c r="AT107" s="11"/>
       <c r="AU107" s="12"/>
@@ -9848,17 +9893,17 @@
       <c r="AZ107" s="8"/>
       <c r="BA107" s="9"/>
       <c r="BC107" s="46">
-        <f t="shared" si="29"/>
-        <v>5</v>
+        <f t="shared" si="31"/>
+        <v>3</v>
       </c>
       <c r="BD107" s="47">
-        <f t="shared" si="30"/>
-        <v>1.5</v>
+        <f t="shared" si="32"/>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="108" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A108" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="B108" s="43">
         <v>8</v>
@@ -9914,17 +9959,17 @@
       <c r="AZ108" s="8"/>
       <c r="BA108" s="9"/>
       <c r="BC108" s="46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="BD108" s="47">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="109" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A109" s="42" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B109" s="43">
         <v>8</v>
@@ -9935,81 +9980,39 @@
       <c r="D109" t="s">
         <v>61</v>
       </c>
-      <c r="E109" s="10">
-        <v>0</v>
-      </c>
-      <c r="F109" s="11">
-        <v>0</v>
-      </c>
-      <c r="G109" s="12">
-        <v>0</v>
-      </c>
-      <c r="H109" s="13">
-        <v>5</v>
-      </c>
-      <c r="J109" s="6">
-        <v>5</v>
-      </c>
-      <c r="K109" s="7">
-        <v>5</v>
-      </c>
-      <c r="L109" s="8">
-        <v>0</v>
-      </c>
-      <c r="M109" s="9">
-        <v>3</v>
-      </c>
-      <c r="O109" s="10">
-        <v>5</v>
-      </c>
+      <c r="E109" s="10"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="13"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="9"/>
+      <c r="O109" s="10"/>
       <c r="P109" s="11"/>
-      <c r="Q109" s="12">
-        <v>5</v>
-      </c>
+      <c r="Q109" s="12"/>
       <c r="R109" s="13"/>
-      <c r="T109" s="6">
-        <v>6</v>
-      </c>
-      <c r="U109" s="7">
-        <v>6</v>
-      </c>
-      <c r="V109" s="8">
-        <v>6</v>
-      </c>
-      <c r="W109" s="9">
-        <v>4</v>
-      </c>
+      <c r="T109" s="6"/>
+      <c r="U109" s="7"/>
+      <c r="V109" s="8"/>
+      <c r="W109" s="9"/>
       <c r="Y109" s="10"/>
-      <c r="Z109" s="11">
-        <v>3</v>
-      </c>
-      <c r="AA109" s="12">
-        <v>3</v>
-      </c>
+      <c r="Z109" s="11"/>
+      <c r="AA109" s="12"/>
       <c r="AB109" s="13"/>
       <c r="AD109" s="6"/>
-      <c r="AE109" s="7">
-        <v>1</v>
-      </c>
-      <c r="AF109" s="8">
-        <v>3</v>
-      </c>
+      <c r="AE109" s="7"/>
+      <c r="AF109" s="8"/>
       <c r="AG109" s="9"/>
-      <c r="AI109" s="10">
-        <v>1</v>
-      </c>
-      <c r="AJ109" s="11">
-        <v>1</v>
-      </c>
-      <c r="AK109" s="12"/>
-      <c r="AL109" s="13">
-        <v>1</v>
-      </c>
+      <c r="AI109" s="10"/>
+      <c r="AJ109" s="11"/>
+      <c r="AK109" s="12">
+        <v>3</v>
+      </c>
+      <c r="AL109" s="13"/>
       <c r="AN109" s="6"/>
       <c r="AO109" s="7"/>
-      <c r="AP109" s="8">
-        <v>1</v>
-      </c>
+      <c r="AP109" s="8"/>
       <c r="AQ109" s="9">
         <v>2</v>
       </c>
@@ -10022,20 +10025,20 @@
       <c r="AZ109" s="8"/>
       <c r="BA109" s="9"/>
       <c r="BC109" s="46">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="BD109" s="47">
         <f t="shared" si="22"/>
-        <v>66</v>
-      </c>
-      <c r="BD109" s="47">
-        <f t="shared" si="20"/>
-        <v>19.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="110" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A110" s="42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B110" s="43">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C110" s="42" t="s">
         <v>64</v>
@@ -10043,10 +10046,18 @@
       <c r="D110" t="s">
         <v>61</v>
       </c>
-      <c r="E110" s="10"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="12"/>
-      <c r="H110" s="13"/>
+      <c r="E110" s="10">
+        <v>0</v>
+      </c>
+      <c r="F110" s="11">
+        <v>0</v>
+      </c>
+      <c r="G110" s="12">
+        <v>0</v>
+      </c>
+      <c r="H110" s="13">
+        <v>5</v>
+      </c>
       <c r="J110" s="6">
         <v>5</v>
       </c>
@@ -10054,23 +10065,19 @@
         <v>5</v>
       </c>
       <c r="L110" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M110" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O110" s="10">
-        <v>4</v>
-      </c>
-      <c r="P110" s="11">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="P110" s="11"/>
       <c r="Q110" s="12">
-        <v>6</v>
-      </c>
-      <c r="R110" s="13">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R110" s="13"/>
       <c r="T110" s="6">
         <v>6</v>
       </c>
@@ -10078,29 +10085,29 @@
         <v>6</v>
       </c>
       <c r="V110" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W110" s="9">
         <v>4</v>
       </c>
       <c r="Y110" s="10"/>
       <c r="Z110" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA110" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB110" s="13"/>
       <c r="AD110" s="6"/>
       <c r="AE110" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF110" s="8">
         <v>3</v>
       </c>
       <c r="AG110" s="9"/>
       <c r="AI110" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ110" s="11">
         <v>1</v>
@@ -10111,8 +10118,12 @@
       </c>
       <c r="AN110" s="6"/>
       <c r="AO110" s="7"/>
-      <c r="AP110" s="8"/>
-      <c r="AQ110" s="9"/>
+      <c r="AP110" s="8">
+        <v>1</v>
+      </c>
+      <c r="AQ110" s="9">
+        <v>2</v>
+      </c>
       <c r="AS110" s="10"/>
       <c r="AT110" s="11"/>
       <c r="AU110" s="12"/>
@@ -10122,17 +10133,17 @@
       <c r="AZ110" s="8"/>
       <c r="BA110" s="9"/>
       <c r="BC110" s="46">
+        <f t="shared" si="24"/>
+        <v>66</v>
+      </c>
+      <c r="BD110" s="47">
         <f t="shared" si="22"/>
-        <v>70</v>
-      </c>
-      <c r="BD110" s="47">
-        <f t="shared" si="20"/>
-        <v>21</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="111" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A111" s="42" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B111" s="43">
         <v>9</v>
@@ -10148,39 +10159,67 @@
       <c r="G111" s="12"/>
       <c r="H111" s="13"/>
       <c r="J111" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K111" s="7">
-        <v>1</v>
-      </c>
-      <c r="L111" s="8"/>
-      <c r="M111" s="9"/>
-      <c r="O111" s="10"/>
-      <c r="P111" s="11"/>
-      <c r="Q111" s="12"/>
-      <c r="R111" s="13"/>
-      <c r="T111" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="L111" s="8">
+        <v>3</v>
+      </c>
+      <c r="M111" s="9">
+        <v>2</v>
+      </c>
+      <c r="O111" s="10">
+        <v>4</v>
+      </c>
+      <c r="P111" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q111" s="12">
+        <v>6</v>
+      </c>
+      <c r="R111" s="13">
+        <v>3</v>
+      </c>
+      <c r="T111" s="6">
+        <v>6</v>
+      </c>
       <c r="U111" s="7">
-        <v>2</v>
-      </c>
-      <c r="V111" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="V111" s="8">
+        <v>3</v>
+      </c>
       <c r="W111" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y111" s="10"/>
-      <c r="Z111" s="11"/>
+      <c r="Z111" s="11">
+        <v>4</v>
+      </c>
       <c r="AA111" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB111" s="13"/>
       <c r="AD111" s="6"/>
-      <c r="AE111" s="7"/>
-      <c r="AF111" s="8"/>
+      <c r="AE111" s="7">
+        <v>3</v>
+      </c>
+      <c r="AF111" s="8">
+        <v>3</v>
+      </c>
       <c r="AG111" s="9"/>
-      <c r="AI111" s="10"/>
-      <c r="AJ111" s="11"/>
+      <c r="AI111" s="10">
+        <v>3</v>
+      </c>
+      <c r="AJ111" s="11">
+        <v>1</v>
+      </c>
       <c r="AK111" s="12"/>
-      <c r="AL111" s="13"/>
+      <c r="AL111" s="13">
+        <v>1</v>
+      </c>
       <c r="AN111" s="6"/>
       <c r="AO111" s="7"/>
       <c r="AP111" s="8"/>
@@ -10194,17 +10233,17 @@
       <c r="AZ111" s="8"/>
       <c r="BA111" s="9"/>
       <c r="BC111" s="46">
-        <f t="shared" ref="BC111" si="31">SUM(E111:BA111)</f>
-        <v>6</v>
+        <f t="shared" si="24"/>
+        <v>70</v>
       </c>
       <c r="BD111" s="47">
-        <f t="shared" ref="BD111" si="32">(SUM(E111:BB111)*$D$2)</f>
-        <v>1.7999999999999998</v>
+        <f t="shared" si="22"/>
+        <v>21</v>
       </c>
     </row>
     <row r="112" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A112" s="42" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B112" s="43">
         <v>9</v>
@@ -10222,7 +10261,9 @@
       <c r="J112" s="6">
         <v>0</v>
       </c>
-      <c r="K112" s="7"/>
+      <c r="K112" s="7">
+        <v>1</v>
+      </c>
       <c r="L112" s="8"/>
       <c r="M112" s="9"/>
       <c r="O112" s="10"/>
@@ -10230,43 +10271,31 @@
       <c r="Q112" s="12"/>
       <c r="R112" s="13"/>
       <c r="T112" s="6"/>
-      <c r="U112" s="7"/>
+      <c r="U112" s="7">
+        <v>2</v>
+      </c>
       <c r="V112" s="8"/>
-      <c r="W112" s="9"/>
+      <c r="W112" s="9">
+        <v>1</v>
+      </c>
       <c r="Y112" s="10"/>
-      <c r="Z112" s="11">
-        <v>3</v>
-      </c>
+      <c r="Z112" s="11"/>
       <c r="AA112" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB112" s="13"/>
       <c r="AD112" s="6"/>
-      <c r="AE112" s="7">
-        <v>2</v>
-      </c>
-      <c r="AF112" s="8">
-        <v>2</v>
-      </c>
-      <c r="AG112" s="9">
-        <v>2</v>
-      </c>
-      <c r="AI112" s="10">
-        <v>3</v>
-      </c>
+      <c r="AE112" s="7"/>
+      <c r="AF112" s="8"/>
+      <c r="AG112" s="9"/>
+      <c r="AI112" s="10"/>
       <c r="AJ112" s="11"/>
       <c r="AK112" s="12"/>
       <c r="AL112" s="13"/>
       <c r="AN112" s="6"/>
-      <c r="AO112" s="7">
-        <v>4</v>
-      </c>
-      <c r="AP112" s="8">
-        <v>2</v>
-      </c>
-      <c r="AQ112" s="9">
-        <v>3</v>
-      </c>
+      <c r="AO112" s="7"/>
+      <c r="AP112" s="8"/>
+      <c r="AQ112" s="9"/>
       <c r="AS112" s="10"/>
       <c r="AT112" s="11"/>
       <c r="AU112" s="12"/>
@@ -10276,73 +10305,79 @@
       <c r="AZ112" s="8"/>
       <c r="BA112" s="9"/>
       <c r="BC112" s="46">
-        <f t="shared" si="22"/>
-        <v>24</v>
+        <f t="shared" ref="BC112" si="33">SUM(E112:BA112)</f>
+        <v>6</v>
       </c>
       <c r="BD112" s="47">
-        <f t="shared" si="20"/>
-        <v>7.1999999999999993</v>
+        <f t="shared" ref="BD112" si="34">(SUM(E112:BB112)*$D$2)</f>
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="113" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A113" s="42" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B113" s="43">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" s="42" t="s">
         <v>64</v>
       </c>
       <c r="D113" t="s">
-        <v>57</v>
-      </c>
-      <c r="E113" s="10">
-        <v>0</v>
-      </c>
-      <c r="F113" s="11">
-        <v>0</v>
-      </c>
-      <c r="G113" s="12">
-        <v>0</v>
-      </c>
-      <c r="H113" s="13">
-        <v>6</v>
-      </c>
-      <c r="J113" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="E113" s="10"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="13"/>
+      <c r="J113" s="6">
+        <v>0</v>
+      </c>
       <c r="K113" s="7"/>
       <c r="L113" s="8"/>
       <c r="M113" s="9"/>
-      <c r="O113" s="10">
-        <v>2</v>
-      </c>
+      <c r="O113" s="10"/>
       <c r="P113" s="11"/>
       <c r="Q113" s="12"/>
       <c r="R113" s="13"/>
       <c r="T113" s="6"/>
       <c r="U113" s="7"/>
       <c r="V113" s="8"/>
-      <c r="W113" s="9">
-        <v>5</v>
-      </c>
+      <c r="W113" s="9"/>
       <c r="Y113" s="10"/>
-      <c r="Z113" s="11"/>
+      <c r="Z113" s="11">
+        <v>3</v>
+      </c>
       <c r="AA113" s="12">
         <v>3</v>
       </c>
       <c r="AB113" s="13"/>
       <c r="AD113" s="6"/>
-      <c r="AE113" s="7"/>
-      <c r="AF113" s="8"/>
-      <c r="AG113" s="9"/>
-      <c r="AI113" s="10"/>
+      <c r="AE113" s="7">
+        <v>2</v>
+      </c>
+      <c r="AF113" s="8">
+        <v>2</v>
+      </c>
+      <c r="AG113" s="9">
+        <v>2</v>
+      </c>
+      <c r="AI113" s="10">
+        <v>3</v>
+      </c>
       <c r="AJ113" s="11"/>
       <c r="AK113" s="12"/>
       <c r="AL113" s="13"/>
       <c r="AN113" s="6"/>
-      <c r="AO113" s="7"/>
-      <c r="AP113" s="8"/>
-      <c r="AQ113" s="9"/>
+      <c r="AO113" s="7">
+        <v>4</v>
+      </c>
+      <c r="AP113" s="8">
+        <v>2</v>
+      </c>
+      <c r="AQ113" s="9">
+        <v>3</v>
+      </c>
       <c r="AS113" s="10"/>
       <c r="AT113" s="11"/>
       <c r="AU113" s="12"/>
@@ -10352,17 +10387,17 @@
       <c r="AZ113" s="8"/>
       <c r="BA113" s="9"/>
       <c r="BC113" s="46">
+        <f t="shared" si="24"/>
+        <v>24</v>
+      </c>
+      <c r="BD113" s="47">
         <f t="shared" si="22"/>
-        <v>16</v>
-      </c>
-      <c r="BD113" s="47">
-        <f t="shared" si="20"/>
-        <v>4.8</v>
+        <v>7.1999999999999993</v>
       </c>
     </row>
     <row r="114" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A114" s="42" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B114" s="43">
         <v>8</v>
@@ -10371,70 +10406,56 @@
         <v>64</v>
       </c>
       <c r="D114" t="s">
-        <v>48</v>
-      </c>
-      <c r="E114" s="10"/>
-      <c r="F114" s="11"/>
-      <c r="G114" s="12"/>
-      <c r="H114" s="13"/>
-      <c r="J114" s="6">
-        <v>0</v>
-      </c>
-      <c r="K114" s="7">
-        <v>2</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E114" s="10">
+        <v>0</v>
+      </c>
+      <c r="F114" s="11">
+        <v>0</v>
+      </c>
+      <c r="G114" s="12">
+        <v>0</v>
+      </c>
+      <c r="H114" s="13">
+        <v>6</v>
+      </c>
+      <c r="J114" s="6"/>
+      <c r="K114" s="7"/>
       <c r="L114" s="8"/>
       <c r="M114" s="9"/>
-      <c r="O114" s="10"/>
+      <c r="O114" s="10">
+        <v>2</v>
+      </c>
       <c r="P114" s="11"/>
       <c r="Q114" s="12"/>
       <c r="R114" s="13"/>
-      <c r="T114" s="6">
-        <v>2</v>
-      </c>
-      <c r="U114" s="7">
-        <v>2</v>
-      </c>
-      <c r="V114" s="8">
-        <v>2</v>
-      </c>
+      <c r="T114" s="6"/>
+      <c r="U114" s="7"/>
+      <c r="V114" s="8"/>
       <c r="W114" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y114" s="10"/>
-      <c r="Z114" s="11">
-        <v>2</v>
-      </c>
+      <c r="Z114" s="11"/>
       <c r="AA114" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB114" s="13"/>
       <c r="AD114" s="6"/>
-      <c r="AE114" s="7">
-        <v>1</v>
-      </c>
-      <c r="AF114" s="8">
-        <v>1</v>
-      </c>
+      <c r="AE114" s="7"/>
+      <c r="AF114" s="8"/>
       <c r="AG114" s="9"/>
       <c r="AI114" s="10"/>
-      <c r="AJ114" s="11">
-        <v>2</v>
-      </c>
+      <c r="AJ114" s="11"/>
       <c r="AK114" s="12"/>
-      <c r="AL114" s="13">
-        <v>1</v>
-      </c>
+      <c r="AL114" s="13"/>
       <c r="AN114" s="6"/>
       <c r="AO114" s="7"/>
       <c r="AP114" s="8"/>
-      <c r="AQ114" s="9">
-        <v>1</v>
-      </c>
+      <c r="AQ114" s="9"/>
       <c r="AS114" s="10"/>
-      <c r="AT114" s="11">
-        <v>1</v>
-      </c>
+      <c r="AT114" s="11"/>
       <c r="AU114" s="12"/>
       <c r="AV114" s="13"/>
       <c r="AX114" s="6"/>
@@ -10442,20 +10463,20 @@
       <c r="AZ114" s="8"/>
       <c r="BA114" s="9"/>
       <c r="BC114" s="46">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="BD114" s="47">
         <f t="shared" si="22"/>
-        <v>20</v>
-      </c>
-      <c r="BD114" s="47">
-        <f t="shared" si="20"/>
-        <v>6</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="115" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A115" s="42" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B115" s="43">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C115" s="42" t="s">
         <v>64</v>
@@ -10471,7 +10492,7 @@
         <v>0</v>
       </c>
       <c r="K115" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L115" s="8"/>
       <c r="M115" s="9"/>
@@ -10479,11 +10500,15 @@
       <c r="P115" s="11"/>
       <c r="Q115" s="12"/>
       <c r="R115" s="13"/>
-      <c r="T115" s="6"/>
+      <c r="T115" s="6">
+        <v>2</v>
+      </c>
       <c r="U115" s="7">
         <v>2</v>
       </c>
-      <c r="V115" s="8"/>
+      <c r="V115" s="8">
+        <v>2</v>
+      </c>
       <c r="W115" s="9">
         <v>1</v>
       </c>
@@ -10492,31 +10517,35 @@
         <v>2</v>
       </c>
       <c r="AA115" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB115" s="13"/>
       <c r="AD115" s="6"/>
       <c r="AE115" s="7">
-        <v>3</v>
-      </c>
-      <c r="AF115" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="AF115" s="8">
+        <v>1</v>
+      </c>
       <c r="AG115" s="9"/>
       <c r="AI115" s="10"/>
-      <c r="AJ115" s="11"/>
+      <c r="AJ115" s="11">
+        <v>2</v>
+      </c>
       <c r="AK115" s="12"/>
-      <c r="AL115" s="13"/>
+      <c r="AL115" s="13">
+        <v>1</v>
+      </c>
       <c r="AN115" s="6"/>
-      <c r="AO115" s="7">
-        <v>2</v>
-      </c>
-      <c r="AP115" s="8">
-        <v>2</v>
-      </c>
+      <c r="AO115" s="7"/>
+      <c r="AP115" s="8"/>
       <c r="AQ115" s="9">
         <v>1</v>
       </c>
       <c r="AS115" s="10"/>
-      <c r="AT115" s="11"/>
+      <c r="AT115" s="11">
+        <v>1</v>
+      </c>
       <c r="AU115" s="12"/>
       <c r="AV115" s="13"/>
       <c r="AX115" s="6"/>
@@ -10524,51 +10553,63 @@
       <c r="AZ115" s="8"/>
       <c r="BA115" s="9"/>
       <c r="BC115" s="46">
+        <f t="shared" si="24"/>
+        <v>20</v>
+      </c>
+      <c r="BD115" s="47">
         <f t="shared" si="22"/>
-        <v>17</v>
-      </c>
-      <c r="BD115" s="47">
-        <f t="shared" si="20"/>
-        <v>5.0999999999999996</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A116" s="42" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B116" s="43">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C116" s="42" t="s">
         <v>64</v>
       </c>
       <c r="D116" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E116" s="10"/>
       <c r="F116" s="11"/>
       <c r="G116" s="12"/>
       <c r="H116" s="13"/>
-      <c r="J116" s="6"/>
-      <c r="K116" s="7"/>
+      <c r="J116" s="6">
+        <v>0</v>
+      </c>
+      <c r="K116" s="7">
+        <v>1</v>
+      </c>
       <c r="L116" s="8"/>
-      <c r="M116" s="9">
-        <v>2</v>
-      </c>
+      <c r="M116" s="9"/>
       <c r="O116" s="10"/>
       <c r="P116" s="11"/>
       <c r="Q116" s="12"/>
       <c r="R116" s="13"/>
       <c r="T116" s="6"/>
-      <c r="U116" s="7"/>
+      <c r="U116" s="7">
+        <v>2</v>
+      </c>
       <c r="V116" s="8"/>
-      <c r="W116" s="9"/>
+      <c r="W116" s="9">
+        <v>1</v>
+      </c>
       <c r="Y116" s="10"/>
-      <c r="Z116" s="11"/>
-      <c r="AA116" s="12"/>
+      <c r="Z116" s="11">
+        <v>2</v>
+      </c>
+      <c r="AA116" s="12">
+        <v>3</v>
+      </c>
       <c r="AB116" s="13"/>
       <c r="AD116" s="6"/>
-      <c r="AE116" s="7"/>
+      <c r="AE116" s="7">
+        <v>3</v>
+      </c>
       <c r="AF116" s="8"/>
       <c r="AG116" s="9"/>
       <c r="AI116" s="10"/>
@@ -10576,9 +10617,15 @@
       <c r="AK116" s="12"/>
       <c r="AL116" s="13"/>
       <c r="AN116" s="6"/>
-      <c r="AO116" s="7"/>
-      <c r="AP116" s="8"/>
-      <c r="AQ116" s="9"/>
+      <c r="AO116" s="7">
+        <v>2</v>
+      </c>
+      <c r="AP116" s="8">
+        <v>2</v>
+      </c>
+      <c r="AQ116" s="9">
+        <v>1</v>
+      </c>
       <c r="AS116" s="10"/>
       <c r="AT116" s="11"/>
       <c r="AU116" s="12"/>
@@ -10588,26 +10635,26 @@
       <c r="AZ116" s="8"/>
       <c r="BA116" s="9"/>
       <c r="BC116" s="46">
+        <f t="shared" si="24"/>
+        <v>17</v>
+      </c>
+      <c r="BD116" s="47">
         <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="BD116" s="47">
-        <f t="shared" si="20"/>
-        <v>0.6</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="117" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A117" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="B117" s="42" t="s">
-        <v>53</v>
+        <v>175</v>
+      </c>
+      <c r="B117" s="43">
+        <v>1</v>
       </c>
       <c r="C117" s="42" t="s">
         <v>64</v>
       </c>
       <c r="D117" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E117" s="10"/>
       <c r="F117" s="11"/>
@@ -10617,7 +10664,7 @@
       <c r="K117" s="7"/>
       <c r="L117" s="8"/>
       <c r="M117" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O117" s="10"/>
       <c r="P117" s="11"/>
@@ -10637,12 +10684,8 @@
       <c r="AG117" s="9"/>
       <c r="AI117" s="10"/>
       <c r="AJ117" s="11"/>
-      <c r="AK117" s="12">
-        <v>1</v>
-      </c>
-      <c r="AL117" s="13">
-        <v>1</v>
-      </c>
+      <c r="AK117" s="12"/>
+      <c r="AL117" s="13"/>
       <c r="AN117" s="6"/>
       <c r="AO117" s="7"/>
       <c r="AP117" s="8"/>
@@ -10656,17 +10699,17 @@
       <c r="AZ117" s="8"/>
       <c r="BA117" s="9"/>
       <c r="BC117" s="46">
-        <f t="shared" ref="BC117" si="33">SUM(E117:BA117)</f>
-        <v>3</v>
+        <f t="shared" si="24"/>
+        <v>2</v>
       </c>
       <c r="BD117" s="47">
-        <f t="shared" ref="BD117" si="34">(SUM(E117:BB117)*$D$2)</f>
-        <v>0.89999999999999991</v>
+        <f t="shared" si="22"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="118" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A118" s="42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B118" s="42" t="s">
         <v>53</v>
@@ -10684,7 +10727,9 @@
       <c r="J118" s="6"/>
       <c r="K118" s="7"/>
       <c r="L118" s="8"/>
-      <c r="M118" s="9"/>
+      <c r="M118" s="9">
+        <v>1</v>
+      </c>
       <c r="O118" s="10"/>
       <c r="P118" s="11"/>
       <c r="Q118" s="12"/>
@@ -10722,17 +10767,17 @@
       <c r="AZ118" s="8"/>
       <c r="BA118" s="9"/>
       <c r="BC118" s="46">
-        <f t="shared" si="22"/>
-        <v>2</v>
+        <f t="shared" ref="BC118" si="35">SUM(E118:BA118)</f>
+        <v>3</v>
       </c>
       <c r="BD118" s="47">
-        <f t="shared" si="20"/>
-        <v>0.6</v>
+        <f t="shared" ref="BD118" si="36">(SUM(E118:BB118)*$D$2)</f>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="119" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A119" s="42" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B119" s="42" t="s">
         <v>53</v>
@@ -10743,67 +10788,35 @@
       <c r="D119" t="s">
         <v>54</v>
       </c>
-      <c r="E119" s="10">
-        <v>0</v>
-      </c>
-      <c r="F119" s="11">
-        <v>0</v>
-      </c>
-      <c r="G119" s="12">
-        <v>0</v>
-      </c>
-      <c r="H119" s="13">
-        <v>2</v>
-      </c>
+      <c r="E119" s="10"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="13"/>
       <c r="J119" s="6"/>
       <c r="K119" s="7"/>
       <c r="L119" s="8"/>
-      <c r="M119" s="9">
-        <v>2</v>
-      </c>
-      <c r="O119" s="10">
-        <v>2</v>
-      </c>
-      <c r="P119" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q119" s="12">
-        <v>2</v>
-      </c>
-      <c r="R119" s="13">
-        <v>1</v>
-      </c>
-      <c r="T119" s="6">
-        <v>4</v>
-      </c>
-      <c r="U119" s="7">
-        <v>3</v>
-      </c>
+      <c r="M119" s="9"/>
+      <c r="O119" s="10"/>
+      <c r="P119" s="11"/>
+      <c r="Q119" s="12"/>
+      <c r="R119" s="13"/>
+      <c r="T119" s="6"/>
+      <c r="U119" s="7"/>
       <c r="V119" s="8"/>
-      <c r="W119" s="9">
-        <v>2</v>
-      </c>
-      <c r="Y119" s="10">
-        <v>2</v>
-      </c>
-      <c r="Z119" s="11">
-        <v>1</v>
-      </c>
-      <c r="AA119" s="12">
-        <v>1</v>
-      </c>
+      <c r="W119" s="9"/>
+      <c r="Y119" s="10"/>
+      <c r="Z119" s="11"/>
+      <c r="AA119" s="12"/>
       <c r="AB119" s="13"/>
       <c r="AD119" s="6"/>
-      <c r="AE119" s="7">
-        <v>1</v>
-      </c>
-      <c r="AF119" s="8">
-        <v>1</v>
-      </c>
+      <c r="AE119" s="7"/>
+      <c r="AF119" s="8"/>
       <c r="AG119" s="9"/>
       <c r="AI119" s="10"/>
       <c r="AJ119" s="11"/>
-      <c r="AK119" s="12"/>
+      <c r="AK119" s="12">
+        <v>1</v>
+      </c>
       <c r="AL119" s="13">
         <v>1</v>
       </c>
@@ -10818,45 +10831,95 @@
       <c r="AX119" s="6"/>
       <c r="AY119" s="7"/>
       <c r="AZ119" s="8"/>
-      <c r="BA119" s="9"/>
+      <c r="BA119" s="9">
+        <v>1</v>
+      </c>
       <c r="BC119" s="46">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="BD119" s="47">
         <f t="shared" si="22"/>
-        <v>27</v>
-      </c>
-      <c r="BD119" s="47">
-        <f t="shared" si="20"/>
-        <v>8.1</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="120" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="E120" s="10"/>
-      <c r="F120" s="11"/>
-      <c r="G120" s="12"/>
-      <c r="H120" s="13"/>
+      <c r="A120" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="B120" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C120" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D120" t="s">
+        <v>54</v>
+      </c>
+      <c r="E120" s="10">
+        <v>0</v>
+      </c>
+      <c r="F120" s="11">
+        <v>0</v>
+      </c>
+      <c r="G120" s="12">
+        <v>0</v>
+      </c>
+      <c r="H120" s="13">
+        <v>2</v>
+      </c>
       <c r="J120" s="6"/>
       <c r="K120" s="7"/>
       <c r="L120" s="8"/>
-      <c r="M120" s="9"/>
-      <c r="O120" s="10"/>
-      <c r="P120" s="11"/>
-      <c r="Q120" s="12"/>
-      <c r="R120" s="13"/>
-      <c r="T120" s="6"/>
-      <c r="U120" s="7"/>
+      <c r="M120" s="9">
+        <v>2</v>
+      </c>
+      <c r="O120" s="10">
+        <v>2</v>
+      </c>
+      <c r="P120" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q120" s="12">
+        <v>2</v>
+      </c>
+      <c r="R120" s="13">
+        <v>1</v>
+      </c>
+      <c r="T120" s="6">
+        <v>4</v>
+      </c>
+      <c r="U120" s="7">
+        <v>3</v>
+      </c>
       <c r="V120" s="8"/>
-      <c r="W120" s="9"/>
-      <c r="Y120" s="10"/>
-      <c r="Z120" s="11"/>
-      <c r="AA120" s="12"/>
+      <c r="W120" s="9">
+        <v>2</v>
+      </c>
+      <c r="Y120" s="10">
+        <v>2</v>
+      </c>
+      <c r="Z120" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA120" s="12">
+        <v>1</v>
+      </c>
       <c r="AB120" s="13"/>
       <c r="AD120" s="6"/>
-      <c r="AE120" s="7"/>
-      <c r="AF120" s="8"/>
+      <c r="AE120" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF120" s="8">
+        <v>1</v>
+      </c>
       <c r="AG120" s="9"/>
       <c r="AI120" s="10"/>
       <c r="AJ120" s="11"/>
       <c r="AK120" s="12"/>
-      <c r="AL120" s="13"/>
+      <c r="AL120" s="13">
+        <v>1</v>
+      </c>
       <c r="AN120" s="6"/>
       <c r="AO120" s="7"/>
       <c r="AP120" s="8"/>
@@ -10870,27 +10933,15 @@
       <c r="AZ120" s="8"/>
       <c r="BA120" s="9"/>
       <c r="BC120" s="46">
+        <f t="shared" si="24"/>
+        <v>27</v>
+      </c>
+      <c r="BD120" s="47">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BD120" s="47">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="121" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A121" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="B121" s="41">
-        <v>2</v>
-      </c>
-      <c r="C121" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="D121" t="s">
-        <v>52</v>
-      </c>
       <c r="E121" s="10"/>
       <c r="F121" s="11"/>
       <c r="G121" s="12"/>
@@ -10898,17 +10949,11 @@
       <c r="J121" s="6"/>
       <c r="K121" s="7"/>
       <c r="L121" s="8"/>
-      <c r="M121" s="9">
-        <v>1</v>
-      </c>
+      <c r="M121" s="9"/>
       <c r="O121" s="10"/>
-      <c r="P121" s="11">
-        <v>2</v>
-      </c>
+      <c r="P121" s="11"/>
       <c r="Q121" s="12"/>
-      <c r="R121" s="13">
-        <v>1</v>
-      </c>
+      <c r="R121" s="13"/>
       <c r="T121" s="6"/>
       <c r="U121" s="7"/>
       <c r="V121" s="8"/>
@@ -10938,17 +10983,17 @@
       <c r="AZ121" s="8"/>
       <c r="BA121" s="9"/>
       <c r="BC121" s="46">
-        <f t="shared" ref="BC121" si="35">SUM(E121:BA121)</f>
-        <v>4</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
       <c r="BD121" s="47">
-        <f t="shared" ref="BD121" si="36">(SUM(E121:BB121)*$D$2)</f>
-        <v>1.2</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A122" s="40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B122" s="41">
         <v>2</v>
@@ -10966,23 +11011,23 @@
       <c r="J122" s="6"/>
       <c r="K122" s="7"/>
       <c r="L122" s="8"/>
-      <c r="M122" s="9"/>
+      <c r="M122" s="9">
+        <v>1</v>
+      </c>
       <c r="O122" s="10"/>
-      <c r="P122" s="11"/>
+      <c r="P122" s="11">
+        <v>2</v>
+      </c>
       <c r="Q122" s="12"/>
       <c r="R122" s="13">
         <v>1</v>
       </c>
       <c r="T122" s="6"/>
-      <c r="U122" s="7">
-        <v>1</v>
-      </c>
+      <c r="U122" s="7"/>
       <c r="V122" s="8"/>
       <c r="W122" s="9"/>
       <c r="Y122" s="10"/>
-      <c r="Z122" s="11">
-        <v>1</v>
-      </c>
+      <c r="Z122" s="11"/>
       <c r="AA122" s="12"/>
       <c r="AB122" s="13"/>
       <c r="AD122" s="6"/>
@@ -11006,17 +11051,17 @@
       <c r="AZ122" s="8"/>
       <c r="BA122" s="9"/>
       <c r="BC122" s="46">
-        <f t="shared" si="22"/>
-        <v>3</v>
+        <f t="shared" ref="BC122" si="37">SUM(E122:BA122)</f>
+        <v>4</v>
       </c>
       <c r="BD122" s="47">
-        <f t="shared" si="20"/>
-        <v>0.89999999999999991</v>
+        <f t="shared" ref="BD122" si="38">(SUM(E122:BB122)*$D$2)</f>
+        <v>1.2</v>
       </c>
     </row>
     <row r="123" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A123" s="40" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B123" s="41">
         <v>2</v>
@@ -11027,42 +11072,30 @@
       <c r="D123" t="s">
         <v>52</v>
       </c>
-      <c r="E123" s="10">
-        <v>2</v>
-      </c>
-      <c r="F123" s="11">
-        <v>2</v>
-      </c>
-      <c r="G123" s="12">
-        <v>2</v>
-      </c>
-      <c r="H123" s="13">
-        <v>1</v>
-      </c>
+      <c r="E123" s="10"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="13"/>
       <c r="J123" s="6"/>
       <c r="K123" s="7"/>
-      <c r="L123" s="8">
-        <v>2</v>
-      </c>
-      <c r="M123" s="9">
-        <v>2</v>
-      </c>
+      <c r="L123" s="8"/>
+      <c r="M123" s="9"/>
       <c r="O123" s="10"/>
-      <c r="P123" s="11">
-        <v>2</v>
-      </c>
+      <c r="P123" s="11"/>
       <c r="Q123" s="12"/>
-      <c r="R123" s="13"/>
-      <c r="T123" s="6">
-        <v>3</v>
-      </c>
-      <c r="U123" s="7"/>
+      <c r="R123" s="13">
+        <v>1</v>
+      </c>
+      <c r="T123" s="6"/>
+      <c r="U123" s="7">
+        <v>1</v>
+      </c>
       <c r="V123" s="8"/>
-      <c r="W123" s="9">
-        <v>4</v>
-      </c>
+      <c r="W123" s="9"/>
       <c r="Y123" s="10"/>
-      <c r="Z123" s="11"/>
+      <c r="Z123" s="11">
+        <v>1</v>
+      </c>
       <c r="AA123" s="12"/>
       <c r="AB123" s="13"/>
       <c r="AD123" s="6"/>
@@ -11070,16 +11103,12 @@
       <c r="AF123" s="8"/>
       <c r="AG123" s="9"/>
       <c r="AI123" s="10"/>
-      <c r="AJ123" s="11">
-        <v>4</v>
-      </c>
+      <c r="AJ123" s="11"/>
       <c r="AK123" s="12"/>
       <c r="AL123" s="13"/>
       <c r="AN123" s="6"/>
       <c r="AO123" s="7"/>
-      <c r="AP123" s="8">
-        <v>1</v>
-      </c>
+      <c r="AP123" s="8"/>
       <c r="AQ123" s="9"/>
       <c r="AS123" s="10"/>
       <c r="AT123" s="11"/>
@@ -11090,17 +11119,17 @@
       <c r="AZ123" s="8"/>
       <c r="BA123" s="9"/>
       <c r="BC123" s="46">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="BD123" s="47">
         <f t="shared" si="22"/>
-        <v>25</v>
-      </c>
-      <c r="BD123" s="47">
-        <f t="shared" si="20"/>
-        <v>7.5</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="124" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A124" s="40" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B124" s="41">
         <v>2</v>
@@ -11118,7 +11147,7 @@
         <v>2</v>
       </c>
       <c r="G124" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H124" s="13">
         <v>1</v>
@@ -11126,7 +11155,7 @@
       <c r="J124" s="6"/>
       <c r="K124" s="7"/>
       <c r="L124" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M124" s="9">
         <v>2</v>
@@ -11136,9 +11165,7 @@
         <v>2</v>
       </c>
       <c r="Q124" s="12"/>
-      <c r="R124" s="13">
-        <v>5</v>
-      </c>
+      <c r="R124" s="13"/>
       <c r="T124" s="6">
         <v>3</v>
       </c>
@@ -11148,9 +11175,7 @@
         <v>4</v>
       </c>
       <c r="Y124" s="10"/>
-      <c r="Z124" s="11">
-        <v>3</v>
-      </c>
+      <c r="Z124" s="11"/>
       <c r="AA124" s="12"/>
       <c r="AB124" s="13"/>
       <c r="AD124" s="6"/>
@@ -11159,13 +11184,15 @@
       <c r="AG124" s="9"/>
       <c r="AI124" s="10"/>
       <c r="AJ124" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK124" s="12"/>
       <c r="AL124" s="13"/>
       <c r="AN124" s="6"/>
       <c r="AO124" s="7"/>
-      <c r="AP124" s="8"/>
+      <c r="AP124" s="8">
+        <v>1</v>
+      </c>
       <c r="AQ124" s="9"/>
       <c r="AS124" s="10"/>
       <c r="AT124" s="11"/>
@@ -11176,17 +11203,17 @@
       <c r="AZ124" s="8"/>
       <c r="BA124" s="9"/>
       <c r="BC124" s="46">
+        <f t="shared" si="24"/>
+        <v>25</v>
+      </c>
+      <c r="BD124" s="47">
         <f t="shared" si="22"/>
-        <v>35</v>
-      </c>
-      <c r="BD124" s="47">
-        <f t="shared" si="20"/>
-        <v>10.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="125" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A125" s="40" t="s">
-        <v>215</v>
+        <v>282</v>
       </c>
       <c r="B125" s="41">
         <v>2</v>
@@ -11201,25 +11228,21 @@
         <v>2</v>
       </c>
       <c r="F125" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G125" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H125" s="13">
-        <v>3</v>
-      </c>
-      <c r="J125" s="6">
-        <v>0</v>
-      </c>
-      <c r="K125" s="7">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J125" s="6"/>
+      <c r="K125" s="7"/>
       <c r="L125" s="8">
         <v>3</v>
       </c>
       <c r="M125" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O125" s="10"/>
       <c r="P125" s="11">
@@ -11227,20 +11250,20 @@
       </c>
       <c r="Q125" s="12"/>
       <c r="R125" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T125" s="6">
         <v>3</v>
       </c>
-      <c r="U125" s="7">
-        <v>3</v>
-      </c>
+      <c r="U125" s="7"/>
       <c r="V125" s="8"/>
       <c r="W125" s="9">
         <v>4</v>
       </c>
       <c r="Y125" s="10"/>
-      <c r="Z125" s="11"/>
+      <c r="Z125" s="11">
+        <v>3</v>
+      </c>
       <c r="AA125" s="12"/>
       <c r="AB125" s="13"/>
       <c r="AD125" s="6"/>
@@ -11248,16 +11271,14 @@
       <c r="AF125" s="8"/>
       <c r="AG125" s="9"/>
       <c r="AI125" s="10"/>
-      <c r="AJ125" s="11"/>
+      <c r="AJ125" s="11">
+        <v>3</v>
+      </c>
       <c r="AK125" s="12"/>
       <c r="AL125" s="13"/>
       <c r="AN125" s="6"/>
-      <c r="AO125" s="7">
-        <v>5</v>
-      </c>
-      <c r="AP125" s="8">
-        <v>4</v>
-      </c>
+      <c r="AO125" s="7"/>
+      <c r="AP125" s="8"/>
       <c r="AQ125" s="9"/>
       <c r="AS125" s="10"/>
       <c r="AT125" s="11"/>
@@ -11268,17 +11289,17 @@
       <c r="AZ125" s="8"/>
       <c r="BA125" s="9"/>
       <c r="BC125" s="46">
-        <f t="shared" ref="BC125:BC161" si="37">SUM(E125:BA125)</f>
-        <v>43</v>
+        <f t="shared" si="24"/>
+        <v>35</v>
       </c>
       <c r="BD125" s="47">
-        <f t="shared" ref="BD125:BD161" si="38">(SUM(E125:BB125)*$D$2)</f>
-        <v>12.9</v>
+        <f t="shared" si="22"/>
+        <v>10.5</v>
       </c>
     </row>
     <row r="126" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A126" s="40" t="s">
-        <v>327</v>
+        <v>215</v>
       </c>
       <c r="B126" s="41">
         <v>2</v>
@@ -11290,29 +11311,47 @@
         <v>52</v>
       </c>
       <c r="E126" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F126" s="11">
         <v>0</v>
       </c>
       <c r="G126" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H126" s="13">
-        <v>0</v>
-      </c>
-      <c r="J126" s="6"/>
-      <c r="K126" s="7"/>
-      <c r="L126" s="8"/>
-      <c r="M126" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="J126" s="6">
+        <v>0</v>
+      </c>
+      <c r="K126" s="7">
+        <v>3</v>
+      </c>
+      <c r="L126" s="8">
+        <v>3</v>
+      </c>
+      <c r="M126" s="9">
+        <v>4</v>
+      </c>
       <c r="O126" s="10"/>
-      <c r="P126" s="11"/>
+      <c r="P126" s="11">
+        <v>2</v>
+      </c>
       <c r="Q126" s="12"/>
-      <c r="R126" s="13"/>
-      <c r="T126" s="6"/>
-      <c r="U126" s="7"/>
+      <c r="R126" s="13">
+        <v>6</v>
+      </c>
+      <c r="T126" s="6">
+        <v>3</v>
+      </c>
+      <c r="U126" s="7">
+        <v>3</v>
+      </c>
       <c r="V126" s="8"/>
-      <c r="W126" s="9"/>
+      <c r="W126" s="9">
+        <v>4</v>
+      </c>
       <c r="Y126" s="10"/>
       <c r="Z126" s="11"/>
       <c r="AA126" s="12"/>
@@ -11326,8 +11365,12 @@
       <c r="AK126" s="12"/>
       <c r="AL126" s="13"/>
       <c r="AN126" s="6"/>
-      <c r="AO126" s="7"/>
-      <c r="AP126" s="8"/>
+      <c r="AO126" s="7">
+        <v>5</v>
+      </c>
+      <c r="AP126" s="8">
+        <v>4</v>
+      </c>
       <c r="AQ126" s="9"/>
       <c r="AS126" s="10"/>
       <c r="AT126" s="11"/>
@@ -11338,37 +11381,41 @@
       <c r="AZ126" s="8"/>
       <c r="BA126" s="9"/>
       <c r="BC126" s="46">
-        <f t="shared" si="37"/>
-        <v>3</v>
+        <f t="shared" ref="BC126:BC162" si="39">SUM(E126:BA126)</f>
+        <v>43</v>
       </c>
       <c r="BD126" s="47">
-        <f t="shared" si="38"/>
-        <v>0.89999999999999991</v>
+        <f t="shared" ref="BD126:BD162" si="40">(SUM(E126:BB126)*$D$2)</f>
+        <v>12.9</v>
       </c>
     </row>
     <row r="127" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A127" s="40" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B127" s="41">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C127" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D127" t="s">
-        <v>59</v>
-      </c>
-      <c r="E127" s="10"/>
-      <c r="F127" s="11"/>
-      <c r="G127" s="12"/>
-      <c r="H127" s="13"/>
-      <c r="J127" s="6">
-        <v>0</v>
-      </c>
-      <c r="K127" s="7">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E127" s="10">
+        <v>1</v>
+      </c>
+      <c r="F127" s="11">
+        <v>0</v>
+      </c>
+      <c r="G127" s="12">
+        <v>2</v>
+      </c>
+      <c r="H127" s="13">
+        <v>0</v>
+      </c>
+      <c r="J127" s="6"/>
+      <c r="K127" s="7"/>
       <c r="L127" s="8"/>
       <c r="M127" s="9"/>
       <c r="O127" s="10"/>
@@ -11386,9 +11433,7 @@
       <c r="AD127" s="6"/>
       <c r="AE127" s="7"/>
       <c r="AF127" s="8"/>
-      <c r="AG127" s="9">
-        <v>2</v>
-      </c>
+      <c r="AG127" s="9"/>
       <c r="AI127" s="10"/>
       <c r="AJ127" s="11"/>
       <c r="AK127" s="12"/>
@@ -11406,17 +11451,17 @@
       <c r="AZ127" s="8"/>
       <c r="BA127" s="9"/>
       <c r="BC127" s="46">
-        <f t="shared" ref="BC127" si="39">SUM(E127:BA127)</f>
+        <f t="shared" si="39"/>
         <v>3</v>
       </c>
       <c r="BD127" s="47">
-        <f t="shared" ref="BD127" si="40">(SUM(E127:BB127)*$D$2)</f>
+        <f t="shared" si="40"/>
         <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="128" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A128" s="40" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B128" s="41">
         <v>10</v>
@@ -11435,27 +11480,17 @@
         <v>0</v>
       </c>
       <c r="K128" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L128" s="8"/>
       <c r="M128" s="9"/>
       <c r="O128" s="10"/>
       <c r="P128" s="11"/>
-      <c r="Q128" s="12">
-        <v>3</v>
-      </c>
-      <c r="R128" s="13">
-        <v>11</v>
-      </c>
-      <c r="T128" s="6">
-        <v>8</v>
-      </c>
-      <c r="U128" s="7">
-        <v>5</v>
-      </c>
-      <c r="V128" s="8">
-        <v>5</v>
-      </c>
+      <c r="Q128" s="12"/>
+      <c r="R128" s="13"/>
+      <c r="T128" s="6"/>
+      <c r="U128" s="7"/>
+      <c r="V128" s="8"/>
       <c r="W128" s="9"/>
       <c r="Y128" s="10"/>
       <c r="Z128" s="11"/>
@@ -11464,7 +11499,9 @@
       <c r="AD128" s="6"/>
       <c r="AE128" s="7"/>
       <c r="AF128" s="8"/>
-      <c r="AG128" s="9"/>
+      <c r="AG128" s="9">
+        <v>2</v>
+      </c>
       <c r="AI128" s="10"/>
       <c r="AJ128" s="11"/>
       <c r="AK128" s="12"/>
@@ -11482,60 +11519,56 @@
       <c r="AZ128" s="8"/>
       <c r="BA128" s="9"/>
       <c r="BC128" s="46">
-        <f t="shared" si="37"/>
-        <v>32</v>
+        <f t="shared" ref="BC128" si="41">SUM(E128:BA128)</f>
+        <v>3</v>
       </c>
       <c r="BD128" s="47">
-        <f t="shared" si="38"/>
-        <v>9.6</v>
+        <f t="shared" ref="BD128" si="42">(SUM(E128:BB128)*$D$2)</f>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="129" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A129" s="40" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B129" s="41">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C129" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D129" t="s">
-        <v>56</v>
-      </c>
-      <c r="E129" s="10">
-        <v>2</v>
-      </c>
-      <c r="F129" s="11">
-        <v>5</v>
-      </c>
-      <c r="G129" s="12">
-        <v>3</v>
-      </c>
-      <c r="H129" s="13">
-        <v>2</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E129" s="10"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="13"/>
       <c r="J129" s="6">
         <v>0</v>
       </c>
       <c r="K129" s="7">
-        <v>2</v>
-      </c>
-      <c r="L129" s="8">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L129" s="8"/>
       <c r="M129" s="9"/>
       <c r="O129" s="10"/>
-      <c r="P129" s="11">
-        <v>3</v>
-      </c>
+      <c r="P129" s="11"/>
       <c r="Q129" s="12">
-        <v>2</v>
-      </c>
-      <c r="R129" s="13"/>
-      <c r="T129" s="6"/>
-      <c r="U129" s="7"/>
-      <c r="V129" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="R129" s="13">
+        <v>11</v>
+      </c>
+      <c r="T129" s="6">
+        <v>8</v>
+      </c>
+      <c r="U129" s="7">
+        <v>5</v>
+      </c>
+      <c r="V129" s="8">
+        <v>5</v>
+      </c>
       <c r="W129" s="9"/>
       <c r="Y129" s="10"/>
       <c r="Z129" s="11"/>
@@ -11544,22 +11577,14 @@
       <c r="AD129" s="6"/>
       <c r="AE129" s="7"/>
       <c r="AF129" s="8"/>
-      <c r="AG129" s="9">
-        <v>6</v>
-      </c>
-      <c r="AI129" s="10">
-        <v>6</v>
-      </c>
+      <c r="AG129" s="9"/>
+      <c r="AI129" s="10"/>
       <c r="AJ129" s="11"/>
       <c r="AK129" s="12"/>
       <c r="AL129" s="13"/>
       <c r="AN129" s="6"/>
-      <c r="AO129" s="7">
-        <v>3</v>
-      </c>
-      <c r="AP129" s="8">
-        <v>4</v>
-      </c>
+      <c r="AO129" s="7"/>
+      <c r="AP129" s="8"/>
       <c r="AQ129" s="9"/>
       <c r="AS129" s="10"/>
       <c r="AT129" s="11"/>
@@ -11568,19 +11593,21 @@
       <c r="AX129" s="6"/>
       <c r="AY129" s="7"/>
       <c r="AZ129" s="8"/>
-      <c r="BA129" s="9"/>
+      <c r="BA129" s="9">
+        <v>2</v>
+      </c>
       <c r="BC129" s="46">
-        <f t="shared" si="37"/>
-        <v>44</v>
+        <f t="shared" si="39"/>
+        <v>34</v>
       </c>
       <c r="BD129" s="47">
-        <f t="shared" si="38"/>
-        <v>13.2</v>
+        <f t="shared" si="40"/>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A130" s="40" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B130" s="41">
         <v>3</v>
@@ -11592,24 +11619,34 @@
         <v>56</v>
       </c>
       <c r="E130" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F130" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G130" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H130" s="13">
-        <v>4</v>
-      </c>
-      <c r="J130" s="6"/>
-      <c r="K130" s="7"/>
-      <c r="L130" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="J130" s="6">
+        <v>0</v>
+      </c>
+      <c r="K130" s="7">
+        <v>2</v>
+      </c>
+      <c r="L130" s="8">
+        <v>6</v>
+      </c>
       <c r="M130" s="9"/>
       <c r="O130" s="10"/>
-      <c r="P130" s="11"/>
-      <c r="Q130" s="12"/>
+      <c r="P130" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q130" s="12">
+        <v>2</v>
+      </c>
       <c r="R130" s="13"/>
       <c r="T130" s="6"/>
       <c r="U130" s="7"/>
@@ -11622,14 +11659,22 @@
       <c r="AD130" s="6"/>
       <c r="AE130" s="7"/>
       <c r="AF130" s="8"/>
-      <c r="AG130" s="9"/>
-      <c r="AI130" s="10"/>
+      <c r="AG130" s="9">
+        <v>6</v>
+      </c>
+      <c r="AI130" s="10">
+        <v>6</v>
+      </c>
       <c r="AJ130" s="11"/>
       <c r="AK130" s="12"/>
       <c r="AL130" s="13"/>
       <c r="AN130" s="6"/>
-      <c r="AO130" s="7"/>
-      <c r="AP130" s="8"/>
+      <c r="AO130" s="7">
+        <v>3</v>
+      </c>
+      <c r="AP130" s="8">
+        <v>4</v>
+      </c>
       <c r="AQ130" s="9"/>
       <c r="AS130" s="10"/>
       <c r="AT130" s="11"/>
@@ -11640,17 +11685,17 @@
       <c r="AZ130" s="8"/>
       <c r="BA130" s="9"/>
       <c r="BC130" s="46">
-        <f t="shared" si="37"/>
-        <v>4</v>
+        <f t="shared" si="39"/>
+        <v>44</v>
       </c>
       <c r="BD130" s="47">
-        <f t="shared" si="38"/>
-        <v>1.2</v>
+        <f t="shared" si="40"/>
+        <v>13.2</v>
       </c>
     </row>
     <row r="131" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A131" s="40" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B131" s="41">
         <v>3</v>
@@ -11668,10 +11713,10 @@
         <v>0</v>
       </c>
       <c r="G131" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H131" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J131" s="6"/>
       <c r="K131" s="7"/>
@@ -11694,15 +11739,9 @@
       <c r="AF131" s="8"/>
       <c r="AG131" s="9"/>
       <c r="AI131" s="10"/>
-      <c r="AJ131" s="11">
-        <v>3</v>
-      </c>
-      <c r="AK131" s="12">
-        <v>1</v>
-      </c>
-      <c r="AL131" s="13">
-        <v>1</v>
-      </c>
+      <c r="AJ131" s="11"/>
+      <c r="AK131" s="12"/>
+      <c r="AL131" s="13"/>
       <c r="AN131" s="6"/>
       <c r="AO131" s="7"/>
       <c r="AP131" s="8"/>
@@ -11716,17 +11755,17 @@
       <c r="AZ131" s="8"/>
       <c r="BA131" s="9"/>
       <c r="BC131" s="46">
-        <f t="shared" si="37"/>
-        <v>9</v>
+        <f t="shared" si="39"/>
+        <v>4</v>
       </c>
       <c r="BD131" s="47">
-        <f t="shared" si="38"/>
-        <v>2.6999999999999997</v>
+        <f t="shared" si="40"/>
+        <v>1.2</v>
       </c>
     </row>
     <row r="132" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A132" s="40" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B132" s="41">
         <v>3</v>
@@ -11738,29 +11777,23 @@
         <v>56</v>
       </c>
       <c r="E132" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F132" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G132" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H132" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J132" s="6"/>
       <c r="K132" s="7"/>
       <c r="L132" s="8"/>
-      <c r="M132" s="9">
-        <v>2</v>
-      </c>
-      <c r="O132" s="10">
-        <v>3</v>
-      </c>
-      <c r="P132" s="11">
-        <v>2</v>
-      </c>
+      <c r="M132" s="9"/>
+      <c r="O132" s="10"/>
+      <c r="P132" s="11"/>
       <c r="Q132" s="12"/>
       <c r="R132" s="13"/>
       <c r="T132" s="6"/>
@@ -11776,17 +11809,21 @@
       <c r="AF132" s="8"/>
       <c r="AG132" s="9"/>
       <c r="AI132" s="10"/>
-      <c r="AJ132" s="11"/>
-      <c r="AK132" s="12"/>
-      <c r="AL132" s="13"/>
+      <c r="AJ132" s="11">
+        <v>3</v>
+      </c>
+      <c r="AK132" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL132" s="13">
+        <v>1</v>
+      </c>
       <c r="AN132" s="6"/>
       <c r="AO132" s="7"/>
       <c r="AP132" s="8"/>
       <c r="AQ132" s="9"/>
       <c r="AS132" s="10"/>
-      <c r="AT132" s="11">
-        <v>1</v>
-      </c>
+      <c r="AT132" s="11"/>
       <c r="AU132" s="12"/>
       <c r="AV132" s="13"/>
       <c r="AX132" s="6"/>
@@ -11794,17 +11831,17 @@
       <c r="AZ132" s="8"/>
       <c r="BA132" s="9"/>
       <c r="BC132" s="46">
-        <f t="shared" si="37"/>
-        <v>23</v>
+        <f t="shared" si="39"/>
+        <v>9</v>
       </c>
       <c r="BD132" s="47">
-        <f t="shared" si="38"/>
-        <v>6.8999999999999995</v>
+        <f t="shared" si="40"/>
+        <v>2.6999999999999997</v>
       </c>
     </row>
     <row r="133" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A133" s="40" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B133" s="41">
         <v>3</v>
@@ -11819,13 +11856,13 @@
         <v>3</v>
       </c>
       <c r="F133" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G133" s="12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H133" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J133" s="6"/>
       <c r="K133" s="7"/>
@@ -11837,7 +11874,7 @@
         <v>3</v>
       </c>
       <c r="P133" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q133" s="12"/>
       <c r="R133" s="13"/>
@@ -11853,25 +11890,13 @@
       <c r="AE133" s="7"/>
       <c r="AF133" s="8"/>
       <c r="AG133" s="9"/>
-      <c r="AI133" s="10">
-        <v>4</v>
-      </c>
-      <c r="AJ133" s="11">
-        <v>3</v>
-      </c>
-      <c r="AK133" s="12">
-        <v>1</v>
-      </c>
-      <c r="AL133" s="13">
-        <v>1</v>
-      </c>
+      <c r="AI133" s="10"/>
+      <c r="AJ133" s="11"/>
+      <c r="AK133" s="12"/>
+      <c r="AL133" s="13"/>
       <c r="AN133" s="6"/>
-      <c r="AO133" s="7">
-        <v>5</v>
-      </c>
-      <c r="AP133" s="8">
-        <v>2</v>
-      </c>
+      <c r="AO133" s="7"/>
+      <c r="AP133" s="8"/>
       <c r="AQ133" s="9"/>
       <c r="AS133" s="10"/>
       <c r="AT133" s="11">
@@ -11884,17 +11909,17 @@
       <c r="AZ133" s="8"/>
       <c r="BA133" s="9"/>
       <c r="BC133" s="46">
-        <f t="shared" ref="BC133" si="41">SUM(E133:BA133)</f>
-        <v>30</v>
+        <f t="shared" si="39"/>
+        <v>23</v>
       </c>
       <c r="BD133" s="47">
-        <f t="shared" ref="BD133" si="42">(SUM(E133:BB133)*$D$2)</f>
-        <v>9</v>
+        <f t="shared" si="40"/>
+        <v>6.8999999999999995</v>
       </c>
     </row>
     <row r="134" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A134" s="40" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B134" s="41">
         <v>3</v>
@@ -11905,7 +11930,9 @@
       <c r="D134" t="s">
         <v>56</v>
       </c>
-      <c r="E134" s="10"/>
+      <c r="E134" s="10">
+        <v>3</v>
+      </c>
       <c r="F134" s="11">
         <v>0</v>
       </c>
@@ -11918,10 +11945,14 @@
       <c r="J134" s="6"/>
       <c r="K134" s="7"/>
       <c r="L134" s="8"/>
-      <c r="M134" s="9"/>
-      <c r="O134" s="10"/>
+      <c r="M134" s="9">
+        <v>2</v>
+      </c>
+      <c r="O134" s="10">
+        <v>3</v>
+      </c>
       <c r="P134" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q134" s="12"/>
       <c r="R134" s="13"/>
@@ -11937,16 +11968,30 @@
       <c r="AE134" s="7"/>
       <c r="AF134" s="8"/>
       <c r="AG134" s="9"/>
-      <c r="AI134" s="10"/>
-      <c r="AJ134" s="11"/>
-      <c r="AK134" s="12"/>
-      <c r="AL134" s="13"/>
+      <c r="AI134" s="10">
+        <v>4</v>
+      </c>
+      <c r="AJ134" s="11">
+        <v>3</v>
+      </c>
+      <c r="AK134" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL134" s="13">
+        <v>1</v>
+      </c>
       <c r="AN134" s="6"/>
-      <c r="AO134" s="7"/>
-      <c r="AP134" s="8"/>
+      <c r="AO134" s="7">
+        <v>5</v>
+      </c>
+      <c r="AP134" s="8">
+        <v>2</v>
+      </c>
       <c r="AQ134" s="9"/>
       <c r="AS134" s="10"/>
-      <c r="AT134" s="11"/>
+      <c r="AT134" s="11">
+        <v>1</v>
+      </c>
       <c r="AU134" s="12"/>
       <c r="AV134" s="13"/>
       <c r="AX134" s="6"/>
@@ -11954,63 +11999,51 @@
       <c r="AZ134" s="8"/>
       <c r="BA134" s="9"/>
       <c r="BC134" s="46">
-        <f t="shared" si="37"/>
-        <v>4</v>
+        <f t="shared" ref="BC134" si="43">SUM(E134:BA134)</f>
+        <v>30</v>
       </c>
       <c r="BD134" s="47">
-        <f t="shared" si="38"/>
-        <v>1.2</v>
+        <f t="shared" ref="BD134" si="44">(SUM(E134:BB134)*$D$2)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A135" s="40" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B135" s="41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C135" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D135" t="s">
-        <v>58</v>
-      </c>
-      <c r="E135" s="10">
-        <v>0</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E135" s="10"/>
       <c r="F135" s="11">
         <v>0</v>
       </c>
       <c r="G135" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135" s="13">
-        <v>2</v>
-      </c>
-      <c r="J135" s="6">
-        <v>0</v>
-      </c>
-      <c r="K135" s="7">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" s="6"/>
+      <c r="K135" s="7"/>
       <c r="L135" s="8"/>
       <c r="M135" s="9"/>
       <c r="O135" s="10"/>
-      <c r="P135" s="11"/>
+      <c r="P135" s="11">
+        <v>4</v>
+      </c>
       <c r="Q135" s="12"/>
       <c r="R135" s="13"/>
-      <c r="T135" s="6">
-        <v>3</v>
-      </c>
-      <c r="U135" s="7">
-        <v>3</v>
-      </c>
-      <c r="V135" s="8">
-        <v>2</v>
-      </c>
-      <c r="W135" s="9">
-        <v>2</v>
-      </c>
+      <c r="T135" s="6"/>
+      <c r="U135" s="7"/>
+      <c r="V135" s="8"/>
+      <c r="W135" s="9"/>
       <c r="Y135" s="10"/>
       <c r="Z135" s="11"/>
       <c r="AA135" s="12"/>
@@ -12026,9 +12059,7 @@
       <c r="AN135" s="6"/>
       <c r="AO135" s="7"/>
       <c r="AP135" s="8"/>
-      <c r="AQ135" s="9">
-        <v>4</v>
-      </c>
+      <c r="AQ135" s="9"/>
       <c r="AS135" s="10"/>
       <c r="AT135" s="11"/>
       <c r="AU135" s="12"/>
@@ -12038,17 +12069,17 @@
       <c r="AZ135" s="8"/>
       <c r="BA135" s="9"/>
       <c r="BC135" s="46">
-        <f t="shared" si="37"/>
-        <v>18</v>
+        <f t="shared" si="39"/>
+        <v>4</v>
       </c>
       <c r="BD135" s="47">
-        <f t="shared" si="38"/>
-        <v>5.3999999999999995</v>
+        <f t="shared" si="40"/>
+        <v>1.2</v>
       </c>
     </row>
     <row r="136" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A136" s="40" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B136" s="41">
         <v>4</v>
@@ -12082,17 +12113,19 @@
       <c r="O136" s="10"/>
       <c r="P136" s="11"/>
       <c r="Q136" s="12"/>
-      <c r="R136" s="13">
-        <v>2</v>
-      </c>
+      <c r="R136" s="13"/>
       <c r="T136" s="6">
         <v>3</v>
       </c>
       <c r="U136" s="7">
         <v>3</v>
       </c>
-      <c r="V136" s="8"/>
-      <c r="W136" s="9"/>
+      <c r="V136" s="8">
+        <v>2</v>
+      </c>
+      <c r="W136" s="9">
+        <v>2</v>
+      </c>
       <c r="Y136" s="10"/>
       <c r="Z136" s="11"/>
       <c r="AA136" s="12"/>
@@ -12109,7 +12142,7 @@
       <c r="AO136" s="7"/>
       <c r="AP136" s="8"/>
       <c r="AQ136" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AS136" s="10"/>
       <c r="AT136" s="11"/>
@@ -12120,20 +12153,20 @@
       <c r="AZ136" s="8"/>
       <c r="BA136" s="9"/>
       <c r="BC136" s="46">
-        <f t="shared" si="37"/>
-        <v>14</v>
+        <f t="shared" si="39"/>
+        <v>18</v>
       </c>
       <c r="BD136" s="47">
-        <f t="shared" si="38"/>
-        <v>4.2</v>
+        <f t="shared" si="40"/>
+        <v>5.3999999999999995</v>
       </c>
     </row>
     <row r="137" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A137" s="40" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B137" s="41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C137" s="40" t="s">
         <v>66</v>
@@ -12148,31 +12181,33 @@
         <v>0</v>
       </c>
       <c r="G137" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J137" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K137" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L137" s="8"/>
       <c r="M137" s="9"/>
-      <c r="O137" s="10">
-        <v>2</v>
-      </c>
+      <c r="O137" s="10"/>
       <c r="P137" s="11"/>
       <c r="Q137" s="12"/>
-      <c r="R137" s="13"/>
-      <c r="T137" s="6"/>
-      <c r="U137" s="7"/>
+      <c r="R137" s="13">
+        <v>2</v>
+      </c>
+      <c r="T137" s="6">
+        <v>3</v>
+      </c>
+      <c r="U137" s="7">
+        <v>3</v>
+      </c>
       <c r="V137" s="8"/>
-      <c r="W137" s="9">
-        <v>2</v>
-      </c>
+      <c r="W137" s="9"/>
       <c r="Y137" s="10"/>
       <c r="Z137" s="11"/>
       <c r="AA137" s="12"/>
@@ -12192,9 +12227,7 @@
         <v>2</v>
       </c>
       <c r="AS137" s="10"/>
-      <c r="AT137" s="11">
-        <v>2</v>
-      </c>
+      <c r="AT137" s="11"/>
       <c r="AU137" s="12"/>
       <c r="AV137" s="13"/>
       <c r="AX137" s="6"/>
@@ -12202,17 +12235,17 @@
       <c r="AZ137" s="8"/>
       <c r="BA137" s="9"/>
       <c r="BC137" s="46">
-        <f t="shared" si="37"/>
-        <v>16</v>
+        <f t="shared" si="39"/>
+        <v>14</v>
       </c>
       <c r="BD137" s="47">
-        <f t="shared" si="38"/>
-        <v>4.8</v>
+        <f t="shared" si="40"/>
+        <v>4.2</v>
       </c>
     </row>
     <row r="138" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A138" s="40" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B138" s="41">
         <v>5</v>
@@ -12230,27 +12263,31 @@
         <v>0</v>
       </c>
       <c r="G138" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138" s="13">
         <v>4</v>
       </c>
-      <c r="J138" s="6"/>
-      <c r="K138" s="7"/>
+      <c r="J138" s="6">
+        <v>4</v>
+      </c>
+      <c r="K138" s="7">
+        <v>0</v>
+      </c>
       <c r="L138" s="8"/>
       <c r="M138" s="9"/>
-      <c r="O138" s="10"/>
+      <c r="O138" s="10">
+        <v>2</v>
+      </c>
       <c r="P138" s="11"/>
       <c r="Q138" s="12"/>
       <c r="R138" s="13"/>
-      <c r="T138" s="6">
-        <v>3</v>
-      </c>
-      <c r="U138" s="7">
-        <v>3</v>
-      </c>
+      <c r="T138" s="6"/>
+      <c r="U138" s="7"/>
       <c r="V138" s="8"/>
-      <c r="W138" s="9"/>
+      <c r="W138" s="9">
+        <v>2</v>
+      </c>
       <c r="Y138" s="10"/>
       <c r="Z138" s="11"/>
       <c r="AA138" s="12"/>
@@ -12260,58 +12297,60 @@
       <c r="AF138" s="8"/>
       <c r="AG138" s="9"/>
       <c r="AI138" s="10"/>
-      <c r="AJ138" s="11">
-        <v>5</v>
-      </c>
+      <c r="AJ138" s="11"/>
       <c r="AK138" s="12"/>
       <c r="AL138" s="13"/>
       <c r="AN138" s="6"/>
       <c r="AO138" s="7"/>
-      <c r="AP138" s="8">
-        <v>1</v>
-      </c>
-      <c r="AQ138" s="9"/>
+      <c r="AP138" s="8"/>
+      <c r="AQ138" s="9">
+        <v>2</v>
+      </c>
       <c r="AS138" s="10"/>
-      <c r="AT138" s="11"/>
+      <c r="AT138" s="11">
+        <v>2</v>
+      </c>
       <c r="AU138" s="12"/>
       <c r="AV138" s="13"/>
       <c r="AX138" s="6"/>
       <c r="AY138" s="7"/>
       <c r="AZ138" s="8"/>
-      <c r="BA138" s="9"/>
+      <c r="BA138" s="9">
+        <v>1</v>
+      </c>
       <c r="BC138" s="46">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>17</v>
       </c>
       <c r="BD138" s="47">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="139" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A139" s="40" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B139" s="41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C139" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D139" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E139" s="10">
         <v>0</v>
       </c>
       <c r="F139" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G139" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J139" s="6"/>
       <c r="K139" s="7"/>
@@ -12321,8 +12360,12 @@
       <c r="P139" s="11"/>
       <c r="Q139" s="12"/>
       <c r="R139" s="13"/>
-      <c r="T139" s="6"/>
-      <c r="U139" s="7"/>
+      <c r="T139" s="6">
+        <v>3</v>
+      </c>
+      <c r="U139" s="7">
+        <v>3</v>
+      </c>
       <c r="V139" s="8"/>
       <c r="W139" s="9"/>
       <c r="Y139" s="10"/>
@@ -12334,12 +12377,16 @@
       <c r="AF139" s="8"/>
       <c r="AG139" s="9"/>
       <c r="AI139" s="10"/>
-      <c r="AJ139" s="11"/>
+      <c r="AJ139" s="11">
+        <v>5</v>
+      </c>
       <c r="AK139" s="12"/>
       <c r="AL139" s="13"/>
       <c r="AN139" s="6"/>
       <c r="AO139" s="7"/>
-      <c r="AP139" s="8"/>
+      <c r="AP139" s="8">
+        <v>1</v>
+      </c>
       <c r="AQ139" s="9"/>
       <c r="AS139" s="10"/>
       <c r="AT139" s="11"/>
@@ -12350,17 +12397,17 @@
       <c r="AZ139" s="8"/>
       <c r="BA139" s="9"/>
       <c r="BC139" s="46">
-        <f t="shared" si="37"/>
-        <v>3</v>
+        <f t="shared" si="39"/>
+        <v>17</v>
       </c>
       <c r="BD139" s="47">
-        <f t="shared" si="38"/>
-        <v>0.89999999999999991</v>
+        <f t="shared" si="40"/>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="140" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A140" s="40" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B140" s="41">
         <v>4</v>
@@ -12372,27 +12419,21 @@
         <v>55</v>
       </c>
       <c r="E140" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F140" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G140" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140" s="13">
-        <v>4</v>
-      </c>
-      <c r="J140" s="6">
-        <v>0</v>
-      </c>
-      <c r="K140" s="7">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" s="6"/>
+      <c r="K140" s="7"/>
       <c r="L140" s="8"/>
-      <c r="M140" s="9">
-        <v>5</v>
-      </c>
+      <c r="M140" s="9"/>
       <c r="O140" s="10"/>
       <c r="P140" s="11"/>
       <c r="Q140" s="12"/>
@@ -12407,9 +12448,7 @@
       <c r="AB140" s="13"/>
       <c r="AD140" s="6"/>
       <c r="AE140" s="7"/>
-      <c r="AF140" s="8">
-        <v>6</v>
-      </c>
+      <c r="AF140" s="8"/>
       <c r="AG140" s="9"/>
       <c r="AI140" s="10"/>
       <c r="AJ140" s="11"/>
@@ -12428,17 +12467,17 @@
       <c r="AZ140" s="8"/>
       <c r="BA140" s="9"/>
       <c r="BC140" s="46">
-        <f t="shared" si="37"/>
-        <v>30</v>
+        <f t="shared" si="39"/>
+        <v>3</v>
       </c>
       <c r="BD140" s="47">
-        <f t="shared" si="38"/>
-        <v>9</v>
+        <f t="shared" si="40"/>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="141" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A141" s="40" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B141" s="41">
         <v>4</v>
@@ -12450,25 +12489,27 @@
         <v>55</v>
       </c>
       <c r="E141" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F141" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G141" s="12">
         <v>1</v>
       </c>
       <c r="H141" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J141" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K141" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L141" s="8"/>
-      <c r="M141" s="9"/>
+      <c r="M141" s="9">
+        <v>5</v>
+      </c>
       <c r="O141" s="10"/>
       <c r="P141" s="11"/>
       <c r="Q141" s="12"/>
@@ -12483,7 +12524,9 @@
       <c r="AB141" s="13"/>
       <c r="AD141" s="6"/>
       <c r="AE141" s="7"/>
-      <c r="AF141" s="8"/>
+      <c r="AF141" s="8">
+        <v>6</v>
+      </c>
       <c r="AG141" s="9"/>
       <c r="AI141" s="10"/>
       <c r="AJ141" s="11"/>
@@ -12502,17 +12545,17 @@
       <c r="AZ141" s="8"/>
       <c r="BA141" s="9"/>
       <c r="BC141" s="46">
-        <f t="shared" si="37"/>
-        <v>5</v>
+        <f t="shared" si="39"/>
+        <v>30</v>
       </c>
       <c r="BD141" s="47">
-        <f t="shared" si="38"/>
-        <v>1.5</v>
+        <f t="shared" si="40"/>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A142" s="40" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B142" s="41">
         <v>4</v>
@@ -12527,25 +12570,27 @@
         <v>0</v>
       </c>
       <c r="F142" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G142" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142" s="13">
-        <v>2</v>
-      </c>
-      <c r="J142" s="6"/>
-      <c r="K142" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="J142" s="6">
+        <v>2</v>
+      </c>
+      <c r="K142" s="7">
+        <v>0</v>
+      </c>
       <c r="L142" s="8"/>
       <c r="M142" s="9"/>
       <c r="O142" s="10"/>
       <c r="P142" s="11"/>
       <c r="Q142" s="12"/>
       <c r="R142" s="13"/>
-      <c r="T142" s="6">
-        <v>1</v>
-      </c>
+      <c r="T142" s="6"/>
       <c r="U142" s="7"/>
       <c r="V142" s="8"/>
       <c r="W142" s="9"/>
@@ -12574,17 +12619,17 @@
       <c r="AZ142" s="8"/>
       <c r="BA142" s="9"/>
       <c r="BC142" s="46">
-        <f t="shared" si="37"/>
-        <v>3</v>
+        <f t="shared" si="39"/>
+        <v>5</v>
       </c>
       <c r="BD142" s="47">
-        <f t="shared" si="38"/>
-        <v>0.89999999999999991</v>
+        <f t="shared" si="40"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="143" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A143" s="40" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B143" s="41">
         <v>4</v>
@@ -12599,13 +12644,13 @@
         <v>0</v>
       </c>
       <c r="F143" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G143" s="12">
         <v>0</v>
       </c>
       <c r="H143" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J143" s="6"/>
       <c r="K143" s="7"/>
@@ -12615,10 +12660,10 @@
       <c r="P143" s="11"/>
       <c r="Q143" s="12"/>
       <c r="R143" s="13"/>
-      <c r="T143" s="6"/>
-      <c r="U143" s="7">
-        <v>2</v>
-      </c>
+      <c r="T143" s="6">
+        <v>1</v>
+      </c>
+      <c r="U143" s="7"/>
       <c r="V143" s="8"/>
       <c r="W143" s="9"/>
       <c r="Y143" s="10"/>
@@ -12646,17 +12691,17 @@
       <c r="AZ143" s="8"/>
       <c r="BA143" s="9"/>
       <c r="BC143" s="46">
-        <f t="shared" si="37"/>
-        <v>6</v>
+        <f t="shared" si="39"/>
+        <v>3</v>
       </c>
       <c r="BD143" s="47">
-        <f t="shared" si="38"/>
-        <v>1.7999999999999998</v>
+        <f t="shared" si="40"/>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="144" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A144" s="40" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B144" s="41">
         <v>4</v>
@@ -12668,67 +12713,47 @@
         <v>55</v>
       </c>
       <c r="E144" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F144" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G144" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H144" s="13">
-        <v>7</v>
-      </c>
-      <c r="J144" s="6">
-        <v>4</v>
-      </c>
-      <c r="K144" s="7">
-        <v>4</v>
-      </c>
-      <c r="L144" s="8">
-        <v>0</v>
-      </c>
-      <c r="M144" s="9">
-        <v>4</v>
-      </c>
-      <c r="O144" s="10">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" s="6"/>
+      <c r="K144" s="7"/>
+      <c r="L144" s="8"/>
+      <c r="M144" s="9"/>
+      <c r="O144" s="10"/>
       <c r="P144" s="11"/>
-      <c r="Q144" s="12">
-        <v>2</v>
-      </c>
+      <c r="Q144" s="12"/>
       <c r="R144" s="13"/>
       <c r="T144" s="6"/>
-      <c r="U144" s="7"/>
+      <c r="U144" s="7">
+        <v>2</v>
+      </c>
       <c r="V144" s="8"/>
-      <c r="W144" s="9">
-        <v>2</v>
-      </c>
+      <c r="W144" s="9"/>
       <c r="Y144" s="10"/>
       <c r="Z144" s="11"/>
       <c r="AA144" s="12"/>
       <c r="AB144" s="13"/>
       <c r="AD144" s="6"/>
       <c r="AE144" s="7"/>
-      <c r="AF144" s="8">
-        <v>2</v>
-      </c>
+      <c r="AF144" s="8"/>
       <c r="AG144" s="9"/>
       <c r="AI144" s="10"/>
-      <c r="AJ144" s="11">
-        <v>1</v>
-      </c>
+      <c r="AJ144" s="11"/>
       <c r="AK144" s="12"/>
       <c r="AL144" s="13"/>
       <c r="AN144" s="6"/>
       <c r="AO144" s="7"/>
-      <c r="AP144" s="8">
-        <v>4</v>
-      </c>
-      <c r="AQ144" s="9">
-        <v>2</v>
-      </c>
+      <c r="AP144" s="8"/>
+      <c r="AQ144" s="9"/>
       <c r="AS144" s="10"/>
       <c r="AT144" s="11"/>
       <c r="AU144" s="12"/>
@@ -12738,17 +12763,17 @@
       <c r="AZ144" s="8"/>
       <c r="BA144" s="9"/>
       <c r="BC144" s="46">
-        <f t="shared" si="37"/>
-        <v>49</v>
+        <f t="shared" si="39"/>
+        <v>6</v>
       </c>
       <c r="BD144" s="47">
-        <f t="shared" si="38"/>
-        <v>14.7</v>
+        <f t="shared" si="40"/>
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="145" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A145" s="40" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B145" s="41">
         <v>4</v>
@@ -12760,49 +12785,67 @@
         <v>55</v>
       </c>
       <c r="E145" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F145" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G145" s="12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H145" s="13">
-        <v>2</v>
-      </c>
-      <c r="J145" s="6"/>
-      <c r="K145" s="7"/>
-      <c r="L145" s="8"/>
-      <c r="M145" s="9"/>
-      <c r="O145" s="10"/>
-      <c r="P145" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q145" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="J145" s="6">
+        <v>4</v>
+      </c>
+      <c r="K145" s="7">
+        <v>4</v>
+      </c>
+      <c r="L145" s="8">
+        <v>0</v>
+      </c>
+      <c r="M145" s="9">
+        <v>4</v>
+      </c>
+      <c r="O145" s="10">
+        <v>4</v>
+      </c>
+      <c r="P145" s="11"/>
+      <c r="Q145" s="12">
+        <v>2</v>
+      </c>
       <c r="R145" s="13"/>
       <c r="T145" s="6"/>
-      <c r="U145" s="7">
-        <v>1</v>
-      </c>
+      <c r="U145" s="7"/>
       <c r="V145" s="8"/>
-      <c r="W145" s="9"/>
+      <c r="W145" s="9">
+        <v>2</v>
+      </c>
       <c r="Y145" s="10"/>
       <c r="Z145" s="11"/>
       <c r="AA145" s="12"/>
       <c r="AB145" s="13"/>
       <c r="AD145" s="6"/>
       <c r="AE145" s="7"/>
-      <c r="AF145" s="8"/>
+      <c r="AF145" s="8">
+        <v>2</v>
+      </c>
       <c r="AG145" s="9"/>
       <c r="AI145" s="10"/>
-      <c r="AJ145" s="11"/>
+      <c r="AJ145" s="11">
+        <v>1</v>
+      </c>
       <c r="AK145" s="12"/>
       <c r="AL145" s="13"/>
       <c r="AN145" s="6"/>
       <c r="AO145" s="7"/>
-      <c r="AP145" s="8"/>
-      <c r="AQ145" s="9"/>
+      <c r="AP145" s="8">
+        <v>4</v>
+      </c>
+      <c r="AQ145" s="9">
+        <v>2</v>
+      </c>
       <c r="AS145" s="10"/>
       <c r="AT145" s="11"/>
       <c r="AU145" s="12"/>
@@ -12812,17 +12855,17 @@
       <c r="AZ145" s="8"/>
       <c r="BA145" s="9"/>
       <c r="BC145" s="46">
-        <f t="shared" ref="BC145" si="43">SUM(E145:BA145)</f>
-        <v>4</v>
+        <f t="shared" si="39"/>
+        <v>49</v>
       </c>
       <c r="BD145" s="47">
-        <f t="shared" ref="BD145" si="44">(SUM(E145:BB145)*$D$2)</f>
-        <v>1.2</v>
+        <f t="shared" si="40"/>
+        <v>14.7</v>
       </c>
     </row>
     <row r="146" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A146" s="40" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B146" s="41">
         <v>4</v>
@@ -12851,16 +12894,14 @@
       <c r="M146" s="9"/>
       <c r="O146" s="10"/>
       <c r="P146" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q146" s="12">
-        <v>5</v>
-      </c>
-      <c r="R146" s="13">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q146" s="12"/>
+      <c r="R146" s="13"/>
       <c r="T146" s="6"/>
-      <c r="U146" s="7"/>
+      <c r="U146" s="7">
+        <v>1</v>
+      </c>
       <c r="V146" s="8"/>
       <c r="W146" s="9"/>
       <c r="Y146" s="10"/>
@@ -12876,42 +12917,38 @@
       <c r="AK146" s="12"/>
       <c r="AL146" s="13"/>
       <c r="AN146" s="6"/>
-      <c r="AO146" s="7">
-        <v>2</v>
-      </c>
+      <c r="AO146" s="7"/>
       <c r="AP146" s="8"/>
       <c r="AQ146" s="9"/>
       <c r="AS146" s="10"/>
       <c r="AT146" s="11"/>
       <c r="AU146" s="12"/>
       <c r="AV146" s="13"/>
-      <c r="AX146" s="6">
-        <v>3</v>
-      </c>
+      <c r="AX146" s="6"/>
       <c r="AY146" s="7"/>
       <c r="AZ146" s="8"/>
       <c r="BA146" s="9"/>
       <c r="BC146" s="46">
-        <f t="shared" si="37"/>
-        <v>16</v>
+        <f t="shared" ref="BC146" si="45">SUM(E146:BA146)</f>
+        <v>4</v>
       </c>
       <c r="BD146" s="47">
-        <f t="shared" si="38"/>
-        <v>4.8</v>
+        <f t="shared" ref="BD146" si="46">(SUM(E146:BB146)*$D$2)</f>
+        <v>1.2</v>
       </c>
     </row>
     <row r="147" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A147" s="40" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B147" s="41">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C147" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D147" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E147" s="10">
         <v>0</v>
@@ -12925,20 +12962,20 @@
       <c r="H147" s="13">
         <v>2</v>
       </c>
-      <c r="J147" s="6">
-        <v>1</v>
-      </c>
-      <c r="K147" s="7">
-        <v>3</v>
-      </c>
+      <c r="J147" s="6"/>
+      <c r="K147" s="7"/>
       <c r="L147" s="8"/>
       <c r="M147" s="9"/>
       <c r="O147" s="10"/>
-      <c r="P147" s="11"/>
+      <c r="P147" s="11">
+        <v>2</v>
+      </c>
       <c r="Q147" s="12">
-        <v>2</v>
-      </c>
-      <c r="R147" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="R147" s="13">
+        <v>2</v>
+      </c>
       <c r="T147" s="6"/>
       <c r="U147" s="7"/>
       <c r="V147" s="8"/>
@@ -12956,29 +12993,35 @@
       <c r="AK147" s="12"/>
       <c r="AL147" s="13"/>
       <c r="AN147" s="6"/>
-      <c r="AO147" s="7"/>
+      <c r="AO147" s="7">
+        <v>2</v>
+      </c>
       <c r="AP147" s="8"/>
       <c r="AQ147" s="9"/>
       <c r="AS147" s="10"/>
       <c r="AT147" s="11"/>
       <c r="AU147" s="12"/>
       <c r="AV147" s="13"/>
-      <c r="AX147" s="6"/>
+      <c r="AX147" s="6">
+        <v>3</v>
+      </c>
       <c r="AY147" s="7"/>
-      <c r="AZ147" s="8"/>
+      <c r="AZ147" s="8">
+        <v>3</v>
+      </c>
       <c r="BA147" s="9"/>
       <c r="BC147" s="46">
-        <f t="shared" si="37"/>
-        <v>8</v>
+        <f t="shared" si="39"/>
+        <v>19</v>
       </c>
       <c r="BD147" s="47">
-        <f t="shared" si="38"/>
-        <v>2.4</v>
+        <f t="shared" si="40"/>
+        <v>5.7</v>
       </c>
     </row>
     <row r="148" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A148" s="40" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B148" s="41">
         <v>6</v>
@@ -12989,35 +13032,35 @@
       <c r="D148" t="s">
         <v>50</v>
       </c>
-      <c r="E148" s="10"/>
-      <c r="F148" s="11"/>
-      <c r="G148" s="12"/>
-      <c r="H148" s="13"/>
-      <c r="J148" s="6"/>
-      <c r="K148" s="7"/>
-      <c r="L148" s="8">
-        <v>2</v>
-      </c>
-      <c r="M148" s="9">
-        <v>6</v>
-      </c>
-      <c r="O148" s="10">
-        <v>5</v>
-      </c>
-      <c r="P148" s="11">
-        <v>3</v>
-      </c>
+      <c r="E148" s="10">
+        <v>0</v>
+      </c>
+      <c r="F148" s="11">
+        <v>0</v>
+      </c>
+      <c r="G148" s="12">
+        <v>0</v>
+      </c>
+      <c r="H148" s="13">
+        <v>2</v>
+      </c>
+      <c r="J148" s="6">
+        <v>1</v>
+      </c>
+      <c r="K148" s="7">
+        <v>3</v>
+      </c>
+      <c r="L148" s="8"/>
+      <c r="M148" s="9"/>
+      <c r="O148" s="10"/>
+      <c r="P148" s="11"/>
       <c r="Q148" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R148" s="13"/>
-      <c r="T148" s="6">
-        <v>3</v>
-      </c>
+      <c r="T148" s="6"/>
       <c r="U148" s="7"/>
-      <c r="V148" s="8">
-        <v>5</v>
-      </c>
+      <c r="V148" s="8"/>
       <c r="W148" s="9"/>
       <c r="Y148" s="10"/>
       <c r="Z148" s="11"/>
@@ -13028,9 +13071,7 @@
       <c r="AF148" s="8"/>
       <c r="AG148" s="9"/>
       <c r="AI148" s="10"/>
-      <c r="AJ148" s="11">
-        <v>2</v>
-      </c>
+      <c r="AJ148" s="11"/>
       <c r="AK148" s="12"/>
       <c r="AL148" s="13"/>
       <c r="AN148" s="6"/>
@@ -13046,17 +13087,17 @@
       <c r="AZ148" s="8"/>
       <c r="BA148" s="9"/>
       <c r="BC148" s="46">
-        <f t="shared" si="37"/>
-        <v>31</v>
+        <f t="shared" si="39"/>
+        <v>8</v>
       </c>
       <c r="BD148" s="47">
-        <f t="shared" si="38"/>
-        <v>9.2999999999999989</v>
+        <f t="shared" si="40"/>
+        <v>2.4</v>
       </c>
     </row>
     <row r="149" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A149" s="40" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B149" s="41">
         <v>6</v>
@@ -13065,34 +13106,38 @@
         <v>66</v>
       </c>
       <c r="D149" t="s">
-        <v>51</v>
-      </c>
-      <c r="E149" s="10">
-        <v>0</v>
-      </c>
-      <c r="F149" s="11">
-        <v>0</v>
-      </c>
-      <c r="G149" s="12">
-        <v>0</v>
-      </c>
-      <c r="H149" s="13">
-        <v>2</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E149" s="10"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="13"/>
       <c r="J149" s="6"/>
       <c r="K149" s="7"/>
-      <c r="L149" s="8"/>
-      <c r="M149" s="9"/>
-      <c r="O149" s="10"/>
-      <c r="P149" s="11"/>
-      <c r="Q149" s="12"/>
+      <c r="L149" s="8">
+        <v>2</v>
+      </c>
+      <c r="M149" s="9">
+        <v>6</v>
+      </c>
+      <c r="O149" s="10">
+        <v>5</v>
+      </c>
+      <c r="P149" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q149" s="12">
+        <v>5</v>
+      </c>
       <c r="R149" s="13"/>
-      <c r="T149" s="6"/>
+      <c r="T149" s="6">
+        <v>3</v>
+      </c>
       <c r="U149" s="7"/>
-      <c r="V149" s="8"/>
-      <c r="W149" s="9">
-        <v>2</v>
-      </c>
+      <c r="V149" s="8">
+        <v>5</v>
+      </c>
+      <c r="W149" s="9"/>
       <c r="Y149" s="10"/>
       <c r="Z149" s="11"/>
       <c r="AA149" s="12"/>
@@ -13102,7 +13147,9 @@
       <c r="AF149" s="8"/>
       <c r="AG149" s="9"/>
       <c r="AI149" s="10"/>
-      <c r="AJ149" s="11"/>
+      <c r="AJ149" s="11">
+        <v>2</v>
+      </c>
       <c r="AK149" s="12"/>
       <c r="AL149" s="13"/>
       <c r="AN149" s="6"/>
@@ -13118,17 +13165,17 @@
       <c r="AZ149" s="8"/>
       <c r="BA149" s="9"/>
       <c r="BC149" s="46">
-        <f t="shared" si="37"/>
-        <v>4</v>
+        <f t="shared" si="39"/>
+        <v>31</v>
       </c>
       <c r="BD149" s="47">
-        <f t="shared" si="38"/>
-        <v>1.2</v>
+        <f t="shared" si="40"/>
+        <v>9.2999999999999989</v>
       </c>
     </row>
     <row r="150" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A150" s="40" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B150" s="41">
         <v>6</v>
@@ -13162,7 +13209,9 @@
       <c r="T150" s="6"/>
       <c r="U150" s="7"/>
       <c r="V150" s="8"/>
-      <c r="W150" s="9"/>
+      <c r="W150" s="9">
+        <v>2</v>
+      </c>
       <c r="Y150" s="10"/>
       <c r="Z150" s="11"/>
       <c r="AA150" s="12"/>
@@ -13188,17 +13237,17 @@
       <c r="AZ150" s="8"/>
       <c r="BA150" s="9"/>
       <c r="BC150" s="46">
-        <f t="shared" si="37"/>
-        <v>2</v>
+        <f t="shared" si="39"/>
+        <v>4</v>
       </c>
       <c r="BD150" s="47">
-        <f t="shared" si="38"/>
-        <v>0.6</v>
+        <f t="shared" si="40"/>
+        <v>1.2</v>
       </c>
     </row>
     <row r="151" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A151" s="40" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B151" s="41">
         <v>6</v>
@@ -13219,40 +13268,20 @@
         <v>0</v>
       </c>
       <c r="H151" s="13">
-        <v>7</v>
-      </c>
-      <c r="J151" s="6">
-        <v>0</v>
-      </c>
-      <c r="K151" s="7">
-        <v>6</v>
-      </c>
-      <c r="L151" s="8">
-        <v>6</v>
-      </c>
-      <c r="M151" s="9">
-        <v>6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J151" s="6"/>
+      <c r="K151" s="7"/>
+      <c r="L151" s="8"/>
+      <c r="M151" s="9"/>
       <c r="O151" s="10"/>
-      <c r="P151" s="11">
-        <v>8</v>
-      </c>
-      <c r="Q151" s="12">
-        <v>5</v>
-      </c>
+      <c r="P151" s="11"/>
+      <c r="Q151" s="12"/>
       <c r="R151" s="13"/>
-      <c r="T151" s="6">
-        <v>6</v>
-      </c>
-      <c r="U151" s="7">
-        <v>3</v>
-      </c>
-      <c r="V151" s="8">
-        <v>5</v>
-      </c>
-      <c r="W151" s="9">
-        <v>3</v>
-      </c>
+      <c r="T151" s="6"/>
+      <c r="U151" s="7"/>
+      <c r="V151" s="8"/>
+      <c r="W151" s="9"/>
       <c r="Y151" s="10"/>
       <c r="Z151" s="11"/>
       <c r="AA151" s="12"/>
@@ -13260,12 +13289,8 @@
       <c r="AD151" s="6"/>
       <c r="AE151" s="7"/>
       <c r="AF151" s="8"/>
-      <c r="AG151" s="9">
-        <v>5</v>
-      </c>
-      <c r="AI151" s="10">
-        <v>5</v>
-      </c>
+      <c r="AG151" s="9"/>
+      <c r="AI151" s="10"/>
       <c r="AJ151" s="11"/>
       <c r="AK151" s="12"/>
       <c r="AL151" s="13"/>
@@ -13282,127 +13307,113 @@
       <c r="AZ151" s="8"/>
       <c r="BA151" s="9"/>
       <c r="BC151" s="46">
-        <f t="shared" si="37"/>
-        <v>65</v>
+        <f t="shared" si="39"/>
+        <v>2</v>
       </c>
       <c r="BD151" s="47">
-        <f t="shared" si="38"/>
-        <v>19.5</v>
+        <f t="shared" si="40"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="152" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A152" s="40" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B152" s="41">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C152" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D152" t="s">
-        <v>57</v>
-      </c>
-      <c r="E152" s="10"/>
-      <c r="F152" s="11"/>
+        <v>51</v>
+      </c>
+      <c r="E152" s="10">
+        <v>0</v>
+      </c>
+      <c r="F152" s="11">
+        <v>0</v>
+      </c>
       <c r="G152" s="12">
-        <v>1</v>
-      </c>
-      <c r="H152" s="13"/>
-      <c r="J152" s="6"/>
-      <c r="K152" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="H152" s="13">
+        <v>7</v>
+      </c>
+      <c r="J152" s="6">
+        <v>0</v>
+      </c>
+      <c r="K152" s="7">
+        <v>6</v>
+      </c>
       <c r="L152" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M152" s="9">
-        <v>1</v>
-      </c>
-      <c r="O152" s="10">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="O152" s="10"/>
       <c r="P152" s="11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q152" s="12">
-        <v>7</v>
-      </c>
-      <c r="R152" s="13">
-        <v>8</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R152" s="13"/>
       <c r="T152" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U152" s="7">
-        <v>6</v>
-      </c>
-      <c r="V152" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="V152" s="8">
+        <v>5</v>
+      </c>
       <c r="W152" s="9">
-        <v>5</v>
-      </c>
-      <c r="Y152" s="10">
-        <v>4</v>
-      </c>
-      <c r="Z152" s="11">
-        <v>5</v>
-      </c>
-      <c r="AA152" s="12">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Y152" s="10"/>
+      <c r="Z152" s="11"/>
+      <c r="AA152" s="12"/>
       <c r="AB152" s="13"/>
       <c r="AD152" s="6"/>
-      <c r="AE152" s="7">
-        <v>4</v>
-      </c>
-      <c r="AF152" s="8">
-        <v>6</v>
-      </c>
+      <c r="AE152" s="7"/>
+      <c r="AF152" s="8"/>
       <c r="AG152" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI152" s="10">
         <v>5</v>
       </c>
-      <c r="AJ152" s="11">
-        <v>5</v>
-      </c>
-      <c r="AK152" s="12">
-        <v>3</v>
-      </c>
-      <c r="AL152" s="13">
-        <v>4</v>
-      </c>
+      <c r="AJ152" s="11"/>
+      <c r="AK152" s="12"/>
+      <c r="AL152" s="13"/>
       <c r="AN152" s="6"/>
-      <c r="AO152" s="7">
-        <v>5</v>
-      </c>
-      <c r="AP152" s="8">
-        <v>4</v>
-      </c>
-      <c r="AQ152" s="9">
-        <v>4</v>
-      </c>
+      <c r="AO152" s="7"/>
+      <c r="AP152" s="8"/>
+      <c r="AQ152" s="9"/>
       <c r="AS152" s="10"/>
-      <c r="AT152" s="11">
-        <v>4</v>
-      </c>
+      <c r="AT152" s="11"/>
       <c r="AU152" s="12"/>
       <c r="AV152" s="13"/>
       <c r="AX152" s="6"/>
       <c r="AY152" s="7"/>
       <c r="AZ152" s="8"/>
-      <c r="BA152" s="9"/>
+      <c r="BA152" s="9">
+        <v>3</v>
+      </c>
       <c r="BC152" s="46">
-        <f t="shared" si="37"/>
-        <v>103</v>
+        <f t="shared" si="39"/>
+        <v>68</v>
       </c>
       <c r="BD152" s="47">
-        <f t="shared" si="38"/>
-        <v>30.9</v>
+        <f t="shared" si="40"/>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A153" s="40" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B153" s="41">
         <v>8</v>
@@ -13415,74 +13426,104 @@
       </c>
       <c r="E153" s="10"/>
       <c r="F153" s="11"/>
-      <c r="G153" s="12"/>
+      <c r="G153" s="12">
+        <v>1</v>
+      </c>
       <c r="H153" s="13"/>
       <c r="J153" s="6"/>
       <c r="K153" s="7"/>
-      <c r="L153" s="8"/>
-      <c r="M153" s="9"/>
-      <c r="O153" s="10"/>
-      <c r="P153" s="11"/>
-      <c r="Q153" s="12"/>
-      <c r="R153" s="13"/>
-      <c r="T153" s="6"/>
+      <c r="L153" s="8">
+        <v>1</v>
+      </c>
+      <c r="M153" s="9">
+        <v>1</v>
+      </c>
+      <c r="O153" s="10">
+        <v>4</v>
+      </c>
+      <c r="P153" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q153" s="12">
+        <v>7</v>
+      </c>
+      <c r="R153" s="13">
+        <v>8</v>
+      </c>
+      <c r="T153" s="6">
+        <v>4</v>
+      </c>
       <c r="U153" s="7">
-        <v>4</v>
-      </c>
-      <c r="V153" s="8">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="V153" s="8"/>
       <c r="W153" s="9">
         <v>5</v>
       </c>
-      <c r="Y153" s="10"/>
-      <c r="Z153" s="11"/>
-      <c r="AA153" s="12"/>
+      <c r="Y153" s="10">
+        <v>4</v>
+      </c>
+      <c r="Z153" s="11">
+        <v>5</v>
+      </c>
+      <c r="AA153" s="12">
+        <v>5</v>
+      </c>
       <c r="AB153" s="13"/>
       <c r="AD153" s="6"/>
-      <c r="AE153" s="7"/>
-      <c r="AF153" s="8"/>
+      <c r="AE153" s="7">
+        <v>4</v>
+      </c>
+      <c r="AF153" s="8">
+        <v>6</v>
+      </c>
       <c r="AG153" s="9">
-        <v>3</v>
-      </c>
-      <c r="AI153" s="10"/>
-      <c r="AJ153" s="11"/>
-      <c r="AK153" s="12"/>
-      <c r="AL153" s="13"/>
+        <v>4</v>
+      </c>
+      <c r="AI153" s="10">
+        <v>5</v>
+      </c>
+      <c r="AJ153" s="11">
+        <v>5</v>
+      </c>
+      <c r="AK153" s="12">
+        <v>3</v>
+      </c>
+      <c r="AL153" s="13">
+        <v>4</v>
+      </c>
       <c r="AN153" s="6"/>
       <c r="AO153" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP153" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AQ153" s="9">
         <v>4</v>
       </c>
       <c r="AS153" s="10"/>
       <c r="AT153" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AU153" s="12"/>
       <c r="AV153" s="13"/>
-      <c r="AX153" s="6">
-        <v>4</v>
-      </c>
+      <c r="AX153" s="6"/>
       <c r="AY153" s="7"/>
       <c r="AZ153" s="8"/>
       <c r="BA153" s="9"/>
       <c r="BC153" s="46">
-        <f t="shared" si="37"/>
-        <v>43</v>
+        <f t="shared" si="39"/>
+        <v>103</v>
       </c>
       <c r="BD153" s="47">
-        <f t="shared" si="38"/>
-        <v>12.9</v>
+        <f t="shared" si="40"/>
+        <v>30.9</v>
       </c>
     </row>
     <row r="154" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A154" s="40" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B154" s="41">
         <v>8</v>
@@ -13504,15 +13545,17 @@
       <c r="O154" s="10"/>
       <c r="P154" s="11"/>
       <c r="Q154" s="12"/>
-      <c r="R154" s="13">
-        <v>6</v>
-      </c>
+      <c r="R154" s="13"/>
       <c r="T154" s="6"/>
-      <c r="U154" s="7"/>
+      <c r="U154" s="7">
+        <v>4</v>
+      </c>
       <c r="V154" s="8">
-        <v>6</v>
-      </c>
-      <c r="W154" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="W154" s="9">
+        <v>5</v>
+      </c>
       <c r="Y154" s="10"/>
       <c r="Z154" s="11"/>
       <c r="AA154" s="12"/>
@@ -13520,35 +13563,51 @@
       <c r="AD154" s="6"/>
       <c r="AE154" s="7"/>
       <c r="AF154" s="8"/>
-      <c r="AG154" s="9"/>
+      <c r="AG154" s="9">
+        <v>3</v>
+      </c>
       <c r="AI154" s="10"/>
       <c r="AJ154" s="11"/>
       <c r="AK154" s="12"/>
       <c r="AL154" s="13"/>
       <c r="AN154" s="6"/>
-      <c r="AO154" s="7"/>
-      <c r="AP154" s="8"/>
-      <c r="AQ154" s="9"/>
+      <c r="AO154" s="7">
+        <v>6</v>
+      </c>
+      <c r="AP154" s="8">
+        <v>6</v>
+      </c>
+      <c r="AQ154" s="9">
+        <v>4</v>
+      </c>
       <c r="AS154" s="10"/>
-      <c r="AT154" s="11"/>
+      <c r="AT154" s="11">
+        <v>6</v>
+      </c>
       <c r="AU154" s="12"/>
       <c r="AV154" s="13"/>
-      <c r="AX154" s="6"/>
+      <c r="AX154" s="6">
+        <v>4</v>
+      </c>
       <c r="AY154" s="7"/>
-      <c r="AZ154" s="8"/>
-      <c r="BA154" s="9"/>
+      <c r="AZ154" s="8">
+        <v>3</v>
+      </c>
+      <c r="BA154" s="9">
+        <v>3</v>
+      </c>
       <c r="BC154" s="46">
-        <f t="shared" si="37"/>
-        <v>12</v>
+        <f t="shared" si="39"/>
+        <v>49</v>
       </c>
       <c r="BD154" s="47">
-        <f t="shared" si="38"/>
-        <v>3.5999999999999996</v>
+        <f t="shared" si="40"/>
+        <v>14.7</v>
       </c>
     </row>
     <row r="155" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A155" s="40" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B155" s="41">
         <v>8</v>
@@ -13570,18 +13629,18 @@
       <c r="O155" s="10"/>
       <c r="P155" s="11"/>
       <c r="Q155" s="12"/>
-      <c r="R155" s="13"/>
+      <c r="R155" s="13">
+        <v>6</v>
+      </c>
       <c r="T155" s="6"/>
       <c r="U155" s="7"/>
-      <c r="V155" s="8"/>
+      <c r="V155" s="8">
+        <v>6</v>
+      </c>
       <c r="W155" s="9"/>
       <c r="Y155" s="10"/>
-      <c r="Z155" s="11">
-        <v>1</v>
-      </c>
-      <c r="AA155" s="12">
-        <v>1</v>
-      </c>
+      <c r="Z155" s="11"/>
+      <c r="AA155" s="12"/>
       <c r="AB155" s="13"/>
       <c r="AD155" s="6"/>
       <c r="AE155" s="7"/>
@@ -13604,17 +13663,17 @@
       <c r="AZ155" s="8"/>
       <c r="BA155" s="9"/>
       <c r="BC155" s="46">
-        <f t="shared" ref="BC155" si="45">SUM(E155:BA155)</f>
-        <v>2</v>
+        <f t="shared" si="39"/>
+        <v>12</v>
       </c>
       <c r="BD155" s="47">
-        <f t="shared" ref="BD155" si="46">(SUM(E155:BB155)*$D$2)</f>
-        <v>0.6</v>
+        <f t="shared" si="40"/>
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="156" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A156" s="40" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B156" s="41">
         <v>8</v>
@@ -13642,9 +13701,11 @@
       <c r="V156" s="8"/>
       <c r="W156" s="9"/>
       <c r="Y156" s="10"/>
-      <c r="Z156" s="11"/>
+      <c r="Z156" s="11">
+        <v>1</v>
+      </c>
       <c r="AA156" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB156" s="13"/>
       <c r="AD156" s="6"/>
@@ -13668,20 +13729,20 @@
       <c r="AZ156" s="8"/>
       <c r="BA156" s="9"/>
       <c r="BC156" s="46">
-        <f t="shared" si="37"/>
-        <v>3</v>
+        <f t="shared" ref="BC156" si="47">SUM(E156:BA156)</f>
+        <v>2</v>
       </c>
       <c r="BD156" s="47">
-        <f t="shared" si="38"/>
-        <v>0.89999999999999991</v>
+        <f t="shared" ref="BD156" si="48">(SUM(E156:BB156)*$D$2)</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="157" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A157" s="40" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B157" s="41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C157" s="40" t="s">
         <v>66</v>
@@ -13706,15 +13767,13 @@
       <c r="V157" s="8"/>
       <c r="W157" s="9"/>
       <c r="Y157" s="10"/>
-      <c r="Z157" s="11">
-        <v>4</v>
-      </c>
-      <c r="AA157" s="12"/>
+      <c r="Z157" s="11"/>
+      <c r="AA157" s="12">
+        <v>3</v>
+      </c>
       <c r="AB157" s="13"/>
       <c r="AD157" s="6"/>
-      <c r="AE157" s="7">
-        <v>2</v>
-      </c>
+      <c r="AE157" s="7"/>
       <c r="AF157" s="8"/>
       <c r="AG157" s="9"/>
       <c r="AI157" s="10"/>
@@ -13734,17 +13793,17 @@
       <c r="AZ157" s="8"/>
       <c r="BA157" s="9"/>
       <c r="BC157" s="46">
-        <f t="shared" ref="BC157:BC160" si="47">SUM(E157:BA157)</f>
-        <v>6</v>
+        <f t="shared" si="39"/>
+        <v>3</v>
       </c>
       <c r="BD157" s="47">
-        <f t="shared" ref="BD157:BD160" si="48">(SUM(E157:BB157)*$D$2)</f>
-        <v>1.7999999999999998</v>
+        <f t="shared" si="40"/>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="158" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A158" s="40" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B158" s="41">
         <v>9</v>
@@ -13764,45 +13823,35 @@
       <c r="L158" s="8"/>
       <c r="M158" s="9"/>
       <c r="O158" s="10"/>
-      <c r="P158" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q158" s="12">
-        <v>2</v>
-      </c>
+      <c r="P158" s="11"/>
+      <c r="Q158" s="12"/>
       <c r="R158" s="13"/>
       <c r="T158" s="6"/>
       <c r="U158" s="7"/>
-      <c r="V158" s="8">
-        <v>1</v>
-      </c>
-      <c r="W158" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y158" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z158" s="11"/>
+      <c r="V158" s="8"/>
+      <c r="W158" s="9"/>
+      <c r="Y158" s="10"/>
+      <c r="Z158" s="11">
+        <v>4</v>
+      </c>
       <c r="AA158" s="12"/>
       <c r="AB158" s="13"/>
       <c r="AD158" s="6"/>
-      <c r="AE158" s="7"/>
+      <c r="AE158" s="7">
+        <v>2</v>
+      </c>
       <c r="AF158" s="8"/>
       <c r="AG158" s="9"/>
       <c r="AI158" s="10"/>
       <c r="AJ158" s="11"/>
       <c r="AK158" s="12"/>
-      <c r="AL158" s="13">
-        <v>2</v>
-      </c>
+      <c r="AL158" s="13"/>
       <c r="AN158" s="6"/>
       <c r="AO158" s="7"/>
       <c r="AP158" s="8"/>
       <c r="AQ158" s="9"/>
       <c r="AS158" s="10"/>
-      <c r="AT158" s="11">
-        <v>1</v>
-      </c>
+      <c r="AT158" s="11"/>
       <c r="AU158" s="12"/>
       <c r="AV158" s="13"/>
       <c r="AX158" s="6"/>
@@ -13810,17 +13859,17 @@
       <c r="AZ158" s="8"/>
       <c r="BA158" s="9"/>
       <c r="BC158" s="46">
-        <f t="shared" si="47"/>
-        <v>9</v>
+        <f t="shared" ref="BC158:BC161" si="49">SUM(E158:BA158)</f>
+        <v>6</v>
       </c>
       <c r="BD158" s="47">
-        <f t="shared" si="48"/>
-        <v>2.6999999999999997</v>
+        <f t="shared" ref="BD158:BD161" si="50">(SUM(E158:BB158)*$D$2)</f>
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="159" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A159" s="40" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B159" s="41">
         <v>9</v>
@@ -13840,11 +13889,13 @@
       <c r="L159" s="8"/>
       <c r="M159" s="9"/>
       <c r="O159" s="10"/>
-      <c r="P159" s="11"/>
-      <c r="Q159" s="12"/>
-      <c r="R159" s="13">
-        <v>1</v>
-      </c>
+      <c r="P159" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q159" s="12">
+        <v>2</v>
+      </c>
+      <c r="R159" s="13"/>
       <c r="T159" s="6"/>
       <c r="U159" s="7"/>
       <c r="V159" s="8">
@@ -13853,7 +13904,9 @@
       <c r="W159" s="9">
         <v>1</v>
       </c>
-      <c r="Y159" s="10"/>
+      <c r="Y159" s="10">
+        <v>1</v>
+      </c>
       <c r="Z159" s="11"/>
       <c r="AA159" s="12"/>
       <c r="AB159" s="13"/>
@@ -13865,14 +13918,16 @@
       <c r="AJ159" s="11"/>
       <c r="AK159" s="12"/>
       <c r="AL159" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN159" s="6"/>
       <c r="AO159" s="7"/>
       <c r="AP159" s="8"/>
       <c r="AQ159" s="9"/>
       <c r="AS159" s="10"/>
-      <c r="AT159" s="11"/>
+      <c r="AT159" s="11">
+        <v>1</v>
+      </c>
       <c r="AU159" s="12"/>
       <c r="AV159" s="13"/>
       <c r="AX159" s="6"/>
@@ -13880,17 +13935,17 @@
       <c r="AZ159" s="8"/>
       <c r="BA159" s="9"/>
       <c r="BC159" s="46">
-        <f t="shared" si="47"/>
-        <v>4</v>
+        <f t="shared" si="49"/>
+        <v>9</v>
       </c>
       <c r="BD159" s="47">
-        <f t="shared" si="48"/>
-        <v>1.2</v>
+        <f t="shared" si="50"/>
+        <v>2.6999999999999997</v>
       </c>
     </row>
     <row r="160" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A160" s="40" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="B160" s="41">
         <v>9</v>
@@ -13912,11 +13967,17 @@
       <c r="O160" s="10"/>
       <c r="P160" s="11"/>
       <c r="Q160" s="12"/>
-      <c r="R160" s="13"/>
+      <c r="R160" s="13">
+        <v>1</v>
+      </c>
       <c r="T160" s="6"/>
       <c r="U160" s="7"/>
-      <c r="V160" s="8"/>
-      <c r="W160" s="9"/>
+      <c r="V160" s="8">
+        <v>1</v>
+      </c>
+      <c r="W160" s="9">
+        <v>1</v>
+      </c>
       <c r="Y160" s="10"/>
       <c r="Z160" s="11"/>
       <c r="AA160" s="12"/>
@@ -13928,13 +13989,13 @@
       <c r="AI160" s="10"/>
       <c r="AJ160" s="11"/>
       <c r="AK160" s="12"/>
-      <c r="AL160" s="13"/>
+      <c r="AL160" s="13">
+        <v>1</v>
+      </c>
       <c r="AN160" s="6"/>
       <c r="AO160" s="7"/>
       <c r="AP160" s="8"/>
-      <c r="AQ160" s="9">
-        <v>2</v>
-      </c>
+      <c r="AQ160" s="9"/>
       <c r="AS160" s="10"/>
       <c r="AT160" s="11"/>
       <c r="AU160" s="12"/>
@@ -13944,12 +14005,12 @@
       <c r="AZ160" s="8"/>
       <c r="BA160" s="9"/>
       <c r="BC160" s="46">
-        <f t="shared" si="47"/>
-        <v>2</v>
+        <f t="shared" si="49"/>
+        <v>4</v>
       </c>
       <c r="BD160" s="47">
-        <f t="shared" si="48"/>
-        <v>0.6</v>
+        <f t="shared" si="50"/>
+        <v>1.2</v>
       </c>
     </row>
     <row r="161" spans="1:56" x14ac:dyDescent="0.35">
@@ -14008,37 +14069,33 @@
       <c r="AZ161" s="8"/>
       <c r="BA161" s="9"/>
       <c r="BC161" s="46">
-        <f t="shared" si="37"/>
+        <f t="shared" si="49"/>
         <v>2</v>
       </c>
       <c r="BD161" s="47">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="162" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A162" s="40" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="B162" s="41">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C162" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D162" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E162" s="10"/>
       <c r="F162" s="11"/>
       <c r="G162" s="12"/>
       <c r="H162" s="13"/>
-      <c r="J162" s="6">
-        <v>2</v>
-      </c>
-      <c r="K162" s="7">
-        <v>0</v>
-      </c>
+      <c r="J162" s="6"/>
+      <c r="K162" s="7"/>
       <c r="L162" s="8"/>
       <c r="M162" s="9"/>
       <c r="O162" s="10"/>
@@ -14064,7 +14121,9 @@
       <c r="AN162" s="6"/>
       <c r="AO162" s="7"/>
       <c r="AP162" s="8"/>
-      <c r="AQ162" s="9"/>
+      <c r="AQ162" s="9">
+        <v>2</v>
+      </c>
       <c r="AS162" s="10"/>
       <c r="AT162" s="11"/>
       <c r="AU162" s="12"/>
@@ -14074,17 +14133,17 @@
       <c r="AZ162" s="8"/>
       <c r="BA162" s="9"/>
       <c r="BC162" s="46">
-        <f t="shared" ref="BC162:BC172" si="49">SUM(E162:BA162)</f>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="BD162" s="47">
-        <f t="shared" ref="BD162:BD172" si="50">(SUM(E162:BB162)*$D$2)</f>
+        <f t="shared" si="40"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="163" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A163" s="40" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B163" s="41">
         <v>1</v>
@@ -14099,12 +14158,14 @@
       <c r="F163" s="11"/>
       <c r="G163" s="12"/>
       <c r="H163" s="13"/>
-      <c r="J163" s="6"/>
-      <c r="K163" s="7"/>
+      <c r="J163" s="6">
+        <v>2</v>
+      </c>
+      <c r="K163" s="7">
+        <v>0</v>
+      </c>
       <c r="L163" s="8"/>
-      <c r="M163" s="9">
-        <v>1</v>
-      </c>
+      <c r="M163" s="9"/>
       <c r="O163" s="10"/>
       <c r="P163" s="11"/>
       <c r="Q163" s="12"/>
@@ -14138,17 +14199,17 @@
       <c r="AZ163" s="8"/>
       <c r="BA163" s="9"/>
       <c r="BC163" s="46">
-        <f t="shared" ref="BC163:BC164" si="51">SUM(E163:BA163)</f>
-        <v>1</v>
+        <f t="shared" ref="BC163:BC174" si="51">SUM(E163:BA163)</f>
+        <v>2</v>
       </c>
       <c r="BD163" s="47">
-        <f t="shared" ref="BD163:BD164" si="52">(SUM(E163:BB163)*$D$2)</f>
-        <v>0.3</v>
+        <f t="shared" ref="BD163:BD174" si="52">(SUM(E163:BB163)*$D$2)</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="164" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A164" s="40" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B164" s="41">
         <v>1</v>
@@ -14166,13 +14227,13 @@
       <c r="J164" s="6"/>
       <c r="K164" s="7"/>
       <c r="L164" s="8"/>
-      <c r="M164" s="9"/>
+      <c r="M164" s="9">
+        <v>1</v>
+      </c>
       <c r="O164" s="10"/>
       <c r="P164" s="11"/>
       <c r="Q164" s="12"/>
-      <c r="R164" s="13">
-        <v>1</v>
-      </c>
+      <c r="R164" s="13"/>
       <c r="T164" s="6"/>
       <c r="U164" s="7"/>
       <c r="V164" s="8"/>
@@ -14190,33 +14251,31 @@
       <c r="AK164" s="12"/>
       <c r="AL164" s="13"/>
       <c r="AN164" s="6"/>
-      <c r="AO164" s="7">
-        <v>2</v>
-      </c>
+      <c r="AO164" s="7"/>
       <c r="AP164" s="8"/>
       <c r="AQ164" s="9"/>
       <c r="AS164" s="10"/>
       <c r="AT164" s="11"/>
       <c r="AU164" s="12"/>
       <c r="AV164" s="13"/>
-      <c r="AX164" s="6">
-        <v>3</v>
-      </c>
+      <c r="AX164" s="6"/>
       <c r="AY164" s="7"/>
       <c r="AZ164" s="8"/>
-      <c r="BA164" s="9"/>
+      <c r="BA164" s="9">
+        <v>1</v>
+      </c>
       <c r="BC164" s="46">
-        <f t="shared" si="51"/>
-        <v>6</v>
+        <f t="shared" ref="BC164:BC165" si="53">SUM(E164:BA164)</f>
+        <v>2</v>
       </c>
       <c r="BD164" s="47">
-        <f t="shared" si="52"/>
-        <v>1.7999999999999998</v>
+        <f t="shared" ref="BD164:BD165" si="54">(SUM(E164:BB164)*$D$2)</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="165" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A165" s="40" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="B165" s="41">
         <v>1</v>
@@ -14238,7 +14297,9 @@
       <c r="O165" s="10"/>
       <c r="P165" s="11"/>
       <c r="Q165" s="12"/>
-      <c r="R165" s="13"/>
+      <c r="R165" s="13">
+        <v>1</v>
+      </c>
       <c r="T165" s="6"/>
       <c r="U165" s="7"/>
       <c r="V165" s="8"/>
@@ -14256,34 +14317,38 @@
       <c r="AK165" s="12"/>
       <c r="AL165" s="13"/>
       <c r="AN165" s="6"/>
-      <c r="AO165" s="7"/>
-      <c r="AP165" s="8">
-        <v>1</v>
-      </c>
+      <c r="AO165" s="7">
+        <v>2</v>
+      </c>
+      <c r="AP165" s="8"/>
       <c r="AQ165" s="9"/>
       <c r="AS165" s="10"/>
       <c r="AT165" s="11"/>
       <c r="AU165" s="12"/>
       <c r="AV165" s="13"/>
-      <c r="AX165" s="6"/>
+      <c r="AX165" s="6">
+        <v>3</v>
+      </c>
       <c r="AY165" s="7"/>
-      <c r="AZ165" s="8"/>
+      <c r="AZ165" s="8">
+        <v>3</v>
+      </c>
       <c r="BA165" s="9"/>
       <c r="BC165" s="46">
-        <f t="shared" si="49"/>
-        <v>1</v>
+        <f t="shared" si="53"/>
+        <v>9</v>
       </c>
       <c r="BD165" s="47">
-        <f t="shared" si="50"/>
-        <v>0.3</v>
+        <f t="shared" si="54"/>
+        <v>2.6999999999999997</v>
       </c>
     </row>
     <row r="166" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A166" s="40" t="s">
-        <v>291</v>
-      </c>
-      <c r="B166" s="40" t="s">
-        <v>53</v>
+        <v>330</v>
+      </c>
+      <c r="B166" s="41">
+        <v>1</v>
       </c>
       <c r="C166" s="40" t="s">
         <v>66</v>
@@ -14291,18 +14356,10 @@
       <c r="D166" t="s">
         <v>62</v>
       </c>
-      <c r="E166" s="10">
-        <v>1</v>
-      </c>
-      <c r="F166" s="11">
-        <v>0</v>
-      </c>
-      <c r="G166" s="12">
-        <v>0</v>
-      </c>
-      <c r="H166" s="13">
-        <v>1</v>
-      </c>
+      <c r="E166" s="10"/>
+      <c r="F166" s="11"/>
+      <c r="G166" s="12"/>
+      <c r="H166" s="13"/>
       <c r="J166" s="6"/>
       <c r="K166" s="7"/>
       <c r="L166" s="8"/>
@@ -14329,7 +14386,9 @@
       <c r="AL166" s="13"/>
       <c r="AN166" s="6"/>
       <c r="AO166" s="7"/>
-      <c r="AP166" s="8"/>
+      <c r="AP166" s="8">
+        <v>1</v>
+      </c>
       <c r="AQ166" s="9"/>
       <c r="AS166" s="10"/>
       <c r="AT166" s="11"/>
@@ -14340,17 +14399,17 @@
       <c r="AZ166" s="8"/>
       <c r="BA166" s="9"/>
       <c r="BC166" s="46">
-        <f t="shared" si="49"/>
-        <v>2</v>
+        <f t="shared" si="51"/>
+        <v>1</v>
       </c>
       <c r="BD166" s="47">
-        <f t="shared" si="50"/>
-        <v>0.6</v>
+        <f t="shared" si="52"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="167" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A167" s="40" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B167" s="40" t="s">
         <v>53</v>
@@ -14361,24 +14420,26 @@
       <c r="D167" t="s">
         <v>62</v>
       </c>
-      <c r="E167" s="10"/>
-      <c r="F167" s="11"/>
-      <c r="G167" s="12"/>
-      <c r="H167" s="13"/>
+      <c r="E167" s="10">
+        <v>1</v>
+      </c>
+      <c r="F167" s="11">
+        <v>0</v>
+      </c>
+      <c r="G167" s="12">
+        <v>0</v>
+      </c>
+      <c r="H167" s="13">
+        <v>1</v>
+      </c>
       <c r="J167" s="6"/>
       <c r="K167" s="7"/>
       <c r="L167" s="8"/>
-      <c r="M167" s="9">
-        <v>1</v>
-      </c>
+      <c r="M167" s="9"/>
       <c r="O167" s="10"/>
       <c r="P167" s="11"/>
-      <c r="Q167" s="12">
-        <v>5</v>
-      </c>
-      <c r="R167" s="13">
-        <v>5</v>
-      </c>
+      <c r="Q167" s="12"/>
+      <c r="R167" s="13"/>
       <c r="T167" s="6"/>
       <c r="U167" s="7"/>
       <c r="V167" s="8"/>
@@ -14408,17 +14469,17 @@
       <c r="AZ167" s="8"/>
       <c r="BA167" s="9"/>
       <c r="BC167" s="46">
-        <f t="shared" si="49"/>
-        <v>11</v>
+        <f t="shared" si="51"/>
+        <v>2</v>
       </c>
       <c r="BD167" s="47">
-        <f t="shared" si="50"/>
-        <v>3.3</v>
+        <f t="shared" si="52"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="168" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A168" s="40" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B168" s="40" t="s">
         <v>53</v>
@@ -14427,63 +14488,45 @@
         <v>66</v>
       </c>
       <c r="D168" t="s">
-        <v>54</v>
-      </c>
-      <c r="E168" s="10">
-        <v>0</v>
-      </c>
-      <c r="F168" s="11">
-        <v>0</v>
-      </c>
-      <c r="G168" s="12">
-        <v>0</v>
-      </c>
-      <c r="H168" s="13">
-        <v>1</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E168" s="10"/>
+      <c r="F168" s="11"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="13"/>
       <c r="J168" s="6"/>
       <c r="K168" s="7"/>
       <c r="L168" s="8"/>
-      <c r="M168" s="9"/>
+      <c r="M168" s="9">
+        <v>1</v>
+      </c>
       <c r="O168" s="10"/>
       <c r="P168" s="11"/>
-      <c r="Q168" s="12"/>
+      <c r="Q168" s="12">
+        <v>5</v>
+      </c>
       <c r="R168" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T168" s="6"/>
       <c r="U168" s="7"/>
       <c r="V168" s="8"/>
       <c r="W168" s="9"/>
       <c r="Y168" s="10"/>
-      <c r="Z168" s="11">
-        <v>1</v>
-      </c>
-      <c r="AA168" s="12">
-        <v>1</v>
-      </c>
+      <c r="Z168" s="11"/>
+      <c r="AA168" s="12"/>
       <c r="AB168" s="13"/>
       <c r="AD168" s="6"/>
       <c r="AE168" s="7"/>
-      <c r="AF168" s="8">
-        <v>1</v>
-      </c>
+      <c r="AF168" s="8"/>
       <c r="AG168" s="9"/>
-      <c r="AI168" s="10">
-        <v>1</v>
-      </c>
+      <c r="AI168" s="10"/>
       <c r="AJ168" s="11"/>
-      <c r="AK168" s="12">
-        <v>1</v>
-      </c>
-      <c r="AL168" s="13">
-        <v>1</v>
-      </c>
+      <c r="AK168" s="12"/>
+      <c r="AL168" s="13"/>
       <c r="AN168" s="6"/>
       <c r="AO168" s="7"/>
-      <c r="AP168" s="8">
-        <v>1</v>
-      </c>
+      <c r="AP168" s="8"/>
       <c r="AQ168" s="9"/>
       <c r="AS168" s="10"/>
       <c r="AT168" s="11"/>
@@ -14492,19 +14535,21 @@
       <c r="AX168" s="6"/>
       <c r="AY168" s="7"/>
       <c r="AZ168" s="8"/>
-      <c r="BA168" s="9"/>
+      <c r="BA168" s="9">
+        <v>1</v>
+      </c>
       <c r="BC168" s="46">
-        <f t="shared" ref="BC168:BC169" si="53">SUM(E168:BA168)</f>
-        <v>9</v>
+        <f t="shared" si="51"/>
+        <v>12</v>
       </c>
       <c r="BD168" s="47">
-        <f t="shared" ref="BD168:BD169" si="54">(SUM(E168:BB168)*$D$2)</f>
-        <v>2.6999999999999997</v>
+        <f t="shared" si="52"/>
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="169" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A169" s="40" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B169" s="40" t="s">
         <v>53</v>
@@ -14525,7 +14570,7 @@
         <v>0</v>
       </c>
       <c r="H169" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" s="6"/>
       <c r="K169" s="7"/>
@@ -14533,29 +14578,43 @@
       <c r="M169" s="9"/>
       <c r="O169" s="10"/>
       <c r="P169" s="11"/>
-      <c r="Q169" s="12">
-        <v>1</v>
-      </c>
-      <c r="R169" s="13"/>
+      <c r="Q169" s="12"/>
+      <c r="R169" s="13">
+        <v>1</v>
+      </c>
       <c r="T169" s="6"/>
       <c r="U169" s="7"/>
       <c r="V169" s="8"/>
       <c r="W169" s="9"/>
       <c r="Y169" s="10"/>
-      <c r="Z169" s="11"/>
-      <c r="AA169" s="12"/>
+      <c r="Z169" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA169" s="12">
+        <v>1</v>
+      </c>
       <c r="AB169" s="13"/>
       <c r="AD169" s="6"/>
       <c r="AE169" s="7"/>
-      <c r="AF169" s="8"/>
+      <c r="AF169" s="8">
+        <v>1</v>
+      </c>
       <c r="AG169" s="9"/>
-      <c r="AI169" s="10"/>
+      <c r="AI169" s="10">
+        <v>1</v>
+      </c>
       <c r="AJ169" s="11"/>
-      <c r="AK169" s="12"/>
-      <c r="AL169" s="13"/>
+      <c r="AK169" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL169" s="13">
+        <v>1</v>
+      </c>
       <c r="AN169" s="6"/>
       <c r="AO169" s="7"/>
-      <c r="AP169" s="8"/>
+      <c r="AP169" s="8">
+        <v>1</v>
+      </c>
       <c r="AQ169" s="9"/>
       <c r="AS169" s="10"/>
       <c r="AT169" s="11"/>
@@ -14566,17 +14625,17 @@
       <c r="AZ169" s="8"/>
       <c r="BA169" s="9"/>
       <c r="BC169" s="46">
-        <f t="shared" si="53"/>
-        <v>1</v>
+        <f t="shared" ref="BC169:BC170" si="55">SUM(E169:BA169)</f>
+        <v>9</v>
       </c>
       <c r="BD169" s="47">
-        <f t="shared" si="54"/>
-        <v>0.3</v>
+        <f t="shared" ref="BD169:BD170" si="56">(SUM(E169:BB169)*$D$2)</f>
+        <v>2.6999999999999997</v>
       </c>
     </row>
     <row r="170" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A170" s="40" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B170" s="40" t="s">
         <v>53</v>
@@ -14605,17 +14664,15 @@
       <c r="M170" s="9"/>
       <c r="O170" s="10"/>
       <c r="P170" s="11"/>
-      <c r="Q170" s="12"/>
+      <c r="Q170" s="12">
+        <v>1</v>
+      </c>
       <c r="R170" s="13"/>
       <c r="T170" s="6"/>
       <c r="U170" s="7"/>
       <c r="V170" s="8"/>
-      <c r="W170" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y170" s="10">
-        <v>1</v>
-      </c>
+      <c r="W170" s="9"/>
+      <c r="Y170" s="10"/>
       <c r="Z170" s="11"/>
       <c r="AA170" s="12"/>
       <c r="AB170" s="13"/>
@@ -14625,12 +14682,8 @@
       <c r="AG170" s="9"/>
       <c r="AI170" s="10"/>
       <c r="AJ170" s="11"/>
-      <c r="AK170" s="12">
-        <v>1</v>
-      </c>
-      <c r="AL170" s="13">
-        <v>2</v>
-      </c>
+      <c r="AK170" s="12"/>
+      <c r="AL170" s="13"/>
       <c r="AN170" s="6"/>
       <c r="AO170" s="7"/>
       <c r="AP170" s="8"/>
@@ -14644,23 +14697,26 @@
       <c r="AZ170" s="8"/>
       <c r="BA170" s="9"/>
       <c r="BC170" s="46">
-        <f t="shared" si="49"/>
-        <v>5</v>
+        <f t="shared" si="55"/>
+        <v>1</v>
       </c>
       <c r="BD170" s="47">
-        <f t="shared" si="50"/>
-        <v>1.5</v>
+        <f t="shared" si="56"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="171" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A171" s="40" t="s">
-        <v>286</v>
-      </c>
-      <c r="B171" s="40">
-        <v>7</v>
+        <v>287</v>
+      </c>
+      <c r="B171" s="40" t="s">
+        <v>53</v>
       </c>
       <c r="C171" s="40" t="s">
         <v>66</v>
+      </c>
+      <c r="D171" t="s">
+        <v>54</v>
       </c>
       <c r="E171" s="10">
         <v>0</v>
@@ -14678,84 +14734,60 @@
       <c r="K171" s="7"/>
       <c r="L171" s="8"/>
       <c r="M171" s="9"/>
-      <c r="O171" s="10">
-        <v>2</v>
-      </c>
+      <c r="O171" s="10"/>
       <c r="P171" s="11"/>
-      <c r="Q171" s="12">
-        <v>5</v>
-      </c>
-      <c r="R171" s="13">
-        <v>4</v>
-      </c>
-      <c r="T171" s="6">
-        <v>7</v>
-      </c>
-      <c r="U171" s="7">
-        <v>5</v>
-      </c>
-      <c r="V171" s="8">
-        <v>5</v>
-      </c>
+      <c r="Q171" s="12"/>
+      <c r="R171" s="13"/>
+      <c r="T171" s="6"/>
+      <c r="U171" s="7"/>
+      <c r="V171" s="8"/>
       <c r="W171" s="9">
-        <v>5</v>
-      </c>
-      <c r="Y171" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="Y171" s="10">
+        <v>1</v>
+      </c>
       <c r="Z171" s="11"/>
       <c r="AA171" s="12"/>
       <c r="AB171" s="13"/>
       <c r="AD171" s="6"/>
       <c r="AE171" s="7"/>
-      <c r="AF171" s="8">
-        <v>6</v>
-      </c>
-      <c r="AG171" s="9">
-        <v>6</v>
-      </c>
-      <c r="AI171" s="10">
-        <v>5</v>
-      </c>
-      <c r="AJ171" s="11">
-        <v>3</v>
-      </c>
-      <c r="AK171" s="12"/>
+      <c r="AF171" s="8"/>
+      <c r="AG171" s="9"/>
+      <c r="AI171" s="10"/>
+      <c r="AJ171" s="11"/>
+      <c r="AK171" s="12">
+        <v>1</v>
+      </c>
       <c r="AL171" s="13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AN171" s="6"/>
-      <c r="AO171" s="7">
-        <v>6</v>
-      </c>
-      <c r="AP171" s="8">
-        <v>4</v>
-      </c>
-      <c r="AQ171" s="9">
-        <v>5</v>
-      </c>
+      <c r="AO171" s="7"/>
+      <c r="AP171" s="8"/>
+      <c r="AQ171" s="9"/>
       <c r="AS171" s="10"/>
-      <c r="AT171" s="11">
-        <v>7</v>
-      </c>
+      <c r="AT171" s="11"/>
       <c r="AU171" s="12"/>
       <c r="AV171" s="13"/>
-      <c r="AX171" s="6">
-        <v>8</v>
-      </c>
+      <c r="AX171" s="6"/>
       <c r="AY171" s="7"/>
       <c r="AZ171" s="8"/>
-      <c r="BA171" s="9"/>
+      <c r="BA171" s="9">
+        <v>1</v>
+      </c>
       <c r="BC171" s="46">
-        <f t="shared" si="49"/>
-        <v>89</v>
+        <f t="shared" si="51"/>
+        <v>6</v>
       </c>
       <c r="BD171" s="47">
-        <f t="shared" si="50"/>
-        <v>26.7</v>
+        <f t="shared" si="52"/>
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="172" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A172" s="40" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B172" s="40">
         <v>7</v>
@@ -14779,54 +14811,88 @@
       <c r="K172" s="7"/>
       <c r="L172" s="8"/>
       <c r="M172" s="9"/>
-      <c r="O172" s="10"/>
+      <c r="O172" s="10">
+        <v>2</v>
+      </c>
       <c r="P172" s="11"/>
-      <c r="Q172" s="12"/>
+      <c r="Q172" s="12">
+        <v>5</v>
+      </c>
       <c r="R172" s="13">
         <v>4</v>
       </c>
-      <c r="T172" s="6"/>
-      <c r="U172" s="7"/>
-      <c r="V172" s="8"/>
-      <c r="W172" s="9"/>
+      <c r="T172" s="6">
+        <v>7</v>
+      </c>
+      <c r="U172" s="7">
+        <v>5</v>
+      </c>
+      <c r="V172" s="8">
+        <v>5</v>
+      </c>
+      <c r="W172" s="9">
+        <v>5</v>
+      </c>
       <c r="Y172" s="10"/>
       <c r="Z172" s="11"/>
-      <c r="AA172" s="12">
-        <v>1</v>
-      </c>
+      <c r="AA172" s="12"/>
       <c r="AB172" s="13"/>
       <c r="AD172" s="6"/>
       <c r="AE172" s="7"/>
-      <c r="AF172" s="8"/>
-      <c r="AG172" s="9"/>
-      <c r="AI172" s="10"/>
-      <c r="AJ172" s="11"/>
+      <c r="AF172" s="8">
+        <v>6</v>
+      </c>
+      <c r="AG172" s="9">
+        <v>6</v>
+      </c>
+      <c r="AI172" s="10">
+        <v>5</v>
+      </c>
+      <c r="AJ172" s="11">
+        <v>3</v>
+      </c>
       <c r="AK172" s="12"/>
-      <c r="AL172" s="13"/>
+      <c r="AL172" s="13">
+        <v>6</v>
+      </c>
       <c r="AN172" s="6"/>
-      <c r="AO172" s="7"/>
-      <c r="AP172" s="8"/>
-      <c r="AQ172" s="9"/>
+      <c r="AO172" s="7">
+        <v>6</v>
+      </c>
+      <c r="AP172" s="8">
+        <v>4</v>
+      </c>
+      <c r="AQ172" s="9">
+        <v>5</v>
+      </c>
       <c r="AS172" s="10"/>
-      <c r="AT172" s="11"/>
+      <c r="AT172" s="11">
+        <v>7</v>
+      </c>
       <c r="AU172" s="12"/>
       <c r="AV172" s="13"/>
-      <c r="AX172" s="6"/>
+      <c r="AX172" s="6">
+        <v>8</v>
+      </c>
       <c r="AY172" s="7"/>
-      <c r="AZ172" s="8"/>
-      <c r="BA172" s="9"/>
+      <c r="AZ172" s="8">
+        <v>5</v>
+      </c>
+      <c r="BA172" s="9">
+        <v>7</v>
+      </c>
       <c r="BC172" s="46">
-        <f t="shared" si="49"/>
-        <v>5</v>
+        <f t="shared" si="51"/>
+        <v>101</v>
       </c>
       <c r="BD172" s="47">
-        <f t="shared" si="50"/>
-        <v>1.5</v>
+        <f t="shared" si="52"/>
+        <v>30.299999999999997</v>
       </c>
     </row>
     <row r="173" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A173" s="40" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B173" s="40">
         <v>7</v>
@@ -14853,27 +14919,25 @@
       <c r="O173" s="10"/>
       <c r="P173" s="11"/>
       <c r="Q173" s="12"/>
-      <c r="R173" s="13"/>
+      <c r="R173" s="13">
+        <v>4</v>
+      </c>
       <c r="T173" s="6"/>
       <c r="U173" s="7"/>
       <c r="V173" s="8"/>
-      <c r="W173" s="9">
-        <v>3</v>
-      </c>
+      <c r="W173" s="9"/>
       <c r="Y173" s="10"/>
       <c r="Z173" s="11"/>
-      <c r="AA173" s="12"/>
+      <c r="AA173" s="12">
+        <v>1</v>
+      </c>
       <c r="AB173" s="13"/>
       <c r="AD173" s="6"/>
       <c r="AE173" s="7"/>
-      <c r="AF173" s="8">
-        <v>2</v>
-      </c>
+      <c r="AF173" s="8"/>
       <c r="AG173" s="9"/>
       <c r="AI173" s="10"/>
-      <c r="AJ173" s="11">
-        <v>4</v>
-      </c>
+      <c r="AJ173" s="11"/>
       <c r="AK173" s="12"/>
       <c r="AL173" s="13"/>
       <c r="AN173" s="6"/>
@@ -14889,20 +14953,20 @@
       <c r="AZ173" s="8"/>
       <c r="BA173" s="9"/>
       <c r="BC173" s="46">
-        <f t="shared" ref="BC173" si="55">SUM(E173:BA173)</f>
-        <v>9</v>
+        <f t="shared" si="51"/>
+        <v>5</v>
       </c>
       <c r="BD173" s="47">
-        <f t="shared" ref="BD173" si="56">(SUM(E173:BB173)*$D$2)</f>
-        <v>2.6999999999999997</v>
+        <f t="shared" si="52"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="174" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A174" s="40" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B174" s="40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C174" s="40" t="s">
         <v>66</v>
@@ -14923,40 +14987,30 @@
       <c r="K174" s="7"/>
       <c r="L174" s="8"/>
       <c r="M174" s="9"/>
-      <c r="O174" s="10">
-        <v>2</v>
-      </c>
-      <c r="P174" s="11">
-        <v>3</v>
-      </c>
-      <c r="Q174" s="12">
-        <v>3</v>
-      </c>
-      <c r="R174" s="13">
-        <v>4</v>
-      </c>
+      <c r="O174" s="10"/>
+      <c r="P174" s="11"/>
+      <c r="Q174" s="12"/>
+      <c r="R174" s="13"/>
       <c r="T174" s="6"/>
-      <c r="U174" s="7">
-        <v>2</v>
-      </c>
-      <c r="V174" s="8">
-        <v>2</v>
-      </c>
+      <c r="U174" s="7"/>
+      <c r="V174" s="8"/>
       <c r="W174" s="9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Y174" s="10"/>
       <c r="Z174" s="11"/>
-      <c r="AA174" s="12">
-        <v>1</v>
-      </c>
+      <c r="AA174" s="12"/>
       <c r="AB174" s="13"/>
       <c r="AD174" s="6"/>
       <c r="AE174" s="7"/>
-      <c r="AF174" s="8"/>
+      <c r="AF174" s="8">
+        <v>2</v>
+      </c>
       <c r="AG174" s="9"/>
       <c r="AI174" s="10"/>
-      <c r="AJ174" s="11"/>
+      <c r="AJ174" s="11">
+        <v>4</v>
+      </c>
       <c r="AK174" s="12"/>
       <c r="AL174" s="13"/>
       <c r="AN174" s="6"/>
@@ -14972,18 +15026,239 @@
       <c r="AZ174" s="8"/>
       <c r="BA174" s="9"/>
       <c r="BC174" s="46">
-        <f t="shared" ref="BC174" si="57">SUM(E174:BA174)</f>
+        <f t="shared" si="51"/>
+        <v>9</v>
+      </c>
+      <c r="BD174" s="47">
+        <f t="shared" si="52"/>
+        <v>2.6999999999999997</v>
+      </c>
+    </row>
+    <row r="175" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A175" s="40" t="s">
+        <v>336</v>
+      </c>
+      <c r="B175" s="40">
+        <v>7</v>
+      </c>
+      <c r="C175" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E175" s="10">
+        <v>0</v>
+      </c>
+      <c r="F175" s="11">
+        <v>0</v>
+      </c>
+      <c r="G175" s="12">
+        <v>0</v>
+      </c>
+      <c r="H175" s="13">
+        <v>0</v>
+      </c>
+      <c r="J175" s="6"/>
+      <c r="K175" s="7"/>
+      <c r="L175" s="8"/>
+      <c r="M175" s="9"/>
+      <c r="O175" s="10"/>
+      <c r="P175" s="11"/>
+      <c r="Q175" s="12"/>
+      <c r="R175" s="13"/>
+      <c r="T175" s="6"/>
+      <c r="U175" s="7"/>
+      <c r="V175" s="8"/>
+      <c r="W175" s="9"/>
+      <c r="Y175" s="10"/>
+      <c r="Z175" s="11"/>
+      <c r="AA175" s="12"/>
+      <c r="AB175" s="13"/>
+      <c r="AD175" s="6"/>
+      <c r="AE175" s="7"/>
+      <c r="AF175" s="8"/>
+      <c r="AG175" s="9"/>
+      <c r="AI175" s="10"/>
+      <c r="AJ175" s="11"/>
+      <c r="AK175" s="12"/>
+      <c r="AL175" s="13"/>
+      <c r="AN175" s="6"/>
+      <c r="AO175" s="7"/>
+      <c r="AP175" s="8"/>
+      <c r="AQ175" s="9"/>
+      <c r="AS175" s="10"/>
+      <c r="AT175" s="11"/>
+      <c r="AU175" s="12"/>
+      <c r="AV175" s="13"/>
+      <c r="AX175" s="6"/>
+      <c r="AY175" s="7"/>
+      <c r="AZ175" s="8"/>
+      <c r="BA175" s="9">
+        <v>3</v>
+      </c>
+      <c r="BC175" s="46">
+        <f t="shared" ref="BC175:BC176" si="57">SUM(E175:BA175)</f>
+        <v>3</v>
+      </c>
+      <c r="BD175" s="47">
+        <f t="shared" ref="BD175:BD176" si="58">(SUM(E175:BB175)*$D$2)</f>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="176" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A176" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="B176" s="40">
+        <v>8</v>
+      </c>
+      <c r="C176" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E176" s="10">
+        <v>0</v>
+      </c>
+      <c r="F176" s="11">
+        <v>0</v>
+      </c>
+      <c r="G176" s="12">
+        <v>0</v>
+      </c>
+      <c r="H176" s="13">
+        <v>0</v>
+      </c>
+      <c r="J176" s="6"/>
+      <c r="K176" s="7"/>
+      <c r="L176" s="8"/>
+      <c r="M176" s="9"/>
+      <c r="O176" s="10">
+        <v>2</v>
+      </c>
+      <c r="P176" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q176" s="12">
+        <v>3</v>
+      </c>
+      <c r="R176" s="13">
+        <v>4</v>
+      </c>
+      <c r="T176" s="6"/>
+      <c r="U176" s="7">
+        <v>2</v>
+      </c>
+      <c r="V176" s="8">
+        <v>2</v>
+      </c>
+      <c r="W176" s="9">
+        <v>7</v>
+      </c>
+      <c r="Y176" s="10"/>
+      <c r="Z176" s="11"/>
+      <c r="AA176" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB176" s="13"/>
+      <c r="AD176" s="6"/>
+      <c r="AE176" s="7"/>
+      <c r="AF176" s="8"/>
+      <c r="AG176" s="9"/>
+      <c r="AI176" s="10"/>
+      <c r="AJ176" s="11"/>
+      <c r="AK176" s="12"/>
+      <c r="AL176" s="13"/>
+      <c r="AN176" s="6"/>
+      <c r="AO176" s="7"/>
+      <c r="AP176" s="8"/>
+      <c r="AQ176" s="9"/>
+      <c r="AS176" s="10"/>
+      <c r="AT176" s="11"/>
+      <c r="AU176" s="12"/>
+      <c r="AV176" s="13"/>
+      <c r="AX176" s="6"/>
+      <c r="AY176" s="7"/>
+      <c r="AZ176" s="8"/>
+      <c r="BA176" s="9"/>
+      <c r="BC176" s="46">
+        <f t="shared" si="57"/>
         <v>24</v>
       </c>
-      <c r="BD174" s="47">
-        <f t="shared" ref="BD174" si="58">(SUM(E174:BB174)*$D$2)</f>
+      <c r="BD176" s="47">
+        <f t="shared" si="58"/>
         <v>7.1999999999999993</v>
       </c>
     </row>
+    <row r="177" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A177" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="B177" s="40">
+        <v>8</v>
+      </c>
+      <c r="C177" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E177" s="10">
+        <v>0</v>
+      </c>
+      <c r="F177" s="11">
+        <v>0</v>
+      </c>
+      <c r="G177" s="12">
+        <v>0</v>
+      </c>
+      <c r="H177" s="13">
+        <v>0</v>
+      </c>
+      <c r="J177" s="6"/>
+      <c r="K177" s="7"/>
+      <c r="L177" s="8"/>
+      <c r="M177" s="9"/>
+      <c r="O177" s="10"/>
+      <c r="P177" s="11"/>
+      <c r="Q177" s="12"/>
+      <c r="R177" s="13"/>
+      <c r="T177" s="6"/>
+      <c r="U177" s="7"/>
+      <c r="V177" s="8"/>
+      <c r="W177" s="9"/>
+      <c r="Y177" s="10"/>
+      <c r="Z177" s="11"/>
+      <c r="AA177" s="12"/>
+      <c r="AB177" s="13"/>
+      <c r="AD177" s="6"/>
+      <c r="AE177" s="7"/>
+      <c r="AF177" s="8"/>
+      <c r="AG177" s="9"/>
+      <c r="AI177" s="10"/>
+      <c r="AJ177" s="11"/>
+      <c r="AK177" s="12"/>
+      <c r="AL177" s="13"/>
+      <c r="AN177" s="6"/>
+      <c r="AO177" s="7"/>
+      <c r="AP177" s="8"/>
+      <c r="AQ177" s="9"/>
+      <c r="AS177" s="10"/>
+      <c r="AT177" s="11"/>
+      <c r="AU177" s="12"/>
+      <c r="AV177" s="13"/>
+      <c r="AX177" s="6"/>
+      <c r="AY177" s="7"/>
+      <c r="AZ177" s="8"/>
+      <c r="BA177" s="9">
+        <v>7</v>
+      </c>
+      <c r="BC177" s="46">
+        <f t="shared" ref="BC177" si="59">SUM(E177:BA177)</f>
+        <v>7</v>
+      </c>
+      <c r="BD177" s="47">
+        <f t="shared" ref="BD177" si="60">(SUM(E177:BB177)*$D$2)</f>
+        <v>2.1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A122:D170">
-    <sortCondition ref="D122:D170"/>
-    <sortCondition ref="B122:B170"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A123:D171">
+    <sortCondition ref="D123:D171"/>
+    <sortCondition ref="B123:B171"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Erin\Run Club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DA3CDF-E9CD-4F29-9CC4-59A7080892B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74EA078-A0F9-412E-9225-C989D085B989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="398" activeTab="1" xr2:uid="{E0803456-148F-4C82-AA5A-324EB5FFE85D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="358">
   <si>
     <t>Student Name</t>
   </si>
@@ -1102,6 +1102,18 @@
   <si>
     <t>Lily M</t>
   </si>
+  <si>
+    <t>ALEX S</t>
+  </si>
+  <si>
+    <t>Layla C</t>
+  </si>
+  <si>
+    <t>Ella C</t>
+  </si>
+  <si>
+    <t>Evalyn Mc</t>
+  </si>
 </sst>
 </file>
 
@@ -1779,7 +1791,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BE177"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="BD179" sqref="BD179"/>
     </sheetView>
   </sheetViews>
@@ -2212,7 +2224,7 @@
       </c>
       <c r="BD6" s="47">
         <f>(SUM(BE6,'Run distances (Term 2)'!BI9,'Run distances (Term 3)'!BI6,'Run distances (Term 4)'!BI6))</f>
-        <v>6.8999999999999995</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="BE6" s="47">
         <f t="shared" ref="BE6:BE69" si="1">(SUM(E6:BB6)*$D$2)</f>
@@ -2288,7 +2300,7 @@
       </c>
       <c r="BD7" s="47">
         <f>(SUM(BE7,'Run distances (Term 2)'!BI10,'Run distances (Term 3)'!BI7,'Run distances (Term 4)'!BI7))</f>
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="BE7" s="47">
         <f t="shared" si="1"/>
@@ -3451,8 +3463,8 @@
         <v>10</v>
       </c>
       <c r="BD23" s="47">
-        <f>(SUM(BE23,'Run distances (Term 2)'!BI26,'Run distances (Term 3)'!BI23,'Run distances (Term 4)'!BI23))</f>
-        <v>3</v>
+        <f>(SUM(BE23,'Run distances (Term 2)'!BI27,'Run distances (Term 3)'!BI23,'Run distances (Term 4)'!BI23))</f>
+        <v>4.8</v>
       </c>
       <c r="BE23" s="47">
         <f t="shared" si="1"/>
@@ -3527,7 +3539,7 @@
         <v>4</v>
       </c>
       <c r="BD24" s="47">
-        <f>(SUM(BE24,'Run distances (Term 2)'!BI27,'Run distances (Term 3)'!BI24,'Run distances (Term 4)'!BI24))</f>
+        <f>(SUM(BE24,'Run distances (Term 2)'!BI28,'Run distances (Term 3)'!BI24,'Run distances (Term 4)'!BI24))</f>
         <v>1.2</v>
       </c>
       <c r="BE24" s="47">
@@ -3613,7 +3625,7 @@
         <v>31</v>
       </c>
       <c r="BD25" s="47">
-        <f>(SUM(BE25,'Run distances (Term 2)'!BI28,'Run distances (Term 3)'!BI25,'Run distances (Term 4)'!BI25))</f>
+        <f>(SUM(BE25,'Run distances (Term 2)'!BI29,'Run distances (Term 3)'!BI25,'Run distances (Term 4)'!BI25))</f>
         <v>9.2999999999999989</v>
       </c>
       <c r="BE25" s="47">
@@ -3715,7 +3727,7 @@
         <v>88</v>
       </c>
       <c r="BD26" s="47">
-        <f>(SUM(BE26,'Run distances (Term 2)'!BI29,'Run distances (Term 3)'!BI26,'Run distances (Term 4)'!BI26))</f>
+        <f>(SUM(BE26,'Run distances (Term 2)'!BI30,'Run distances (Term 3)'!BI26,'Run distances (Term 4)'!BI26))</f>
         <v>26.4</v>
       </c>
       <c r="BE26" s="47">
@@ -3809,7 +3821,7 @@
         <v>32</v>
       </c>
       <c r="BD27" s="47">
-        <f>(SUM(BE27,'Run distances (Term 2)'!BI30,'Run distances (Term 3)'!BI27,'Run distances (Term 4)'!BI27))</f>
+        <f>(SUM(BE27,'Run distances (Term 2)'!BI31,'Run distances (Term 3)'!BI27,'Run distances (Term 4)'!BI27))</f>
         <v>9.6</v>
       </c>
       <c r="BE27" s="47">
@@ -3895,7 +3907,7 @@
         <v>21</v>
       </c>
       <c r="BD28" s="47">
-        <f>(SUM(BE28,'Run distances (Term 2)'!BI31,'Run distances (Term 3)'!BI28,'Run distances (Term 4)'!BI28))</f>
+        <f>(SUM(BE28,'Run distances (Term 2)'!BI32,'Run distances (Term 3)'!BI28,'Run distances (Term 4)'!BI28))</f>
         <v>6.3</v>
       </c>
       <c r="BE28" s="47">
@@ -3971,7 +3983,7 @@
         <v>10</v>
       </c>
       <c r="BD29" s="47">
-        <f>(SUM(BE29,'Run distances (Term 2)'!BI32,'Run distances (Term 3)'!BI29,'Run distances (Term 4)'!BI29))</f>
+        <f>(SUM(BE29,'Run distances (Term 2)'!BI33,'Run distances (Term 3)'!BI29,'Run distances (Term 4)'!BI29))</f>
         <v>3</v>
       </c>
       <c r="BE29" s="47">
@@ -4049,7 +4061,7 @@
         <v>13</v>
       </c>
       <c r="BD30" s="47">
-        <f>(SUM(BE30,'Run distances (Term 2)'!BI33,'Run distances (Term 3)'!BI30,'Run distances (Term 4)'!BI30))</f>
+        <f>(SUM(BE30,'Run distances (Term 2)'!BI34,'Run distances (Term 3)'!BI30,'Run distances (Term 4)'!BI30))</f>
         <v>3.9</v>
       </c>
       <c r="BE30" s="47">
@@ -4133,7 +4145,7 @@
         <v>22</v>
       </c>
       <c r="BD31" s="47">
-        <f>(SUM(BE31,'Run distances (Term 2)'!BI34,'Run distances (Term 3)'!BI31,'Run distances (Term 4)'!BI31))</f>
+        <f>(SUM(BE31,'Run distances (Term 2)'!BI35,'Run distances (Term 3)'!BI31,'Run distances (Term 4)'!BI31))</f>
         <v>6.6</v>
       </c>
       <c r="BE31" s="47">
@@ -4229,7 +4241,7 @@
         <v>22</v>
       </c>
       <c r="BD32" s="47">
-        <f>(SUM(BE32,'Run distances (Term 2)'!BI35,'Run distances (Term 3)'!BI32,'Run distances (Term 4)'!BI32))</f>
+        <f>(SUM(BE32,'Run distances (Term 2)'!BI36,'Run distances (Term 3)'!BI32,'Run distances (Term 4)'!BI32))</f>
         <v>7.5</v>
       </c>
       <c r="BE32" s="47">
@@ -4315,8 +4327,8 @@
         <v>16</v>
       </c>
       <c r="BD33" s="47">
-        <f>(SUM(BE33,'Run distances (Term 2)'!BI36,'Run distances (Term 3)'!BI33,'Run distances (Term 4)'!BI33))</f>
-        <v>6</v>
+        <f>(SUM(BE33,'Run distances (Term 2)'!BI37,'Run distances (Term 3)'!BI33,'Run distances (Term 4)'!BI33))</f>
+        <v>6.6</v>
       </c>
       <c r="BE33" s="47">
         <f t="shared" si="1"/>
@@ -4391,7 +4403,7 @@
         <v>6</v>
       </c>
       <c r="BD34" s="47">
-        <f>(SUM(BE34,'Run distances (Term 2)'!BI37,'Run distances (Term 3)'!BI34,'Run distances (Term 4)'!BI34))</f>
+        <f>(SUM(BE34,'Run distances (Term 2)'!BI38,'Run distances (Term 3)'!BI34,'Run distances (Term 4)'!BI34))</f>
         <v>1.7999999999999998</v>
       </c>
       <c r="BE34" s="47">
@@ -4503,8 +4515,8 @@
         <v>118</v>
       </c>
       <c r="BD35" s="47">
-        <f>(SUM(BE35,'Run distances (Term 2)'!BI38,'Run distances (Term 3)'!BI35,'Run distances (Term 4)'!BI35))</f>
-        <v>35.4</v>
+        <f>(SUM(BE35,'Run distances (Term 2)'!BI39,'Run distances (Term 3)'!BI35,'Run distances (Term 4)'!BI35))</f>
+        <v>39.6</v>
       </c>
       <c r="BE35" s="47">
         <f t="shared" si="1"/>
@@ -4585,7 +4597,7 @@
         <v>35</v>
       </c>
       <c r="BD36" s="47">
-        <f>(SUM(BE36,'Run distances (Term 2)'!BI39,'Run distances (Term 3)'!BI36,'Run distances (Term 4)'!BI36))</f>
+        <f>(SUM(BE36,'Run distances (Term 2)'!BI40,'Run distances (Term 3)'!BI36,'Run distances (Term 4)'!BI36))</f>
         <v>10.5</v>
       </c>
       <c r="BE36" s="47">
@@ -4673,7 +4685,7 @@
         <v>39</v>
       </c>
       <c r="BD37" s="47">
-        <f>(SUM(BE37,'Run distances (Term 2)'!BI40,'Run distances (Term 3)'!BI37,'Run distances (Term 4)'!BI37))</f>
+        <f>(SUM(BE37,'Run distances (Term 2)'!BI41,'Run distances (Term 3)'!BI37,'Run distances (Term 4)'!BI37))</f>
         <v>12.299999999999999</v>
       </c>
       <c r="BE37" s="47">
@@ -4785,8 +4797,8 @@
         <v>73</v>
       </c>
       <c r="BD38" s="47">
-        <f>(SUM(BE38,'Run distances (Term 2)'!BI41,'Run distances (Term 3)'!BI38,'Run distances (Term 4)'!BI38))</f>
-        <v>22.5</v>
+        <f>(SUM(BE38,'Run distances (Term 2)'!BI42,'Run distances (Term 3)'!BI38,'Run distances (Term 4)'!BI38))</f>
+        <v>27.599999999999998</v>
       </c>
       <c r="BE38" s="47">
         <f t="shared" si="1"/>
@@ -4865,8 +4877,8 @@
         <v>18</v>
       </c>
       <c r="BD39" s="47">
-        <f>(SUM(BE39,'Run distances (Term 2)'!BI42,'Run distances (Term 3)'!BI39,'Run distances (Term 4)'!BI39))</f>
-        <v>7.7999999999999989</v>
+        <f>(SUM(BE39,'Run distances (Term 2)'!BI43,'Run distances (Term 3)'!BI39,'Run distances (Term 4)'!BI39))</f>
+        <v>9.8999999999999986</v>
       </c>
       <c r="BE39" s="47">
         <f t="shared" si="1"/>
@@ -4943,7 +4955,7 @@
         <v>24</v>
       </c>
       <c r="BD40" s="47">
-        <f>(SUM(BE40,'Run distances (Term 2)'!BI43,'Run distances (Term 3)'!BI40,'Run distances (Term 4)'!BI40))</f>
+        <f>(SUM(BE40,'Run distances (Term 2)'!BI44,'Run distances (Term 3)'!BI40,'Run distances (Term 4)'!BI40))</f>
         <v>7.1999999999999993</v>
       </c>
       <c r="BE40" s="47">
@@ -5009,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="BD41" s="47">
-        <f>(SUM(BE41,'Run distances (Term 2)'!BI44,'Run distances (Term 3)'!BI41,'Run distances (Term 4)'!BI41))</f>
+        <f>(SUM(BE41,'Run distances (Term 2)'!BI45,'Run distances (Term 3)'!BI41,'Run distances (Term 4)'!BI41))</f>
         <v>0</v>
       </c>
       <c r="BE41" s="47">
@@ -5115,7 +5127,7 @@
         <v>74</v>
       </c>
       <c r="BD42" s="47">
-        <f>(SUM(BE42,'Run distances (Term 2)'!BI45,'Run distances (Term 3)'!BI42,'Run distances (Term 4)'!BI42))</f>
+        <f>(SUM(BE42,'Run distances (Term 2)'!BI46,'Run distances (Term 3)'!BI42,'Run distances (Term 4)'!BI42))</f>
         <v>22.2</v>
       </c>
       <c r="BE42" s="47">
@@ -5199,7 +5211,7 @@
         <v>21</v>
       </c>
       <c r="BD43" s="47">
-        <f>(SUM(BE43,'Run distances (Term 2)'!BI46,'Run distances (Term 3)'!BI43,'Run distances (Term 4)'!BI43))</f>
+        <f>(SUM(BE43,'Run distances (Term 2)'!BI47,'Run distances (Term 3)'!BI43,'Run distances (Term 4)'!BI43))</f>
         <v>6.3</v>
       </c>
       <c r="BE43" s="47">
@@ -5267,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="BD44" s="47">
-        <f>(SUM(BE44,'Run distances (Term 2)'!BI48,'Run distances (Term 3)'!BI44,'Run distances (Term 4)'!BI44))</f>
+        <f>(SUM(BE44,'Run distances (Term 2)'!BI49,'Run distances (Term 3)'!BI44,'Run distances (Term 4)'!BI44))</f>
         <v>0.89999999999999991</v>
       </c>
       <c r="BE44" s="47">
@@ -5333,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="BD45" s="47">
-        <f>(SUM(BE45,'Run distances (Term 2)'!BI49,'Run distances (Term 3)'!BI45,'Run distances (Term 4)'!BI45))</f>
+        <f>(SUM(BE45,'Run distances (Term 2)'!BI50,'Run distances (Term 3)'!BI45,'Run distances (Term 4)'!BI45))</f>
         <v>0</v>
       </c>
       <c r="BE45" s="47">
@@ -5401,7 +5413,7 @@
         <v>3</v>
       </c>
       <c r="BD46" s="47">
-        <f>(SUM(BE46,'Run distances (Term 2)'!BI50,'Run distances (Term 3)'!BI46,'Run distances (Term 4)'!BI46))</f>
+        <f>(SUM(BE46,'Run distances (Term 2)'!BI51,'Run distances (Term 3)'!BI46,'Run distances (Term 4)'!BI46))</f>
         <v>0.89999999999999991</v>
       </c>
       <c r="BE46" s="47">
@@ -5473,7 +5485,7 @@
         <v>9</v>
       </c>
       <c r="BD47" s="47">
-        <f>(SUM(BE47,'Run distances (Term 2)'!BI51,'Run distances (Term 3)'!BI47,'Run distances (Term 4)'!BI47))</f>
+        <f>(SUM(BE47,'Run distances (Term 2)'!BI52,'Run distances (Term 3)'!BI47,'Run distances (Term 4)'!BI47))</f>
         <v>2.6999999999999997</v>
       </c>
       <c r="BE47" s="47">
@@ -5601,8 +5613,8 @@
         <v>219</v>
       </c>
       <c r="BD48" s="47">
-        <f>(SUM(BE48,'Run distances (Term 2)'!BI52,'Run distances (Term 3)'!BI48,'Run distances (Term 4)'!BI48))</f>
-        <v>73.8</v>
+        <f>(SUM(BE48,'Run distances (Term 2)'!BI53,'Run distances (Term 3)'!BI48,'Run distances (Term 4)'!BI48))</f>
+        <v>91.8</v>
       </c>
       <c r="BE48" s="47">
         <f t="shared" si="1"/>
@@ -5731,8 +5743,8 @@
         <v>190</v>
       </c>
       <c r="BD49" s="47">
-        <f>(SUM(BE49,'Run distances (Term 2)'!BI53,'Run distances (Term 3)'!BI49,'Run distances (Term 4)'!BI49))</f>
-        <v>63</v>
+        <f>(SUM(BE49,'Run distances (Term 2)'!BI54,'Run distances (Term 3)'!BI49,'Run distances (Term 4)'!BI49))</f>
+        <v>75.599999999999994</v>
       </c>
       <c r="BE49" s="47">
         <f t="shared" si="1"/>
@@ -5849,8 +5861,8 @@
         <v>87</v>
       </c>
       <c r="BD50" s="47">
-        <f>(SUM(BE50,'Run distances (Term 2)'!BI54,'Run distances (Term 3)'!BI50,'Run distances (Term 4)'!BI50))</f>
-        <v>26.099999999999998</v>
+        <f>(SUM(BE50,'Run distances (Term 2)'!BI55,'Run distances (Term 3)'!BI50,'Run distances (Term 4)'!BI50))</f>
+        <v>28.799999999999997</v>
       </c>
       <c r="BE50" s="47">
         <f t="shared" si="1"/>
@@ -5935,8 +5947,8 @@
         <v>18</v>
       </c>
       <c r="BD51" s="47">
-        <f>(SUM(BE51,'Run distances (Term 2)'!BI55,'Run distances (Term 3)'!BI51,'Run distances (Term 4)'!BI51))</f>
-        <v>5.3999999999999995</v>
+        <f>(SUM(BE51,'Run distances (Term 2)'!BI56,'Run distances (Term 3)'!BI51,'Run distances (Term 4)'!BI51))</f>
+        <v>6.6</v>
       </c>
       <c r="BE51" s="47">
         <f t="shared" si="1"/>
@@ -6029,7 +6041,7 @@
         <v>41</v>
       </c>
       <c r="BD52" s="47">
-        <f>(SUM(BE52,'Run distances (Term 2)'!BI56,'Run distances (Term 3)'!BI52,'Run distances (Term 4)'!BI52))</f>
+        <f>(SUM(BE52,'Run distances (Term 2)'!BI57,'Run distances (Term 3)'!BI52,'Run distances (Term 4)'!BI52))</f>
         <v>12.299999999999999</v>
       </c>
       <c r="BE52" s="47">
@@ -6113,7 +6125,7 @@
         <v>27</v>
       </c>
       <c r="BD53" s="47">
-        <f>(SUM(BE53,'Run distances (Term 2)'!BI57,'Run distances (Term 3)'!BI53,'Run distances (Term 4)'!BI53))</f>
+        <f>(SUM(BE53,'Run distances (Term 2)'!BI58,'Run distances (Term 3)'!BI53,'Run distances (Term 4)'!BI53))</f>
         <v>8.1</v>
       </c>
       <c r="BE53" s="47">
@@ -6181,7 +6193,7 @@
         <v>1</v>
       </c>
       <c r="BD54" s="47">
-        <f>(SUM(BE54,'Run distances (Term 2)'!BI58,'Run distances (Term 3)'!BI54,'Run distances (Term 4)'!BI54))</f>
+        <f>(SUM(BE54,'Run distances (Term 2)'!BI59,'Run distances (Term 3)'!BI54,'Run distances (Term 4)'!BI54))</f>
         <v>0.3</v>
       </c>
       <c r="BE54" s="47">
@@ -6247,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="BD55" s="47">
-        <f>(SUM(BE55,'Run distances (Term 2)'!BI59,'Run distances (Term 3)'!BI55,'Run distances (Term 4)'!BI55))</f>
+        <f>(SUM(BE55,'Run distances (Term 2)'!BI60,'Run distances (Term 3)'!BI55,'Run distances (Term 4)'!BI55))</f>
         <v>0</v>
       </c>
       <c r="BE55" s="47">
@@ -6313,7 +6325,7 @@
         <v>0</v>
       </c>
       <c r="BD56" s="47">
-        <f>(SUM(BE56,'Run distances (Term 2)'!BI60,'Run distances (Term 3)'!BI56,'Run distances (Term 4)'!BI56))</f>
+        <f>(SUM(BE56,'Run distances (Term 2)'!BI61,'Run distances (Term 3)'!BI56,'Run distances (Term 4)'!BI56))</f>
         <v>0</v>
       </c>
       <c r="BE56" s="47">
@@ -6417,7 +6429,7 @@
         <v>44</v>
       </c>
       <c r="BD57" s="47">
-        <f>(SUM(BE57,'Run distances (Term 2)'!BI61,'Run distances (Term 3)'!BI57,'Run distances (Term 4)'!BI57))</f>
+        <f>(SUM(BE57,'Run distances (Term 2)'!BI62,'Run distances (Term 3)'!BI57,'Run distances (Term 4)'!BI57))</f>
         <v>13.5</v>
       </c>
       <c r="BE57" s="47">
@@ -6493,7 +6505,7 @@
         <v>5</v>
       </c>
       <c r="BD58" s="47">
-        <f>(SUM(BE58,'Run distances (Term 2)'!BI62,'Run distances (Term 3)'!BI58,'Run distances (Term 4)'!BI58))</f>
+        <f>(SUM(BE58,'Run distances (Term 2)'!BI63,'Run distances (Term 3)'!BI58,'Run distances (Term 4)'!BI58))</f>
         <v>1.5</v>
       </c>
       <c r="BE58" s="47">
@@ -6559,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="BD59" s="47">
-        <f>(SUM(BE59,'Run distances (Term 2)'!BI63,'Run distances (Term 3)'!BI59,'Run distances (Term 4)'!BI59))</f>
+        <f>(SUM(BE59,'Run distances (Term 2)'!BI64,'Run distances (Term 3)'!BI59,'Run distances (Term 4)'!BI59))</f>
         <v>0</v>
       </c>
       <c r="BE59" s="47">
@@ -6659,8 +6671,8 @@
         <v>47</v>
       </c>
       <c r="BD60" s="47">
-        <f>(SUM(BE60,'Run distances (Term 2)'!BI64,'Run distances (Term 3)'!BI60,'Run distances (Term 4)'!BI60))</f>
-        <v>15.299999999999999</v>
+        <f>(SUM(BE60,'Run distances (Term 2)'!BI65,'Run distances (Term 3)'!BI60,'Run distances (Term 4)'!BI60))</f>
+        <v>17.7</v>
       </c>
       <c r="BE60" s="47">
         <f t="shared" si="1"/>
@@ -6759,8 +6771,8 @@
         <v>53</v>
       </c>
       <c r="BD61" s="47">
-        <f>(SUM(BE61,'Run distances (Term 2)'!BI65,'Run distances (Term 3)'!BI61,'Run distances (Term 4)'!BI61))</f>
-        <v>18</v>
+        <f>(SUM(BE61,'Run distances (Term 2)'!BI66,'Run distances (Term 3)'!BI61,'Run distances (Term 4)'!BI61))</f>
+        <v>20.399999999999999</v>
       </c>
       <c r="BE61" s="47">
         <f t="shared" si="1"/>
@@ -6831,7 +6843,7 @@
         <v>6</v>
       </c>
       <c r="BD62" s="47">
-        <f>(SUM(BE62,'Run distances (Term 2)'!BI66,'Run distances (Term 3)'!BI62,'Run distances (Term 4)'!BI62))</f>
+        <f>(SUM(BE62,'Run distances (Term 2)'!BI67,'Run distances (Term 3)'!BI62,'Run distances (Term 4)'!BI62))</f>
         <v>2.6999999999999997</v>
       </c>
       <c r="BE62" s="47">
@@ -6901,7 +6913,7 @@
         <v>2</v>
       </c>
       <c r="BD63" s="47">
-        <f>(SUM(BE63,'Run distances (Term 2)'!BI67,'Run distances (Term 3)'!BI63,'Run distances (Term 4)'!BI63))</f>
+        <f>(SUM(BE63,'Run distances (Term 2)'!BI68,'Run distances (Term 3)'!BI63,'Run distances (Term 4)'!BI63))</f>
         <v>0.6</v>
       </c>
       <c r="BE63" s="47">
@@ -6989,8 +7001,8 @@
         <v>33</v>
       </c>
       <c r="BD64" s="47">
-        <f>(SUM(BE64,'Run distances (Term 2)'!BI68,'Run distances (Term 3)'!BI64,'Run distances (Term 4)'!BI64))</f>
-        <v>12.3</v>
+        <f>(SUM(BE64,'Run distances (Term 2)'!BI69,'Run distances (Term 3)'!BI64,'Run distances (Term 4)'!BI64))</f>
+        <v>12.9</v>
       </c>
       <c r="BE64" s="47">
         <f t="shared" si="1"/>
@@ -7058,7 +7070,7 @@
         <v>14</v>
       </c>
       <c r="BD65" s="47">
-        <f>(SUM(BE65,'Run distances (Term 2)'!BI69,'Run distances (Term 3)'!BI65,'Run distances (Term 4)'!BI65))</f>
+        <f>(SUM(BE65,'Run distances (Term 2)'!BI70,'Run distances (Term 3)'!BI65,'Run distances (Term 4)'!BI65))</f>
         <v>4.2</v>
       </c>
       <c r="BE65" s="47">
@@ -7112,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="BD66" s="47">
-        <f>(SUM(BE66,'Run distances (Term 2)'!BI70,'Run distances (Term 3)'!BI66,'Run distances (Term 4)'!BI66))</f>
+        <f>(SUM(BE66,'Run distances (Term 2)'!BI71,'Run distances (Term 3)'!BI66,'Run distances (Term 4)'!BI66))</f>
         <v>0</v>
       </c>
       <c r="BE66" s="47">
@@ -7190,7 +7202,7 @@
         <v>8</v>
       </c>
       <c r="BD67" s="47">
-        <f>(SUM(BE67,'Run distances (Term 2)'!BI71,'Run distances (Term 3)'!BI67,'Run distances (Term 4)'!BI67))</f>
+        <f>(SUM(BE67,'Run distances (Term 2)'!BI72,'Run distances (Term 3)'!BI67,'Run distances (Term 4)'!BI67))</f>
         <v>2.4</v>
       </c>
       <c r="BE67" s="47">
@@ -7270,7 +7282,7 @@
         <v>5</v>
       </c>
       <c r="BD68" s="47">
-        <f>(SUM(BE68,'Run distances (Term 2)'!BI72,'Run distances (Term 3)'!BI68,'Run distances (Term 4)'!BI68))</f>
+        <f>(SUM(BE68,'Run distances (Term 2)'!BI73,'Run distances (Term 3)'!BI68,'Run distances (Term 4)'!BI68))</f>
         <v>2.4</v>
       </c>
       <c r="BE68" s="47">
@@ -7344,7 +7356,7 @@
         <v>1</v>
       </c>
       <c r="BD69" s="47">
-        <f>(SUM(BE69,'Run distances (Term 2)'!BI73,'Run distances (Term 3)'!BI69,'Run distances (Term 4)'!BI69))</f>
+        <f>(SUM(BE69,'Run distances (Term 2)'!BI74,'Run distances (Term 3)'!BI69,'Run distances (Term 4)'!BI69))</f>
         <v>0.3</v>
       </c>
       <c r="BE69" s="47">
@@ -7410,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="BD70" s="47">
-        <f>(SUM(BE70,'Run distances (Term 2)'!BI74,'Run distances (Term 3)'!BI70,'Run distances (Term 4)'!BI70))</f>
+        <f>(SUM(BE70,'Run distances (Term 2)'!BI75,'Run distances (Term 3)'!BI70,'Run distances (Term 4)'!BI70))</f>
         <v>0</v>
       </c>
       <c r="BE70" s="47">
@@ -7490,7 +7502,7 @@
         <v>9</v>
       </c>
       <c r="BD71" s="47">
-        <f>(SUM(BE71,'Run distances (Term 2)'!BI75,'Run distances (Term 3)'!BI71,'Run distances (Term 4)'!BI71))</f>
+        <f>(SUM(BE71,'Run distances (Term 2)'!BI76,'Run distances (Term 3)'!BI71,'Run distances (Term 4)'!BI71))</f>
         <v>2.6999999999999997</v>
       </c>
       <c r="BE71" s="47">
@@ -7560,7 +7572,7 @@
         <v>2</v>
       </c>
       <c r="BD72" s="47">
-        <f>(SUM(BE72,'Run distances (Term 2)'!BI76,'Run distances (Term 3)'!BI72,'Run distances (Term 4)'!BI72))</f>
+        <f>(SUM(BE72,'Run distances (Term 2)'!BI77,'Run distances (Term 3)'!BI72,'Run distances (Term 4)'!BI72))</f>
         <v>0.6</v>
       </c>
       <c r="BE72" s="47">
@@ -7634,7 +7646,7 @@
         <v>2</v>
       </c>
       <c r="BD73" s="47">
-        <f>(SUM(BE73,'Run distances (Term 2)'!BI77,'Run distances (Term 3)'!BI73,'Run distances (Term 4)'!BI73))</f>
+        <f>(SUM(BE73,'Run distances (Term 2)'!BI78,'Run distances (Term 3)'!BI73,'Run distances (Term 4)'!BI73))</f>
         <v>0.6</v>
       </c>
       <c r="BE73" s="47">
@@ -7700,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="BD74" s="47">
-        <f>(SUM(BE74,'Run distances (Term 2)'!BI78,'Run distances (Term 3)'!BI74,'Run distances (Term 4)'!BI74))</f>
+        <f>(SUM(BE74,'Run distances (Term 2)'!BI79,'Run distances (Term 3)'!BI74,'Run distances (Term 4)'!BI74))</f>
         <v>0.3</v>
       </c>
       <c r="BE74" s="47">
@@ -7794,8 +7806,8 @@
         <v>56</v>
       </c>
       <c r="BD75" s="47">
-        <f>(SUM(BE75,'Run distances (Term 2)'!BI79,'Run distances (Term 3)'!BI75,'Run distances (Term 4)'!BI75))</f>
-        <v>18</v>
+        <f>(SUM(BE75,'Run distances (Term 2)'!BI80,'Run distances (Term 3)'!BI75,'Run distances (Term 4)'!BI75))</f>
+        <v>20.7</v>
       </c>
       <c r="BE75" s="47">
         <f t="shared" si="10"/>
@@ -7878,7 +7890,7 @@
         <v>62</v>
       </c>
       <c r="BD76" s="47">
-        <f>(SUM(BE76,'Run distances (Term 2)'!BI80,'Run distances (Term 3)'!BI76,'Run distances (Term 4)'!BI76))</f>
+        <f>(SUM(BE76,'Run distances (Term 2)'!BI81,'Run distances (Term 3)'!BI76,'Run distances (Term 4)'!BI76))</f>
         <v>18.599999999999998</v>
       </c>
       <c r="BE76" s="47">
@@ -7948,7 +7960,7 @@
         <v>5</v>
       </c>
       <c r="BD77" s="47">
-        <f>(SUM(BE77,'Run distances (Term 2)'!BI81,'Run distances (Term 3)'!BI77,'Run distances (Term 4)'!BI77))</f>
+        <f>(SUM(BE77,'Run distances (Term 2)'!BI82,'Run distances (Term 3)'!BI77,'Run distances (Term 4)'!BI77))</f>
         <v>1.5</v>
       </c>
       <c r="BE77" s="47">
@@ -8030,7 +8042,7 @@
         <v>23</v>
       </c>
       <c r="BD78" s="47">
-        <f>(SUM(BE78,'Run distances (Term 2)'!BI82,'Run distances (Term 3)'!BI78,'Run distances (Term 4)'!BI78))</f>
+        <f>(SUM(BE78,'Run distances (Term 2)'!BI83,'Run distances (Term 3)'!BI78,'Run distances (Term 4)'!BI78))</f>
         <v>6.8999999999999995</v>
       </c>
       <c r="BE78" s="47">
@@ -8110,7 +8122,7 @@
         <v>11</v>
       </c>
       <c r="BD79" s="47">
-        <f>(SUM(BE79,'Run distances (Term 2)'!BI83,'Run distances (Term 3)'!BI79,'Run distances (Term 4)'!BI79))</f>
+        <f>(SUM(BE79,'Run distances (Term 2)'!BI84,'Run distances (Term 3)'!BI79,'Run distances (Term 4)'!BI79))</f>
         <v>3.3</v>
       </c>
       <c r="BE79" s="47">
@@ -8186,7 +8198,7 @@
         <v>4</v>
       </c>
       <c r="BD80" s="47">
-        <f>(SUM(BE80,'Run distances (Term 2)'!BI85,'Run distances (Term 3)'!BI80,'Run distances (Term 4)'!BI80))</f>
+        <f>(SUM(BE80,'Run distances (Term 2)'!BI86,'Run distances (Term 3)'!BI80,'Run distances (Term 4)'!BI80))</f>
         <v>1.7999999999999998</v>
       </c>
       <c r="BE80" s="47">
@@ -8270,7 +8282,7 @@
         <v>12</v>
       </c>
       <c r="BD81" s="47">
-        <f>(SUM(BE81,'Run distances (Term 2)'!BI86,'Run distances (Term 3)'!BI81,'Run distances (Term 4)'!BI81))</f>
+        <f>(SUM(BE81,'Run distances (Term 2)'!BI87,'Run distances (Term 3)'!BI81,'Run distances (Term 4)'!BI81))</f>
         <v>3.5999999999999996</v>
       </c>
       <c r="BE81" s="47">
@@ -8356,8 +8368,8 @@
         <v>19</v>
       </c>
       <c r="BD82" s="47">
-        <f>(SUM(BE82,'Run distances (Term 2)'!BI87,'Run distances (Term 3)'!BI82,'Run distances (Term 4)'!BI82))</f>
-        <v>5.7</v>
+        <f>(SUM(BE82,'Run distances (Term 2)'!BI88,'Run distances (Term 3)'!BI82,'Run distances (Term 4)'!BI82))</f>
+        <v>6</v>
       </c>
       <c r="BE82" s="47">
         <f t="shared" si="10"/>
@@ -8422,7 +8434,7 @@
         <v>0</v>
       </c>
       <c r="BD83" s="47">
-        <f>(SUM(BE83,'Run distances (Term 2)'!BI89,'Run distances (Term 3)'!BI83,'Run distances (Term 4)'!BI83))</f>
+        <f>(SUM(BE83,'Run distances (Term 2)'!BI90,'Run distances (Term 3)'!BI83,'Run distances (Term 4)'!BI83))</f>
         <v>1.2</v>
       </c>
       <c r="BE83" s="47">
@@ -8502,8 +8514,8 @@
         <v>12</v>
       </c>
       <c r="BD84" s="47">
-        <f>(SUM(BE84,'Run distances (Term 2)'!BI90,'Run distances (Term 3)'!BI84,'Run distances (Term 4)'!BI84))</f>
-        <v>3.5999999999999996</v>
+        <f>(SUM(BE84,'Run distances (Term 2)'!BI91,'Run distances (Term 3)'!BI84,'Run distances (Term 4)'!BI84))</f>
+        <v>3.8999999999999995</v>
       </c>
       <c r="BE84" s="47">
         <f t="shared" si="10"/>
@@ -8572,8 +8584,8 @@
         <v>2</v>
       </c>
       <c r="BD85" s="47">
-        <f>(SUM(BE85,'Run distances (Term 2)'!BI91,'Run distances (Term 3)'!BI85,'Run distances (Term 4)'!BI85))</f>
-        <v>1.7999999999999998</v>
+        <f>(SUM(BE85,'Run distances (Term 2)'!BI92,'Run distances (Term 3)'!BI85,'Run distances (Term 4)'!BI85))</f>
+        <v>4.1999999999999993</v>
       </c>
       <c r="BE85" s="47">
         <f t="shared" si="10"/>
@@ -8668,7 +8680,7 @@
         <v>54</v>
       </c>
       <c r="BD86" s="47">
-        <f>(SUM(BE86,'Run distances (Term 2)'!BI92,'Run distances (Term 3)'!BI86,'Run distances (Term 4)'!BI86))</f>
+        <f>(SUM(BE86,'Run distances (Term 2)'!BI93,'Run distances (Term 3)'!BI86,'Run distances (Term 4)'!BI86))</f>
         <v>16.2</v>
       </c>
       <c r="BE86" s="47">
@@ -8756,7 +8768,7 @@
         <v>35</v>
       </c>
       <c r="BD87" s="47">
-        <f>(SUM(BE87,'Run distances (Term 2)'!BI93,'Run distances (Term 3)'!BI87,'Run distances (Term 4)'!BI87))</f>
+        <f>(SUM(BE87,'Run distances (Term 2)'!BI94,'Run distances (Term 3)'!BI87,'Run distances (Term 4)'!BI87))</f>
         <v>10.5</v>
       </c>
       <c r="BE87" s="47">
@@ -8840,7 +8852,7 @@
         <v>19</v>
       </c>
       <c r="BD88" s="47">
-        <f>(SUM(BE88,'Run distances (Term 2)'!BI94,'Run distances (Term 3)'!BI88,'Run distances (Term 4)'!BI88))</f>
+        <f>(SUM(BE88,'Run distances (Term 2)'!BI95,'Run distances (Term 3)'!BI88,'Run distances (Term 4)'!BI88))</f>
         <v>5.7</v>
       </c>
       <c r="BE88" s="47">
@@ -8912,7 +8924,7 @@
         <v>1</v>
       </c>
       <c r="BD89" s="47">
-        <f>(SUM(BE89,'Run distances (Term 2)'!BI95,'Run distances (Term 3)'!BI89,'Run distances (Term 4)'!BI89))</f>
+        <f>(SUM(BE89,'Run distances (Term 2)'!BI96,'Run distances (Term 3)'!BI89,'Run distances (Term 4)'!BI89))</f>
         <v>0.3</v>
       </c>
       <c r="BE89" s="47">
@@ -8998,7 +9010,7 @@
         <v>18</v>
       </c>
       <c r="BD90" s="47">
-        <f>(SUM(BE90,'Run distances (Term 2)'!BI96,'Run distances (Term 3)'!BI90,'Run distances (Term 4)'!BI90))</f>
+        <f>(SUM(BE90,'Run distances (Term 2)'!BI97,'Run distances (Term 3)'!BI90,'Run distances (Term 4)'!BI90))</f>
         <v>5.3999999999999995</v>
       </c>
       <c r="BE90" s="47">
@@ -9074,7 +9086,7 @@
         <v>4</v>
       </c>
       <c r="BD91" s="47">
-        <f>(SUM(BE91,'Run distances (Term 2)'!BI97,'Run distances (Term 3)'!BI91,'Run distances (Term 4)'!BI91))</f>
+        <f>(SUM(BE91,'Run distances (Term 2)'!BI98,'Run distances (Term 3)'!BI91,'Run distances (Term 4)'!BI91))</f>
         <v>1.2</v>
       </c>
       <c r="BE91" s="47">
@@ -9148,7 +9160,7 @@
         <v>3</v>
       </c>
       <c r="BD92" s="47">
-        <f>(SUM(BE92,'Run distances (Term 2)'!BI98,'Run distances (Term 3)'!BI92,'Run distances (Term 4)'!BI92))</f>
+        <f>(SUM(BE92,'Run distances (Term 2)'!BI99,'Run distances (Term 3)'!BI92,'Run distances (Term 4)'!BI92))</f>
         <v>0.89999999999999991</v>
       </c>
       <c r="BE92" s="47">
@@ -9224,7 +9236,7 @@
         <v>17</v>
       </c>
       <c r="BD93" s="47">
-        <f>(SUM(BE93,'Run distances (Term 2)'!BI99,'Run distances (Term 3)'!BI93,'Run distances (Term 4)'!BI93))</f>
+        <f>(SUM(BE93,'Run distances (Term 2)'!BI100,'Run distances (Term 3)'!BI93,'Run distances (Term 4)'!BI93))</f>
         <v>5.6999999999999993</v>
       </c>
       <c r="BE93" s="47">
@@ -9334,7 +9346,7 @@
         <v>86</v>
       </c>
       <c r="BD94" s="47">
-        <f>(SUM(BE94,'Run distances (Term 2)'!BI100,'Run distances (Term 3)'!BI94,'Run distances (Term 4)'!BI94))</f>
+        <f>(SUM(BE94,'Run distances (Term 2)'!BI101,'Run distances (Term 3)'!BI94,'Run distances (Term 4)'!BI94))</f>
         <v>26.1</v>
       </c>
       <c r="BE94" s="47">
@@ -9424,7 +9436,7 @@
         <v>29</v>
       </c>
       <c r="BD95" s="47">
-        <f>(SUM(BE95,'Run distances (Term 2)'!BI101,'Run distances (Term 3)'!BI95,'Run distances (Term 4)'!BI95))</f>
+        <f>(SUM(BE95,'Run distances (Term 2)'!BI102,'Run distances (Term 3)'!BI95,'Run distances (Term 4)'!BI95))</f>
         <v>8.6999999999999993</v>
       </c>
       <c r="BE95" s="47">
@@ -9494,8 +9506,8 @@
         <v>10</v>
       </c>
       <c r="BD96" s="47">
-        <f>(SUM(BE96,'Run distances (Term 2)'!BI102,'Run distances (Term 3)'!BI96,'Run distances (Term 4)'!BI96))</f>
-        <v>3.9</v>
+        <f>(SUM(BE96,'Run distances (Term 2)'!BI103,'Run distances (Term 3)'!BI96,'Run distances (Term 4)'!BI96))</f>
+        <v>4.5</v>
       </c>
       <c r="BE96" s="47">
         <f t="shared" si="10"/>
@@ -9594,7 +9606,7 @@
         <v>46</v>
       </c>
       <c r="BD97" s="47">
-        <f>(SUM(BE97,'Run distances (Term 2)'!BI103,'Run distances (Term 3)'!BI97,'Run distances (Term 4)'!BI97))</f>
+        <f>(SUM(BE97,'Run distances (Term 2)'!BI104,'Run distances (Term 3)'!BI97,'Run distances (Term 4)'!BI97))</f>
         <v>13.799999999999999</v>
       </c>
       <c r="BE97" s="47">
@@ -9690,8 +9702,8 @@
         <v>47</v>
       </c>
       <c r="BD98" s="47">
-        <f>(SUM(BE98,'Run distances (Term 2)'!BI104,'Run distances (Term 3)'!BI98,'Run distances (Term 4)'!BI98))</f>
-        <v>15.899999999999999</v>
+        <f>(SUM(BE98,'Run distances (Term 2)'!BI105,'Run distances (Term 3)'!BI98,'Run distances (Term 4)'!BI98))</f>
+        <v>21.299999999999997</v>
       </c>
       <c r="BE98" s="47">
         <f t="shared" si="10"/>
@@ -9762,7 +9774,7 @@
         <v>1</v>
       </c>
       <c r="BD99" s="47">
-        <f>(SUM(BE99,'Run distances (Term 2)'!BI105,'Run distances (Term 3)'!BI99,'Run distances (Term 4)'!BI99))</f>
+        <f>(SUM(BE99,'Run distances (Term 2)'!BI106,'Run distances (Term 3)'!BI99,'Run distances (Term 4)'!BI99))</f>
         <v>0.3</v>
       </c>
       <c r="BE99" s="47">
@@ -9838,8 +9850,8 @@
         <v>6</v>
       </c>
       <c r="BD100" s="47">
-        <f>(SUM(BE100,'Run distances (Term 2)'!BI106,'Run distances (Term 3)'!BI100,'Run distances (Term 4)'!BI100))</f>
-        <v>1.7999999999999998</v>
+        <f>(SUM(BE100,'Run distances (Term 2)'!BI107,'Run distances (Term 3)'!BI100,'Run distances (Term 4)'!BI100))</f>
+        <v>2.6999999999999997</v>
       </c>
       <c r="BE100" s="47">
         <f t="shared" si="10"/>
@@ -9916,7 +9928,7 @@
         <v>16</v>
       </c>
       <c r="BD101" s="47">
-        <f>(SUM(BE101,'Run distances (Term 2)'!BI107,'Run distances (Term 3)'!BI101,'Run distances (Term 4)'!BI101))</f>
+        <f>(SUM(BE101,'Run distances (Term 2)'!BI108,'Run distances (Term 3)'!BI101,'Run distances (Term 4)'!BI101))</f>
         <v>4.8</v>
       </c>
       <c r="BE101" s="47">
@@ -9984,7 +9996,7 @@
         <v>3</v>
       </c>
       <c r="BD102" s="47">
-        <f>(SUM(BE102,'Run distances (Term 2)'!BI108,'Run distances (Term 3)'!BI102,'Run distances (Term 4)'!BI102))</f>
+        <f>(SUM(BE102,'Run distances (Term 2)'!BI109,'Run distances (Term 3)'!BI102,'Run distances (Term 4)'!BI102))</f>
         <v>0.89999999999999991</v>
       </c>
       <c r="BE102" s="47">
@@ -10056,7 +10068,7 @@
         <v>4</v>
       </c>
       <c r="BD103" s="47">
-        <f>(SUM(BE103,'Run distances (Term 2)'!BI109,'Run distances (Term 3)'!BI103,'Run distances (Term 4)'!BI103))</f>
+        <f>(SUM(BE103,'Run distances (Term 2)'!BI110,'Run distances (Term 3)'!BI103,'Run distances (Term 4)'!BI103))</f>
         <v>1.2</v>
       </c>
       <c r="BE103" s="47">
@@ -10136,7 +10148,7 @@
         <v>17</v>
       </c>
       <c r="BD104" s="47">
-        <f>(SUM(BE104,'Run distances (Term 2)'!BI110,'Run distances (Term 3)'!BI104,'Run distances (Term 4)'!BI104))</f>
+        <f>(SUM(BE104,'Run distances (Term 2)'!BI111,'Run distances (Term 3)'!BI104,'Run distances (Term 4)'!BI104))</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="BE104" s="47">
@@ -10216,7 +10228,7 @@
         <v>20</v>
       </c>
       <c r="BD105" s="47">
-        <f>(SUM(BE105,'Run distances (Term 2)'!BI111,'Run distances (Term 3)'!BI105,'Run distances (Term 4)'!BI105))</f>
+        <f>(SUM(BE105,'Run distances (Term 2)'!BI112,'Run distances (Term 3)'!BI105,'Run distances (Term 4)'!BI105))</f>
         <v>6</v>
       </c>
       <c r="BE105" s="47">
@@ -10284,7 +10296,7 @@
         <v>1</v>
       </c>
       <c r="BD106" s="47">
-        <f>(SUM(BE106,'Run distances (Term 2)'!BI112,'Run distances (Term 3)'!BI106,'Run distances (Term 4)'!BI106))</f>
+        <f>(SUM(BE106,'Run distances (Term 2)'!BI113,'Run distances (Term 3)'!BI106,'Run distances (Term 4)'!BI106))</f>
         <v>0.3</v>
       </c>
       <c r="BE106" s="47">
@@ -10352,7 +10364,7 @@
         <v>3</v>
       </c>
       <c r="BD107" s="47">
-        <f>(SUM(BE107,'Run distances (Term 2)'!BI113,'Run distances (Term 3)'!BI107,'Run distances (Term 4)'!BI107))</f>
+        <f>(SUM(BE107,'Run distances (Term 2)'!BI114,'Run distances (Term 3)'!BI107,'Run distances (Term 4)'!BI107))</f>
         <v>0.89999999999999991</v>
       </c>
       <c r="BE107" s="47">
@@ -10422,7 +10434,7 @@
         <v>5</v>
       </c>
       <c r="BD108" s="47">
-        <f>(SUM(BE108,'Run distances (Term 2)'!BI114,'Run distances (Term 3)'!BI108,'Run distances (Term 4)'!BI108))</f>
+        <f>(SUM(BE108,'Run distances (Term 2)'!BI115,'Run distances (Term 3)'!BI108,'Run distances (Term 4)'!BI108))</f>
         <v>1.5</v>
       </c>
       <c r="BE108" s="47">
@@ -10492,7 +10504,7 @@
         <v>5</v>
       </c>
       <c r="BD109" s="47">
-        <f>(SUM(BE109,'Run distances (Term 2)'!BI115,'Run distances (Term 3)'!BI109,'Run distances (Term 4)'!BI109))</f>
+        <f>(SUM(BE109,'Run distances (Term 2)'!BI116,'Run distances (Term 3)'!BI109,'Run distances (Term 4)'!BI109))</f>
         <v>1.5</v>
       </c>
       <c r="BE109" s="47">
@@ -10604,8 +10616,8 @@
         <v>66</v>
       </c>
       <c r="BD110" s="47">
-        <f>(SUM(BE110,'Run distances (Term 2)'!BI116,'Run distances (Term 3)'!BI110,'Run distances (Term 4)'!BI110))</f>
-        <v>21</v>
+        <f>(SUM(BE110,'Run distances (Term 2)'!BI117,'Run distances (Term 3)'!BI110,'Run distances (Term 4)'!BI110))</f>
+        <v>21.3</v>
       </c>
       <c r="BE110" s="47">
         <f t="shared" si="10"/>
@@ -10708,7 +10720,7 @@
         <v>70</v>
       </c>
       <c r="BD111" s="47">
-        <f>(SUM(BE111,'Run distances (Term 2)'!BI117,'Run distances (Term 3)'!BI111,'Run distances (Term 4)'!BI111))</f>
+        <f>(SUM(BE111,'Run distances (Term 2)'!BI118,'Run distances (Term 3)'!BI111,'Run distances (Term 4)'!BI111))</f>
         <v>22.2</v>
       </c>
       <c r="BE111" s="47">
@@ -10784,7 +10796,7 @@
         <v>6</v>
       </c>
       <c r="BD112" s="47">
-        <f>(SUM(BE112,'Run distances (Term 2)'!BI118,'Run distances (Term 3)'!BI112,'Run distances (Term 4)'!BI112))</f>
+        <f>(SUM(BE112,'Run distances (Term 2)'!BI119,'Run distances (Term 3)'!BI112,'Run distances (Term 4)'!BI112))</f>
         <v>1.7999999999999998</v>
       </c>
       <c r="BE112" s="47">
@@ -10870,8 +10882,8 @@
         <v>24</v>
       </c>
       <c r="BD113" s="47">
-        <f>(SUM(BE113,'Run distances (Term 2)'!BI119,'Run distances (Term 3)'!BI113,'Run distances (Term 4)'!BI113))</f>
-        <v>7.1999999999999993</v>
+        <f>(SUM(BE113,'Run distances (Term 2)'!BI121,'Run distances (Term 3)'!BI113,'Run distances (Term 4)'!BI113))</f>
+        <v>8.1</v>
       </c>
       <c r="BE113" s="47">
         <f t="shared" si="10"/>
@@ -10950,7 +10962,7 @@
         <v>16</v>
       </c>
       <c r="BD114" s="47">
-        <f>(SUM(BE114,'Run distances (Term 2)'!BI120,'Run distances (Term 3)'!BI114,'Run distances (Term 4)'!BI114))</f>
+        <f>(SUM(BE114,'Run distances (Term 2)'!BI122,'Run distances (Term 3)'!BI114,'Run distances (Term 4)'!BI114))</f>
         <v>4.8</v>
       </c>
       <c r="BE114" s="47">
@@ -11044,8 +11056,8 @@
         <v>20</v>
       </c>
       <c r="BD115" s="47">
-        <f>(SUM(BE115,'Run distances (Term 2)'!BI121,'Run distances (Term 3)'!BI115,'Run distances (Term 4)'!BI115))</f>
-        <v>6.3</v>
+        <f>(SUM(BE115,'Run distances (Term 2)'!BI123,'Run distances (Term 3)'!BI115,'Run distances (Term 4)'!BI115))</f>
+        <v>6.9</v>
       </c>
       <c r="BE115" s="47">
         <f t="shared" si="10"/>
@@ -11130,7 +11142,7 @@
         <v>17</v>
       </c>
       <c r="BD116" s="47">
-        <f>(SUM(BE116,'Run distances (Term 2)'!BI122,'Run distances (Term 3)'!BI116,'Run distances (Term 4)'!BI116))</f>
+        <f>(SUM(BE116,'Run distances (Term 2)'!BI124,'Run distances (Term 3)'!BI116,'Run distances (Term 4)'!BI116))</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="BE116" s="47">
@@ -11198,7 +11210,7 @@
         <v>2</v>
       </c>
       <c r="BD117" s="47">
-        <f>(SUM(BE117,'Run distances (Term 2)'!BI125,'Run distances (Term 3)'!BI117,'Run distances (Term 4)'!BI117))</f>
+        <f>(SUM(BE117,'Run distances (Term 2)'!BI127,'Run distances (Term 3)'!BI117,'Run distances (Term 4)'!BI117))</f>
         <v>1.2</v>
       </c>
       <c r="BE117" s="47">
@@ -11270,7 +11282,7 @@
         <v>3</v>
       </c>
       <c r="BD118" s="47">
-        <f>(SUM(BE118,'Run distances (Term 2)'!BI126,'Run distances (Term 3)'!BI118,'Run distances (Term 4)'!BI118))</f>
+        <f>(SUM(BE118,'Run distances (Term 2)'!BI128,'Run distances (Term 3)'!BI118,'Run distances (Term 4)'!BI118))</f>
         <v>0.89999999999999991</v>
       </c>
       <c r="BE118" s="47">
@@ -11342,8 +11354,8 @@
         <v>3</v>
       </c>
       <c r="BD119" s="47">
-        <f>(SUM(BE119,'Run distances (Term 2)'!BI127,'Run distances (Term 3)'!BI119,'Run distances (Term 4)'!BI119))</f>
-        <v>1.2</v>
+        <f>(SUM(BE119,'Run distances (Term 2)'!BI129,'Run distances (Term 3)'!BI119,'Run distances (Term 4)'!BI119))</f>
+        <v>1.7999999999999998</v>
       </c>
       <c r="BE119" s="47">
         <f t="shared" si="10"/>
@@ -11444,7 +11456,7 @@
         <v>27</v>
       </c>
       <c r="BD120" s="47">
-        <f>(SUM(BE120,'Run distances (Term 2)'!BI130,'Run distances (Term 3)'!BI120,'Run distances (Term 4)'!BI120))</f>
+        <f>(SUM(BE120,'Run distances (Term 2)'!BI133,'Run distances (Term 3)'!BI120,'Run distances (Term 4)'!BI120))</f>
         <v>8.6999999999999993</v>
       </c>
       <c r="BE120" s="47">
@@ -11498,7 +11510,7 @@
         <v>0</v>
       </c>
       <c r="BD121" s="47">
-        <f>(SUM(BE121,'Run distances (Term 2)'!BI131,'Run distances (Term 3)'!BI121,'Run distances (Term 4)'!BI121))</f>
+        <f>(SUM(BE121,'Run distances (Term 2)'!BI134,'Run distances (Term 3)'!BI121,'Run distances (Term 4)'!BI121))</f>
         <v>0</v>
       </c>
       <c r="BE121" s="47">
@@ -11570,8 +11582,8 @@
         <v>4</v>
       </c>
       <c r="BD122" s="47">
-        <f>(SUM(BE122,'Run distances (Term 2)'!BI132,'Run distances (Term 3)'!BI122,'Run distances (Term 4)'!BI122))</f>
-        <v>1.5</v>
+        <f>(SUM(BE122,'Run distances (Term 2)'!BI135,'Run distances (Term 3)'!BI122,'Run distances (Term 4)'!BI122))</f>
+        <v>2.0999999999999996</v>
       </c>
       <c r="BE122" s="47">
         <f t="shared" si="10"/>
@@ -11642,8 +11654,8 @@
         <v>3</v>
       </c>
       <c r="BD123" s="47">
-        <f>(SUM(BE123,'Run distances (Term 2)'!BI133,'Run distances (Term 3)'!BI123,'Run distances (Term 4)'!BI123))</f>
-        <v>0.89999999999999991</v>
+        <f>(SUM(BE123,'Run distances (Term 2)'!BI136,'Run distances (Term 3)'!BI123,'Run distances (Term 4)'!BI123))</f>
+        <v>1.5</v>
       </c>
       <c r="BE123" s="47">
         <f t="shared" si="10"/>
@@ -11730,7 +11742,7 @@
         <v>25</v>
       </c>
       <c r="BD124" s="47">
-        <f>(SUM(BE124,'Run distances (Term 2)'!BI134,'Run distances (Term 3)'!BI124,'Run distances (Term 4)'!BI124))</f>
+        <f>(SUM(BE124,'Run distances (Term 2)'!BI137,'Run distances (Term 3)'!BI124,'Run distances (Term 4)'!BI124))</f>
         <v>7.5</v>
       </c>
       <c r="BE124" s="47">
@@ -11820,7 +11832,7 @@
         <v>35</v>
       </c>
       <c r="BD125" s="47">
-        <f>(SUM(BE125,'Run distances (Term 2)'!BI135,'Run distances (Term 3)'!BI125,'Run distances (Term 4)'!BI125))</f>
+        <f>(SUM(BE125,'Run distances (Term 2)'!BI138,'Run distances (Term 3)'!BI125,'Run distances (Term 4)'!BI125))</f>
         <v>10.5</v>
       </c>
       <c r="BE125" s="47">
@@ -11916,8 +11928,8 @@
         <v>43</v>
       </c>
       <c r="BD126" s="47">
-        <f>(SUM(BE126,'Run distances (Term 2)'!BI136,'Run distances (Term 3)'!BI126,'Run distances (Term 4)'!BI126))</f>
-        <v>14.1</v>
+        <f>(SUM(BE126,'Run distances (Term 2)'!BI139,'Run distances (Term 3)'!BI126,'Run distances (Term 4)'!BI126))</f>
+        <v>16.8</v>
       </c>
       <c r="BE126" s="47">
         <f t="shared" si="10"/>
@@ -11990,7 +12002,7 @@
         <v>3</v>
       </c>
       <c r="BD127" s="47">
-        <f>(SUM(BE127,'Run distances (Term 2)'!BI137,'Run distances (Term 3)'!BI127,'Run distances (Term 4)'!BI127))</f>
+        <f>(SUM(BE127,'Run distances (Term 2)'!BI140,'Run distances (Term 3)'!BI127,'Run distances (Term 4)'!BI127))</f>
         <v>0.89999999999999991</v>
       </c>
       <c r="BE127" s="47">
@@ -12062,7 +12074,7 @@
         <v>3</v>
       </c>
       <c r="BD128" s="47">
-        <f>(SUM(BE128,'Run distances (Term 2)'!BI138,'Run distances (Term 3)'!BI128,'Run distances (Term 4)'!BI128))</f>
+        <f>(SUM(BE128,'Run distances (Term 2)'!BI141,'Run distances (Term 3)'!BI128,'Run distances (Term 4)'!BI128))</f>
         <v>0.89999999999999991</v>
       </c>
       <c r="BE128" s="47">
@@ -12144,8 +12156,8 @@
         <v>34</v>
       </c>
       <c r="BD129" s="47">
-        <f>(SUM(BE129,'Run distances (Term 2)'!BI139,'Run distances (Term 3)'!BI129,'Run distances (Term 4)'!BI129))</f>
-        <v>11.399999999999999</v>
+        <f>(SUM(BE129,'Run distances (Term 2)'!BI142,'Run distances (Term 3)'!BI129,'Run distances (Term 4)'!BI129))</f>
+        <v>14.7</v>
       </c>
       <c r="BE129" s="47">
         <f t="shared" si="10"/>
@@ -12236,8 +12248,8 @@
         <v>44</v>
       </c>
       <c r="BD130" s="47">
-        <f>(SUM(BE130,'Run distances (Term 2)'!BI140,'Run distances (Term 3)'!BI130,'Run distances (Term 4)'!BI130))</f>
-        <v>14.1</v>
+        <f>(SUM(BE130,'Run distances (Term 2)'!BI143,'Run distances (Term 3)'!BI130,'Run distances (Term 4)'!BI130))</f>
+        <v>17.099999999999998</v>
       </c>
       <c r="BE130" s="47">
         <f t="shared" si="10"/>
@@ -12310,7 +12322,7 @@
         <v>4</v>
       </c>
       <c r="BD131" s="47">
-        <f>(SUM(BE131,'Run distances (Term 2)'!BI141,'Run distances (Term 3)'!BI131,'Run distances (Term 4)'!BI131))</f>
+        <f>(SUM(BE131,'Run distances (Term 2)'!BI144,'Run distances (Term 3)'!BI131,'Run distances (Term 4)'!BI131))</f>
         <v>1.5</v>
       </c>
       <c r="BE131" s="47">
@@ -12390,7 +12402,7 @@
         <v>9</v>
       </c>
       <c r="BD132" s="47">
-        <f>(SUM(BE132,'Run distances (Term 2)'!BI142,'Run distances (Term 3)'!BI132,'Run distances (Term 4)'!BI132))</f>
+        <f>(SUM(BE132,'Run distances (Term 2)'!BI145,'Run distances (Term 3)'!BI132,'Run distances (Term 4)'!BI132))</f>
         <v>2.6999999999999997</v>
       </c>
       <c r="BE132" s="47">
@@ -12472,7 +12484,7 @@
         <v>23</v>
       </c>
       <c r="BD133" s="47">
-        <f>(SUM(BE133,'Run distances (Term 2)'!BI143,'Run distances (Term 3)'!BI133,'Run distances (Term 4)'!BI133))</f>
+        <f>(SUM(BE133,'Run distances (Term 2)'!BI146,'Run distances (Term 3)'!BI133,'Run distances (Term 4)'!BI133))</f>
         <v>6.8999999999999995</v>
       </c>
       <c r="BE133" s="47">
@@ -12566,8 +12578,8 @@
         <v>30</v>
       </c>
       <c r="BD134" s="47">
-        <f>(SUM(BE134,'Run distances (Term 2)'!BI144,'Run distances (Term 3)'!BI134,'Run distances (Term 4)'!BI134))</f>
-        <v>10.199999999999999</v>
+        <f>(SUM(BE134,'Run distances (Term 2)'!BI147,'Run distances (Term 3)'!BI134,'Run distances (Term 4)'!BI134))</f>
+        <v>12.9</v>
       </c>
       <c r="BE134" s="47">
         <f t="shared" ref="BE134:BE177" si="24">(SUM(E134:BB134)*$D$2)</f>
@@ -12640,7 +12652,7 @@
         <v>4</v>
       </c>
       <c r="BD135" s="47">
-        <f>(SUM(BE135,'Run distances (Term 2)'!BI145,'Run distances (Term 3)'!BI135,'Run distances (Term 4)'!BI135))</f>
+        <f>(SUM(BE135,'Run distances (Term 2)'!BI148,'Run distances (Term 3)'!BI135,'Run distances (Term 4)'!BI135))</f>
         <v>1.2</v>
       </c>
       <c r="BE135" s="47">
@@ -12728,7 +12740,7 @@
         <v>18</v>
       </c>
       <c r="BD136" s="47">
-        <f>(SUM(BE136,'Run distances (Term 2)'!BI146,'Run distances (Term 3)'!BI136,'Run distances (Term 4)'!BI136))</f>
+        <f>(SUM(BE136,'Run distances (Term 2)'!BI149,'Run distances (Term 3)'!BI136,'Run distances (Term 4)'!BI136))</f>
         <v>5.3999999999999995</v>
       </c>
       <c r="BE136" s="47">
@@ -12814,7 +12826,7 @@
         <v>14</v>
       </c>
       <c r="BD137" s="47">
-        <f>(SUM(BE137,'Run distances (Term 2)'!BI147,'Run distances (Term 3)'!BI137,'Run distances (Term 4)'!BI137))</f>
+        <f>(SUM(BE137,'Run distances (Term 2)'!BI150,'Run distances (Term 3)'!BI137,'Run distances (Term 4)'!BI137))</f>
         <v>4.2</v>
       </c>
       <c r="BE137" s="47">
@@ -12902,7 +12914,7 @@
         <v>17</v>
       </c>
       <c r="BD138" s="47">
-        <f>(SUM(BE138,'Run distances (Term 2)'!BI148,'Run distances (Term 3)'!BI138,'Run distances (Term 4)'!BI138))</f>
+        <f>(SUM(BE138,'Run distances (Term 2)'!BI151,'Run distances (Term 3)'!BI138,'Run distances (Term 4)'!BI138))</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="BE138" s="47">
@@ -12984,8 +12996,8 @@
         <v>17</v>
       </c>
       <c r="BD139" s="47">
-        <f>(SUM(BE139,'Run distances (Term 2)'!BI149,'Run distances (Term 3)'!BI139,'Run distances (Term 4)'!BI139))</f>
-        <v>6.3</v>
+        <f>(SUM(BE139,'Run distances (Term 2)'!BI152,'Run distances (Term 3)'!BI139,'Run distances (Term 4)'!BI139))</f>
+        <v>8.1</v>
       </c>
       <c r="BE139" s="47">
         <f t="shared" si="24"/>
@@ -13058,7 +13070,7 @@
         <v>3</v>
       </c>
       <c r="BD140" s="47">
-        <f>(SUM(BE140,'Run distances (Term 2)'!BI150,'Run distances (Term 3)'!BI140,'Run distances (Term 4)'!BI140))</f>
+        <f>(SUM(BE140,'Run distances (Term 2)'!BI153,'Run distances (Term 3)'!BI140,'Run distances (Term 4)'!BI140))</f>
         <v>0.89999999999999991</v>
       </c>
       <c r="BE140" s="47">
@@ -13140,7 +13152,7 @@
         <v>30</v>
       </c>
       <c r="BD141" s="47">
-        <f>(SUM(BE141,'Run distances (Term 2)'!BI151,'Run distances (Term 3)'!BI141,'Run distances (Term 4)'!BI141))</f>
+        <f>(SUM(BE141,'Run distances (Term 2)'!BI154,'Run distances (Term 3)'!BI141,'Run distances (Term 4)'!BI141))</f>
         <v>9.3000000000000007</v>
       </c>
       <c r="BE141" s="47">
@@ -13218,7 +13230,7 @@
         <v>5</v>
       </c>
       <c r="BD142" s="47">
-        <f>(SUM(BE142,'Run distances (Term 2)'!BI152,'Run distances (Term 3)'!BI142,'Run distances (Term 4)'!BI142))</f>
+        <f>(SUM(BE142,'Run distances (Term 2)'!BI155,'Run distances (Term 3)'!BI142,'Run distances (Term 4)'!BI142))</f>
         <v>2.1</v>
       </c>
       <c r="BE142" s="47">
@@ -13294,7 +13306,7 @@
         <v>3</v>
       </c>
       <c r="BD143" s="47">
-        <f>(SUM(BE143,'Run distances (Term 2)'!BI153,'Run distances (Term 3)'!BI143,'Run distances (Term 4)'!BI143))</f>
+        <f>(SUM(BE143,'Run distances (Term 2)'!BI156,'Run distances (Term 3)'!BI143,'Run distances (Term 4)'!BI143))</f>
         <v>1.5</v>
       </c>
       <c r="BE143" s="47">
@@ -13370,7 +13382,7 @@
         <v>6</v>
       </c>
       <c r="BD144" s="47">
-        <f>(SUM(BE144,'Run distances (Term 2)'!BI154,'Run distances (Term 3)'!BI144,'Run distances (Term 4)'!BI144))</f>
+        <f>(SUM(BE144,'Run distances (Term 2)'!BI157,'Run distances (Term 3)'!BI144,'Run distances (Term 4)'!BI144))</f>
         <v>1.7999999999999998</v>
       </c>
       <c r="BE144" s="47">
@@ -13466,7 +13478,7 @@
         <v>49</v>
       </c>
       <c r="BD145" s="47">
-        <f>(SUM(BE145,'Run distances (Term 2)'!BI155,'Run distances (Term 3)'!BI145,'Run distances (Term 4)'!BI145))</f>
+        <f>(SUM(BE145,'Run distances (Term 2)'!BI158,'Run distances (Term 3)'!BI145,'Run distances (Term 4)'!BI145))</f>
         <v>14.7</v>
       </c>
       <c r="BE145" s="47">
@@ -13544,7 +13556,7 @@
         <v>4</v>
       </c>
       <c r="BD146" s="47">
-        <f>(SUM(BE146,'Run distances (Term 2)'!BI156,'Run distances (Term 3)'!BI146,'Run distances (Term 4)'!BI146))</f>
+        <f>(SUM(BE146,'Run distances (Term 2)'!BI159,'Run distances (Term 3)'!BI146,'Run distances (Term 4)'!BI146))</f>
         <v>1.7999999999999998</v>
       </c>
       <c r="BE146" s="47">
@@ -13630,7 +13642,7 @@
         <v>19</v>
       </c>
       <c r="BD147" s="47">
-        <f>(SUM(BE147,'Run distances (Term 2)'!BI157,'Run distances (Term 3)'!BI147,'Run distances (Term 4)'!BI147))</f>
+        <f>(SUM(BE147,'Run distances (Term 2)'!BI160,'Run distances (Term 3)'!BI147,'Run distances (Term 4)'!BI147))</f>
         <v>5.7</v>
       </c>
       <c r="BE147" s="47">
@@ -13710,8 +13722,8 @@
         <v>8</v>
       </c>
       <c r="BD148" s="47">
-        <f>(SUM(BE148,'Run distances (Term 2)'!BI158,'Run distances (Term 3)'!BI148,'Run distances (Term 4)'!BI148))</f>
-        <v>3.9</v>
+        <f>(SUM(BE148,'Run distances (Term 2)'!BI161,'Run distances (Term 3)'!BI148,'Run distances (Term 4)'!BI148))</f>
+        <v>6</v>
       </c>
       <c r="BE148" s="47">
         <f t="shared" si="24"/>
@@ -13792,8 +13804,8 @@
         <v>31</v>
       </c>
       <c r="BD149" s="47">
-        <f>(SUM(BE149,'Run distances (Term 2)'!BI159,'Run distances (Term 3)'!BI149,'Run distances (Term 4)'!BI149))</f>
-        <v>9.2999999999999989</v>
+        <f>(SUM(BE149,'Run distances (Term 2)'!BI162,'Run distances (Term 3)'!BI149,'Run distances (Term 4)'!BI149))</f>
+        <v>10.799999999999999</v>
       </c>
       <c r="BE149" s="47">
         <f t="shared" si="24"/>
@@ -13868,7 +13880,7 @@
         <v>4</v>
       </c>
       <c r="BD150" s="47">
-        <f>(SUM(BE150,'Run distances (Term 2)'!BI160,'Run distances (Term 3)'!BI150,'Run distances (Term 4)'!BI150))</f>
+        <f>(SUM(BE150,'Run distances (Term 2)'!BI163,'Run distances (Term 3)'!BI150,'Run distances (Term 4)'!BI150))</f>
         <v>1.2</v>
       </c>
       <c r="BE150" s="47">
@@ -13942,7 +13954,7 @@
         <v>2</v>
       </c>
       <c r="BD151" s="47">
-        <f>(SUM(BE151,'Run distances (Term 2)'!BI161,'Run distances (Term 3)'!BI151,'Run distances (Term 4)'!BI151))</f>
+        <f>(SUM(BE151,'Run distances (Term 2)'!BI164,'Run distances (Term 3)'!BI151,'Run distances (Term 4)'!BI151))</f>
         <v>0.6</v>
       </c>
       <c r="BE151" s="47">
@@ -14042,7 +14054,7 @@
         <v>68</v>
       </c>
       <c r="BD152" s="47">
-        <f>(SUM(BE152,'Run distances (Term 2)'!BI162,'Run distances (Term 3)'!BI152,'Run distances (Term 4)'!BI152))</f>
+        <f>(SUM(BE152,'Run distances (Term 2)'!BI165,'Run distances (Term 3)'!BI152,'Run distances (Term 4)'!BI152))</f>
         <v>21</v>
       </c>
       <c r="BE152" s="47">
@@ -14156,7 +14168,7 @@
         <v>103</v>
       </c>
       <c r="BD153" s="47">
-        <f>(SUM(BE153,'Run distances (Term 2)'!BI163,'Run distances (Term 3)'!BI153,'Run distances (Term 4)'!BI153))</f>
+        <f>(SUM(BE153,'Run distances (Term 2)'!BI166,'Run distances (Term 3)'!BI153,'Run distances (Term 4)'!BI153))</f>
         <v>30.9</v>
       </c>
       <c r="BE153" s="47">
@@ -14244,8 +14256,8 @@
         <v>49</v>
       </c>
       <c r="BD154" s="47">
-        <f>(SUM(BE154,'Run distances (Term 2)'!BI164,'Run distances (Term 3)'!BI154,'Run distances (Term 4)'!BI154))</f>
-        <v>17.399999999999999</v>
+        <f>(SUM(BE154,'Run distances (Term 2)'!BI167,'Run distances (Term 3)'!BI154,'Run distances (Term 4)'!BI154))</f>
+        <v>20.7</v>
       </c>
       <c r="BE154" s="47">
         <f t="shared" si="24"/>
@@ -14314,7 +14326,7 @@
         <v>12</v>
       </c>
       <c r="BD155" s="47">
-        <f>(SUM(BE155,'Run distances (Term 2)'!BI165,'Run distances (Term 3)'!BI155,'Run distances (Term 4)'!BI155))</f>
+        <f>(SUM(BE155,'Run distances (Term 2)'!BI168,'Run distances (Term 3)'!BI155,'Run distances (Term 4)'!BI155))</f>
         <v>3.5999999999999996</v>
       </c>
       <c r="BE155" s="47">
@@ -14384,7 +14396,7 @@
         <v>2</v>
       </c>
       <c r="BD156" s="47">
-        <f>(SUM(BE156,'Run distances (Term 2)'!BI166,'Run distances (Term 3)'!BI156,'Run distances (Term 4)'!BI156))</f>
+        <f>(SUM(BE156,'Run distances (Term 2)'!BI169,'Run distances (Term 3)'!BI156,'Run distances (Term 4)'!BI156))</f>
         <v>0.6</v>
       </c>
       <c r="BE156" s="47">
@@ -14452,7 +14464,7 @@
         <v>3</v>
       </c>
       <c r="BD157" s="47">
-        <f>(SUM(BE157,'Run distances (Term 2)'!BI167,'Run distances (Term 3)'!BI157,'Run distances (Term 4)'!BI157))</f>
+        <f>(SUM(BE157,'Run distances (Term 2)'!BI170,'Run distances (Term 3)'!BI157,'Run distances (Term 4)'!BI157))</f>
         <v>0.89999999999999991</v>
       </c>
       <c r="BE157" s="47">
@@ -14522,7 +14534,7 @@
         <v>6</v>
       </c>
       <c r="BD158" s="47">
-        <f>(SUM(BE158,'Run distances (Term 2)'!BI168,'Run distances (Term 3)'!BI158,'Run distances (Term 4)'!BI158))</f>
+        <f>(SUM(BE158,'Run distances (Term 2)'!BI171,'Run distances (Term 3)'!BI158,'Run distances (Term 4)'!BI158))</f>
         <v>1.7999999999999998</v>
       </c>
       <c r="BE158" s="47">
@@ -14602,8 +14614,8 @@
         <v>9</v>
       </c>
       <c r="BD159" s="47">
-        <f>(SUM(BE159,'Run distances (Term 2)'!BI169,'Run distances (Term 3)'!BI159,'Run distances (Term 4)'!BI159))</f>
-        <v>4.1999999999999993</v>
+        <f>(SUM(BE159,'Run distances (Term 2)'!BI172,'Run distances (Term 3)'!BI159,'Run distances (Term 4)'!BI159))</f>
+        <v>4.5</v>
       </c>
       <c r="BE159" s="47">
         <f t="shared" si="24"/>
@@ -14676,7 +14688,7 @@
         <v>4</v>
       </c>
       <c r="BD160" s="47">
-        <f>(SUM(BE160,'Run distances (Term 2)'!BI170,'Run distances (Term 3)'!BI160,'Run distances (Term 4)'!BI160))</f>
+        <f>(SUM(BE160,'Run distances (Term 2)'!BI173,'Run distances (Term 3)'!BI160,'Run distances (Term 4)'!BI160))</f>
         <v>1.2</v>
       </c>
       <c r="BE160" s="47">
@@ -14744,7 +14756,7 @@
         <v>2</v>
       </c>
       <c r="BD161" s="47">
-        <f>(SUM(BE161,'Run distances (Term 2)'!BI171,'Run distances (Term 3)'!BI161,'Run distances (Term 4)'!BI161))</f>
+        <f>(SUM(BE161,'Run distances (Term 2)'!BI174,'Run distances (Term 3)'!BI161,'Run distances (Term 4)'!BI161))</f>
         <v>0.6</v>
       </c>
       <c r="BE161" s="47">
@@ -14812,7 +14824,7 @@
         <v>2</v>
       </c>
       <c r="BD162" s="47">
-        <f>(SUM(BE162,'Run distances (Term 2)'!BI172,'Run distances (Term 3)'!BI162,'Run distances (Term 4)'!BI162))</f>
+        <f>(SUM(BE162,'Run distances (Term 2)'!BI175,'Run distances (Term 3)'!BI162,'Run distances (Term 4)'!BI162))</f>
         <v>0.6</v>
       </c>
       <c r="BE162" s="47">
@@ -14882,7 +14894,7 @@
         <v>2</v>
       </c>
       <c r="BD163" s="47">
-        <f>(SUM(BE163,'Run distances (Term 2)'!BI174,'Run distances (Term 3)'!BI163,'Run distances (Term 4)'!BI163))</f>
+        <f>(SUM(BE163,'Run distances (Term 2)'!BI177,'Run distances (Term 3)'!BI163,'Run distances (Term 4)'!BI163))</f>
         <v>1.5</v>
       </c>
       <c r="BE163" s="47">
@@ -14952,7 +14964,7 @@
         <v>2</v>
       </c>
       <c r="BD164" s="47">
-        <f>(SUM(BE164,'Run distances (Term 2)'!BI175,'Run distances (Term 3)'!BI164,'Run distances (Term 4)'!BI164))</f>
+        <f>(SUM(BE164,'Run distances (Term 2)'!BI178,'Run distances (Term 3)'!BI164,'Run distances (Term 4)'!BI164))</f>
         <v>0.6</v>
       </c>
       <c r="BE164" s="47">
@@ -15026,7 +15038,7 @@
         <v>9</v>
       </c>
       <c r="BD165" s="47">
-        <f>(SUM(BE165,'Run distances (Term 2)'!BI176,'Run distances (Term 3)'!BI165,'Run distances (Term 4)'!BI165))</f>
+        <f>(SUM(BE165,'Run distances (Term 2)'!BI179,'Run distances (Term 3)'!BI165,'Run distances (Term 4)'!BI165))</f>
         <v>2.6999999999999997</v>
       </c>
       <c r="BE165" s="47">
@@ -15094,7 +15106,7 @@
         <v>1</v>
       </c>
       <c r="BD166" s="47">
-        <f>(SUM(BE166,'Run distances (Term 2)'!BI178,'Run distances (Term 3)'!BI166,'Run distances (Term 4)'!BI166))</f>
+        <f>(SUM(BE166,'Run distances (Term 2)'!BI181,'Run distances (Term 3)'!BI166,'Run distances (Term 4)'!BI166))</f>
         <v>1.5</v>
       </c>
       <c r="BE166" s="47">
@@ -15168,7 +15180,7 @@
         <v>2</v>
       </c>
       <c r="BD167" s="47">
-        <f>(SUM(BE167,'Run distances (Term 2)'!BI179,'Run distances (Term 3)'!BI167,'Run distances (Term 4)'!BI167))</f>
+        <f>(SUM(BE167,'Run distances (Term 2)'!BI182,'Run distances (Term 3)'!BI167,'Run distances (Term 4)'!BI167))</f>
         <v>0.89999999999999991</v>
       </c>
       <c r="BE167" s="47">
@@ -15242,7 +15254,7 @@
         <v>12</v>
       </c>
       <c r="BD168" s="47">
-        <f>(SUM(BE168,'Run distances (Term 2)'!BI180,'Run distances (Term 3)'!BI168,'Run distances (Term 4)'!BI168))</f>
+        <f>(SUM(BE168,'Run distances (Term 2)'!BI183,'Run distances (Term 3)'!BI168,'Run distances (Term 4)'!BI168))</f>
         <v>3.5999999999999996</v>
       </c>
       <c r="BE168" s="47">
@@ -15332,8 +15344,8 @@
         <v>9</v>
       </c>
       <c r="BD169" s="47">
-        <f>(SUM(BE169,'Run distances (Term 2)'!BI181,'Run distances (Term 3)'!BI169,'Run distances (Term 4)'!BI169))</f>
-        <v>2.6999999999999997</v>
+        <f>(SUM(BE169,'Run distances (Term 2)'!BI184,'Run distances (Term 3)'!BI169,'Run distances (Term 4)'!BI169))</f>
+        <v>2.9999999999999996</v>
       </c>
       <c r="BE169" s="47">
         <f t="shared" si="24"/>
@@ -15408,7 +15420,7 @@
         <v>1</v>
       </c>
       <c r="BD170" s="47">
-        <f>(SUM(BE170,'Run distances (Term 2)'!BI182,'Run distances (Term 3)'!BI170,'Run distances (Term 4)'!BI170))</f>
+        <f>(SUM(BE170,'Run distances (Term 2)'!BI185,'Run distances (Term 3)'!BI170,'Run distances (Term 4)'!BI170))</f>
         <v>0.3</v>
       </c>
       <c r="BE170" s="47">
@@ -15492,8 +15504,8 @@
         <v>6</v>
       </c>
       <c r="BD171" s="47">
-        <f>(SUM(BE171,'Run distances (Term 2)'!BI183,'Run distances (Term 3)'!BI171,'Run distances (Term 4)'!BI171))</f>
-        <v>1.7999999999999998</v>
+        <f>(SUM(BE171,'Run distances (Term 2)'!BI187,'Run distances (Term 3)'!BI171,'Run distances (Term 4)'!BI171))</f>
+        <v>2.6999999999999997</v>
       </c>
       <c r="BE171" s="47">
         <f t="shared" si="24"/>
@@ -15601,8 +15613,8 @@
         <v>101</v>
       </c>
       <c r="BD172" s="47">
-        <f>(SUM(BE172,'Run distances (Term 2)'!BI184,'Run distances (Term 3)'!BI172,'Run distances (Term 4)'!BI172))</f>
-        <v>36.599999999999994</v>
+        <f>(SUM(BE172,'Run distances (Term 2)'!BI188,'Run distances (Term 3)'!BI172,'Run distances (Term 4)'!BI172))</f>
+        <v>45.599999999999994</v>
       </c>
       <c r="BE172" s="47">
         <f t="shared" si="24"/>
@@ -15676,7 +15688,7 @@
         <v>5</v>
       </c>
       <c r="BD173" s="47">
-        <f>(SUM(BE173,'Run distances (Term 2)'!BI185,'Run distances (Term 3)'!BI173,'Run distances (Term 4)'!BI173))</f>
+        <f>(SUM(BE173,'Run distances (Term 2)'!BI189,'Run distances (Term 3)'!BI173,'Run distances (Term 4)'!BI173))</f>
         <v>1.5</v>
       </c>
       <c r="BE173" s="47">
@@ -15753,7 +15765,7 @@
         <v>9</v>
       </c>
       <c r="BD174" s="47">
-        <f>(SUM(BE174,'Run distances (Term 2)'!BI186,'Run distances (Term 3)'!BI174,'Run distances (Term 4)'!BI174))</f>
+        <f>(SUM(BE174,'Run distances (Term 2)'!BI190,'Run distances (Term 3)'!BI174,'Run distances (Term 4)'!BI174))</f>
         <v>2.6999999999999997</v>
       </c>
       <c r="BE174" s="47">
@@ -15826,7 +15838,7 @@
         <v>3</v>
       </c>
       <c r="BD175" s="47">
-        <f>(SUM(BE175,'Run distances (Term 2)'!BI187,'Run distances (Term 3)'!BI175,'Run distances (Term 4)'!BI175))</f>
+        <f>(SUM(BE175,'Run distances (Term 2)'!BI191,'Run distances (Term 3)'!BI175,'Run distances (Term 4)'!BI175))</f>
         <v>0.89999999999999991</v>
       </c>
       <c r="BE175" s="47">
@@ -15913,7 +15925,7 @@
         <v>24</v>
       </c>
       <c r="BD176" s="47">
-        <f>(SUM(BE176,'Run distances (Term 2)'!BI188,'Run distances (Term 3)'!BI176,'Run distances (Term 4)'!BI176))</f>
+        <f>(SUM(BE176,'Run distances (Term 2)'!BI192,'Run distances (Term 3)'!BI176,'Run distances (Term 4)'!BI176))</f>
         <v>7.1999999999999993</v>
       </c>
       <c r="BE176" s="47">
@@ -15986,7 +15998,7 @@
         <v>7</v>
       </c>
       <c r="BD177" s="47">
-        <f>(SUM(BE177,'Run distances (Term 2)'!BI189,'Run distances (Term 3)'!BI177,'Run distances (Term 4)'!BI177))</f>
+        <f>(SUM(BE177,'Run distances (Term 2)'!BI193,'Run distances (Term 3)'!BI177,'Run distances (Term 4)'!BI177))</f>
         <v>2.1</v>
       </c>
       <c r="BE177" s="47">
@@ -16007,10 +16019,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2440E40C-0490-44B1-823E-D5C5232BF4FE}">
-  <dimension ref="A1:BI189"/>
+  <dimension ref="A1:BI193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="G179" sqref="G179"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X188" sqref="X188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16599,7 +16612,9 @@
       <c r="J9" s="10"/>
       <c r="K9" s="11"/>
       <c r="L9" s="12"/>
-      <c r="M9" s="13"/>
+      <c r="M9" s="13">
+        <v>1</v>
+      </c>
       <c r="O9" s="6"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="8"/>
@@ -16638,12 +16653,12 @@
       <c r="BF9" s="9"/>
       <c r="BG9" s="4"/>
       <c r="BH9" s="46">
-        <f t="shared" ref="BH9:BH73" si="0">SUM(E9:BF9)</f>
-        <v>2</v>
+        <f t="shared" ref="BH9:BH74" si="0">SUM(E9:BF9)</f>
+        <v>3</v>
       </c>
       <c r="BI9" s="47">
-        <f t="shared" ref="BI9:BI73" si="1">(SUM(E9:BG9)*$D$2)</f>
-        <v>0.6</v>
+        <f t="shared" ref="BI9:BI74" si="1">(SUM(E9:BG9)*$D$2)</f>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.35">
@@ -16664,7 +16679,9 @@
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="11"/>
+      <c r="K10" s="11">
+        <v>1</v>
+      </c>
       <c r="L10" s="12"/>
       <c r="M10" s="13"/>
       <c r="O10" s="6"/>
@@ -16706,11 +16723,11 @@
       <c r="BG10" s="4"/>
       <c r="BH10" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI10" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.35">
@@ -17740,7 +17757,9 @@
       <c r="J26" s="10"/>
       <c r="K26" s="11"/>
       <c r="L26" s="12"/>
-      <c r="M26" s="13"/>
+      <c r="M26" s="13">
+        <v>1</v>
+      </c>
       <c r="O26" s="6"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="8"/>
@@ -17779,26 +17798,26 @@
       <c r="BF26" s="9"/>
       <c r="BG26" s="4"/>
       <c r="BH26" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="BH26" si="2">SUM(E26:BF26)</f>
+        <v>1</v>
       </c>
       <c r="BI26" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="BI26" si="3">(SUM(E26:BG26)*$D$2)</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="27" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A27" s="44" t="s">
-        <v>262</v>
+        <v>354</v>
       </c>
       <c r="B27" s="45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C27" s="44" t="s">
         <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="7"/>
@@ -17807,7 +17826,9 @@
       <c r="J27" s="10"/>
       <c r="K27" s="11"/>
       <c r="L27" s="12"/>
-      <c r="M27" s="13"/>
+      <c r="M27" s="13">
+        <v>6</v>
+      </c>
       <c r="O27" s="6"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="8"/>
@@ -17847,16 +17868,16 @@
       <c r="BG27" s="4"/>
       <c r="BH27" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BI27" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A28" s="44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B28" s="45">
         <v>5</v>
@@ -17923,7 +17944,7 @@
     </row>
     <row r="29" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A29" s="44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B29" s="45">
         <v>5</v>
@@ -17990,7 +18011,7 @@
     </row>
     <row r="30" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A30" s="44" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B30" s="45">
         <v>5</v>
@@ -18057,7 +18078,7 @@
     </row>
     <row r="31" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A31" s="44" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B31" s="45">
         <v>5</v>
@@ -18124,16 +18145,16 @@
     </row>
     <row r="32" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A32" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B32" s="45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" s="44" t="s">
         <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="7"/>
@@ -18191,7 +18212,7 @@
     </row>
     <row r="33" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A33" s="44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B33" s="45">
         <v>4</v>
@@ -18258,7 +18279,7 @@
     </row>
     <row r="34" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A34" s="44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B34" s="45">
         <v>4</v>
@@ -18325,7 +18346,7 @@
     </row>
     <row r="35" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A35" s="44" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B35" s="45">
         <v>4</v>
@@ -18337,12 +18358,8 @@
         <v>55</v>
       </c>
       <c r="E35" s="6"/>
-      <c r="F35" s="7">
-        <v>2</v>
-      </c>
-      <c r="G35" s="8">
-        <v>1</v>
-      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="8"/>
       <c r="H35" s="9"/>
       <c r="J35" s="10"/>
       <c r="K35" s="11"/>
@@ -18387,16 +18404,16 @@
       <c r="BG35" s="4"/>
       <c r="BH35" s="46">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BI35" s="47">
         <f t="shared" si="1"/>
-        <v>0.89999999999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A36" s="44" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B36" s="45">
         <v>4</v>
@@ -18409,7 +18426,7 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G36" s="8">
         <v>1</v>
@@ -18458,16 +18475,16 @@
       <c r="BG36" s="4"/>
       <c r="BH36" s="46">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI36" s="47">
         <f t="shared" si="1"/>
-        <v>1.2</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="37" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A37" s="44" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B37" s="45">
         <v>4</v>
@@ -18479,10 +18496,16 @@
         <v>55</v>
       </c>
       <c r="E37" s="6"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="8"/>
+      <c r="F37" s="7">
+        <v>3</v>
+      </c>
+      <c r="G37" s="8">
+        <v>1</v>
+      </c>
       <c r="H37" s="9"/>
-      <c r="J37" s="10"/>
+      <c r="J37" s="10">
+        <v>2</v>
+      </c>
       <c r="K37" s="11"/>
       <c r="L37" s="12"/>
       <c r="M37" s="13"/>
@@ -18525,25 +18548,25 @@
       <c r="BG37" s="4"/>
       <c r="BH37" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BI37" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A38" s="44" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B38" s="45">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C38" s="44" t="s">
         <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="7"/>
@@ -18601,7 +18624,7 @@
     </row>
     <row r="39" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A39" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B39" s="45">
         <v>6</v>
@@ -18617,15 +18640,21 @@
       <c r="G39" s="8"/>
       <c r="H39" s="9"/>
       <c r="J39" s="10"/>
-      <c r="K39" s="11"/>
+      <c r="K39" s="11">
+        <v>6</v>
+      </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="13"/>
+      <c r="M39" s="13">
+        <v>3</v>
+      </c>
       <c r="O39" s="6"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="8"/>
       <c r="R39" s="9"/>
       <c r="T39" s="10"/>
-      <c r="U39" s="11"/>
+      <c r="U39" s="11">
+        <v>5</v>
+      </c>
       <c r="V39" s="12"/>
       <c r="W39" s="13"/>
       <c r="Y39" s="6"/>
@@ -18659,16 +18688,16 @@
       <c r="BG39" s="4"/>
       <c r="BH39" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BI39" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="40" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A40" s="44" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B40" s="45">
         <v>6</v>
@@ -18680,9 +18709,7 @@
         <v>50</v>
       </c>
       <c r="E40" s="6"/>
-      <c r="F40" s="7">
-        <v>2</v>
-      </c>
+      <c r="F40" s="7"/>
       <c r="G40" s="8"/>
       <c r="H40" s="9"/>
       <c r="J40" s="10"/>
@@ -18728,16 +18755,16 @@
       <c r="BG40" s="4"/>
       <c r="BH40" s="46">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BI40" s="47">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A41" s="44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B41" s="45">
         <v>6</v>
@@ -18749,10 +18776,10 @@
         <v>50</v>
       </c>
       <c r="E41" s="6"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="8">
+      <c r="F41" s="7">
         <v>2</v>
       </c>
+      <c r="G41" s="8"/>
       <c r="H41" s="9"/>
       <c r="J41" s="10"/>
       <c r="K41" s="11"/>
@@ -18806,7 +18833,7 @@
     </row>
     <row r="42" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A42" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B42" s="45">
         <v>6</v>
@@ -18815,23 +18842,27 @@
         <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E42" s="6"/>
-      <c r="F42" s="7">
-        <v>6</v>
-      </c>
+      <c r="F42" s="7"/>
       <c r="G42" s="8">
         <v>2</v>
       </c>
       <c r="H42" s="9"/>
       <c r="J42" s="10"/>
-      <c r="K42" s="11"/>
+      <c r="K42" s="11">
+        <v>6</v>
+      </c>
       <c r="L42" s="12"/>
-      <c r="M42" s="13"/>
+      <c r="M42" s="13">
+        <v>7</v>
+      </c>
       <c r="O42" s="6"/>
       <c r="P42" s="7"/>
-      <c r="Q42" s="8"/>
+      <c r="Q42" s="8">
+        <v>4</v>
+      </c>
       <c r="R42" s="9"/>
       <c r="T42" s="10"/>
       <c r="U42" s="11"/>
@@ -18868,16 +18899,16 @@
       <c r="BG42" s="4"/>
       <c r="BH42" s="46">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="BI42" s="47">
         <f t="shared" si="1"/>
-        <v>2.4</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="43" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A43" s="44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B43" s="45">
         <v>6</v>
@@ -18889,13 +18920,21 @@
         <v>51</v>
       </c>
       <c r="E43" s="6"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="8"/>
+      <c r="F43" s="7">
+        <v>6</v>
+      </c>
+      <c r="G43" s="8">
+        <v>2</v>
+      </c>
       <c r="H43" s="9"/>
       <c r="J43" s="10"/>
-      <c r="K43" s="11"/>
+      <c r="K43" s="11">
+        <v>3</v>
+      </c>
       <c r="L43" s="12"/>
-      <c r="M43" s="13"/>
+      <c r="M43" s="13">
+        <v>4</v>
+      </c>
       <c r="O43" s="6"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="8"/>
@@ -18935,16 +18974,16 @@
       <c r="BG43" s="4"/>
       <c r="BH43" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BI43" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="44" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A44" s="44" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="B44" s="45">
         <v>6</v>
@@ -19011,10 +19050,10 @@
     </row>
     <row r="45" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A45" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B45" s="45">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" s="44" t="s">
         <v>49</v>
@@ -19078,7 +19117,7 @@
     </row>
     <row r="46" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A46" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B46" s="45">
         <v>7</v>
@@ -19145,7 +19184,7 @@
     </row>
     <row r="47" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A47" s="44" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B47" s="45">
         <v>7</v>
@@ -19202,17 +19241,17 @@
       <c r="BF47" s="9"/>
       <c r="BG47" s="4"/>
       <c r="BH47" s="46">
-        <f t="shared" ref="BH47" si="2">SUM(E47:BF47)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BI47" s="47">
-        <f t="shared" ref="BI47" si="3">(SUM(E47:BG47)*$D$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A48" s="44" t="s">
-        <v>342</v>
+        <v>243</v>
       </c>
       <c r="B48" s="45">
         <v>7</v>
@@ -19224,9 +19263,7 @@
         <v>51</v>
       </c>
       <c r="E48" s="6"/>
-      <c r="F48" s="7">
-        <v>2</v>
-      </c>
+      <c r="F48" s="7"/>
       <c r="G48" s="8"/>
       <c r="H48" s="9"/>
       <c r="J48" s="10"/>
@@ -19271,29 +19308,31 @@
       <c r="BF48" s="9"/>
       <c r="BG48" s="4"/>
       <c r="BH48" s="46">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" ref="BH48" si="4">SUM(E48:BF48)</f>
+        <v>0</v>
       </c>
       <c r="BI48" s="47">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
+        <f t="shared" ref="BI48" si="5">(SUM(E48:BG48)*$D$2)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A49" s="44" t="s">
-        <v>242</v>
+        <v>342</v>
       </c>
       <c r="B49" s="45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" s="44" t="s">
         <v>49</v>
       </c>
       <c r="D49" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E49" s="6"/>
-      <c r="F49" s="7"/>
+      <c r="F49" s="7">
+        <v>2</v>
+      </c>
       <c r="G49" s="8"/>
       <c r="H49" s="9"/>
       <c r="J49" s="10"/>
@@ -19339,16 +19378,16 @@
       <c r="BG49" s="4"/>
       <c r="BH49" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI49" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="50" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A50" s="44" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B50" s="45">
         <v>8</v>
@@ -19415,7 +19454,7 @@
     </row>
     <row r="51" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A51" s="44" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B51" s="45">
         <v>8</v>
@@ -19482,26 +19521,20 @@
     </row>
     <row r="52" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A52" s="44" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B52" s="45">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C52" s="44" t="s">
         <v>49</v>
       </c>
       <c r="D52" t="s">
-        <v>57</v>
-      </c>
-      <c r="E52" s="6">
-        <v>6</v>
-      </c>
-      <c r="F52" s="7">
-        <v>15</v>
-      </c>
-      <c r="G52" s="8">
-        <v>6</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="8"/>
       <c r="H52" s="9"/>
       <c r="J52" s="10"/>
       <c r="K52" s="11"/>
@@ -19546,16 +19579,16 @@
       <c r="BG52" s="4"/>
       <c r="BH52" s="46">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="BI52" s="47">
         <f t="shared" si="1"/>
-        <v>8.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A53" s="44" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B53" s="45">
         <v>9</v>
@@ -19567,27 +19600,45 @@
         <v>57</v>
       </c>
       <c r="E53" s="6">
+        <v>6</v>
+      </c>
+      <c r="F53" s="7">
+        <v>15</v>
+      </c>
+      <c r="G53" s="8">
+        <v>6</v>
+      </c>
+      <c r="H53" s="9"/>
+      <c r="J53" s="10">
+        <v>7</v>
+      </c>
+      <c r="K53" s="11">
+        <v>10</v>
+      </c>
+      <c r="L53" s="12">
+        <v>7</v>
+      </c>
+      <c r="M53" s="13">
         <v>8</v>
       </c>
-      <c r="F53" s="7">
-        <v>4</v>
-      </c>
-      <c r="G53" s="8">
-        <v>8</v>
-      </c>
-      <c r="H53" s="9"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="13"/>
       <c r="O53" s="6"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="8"/>
+      <c r="P53" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q53" s="8">
+        <v>5</v>
+      </c>
       <c r="R53" s="9"/>
       <c r="T53" s="10"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="12"/>
-      <c r="W53" s="13"/>
+      <c r="U53" s="11">
+        <v>7</v>
+      </c>
+      <c r="V53" s="12">
+        <v>5</v>
+      </c>
+      <c r="W53" s="13">
+        <v>6</v>
+      </c>
       <c r="Y53" s="6"/>
       <c r="Z53" s="7"/>
       <c r="AA53" s="8"/>
@@ -19619,42 +19670,62 @@
       <c r="BG53" s="4"/>
       <c r="BH53" s="46">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="BI53" s="47">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>26.099999999999998</v>
       </c>
     </row>
     <row r="54" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A54" s="44" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B54" s="45">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" s="44" t="s">
         <v>49</v>
       </c>
       <c r="D54" t="s">
-        <v>48</v>
-      </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="8"/>
+        <v>57</v>
+      </c>
+      <c r="E54" s="6">
+        <v>8</v>
+      </c>
+      <c r="F54" s="7">
+        <v>4</v>
+      </c>
+      <c r="G54" s="8">
+        <v>8</v>
+      </c>
       <c r="H54" s="9"/>
-      <c r="J54" s="10"/>
+      <c r="J54" s="10">
+        <v>5</v>
+      </c>
       <c r="K54" s="11"/>
-      <c r="L54" s="12"/>
+      <c r="L54" s="12">
+        <v>8</v>
+      </c>
       <c r="M54" s="13"/>
       <c r="O54" s="6"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="8"/>
+      <c r="P54" s="7">
+        <v>6</v>
+      </c>
+      <c r="Q54" s="8">
+        <v>6</v>
+      </c>
       <c r="R54" s="9"/>
       <c r="T54" s="10"/>
-      <c r="U54" s="11"/>
-      <c r="V54" s="12"/>
-      <c r="W54" s="13"/>
+      <c r="U54" s="11">
+        <v>7</v>
+      </c>
+      <c r="V54" s="12">
+        <v>4</v>
+      </c>
+      <c r="W54" s="13">
+        <v>6</v>
+      </c>
       <c r="Y54" s="6"/>
       <c r="Z54" s="7"/>
       <c r="AA54" s="8"/>
@@ -19686,16 +19757,16 @@
       <c r="BG54" s="4"/>
       <c r="BH54" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="BI54" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18.599999999999998</v>
       </c>
     </row>
     <row r="55" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A55" s="44" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B55" s="45">
         <v>8</v>
@@ -19713,15 +19784,21 @@
       <c r="J55" s="10"/>
       <c r="K55" s="11"/>
       <c r="L55" s="12"/>
-      <c r="M55" s="13"/>
+      <c r="M55" s="13">
+        <v>7</v>
+      </c>
       <c r="O55" s="6"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="8"/>
       <c r="R55" s="9"/>
       <c r="T55" s="10"/>
       <c r="U55" s="11"/>
-      <c r="V55" s="12"/>
-      <c r="W55" s="13"/>
+      <c r="V55" s="12">
+        <v>1</v>
+      </c>
+      <c r="W55" s="13">
+        <v>1</v>
+      </c>
       <c r="Y55" s="6"/>
       <c r="Z55" s="7"/>
       <c r="AA55" s="8"/>
@@ -19753,16 +19830,16 @@
       <c r="BG55" s="4"/>
       <c r="BH55" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BI55" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.6999999999999997</v>
       </c>
     </row>
     <row r="56" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A56" s="44" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B56" s="45">
         <v>8</v>
@@ -19780,7 +19857,9 @@
       <c r="J56" s="10"/>
       <c r="K56" s="11"/>
       <c r="L56" s="12"/>
-      <c r="M56" s="13"/>
+      <c r="M56" s="13">
+        <v>4</v>
+      </c>
       <c r="O56" s="6"/>
       <c r="P56" s="7"/>
       <c r="Q56" s="8"/>
@@ -19820,16 +19899,16 @@
       <c r="BG56" s="4"/>
       <c r="BH56" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BI56" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="57" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A57" s="44" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B57" s="45">
         <v>8</v>
@@ -19896,7 +19975,7 @@
     </row>
     <row r="58" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A58" s="44" t="s">
-        <v>333</v>
+        <v>234</v>
       </c>
       <c r="B58" s="45">
         <v>8</v>
@@ -19963,10 +20042,10 @@
     </row>
     <row r="59" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A59" s="44" t="s">
-        <v>233</v>
+        <v>333</v>
       </c>
       <c r="B59" s="45">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C59" s="44" t="s">
         <v>49</v>
@@ -20030,7 +20109,7 @@
     </row>
     <row r="60" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A60" s="44" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B60" s="45">
         <v>9</v>
@@ -20097,7 +20176,7 @@
     </row>
     <row r="61" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A61" s="44" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B61" s="45">
         <v>9</v>
@@ -20108,9 +20187,7 @@
       <c r="D61" t="s">
         <v>48</v>
       </c>
-      <c r="E61" s="6">
-        <v>1</v>
-      </c>
+      <c r="E61" s="6"/>
       <c r="F61" s="7"/>
       <c r="G61" s="8"/>
       <c r="H61" s="9"/>
@@ -20157,27 +20234,29 @@
       <c r="BG61" s="4"/>
       <c r="BH61" s="46">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI61" s="47">
         <f t="shared" si="1"/>
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A62" s="44" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B62" s="45">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C62" s="44" t="s">
         <v>49</v>
       </c>
       <c r="D62" t="s">
-        <v>62</v>
-      </c>
-      <c r="E62" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="E62" s="6">
+        <v>1</v>
+      </c>
       <c r="F62" s="7"/>
       <c r="G62" s="8"/>
       <c r="H62" s="9"/>
@@ -20224,16 +20303,16 @@
       <c r="BG62" s="4"/>
       <c r="BH62" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI62" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="63" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A63" s="44" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B63" s="45">
         <v>1</v>
@@ -20300,21 +20379,19 @@
     </row>
     <row r="64" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A64" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="B64" s="44" t="s">
-        <v>53</v>
+        <v>225</v>
+      </c>
+      <c r="B64" s="45">
+        <v>1</v>
       </c>
       <c r="C64" s="44" t="s">
         <v>49</v>
       </c>
       <c r="D64" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E64" s="6"/>
-      <c r="F64" s="7">
-        <v>4</v>
-      </c>
+      <c r="F64" s="7"/>
       <c r="G64" s="8"/>
       <c r="H64" s="9"/>
       <c r="J64" s="10"/>
@@ -20360,16 +20437,16 @@
       <c r="BG64" s="4"/>
       <c r="BH64" s="46">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BI64" s="47">
         <f t="shared" si="1"/>
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A65" s="44" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B65" s="44" t="s">
         <v>53</v>
@@ -20382,21 +20459,27 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G65" s="8"/>
       <c r="H65" s="9"/>
       <c r="J65" s="10"/>
       <c r="K65" s="11"/>
-      <c r="L65" s="12"/>
+      <c r="L65" s="12">
+        <v>3</v>
+      </c>
       <c r="M65" s="13"/>
       <c r="O65" s="6"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="8"/>
       <c r="R65" s="9"/>
       <c r="T65" s="10"/>
-      <c r="U65" s="11"/>
-      <c r="V65" s="12"/>
+      <c r="U65" s="11">
+        <v>4</v>
+      </c>
+      <c r="V65" s="12">
+        <v>1</v>
+      </c>
       <c r="W65" s="13"/>
       <c r="Y65" s="6"/>
       <c r="Z65" s="7"/>
@@ -20429,16 +20512,16 @@
       <c r="BG65" s="4"/>
       <c r="BH65" s="46">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BI65" s="47">
         <f t="shared" si="1"/>
-        <v>2.1</v>
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="66" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A66" s="44" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B66" s="44" t="s">
         <v>53</v>
@@ -20451,20 +20534,26 @@
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="9"/>
-      <c r="J66" s="10"/>
+      <c r="J66" s="10">
+        <v>3</v>
+      </c>
       <c r="K66" s="11"/>
       <c r="L66" s="12"/>
       <c r="M66" s="13"/>
       <c r="O66" s="6"/>
-      <c r="P66" s="7"/>
+      <c r="P66" s="7">
+        <v>3</v>
+      </c>
       <c r="Q66" s="8"/>
       <c r="R66" s="9"/>
       <c r="T66" s="10"/>
-      <c r="U66" s="11"/>
+      <c r="U66" s="11">
+        <v>2</v>
+      </c>
       <c r="V66" s="12"/>
       <c r="W66" s="13"/>
       <c r="Y66" s="6"/>
@@ -20498,16 +20587,16 @@
       <c r="BG66" s="4"/>
       <c r="BH66" s="46">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="BI66" s="47">
         <f t="shared" si="1"/>
-        <v>0.89999999999999991</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="67" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A67" s="44" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B67" s="44" t="s">
         <v>53</v>
@@ -20519,7 +20608,9 @@
         <v>54</v>
       </c>
       <c r="E67" s="6"/>
-      <c r="F67" s="7"/>
+      <c r="F67" s="7">
+        <v>3</v>
+      </c>
       <c r="G67" s="8"/>
       <c r="H67" s="9"/>
       <c r="J67" s="10"/>
@@ -20565,32 +20656,28 @@
       <c r="BG67" s="4"/>
       <c r="BH67" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI67" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="68" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A68" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="B68" s="45">
-        <v>3</v>
+        <v>221</v>
+      </c>
+      <c r="B68" s="44" t="s">
+        <v>53</v>
       </c>
       <c r="C68" s="44" t="s">
         <v>49</v>
       </c>
       <c r="D68" t="s">
-        <v>56</v>
-      </c>
-      <c r="E68" s="6">
-        <v>3</v>
-      </c>
-      <c r="F68" s="7">
-        <v>5</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E68" s="6"/>
+      <c r="F68" s="7"/>
       <c r="G68" s="8"/>
       <c r="H68" s="9"/>
       <c r="J68" s="10"/>
@@ -20636,31 +20723,40 @@
       <c r="BG68" s="4"/>
       <c r="BH68" s="46">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BI68" s="47">
         <f t="shared" si="1"/>
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A69" s="44" t="s">
-        <v>334</v>
-      </c>
-      <c r="B69" s="45" t="s">
-        <v>335</v>
+        <v>220</v>
+      </c>
+      <c r="B69" s="45">
+        <v>3</v>
       </c>
       <c r="C69" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="E69" s="6"/>
-      <c r="F69" s="7"/>
+      <c r="D69" t="s">
+        <v>56</v>
+      </c>
+      <c r="E69" s="6">
+        <v>3</v>
+      </c>
+      <c r="F69" s="7">
+        <v>5</v>
+      </c>
       <c r="G69" s="8"/>
       <c r="H69" s="9"/>
       <c r="J69" s="10"/>
       <c r="K69" s="11"/>
       <c r="L69" s="12"/>
-      <c r="M69" s="13"/>
+      <c r="M69" s="13">
+        <v>2</v>
+      </c>
       <c r="O69" s="6"/>
       <c r="P69" s="7"/>
       <c r="Q69" s="8"/>
@@ -20700,14 +20796,23 @@
       <c r="BG69" s="4"/>
       <c r="BH69" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BI69" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A70" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="B70" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="C70" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="E70" s="6"/>
       <c r="F70" s="7"/>
       <c r="G70" s="8"/>
@@ -20763,18 +20868,6 @@
       </c>
     </row>
     <row r="71" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A71" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="B71" s="43">
-        <v>1</v>
-      </c>
-      <c r="C71" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="D71" t="s">
-        <v>52</v>
-      </c>
       <c r="E71" s="6"/>
       <c r="F71" s="7"/>
       <c r="G71" s="8"/>
@@ -20831,7 +20924,7 @@
     </row>
     <row r="72" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A72" s="42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B72" s="43">
         <v>1</v>
@@ -20843,9 +20936,7 @@
         <v>52</v>
       </c>
       <c r="E72" s="6"/>
-      <c r="F72" s="7">
-        <v>3</v>
-      </c>
+      <c r="F72" s="7"/>
       <c r="G72" s="8"/>
       <c r="H72" s="9"/>
       <c r="J72" s="10"/>
@@ -20891,16 +20982,16 @@
       <c r="BG72" s="4"/>
       <c r="BH72" s="46">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BI72" s="47">
         <f t="shared" si="1"/>
-        <v>0.89999999999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A73" s="42" t="s">
-        <v>329</v>
+        <v>218</v>
       </c>
       <c r="B73" s="43">
         <v>1</v>
@@ -20912,7 +21003,9 @@
         <v>52</v>
       </c>
       <c r="E73" s="6"/>
-      <c r="F73" s="7"/>
+      <c r="F73" s="7">
+        <v>3</v>
+      </c>
       <c r="G73" s="8"/>
       <c r="H73" s="9"/>
       <c r="J73" s="10"/>
@@ -20958,19 +21051,19 @@
       <c r="BG73" s="4"/>
       <c r="BH73" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI73" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="74" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A74" s="42" t="s">
-        <v>217</v>
+        <v>329</v>
       </c>
       <c r="B74" s="43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74" s="42" t="s">
         <v>64</v>
@@ -21024,17 +21117,17 @@
       <c r="BF74" s="9"/>
       <c r="BG74" s="4"/>
       <c r="BH74" s="46">
-        <f t="shared" ref="BH74:BH143" si="4">SUM(E74:BF74)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BI74" s="47">
-        <f t="shared" ref="BI74:BI143" si="5">(SUM(E74:BG74)*$D$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A75" s="42" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B75" s="43">
         <v>2</v>
@@ -21091,17 +21184,17 @@
       <c r="BF75" s="9"/>
       <c r="BG75" s="4"/>
       <c r="BH75" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="BH75:BH146" si="6">SUM(E75:BF75)</f>
         <v>0</v>
       </c>
       <c r="BI75" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="BI75:BI146" si="7">(SUM(E75:BG75)*$D$2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A76" s="42" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B76" s="43">
         <v>2</v>
@@ -21158,17 +21251,17 @@
       <c r="BF76" s="9"/>
       <c r="BG76" s="4"/>
       <c r="BH76" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI76" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A77" s="42" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B77" s="43">
         <v>2</v>
@@ -21225,17 +21318,17 @@
       <c r="BF77" s="9"/>
       <c r="BG77" s="4"/>
       <c r="BH77" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI77" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A78" s="42" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B78" s="43">
         <v>2</v>
@@ -21247,9 +21340,7 @@
         <v>52</v>
       </c>
       <c r="E78" s="6"/>
-      <c r="F78" s="7">
-        <v>1</v>
-      </c>
+      <c r="F78" s="7"/>
       <c r="G78" s="8"/>
       <c r="H78" s="9"/>
       <c r="J78" s="10"/>
@@ -21294,17 +21385,17 @@
       <c r="BF78" s="9"/>
       <c r="BG78" s="4"/>
       <c r="BH78" s="46">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="BI78" s="47">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A79" s="42" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B79" s="43">
         <v>2</v>
@@ -21315,10 +21406,10 @@
       <c r="D79" t="s">
         <v>52</v>
       </c>
-      <c r="E79" s="6">
-        <v>4</v>
-      </c>
-      <c r="F79" s="7"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="7">
+        <v>1</v>
+      </c>
       <c r="G79" s="8"/>
       <c r="H79" s="9"/>
       <c r="J79" s="10"/>
@@ -21363,28 +21454,30 @@
       <c r="BF79" s="9"/>
       <c r="BG79" s="4"/>
       <c r="BH79" s="46">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="BI79" s="47">
-        <f t="shared" si="5"/>
-        <v>1.2</v>
+        <f t="shared" si="7"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="80" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A80" s="42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B80" s="43">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C80" s="42" t="s">
         <v>64</v>
       </c>
       <c r="D80" t="s">
-        <v>59</v>
-      </c>
-      <c r="E80" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="E80" s="6">
+        <v>4</v>
+      </c>
       <c r="F80" s="7"/>
       <c r="G80" s="8"/>
       <c r="H80" s="9"/>
@@ -21397,9 +21490,15 @@
       <c r="Q80" s="8"/>
       <c r="R80" s="9"/>
       <c r="T80" s="10"/>
-      <c r="U80" s="11"/>
-      <c r="V80" s="12"/>
-      <c r="W80" s="13"/>
+      <c r="U80" s="11">
+        <v>4</v>
+      </c>
+      <c r="V80" s="12">
+        <v>2</v>
+      </c>
+      <c r="W80" s="13">
+        <v>3</v>
+      </c>
       <c r="Y80" s="6"/>
       <c r="Z80" s="7"/>
       <c r="AA80" s="8"/>
@@ -21430,17 +21529,17 @@
       <c r="BF80" s="9"/>
       <c r="BG80" s="4"/>
       <c r="BH80" s="46">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="BI80" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>3.9</v>
       </c>
     </row>
     <row r="81" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A81" s="42" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B81" s="43">
         <v>10</v>
@@ -21497,17 +21596,17 @@
       <c r="BF81" s="9"/>
       <c r="BG81" s="4"/>
       <c r="BH81" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI81" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A82" s="42" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B82" s="43">
         <v>10</v>
@@ -21564,17 +21663,17 @@
       <c r="BF82" s="9"/>
       <c r="BG82" s="4"/>
       <c r="BH82" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI82" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A83" s="42" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B83" s="43">
         <v>10</v>
@@ -21631,31 +21730,29 @@
       <c r="BF83" s="9"/>
       <c r="BG83" s="4"/>
       <c r="BH83" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI83" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A84" s="42" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B84" s="43">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C84" s="42" t="s">
         <v>64</v>
       </c>
       <c r="D84" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E84" s="6"/>
-      <c r="F84" s="7">
-        <v>1</v>
-      </c>
+      <c r="F84" s="7"/>
       <c r="G84" s="8"/>
       <c r="H84" s="9"/>
       <c r="J84" s="10"/>
@@ -21700,17 +21797,17 @@
       <c r="BF84" s="9"/>
       <c r="BG84" s="4"/>
       <c r="BH84" s="46">
-        <f t="shared" ref="BH84" si="6">SUM(E84:BF84)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="BI84" s="47">
-        <f t="shared" ref="BI84" si="7">(SUM(E84:BG84)*$D$2)</f>
-        <v>0.3</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A85" s="42" t="s">
-        <v>353</v>
+        <v>207</v>
       </c>
       <c r="B85" s="43">
         <v>3</v>
@@ -21723,7 +21820,7 @@
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G85" s="8"/>
       <c r="H85" s="9"/>
@@ -21769,17 +21866,17 @@
       <c r="BF85" s="9"/>
       <c r="BG85" s="4"/>
       <c r="BH85" s="46">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" ref="BH85" si="8">SUM(E85:BF85)</f>
+        <v>1</v>
       </c>
       <c r="BI85" s="47">
-        <f t="shared" si="5"/>
-        <v>0.6</v>
+        <f t="shared" ref="BI85" si="9">(SUM(E85:BG85)*$D$2)</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="86" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A86" s="42" t="s">
-        <v>206</v>
+        <v>353</v>
       </c>
       <c r="B86" s="43">
         <v>3</v>
@@ -21791,7 +21888,9 @@
         <v>56</v>
       </c>
       <c r="E86" s="6"/>
-      <c r="F86" s="7"/>
+      <c r="F86" s="7">
+        <v>2</v>
+      </c>
       <c r="G86" s="8"/>
       <c r="H86" s="9"/>
       <c r="J86" s="10"/>
@@ -21836,17 +21935,17 @@
       <c r="BF86" s="9"/>
       <c r="BG86" s="4"/>
       <c r="BH86" s="46">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="BI86" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="87" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A87" s="42" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B87" s="43">
         <v>3</v>
@@ -21903,17 +22002,17 @@
       <c r="BF87" s="9"/>
       <c r="BG87" s="4"/>
       <c r="BH87" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI87" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A88" s="42" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B88" s="43">
         <v>3</v>
@@ -21931,7 +22030,9 @@
       <c r="J88" s="10"/>
       <c r="K88" s="11"/>
       <c r="L88" s="12"/>
-      <c r="M88" s="13"/>
+      <c r="M88" s="13">
+        <v>1</v>
+      </c>
       <c r="O88" s="6"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="8"/>
@@ -21970,17 +22071,17 @@
       <c r="BF88" s="9"/>
       <c r="BG88" s="4"/>
       <c r="BH88" s="46">
-        <f t="shared" ref="BH88" si="8">SUM(E88:BF88)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="BI88" s="47">
-        <f t="shared" ref="BI88" si="9">(SUM(E88:BG88)*$D$2)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="89" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A89" s="42" t="s">
-        <v>344</v>
+        <v>204</v>
       </c>
       <c r="B89" s="43">
         <v>3</v>
@@ -21992,9 +22093,7 @@
         <v>56</v>
       </c>
       <c r="E89" s="6"/>
-      <c r="F89" s="7">
-        <v>4</v>
-      </c>
+      <c r="F89" s="7"/>
       <c r="G89" s="8"/>
       <c r="H89" s="9"/>
       <c r="J89" s="10"/>
@@ -22039,29 +22138,31 @@
       <c r="BF89" s="9"/>
       <c r="BG89" s="4"/>
       <c r="BH89" s="46">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" ref="BH89" si="10">SUM(E89:BF89)</f>
+        <v>0</v>
       </c>
       <c r="BI89" s="47">
-        <f t="shared" si="5"/>
-        <v>1.2</v>
+        <f t="shared" ref="BI89" si="11">(SUM(E89:BG89)*$D$2)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A90" s="42" t="s">
-        <v>203</v>
+        <v>344</v>
       </c>
       <c r="B90" s="43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C90" s="42" t="s">
         <v>64</v>
       </c>
       <c r="D90" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E90" s="6"/>
-      <c r="F90" s="7"/>
+      <c r="F90" s="7">
+        <v>4</v>
+      </c>
       <c r="G90" s="8"/>
       <c r="H90" s="9"/>
       <c r="J90" s="10"/>
@@ -22106,17 +22207,17 @@
       <c r="BF90" s="9"/>
       <c r="BG90" s="4"/>
       <c r="BH90" s="46">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="BI90" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1.2</v>
       </c>
     </row>
     <row r="91" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A91" s="42" t="s">
-        <v>338</v>
+        <v>203</v>
       </c>
       <c r="B91" s="43">
         <v>5</v>
@@ -22128,17 +22229,15 @@
         <v>58</v>
       </c>
       <c r="E91" s="6"/>
-      <c r="F91" s="7">
-        <v>3</v>
-      </c>
-      <c r="G91" s="8">
-        <v>1</v>
-      </c>
+      <c r="F91" s="7"/>
+      <c r="G91" s="8"/>
       <c r="H91" s="9"/>
       <c r="J91" s="10"/>
       <c r="K91" s="11"/>
       <c r="L91" s="12"/>
-      <c r="M91" s="13"/>
+      <c r="M91" s="13">
+        <v>1</v>
+      </c>
       <c r="O91" s="6"/>
       <c r="P91" s="7"/>
       <c r="Q91" s="8"/>
@@ -22177,17 +22276,17 @@
       <c r="BF91" s="9"/>
       <c r="BG91" s="4"/>
       <c r="BH91" s="46">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="BI91" s="47">
-        <f t="shared" si="5"/>
-        <v>1.2</v>
+        <f t="shared" si="7"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="92" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A92" s="42" t="s">
-        <v>202</v>
+        <v>338</v>
       </c>
       <c r="B92" s="43">
         <v>5</v>
@@ -22199,13 +22298,21 @@
         <v>58</v>
       </c>
       <c r="E92" s="6"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="8"/>
+      <c r="F92" s="7">
+        <v>3</v>
+      </c>
+      <c r="G92" s="8">
+        <v>1</v>
+      </c>
       <c r="H92" s="9"/>
       <c r="J92" s="10"/>
-      <c r="K92" s="11"/>
+      <c r="K92" s="11">
+        <v>2</v>
+      </c>
       <c r="L92" s="12"/>
-      <c r="M92" s="13"/>
+      <c r="M92" s="13">
+        <v>6</v>
+      </c>
       <c r="O92" s="6"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="8"/>
@@ -22244,17 +22351,17 @@
       <c r="BF92" s="9"/>
       <c r="BG92" s="4"/>
       <c r="BH92" s="46">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="BI92" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="93" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A93" s="42" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B93" s="43">
         <v>5</v>
@@ -22311,17 +22418,17 @@
       <c r="BF93" s="9"/>
       <c r="BG93" s="4"/>
       <c r="BH93" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI93" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A94" s="42" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B94" s="43">
         <v>5</v>
@@ -22378,26 +22485,26 @@
       <c r="BF94" s="9"/>
       <c r="BG94" s="4"/>
       <c r="BH94" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI94" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A95" s="42" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B95" s="43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C95" s="42" t="s">
         <v>64</v>
       </c>
       <c r="D95" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="7"/>
@@ -22445,17 +22552,17 @@
       <c r="BF95" s="9"/>
       <c r="BG95" s="4"/>
       <c r="BH95" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI95" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A96" s="42" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B96" s="43">
         <v>4</v>
@@ -22512,17 +22619,17 @@
       <c r="BF96" s="9"/>
       <c r="BG96" s="4"/>
       <c r="BH96" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI96" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A97" s="42" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B97" s="43">
         <v>4</v>
@@ -22579,17 +22686,17 @@
       <c r="BF97" s="9"/>
       <c r="BG97" s="4"/>
       <c r="BH97" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI97" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A98" s="42" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B98" s="43">
         <v>4</v>
@@ -22646,17 +22753,17 @@
       <c r="BF98" s="9"/>
       <c r="BG98" s="4"/>
       <c r="BH98" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI98" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A99" s="42" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B99" s="43">
         <v>4</v>
@@ -22668,9 +22775,7 @@
         <v>55</v>
       </c>
       <c r="E99" s="6"/>
-      <c r="F99" s="7">
-        <v>2</v>
-      </c>
+      <c r="F99" s="7"/>
       <c r="G99" s="8"/>
       <c r="H99" s="9"/>
       <c r="J99" s="10"/>
@@ -22715,17 +22820,17 @@
       <c r="BF99" s="9"/>
       <c r="BG99" s="4"/>
       <c r="BH99" s="46">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="BI99" s="47">
-        <f t="shared" si="5"/>
-        <v>0.6</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A100" s="42" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B100" s="43">
         <v>4</v>
@@ -22738,7 +22843,7 @@
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G100" s="8"/>
       <c r="H100" s="9"/>
@@ -22784,29 +22889,31 @@
       <c r="BF100" s="9"/>
       <c r="BG100" s="4"/>
       <c r="BH100" s="46">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="BI100" s="47">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
+        <f t="shared" si="7"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="101" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A101" s="42" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B101" s="43">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C101" s="42" t="s">
         <v>64</v>
       </c>
       <c r="D101" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E101" s="6"/>
-      <c r="F101" s="7"/>
+      <c r="F101" s="7">
+        <v>1</v>
+      </c>
       <c r="G101" s="8"/>
       <c r="H101" s="9"/>
       <c r="J101" s="10"/>
@@ -22851,17 +22958,17 @@
       <c r="BF101" s="9"/>
       <c r="BG101" s="4"/>
       <c r="BH101" s="46">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="BI101" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="102" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A102" s="42" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B102" s="43">
         <v>6</v>
@@ -22874,9 +22981,7 @@
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="7"/>
-      <c r="G102" s="8">
-        <v>3</v>
-      </c>
+      <c r="G102" s="8"/>
       <c r="H102" s="9"/>
       <c r="J102" s="10"/>
       <c r="K102" s="11"/>
@@ -22920,20 +23025,20 @@
       <c r="BF102" s="9"/>
       <c r="BG102" s="4"/>
       <c r="BH102" s="46">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="BI102" s="47">
-        <f t="shared" si="5"/>
-        <v>0.89999999999999991</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A103" s="42" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B103" s="43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C103" s="42" t="s">
         <v>64</v>
@@ -22943,9 +23048,13 @@
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="7"/>
-      <c r="G103" s="8"/>
+      <c r="G103" s="8">
+        <v>3</v>
+      </c>
       <c r="H103" s="9"/>
-      <c r="J103" s="10"/>
+      <c r="J103" s="10">
+        <v>2</v>
+      </c>
       <c r="K103" s="11"/>
       <c r="L103" s="12"/>
       <c r="M103" s="13"/>
@@ -22987,17 +23096,17 @@
       <c r="BF103" s="9"/>
       <c r="BG103" s="4"/>
       <c r="BH103" s="46">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="BI103" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="104" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A104" s="42" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B104" s="43">
         <v>7</v>
@@ -23010,9 +23119,7 @@
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="7"/>
-      <c r="G104" s="8">
-        <v>6</v>
-      </c>
+      <c r="G104" s="8"/>
       <c r="H104" s="9"/>
       <c r="J104" s="10"/>
       <c r="K104" s="11"/>
@@ -23056,17 +23163,17 @@
       <c r="BF104" s="9"/>
       <c r="BG104" s="4"/>
       <c r="BH104" s="46">
-        <f t="shared" si="4"/>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="BI104" s="47">
-        <f t="shared" si="5"/>
-        <v>1.7999999999999998</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A105" s="42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B105" s="43">
         <v>7</v>
@@ -23079,20 +23186,32 @@
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="7"/>
-      <c r="G105" s="8"/>
+      <c r="G105" s="8">
+        <v>6</v>
+      </c>
       <c r="H105" s="9"/>
-      <c r="J105" s="10"/>
+      <c r="J105" s="10">
+        <v>3</v>
+      </c>
       <c r="K105" s="11"/>
       <c r="L105" s="12"/>
       <c r="M105" s="13"/>
       <c r="O105" s="6"/>
-      <c r="P105" s="7"/>
-      <c r="Q105" s="8"/>
+      <c r="P105" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q105" s="8">
+        <v>4</v>
+      </c>
       <c r="R105" s="9"/>
       <c r="T105" s="10"/>
-      <c r="U105" s="11"/>
+      <c r="U105" s="11">
+        <v>7</v>
+      </c>
       <c r="V105" s="12"/>
-      <c r="W105" s="13"/>
+      <c r="W105" s="13">
+        <v>2</v>
+      </c>
       <c r="Y105" s="6"/>
       <c r="Z105" s="7"/>
       <c r="AA105" s="8"/>
@@ -23123,17 +23242,17 @@
       <c r="BF105" s="9"/>
       <c r="BG105" s="4"/>
       <c r="BH105" s="46">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>24</v>
       </c>
       <c r="BI105" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>7.1999999999999993</v>
       </c>
     </row>
     <row r="106" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A106" s="42" t="s">
-        <v>332</v>
+        <v>189</v>
       </c>
       <c r="B106" s="43">
         <v>7</v>
@@ -23190,26 +23309,26 @@
       <c r="BF106" s="9"/>
       <c r="BG106" s="4"/>
       <c r="BH106" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI106" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A107" s="42" t="s">
-        <v>188</v>
+        <v>332</v>
       </c>
       <c r="B107" s="43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C107" s="42" t="s">
         <v>64</v>
       </c>
       <c r="D107" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E107" s="6"/>
       <c r="F107" s="7"/>
@@ -23221,12 +23340,18 @@
       <c r="M107" s="13"/>
       <c r="O107" s="6"/>
       <c r="P107" s="7"/>
-      <c r="Q107" s="8"/>
+      <c r="Q107" s="8">
+        <v>1</v>
+      </c>
       <c r="R107" s="9"/>
       <c r="T107" s="10"/>
-      <c r="U107" s="11"/>
+      <c r="U107" s="11">
+        <v>1</v>
+      </c>
       <c r="V107" s="12"/>
-      <c r="W107" s="13"/>
+      <c r="W107" s="13">
+        <v>1</v>
+      </c>
       <c r="Y107" s="6"/>
       <c r="Z107" s="7"/>
       <c r="AA107" s="8"/>
@@ -23257,17 +23382,17 @@
       <c r="BF107" s="9"/>
       <c r="BG107" s="4"/>
       <c r="BH107" s="46">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="BI107" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="108" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A108" s="42" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="B108" s="43">
         <v>6</v>
@@ -23324,17 +23449,17 @@
       <c r="BF108" s="9"/>
       <c r="BG108" s="4"/>
       <c r="BH108" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI108" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A109" s="42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B109" s="43">
         <v>6</v>
@@ -23391,17 +23516,17 @@
       <c r="BF109" s="9"/>
       <c r="BG109" s="4"/>
       <c r="BH109" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI109" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A110" s="42" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="B110" s="43">
         <v>6</v>
@@ -23458,17 +23583,17 @@
       <c r="BF110" s="9"/>
       <c r="BG110" s="4"/>
       <c r="BH110" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI110" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A111" s="42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B111" s="43">
         <v>6</v>
@@ -23525,26 +23650,26 @@
       <c r="BF111" s="9"/>
       <c r="BG111" s="4"/>
       <c r="BH111" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI111" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A112" s="42" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B112" s="43">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C112" s="42" t="s">
         <v>64</v>
       </c>
       <c r="D112" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="7"/>
@@ -23592,17 +23717,17 @@
       <c r="BF112" s="9"/>
       <c r="BG112" s="4"/>
       <c r="BH112" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI112" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A113" s="42" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B113" s="43">
         <v>8</v>
@@ -23659,17 +23784,17 @@
       <c r="BF113" s="9"/>
       <c r="BG113" s="4"/>
       <c r="BH113" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI113" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A114" s="42" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B114" s="43">
         <v>8</v>
@@ -23726,17 +23851,17 @@
       <c r="BF114" s="9"/>
       <c r="BG114" s="4"/>
       <c r="BH114" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI114" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A115" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="B115" s="43">
         <v>8</v>
@@ -23793,17 +23918,17 @@
       <c r="BF115" s="9"/>
       <c r="BG115" s="4"/>
       <c r="BH115" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI115" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A116" s="42" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B116" s="43">
         <v>8</v>
@@ -23814,12 +23939,8 @@
       <c r="D116" t="s">
         <v>61</v>
       </c>
-      <c r="E116" s="6">
-        <v>2</v>
-      </c>
-      <c r="F116" s="7">
-        <v>2</v>
-      </c>
+      <c r="E116" s="6"/>
+      <c r="F116" s="7"/>
       <c r="G116" s="8"/>
       <c r="H116" s="9"/>
       <c r="J116" s="10"/>
@@ -23864,20 +23985,20 @@
       <c r="BF116" s="9"/>
       <c r="BG116" s="4"/>
       <c r="BH116" s="46">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="BI116" s="47">
-        <f t="shared" si="5"/>
-        <v>1.2</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A117" s="42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B117" s="43">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C117" s="42" t="s">
         <v>64</v>
@@ -23903,7 +24024,9 @@
       <c r="R117" s="9"/>
       <c r="T117" s="10"/>
       <c r="U117" s="11"/>
-      <c r="V117" s="12"/>
+      <c r="V117" s="12">
+        <v>1</v>
+      </c>
       <c r="W117" s="13"/>
       <c r="Y117" s="6"/>
       <c r="Z117" s="7"/>
@@ -23935,17 +24058,17 @@
       <c r="BF117" s="9"/>
       <c r="BG117" s="4"/>
       <c r="BH117" s="46">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="BI117" s="47">
-        <f t="shared" si="5"/>
-        <v>1.2</v>
+        <f t="shared" si="7"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="118" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A118" s="42" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B118" s="43">
         <v>9</v>
@@ -23956,8 +24079,12 @@
       <c r="D118" t="s">
         <v>61</v>
       </c>
-      <c r="E118" s="6"/>
-      <c r="F118" s="7"/>
+      <c r="E118" s="6">
+        <v>2</v>
+      </c>
+      <c r="F118" s="7">
+        <v>2</v>
+      </c>
       <c r="G118" s="8"/>
       <c r="H118" s="9"/>
       <c r="J118" s="10"/>
@@ -24002,17 +24129,17 @@
       <c r="BF118" s="9"/>
       <c r="BG118" s="4"/>
       <c r="BH118" s="46">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="BI118" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1.2</v>
       </c>
     </row>
     <row r="119" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A119" s="42" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B119" s="43">
         <v>9</v>
@@ -24069,26 +24196,26 @@
       <c r="BF119" s="9"/>
       <c r="BG119" s="4"/>
       <c r="BH119" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI119" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A120" s="42" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B120" s="43">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" s="42" t="s">
         <v>64</v>
       </c>
       <c r="D120" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E120" s="6"/>
       <c r="F120" s="7"/>
@@ -24136,36 +24263,36 @@
       <c r="BF120" s="9"/>
       <c r="BG120" s="4"/>
       <c r="BH120" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="BH120" si="12">SUM(E120:BF120)</f>
         <v>0</v>
       </c>
       <c r="BI120" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="BI120" si="13">(SUM(E120:BG120)*$D$2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A121" s="42" t="s">
-        <v>177</v>
+        <v>357</v>
       </c>
       <c r="B121" s="43">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" s="42" t="s">
         <v>64</v>
       </c>
       <c r="D121" t="s">
-        <v>48</v>
-      </c>
-      <c r="E121" s="6">
-        <v>1</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E121" s="6"/>
       <c r="F121" s="7"/>
       <c r="G121" s="8"/>
       <c r="H121" s="9"/>
       <c r="J121" s="10"/>
       <c r="K121" s="11"/>
-      <c r="L121" s="12"/>
+      <c r="L121" s="12">
+        <v>3</v>
+      </c>
       <c r="M121" s="13"/>
       <c r="O121" s="6"/>
       <c r="P121" s="7"/>
@@ -24205,26 +24332,26 @@
       <c r="BF121" s="9"/>
       <c r="BG121" s="4"/>
       <c r="BH121" s="46">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="BI121" s="47">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
+        <f t="shared" si="7"/>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="122" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A122" s="42" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B122" s="43">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C122" s="42" t="s">
         <v>64</v>
       </c>
       <c r="D122" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="7"/>
@@ -24272,31 +24399,31 @@
       <c r="BF122" s="9"/>
       <c r="BG122" s="4"/>
       <c r="BH122" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI122" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A123" s="42" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B123" s="43">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C123" s="42" t="s">
         <v>64</v>
       </c>
       <c r="D123" t="s">
-        <v>62</v>
-      </c>
-      <c r="E123" s="6"/>
-      <c r="F123" s="7">
-        <v>4</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E123" s="6">
+        <v>1</v>
+      </c>
+      <c r="F123" s="7"/>
       <c r="G123" s="8"/>
       <c r="H123" s="9"/>
       <c r="J123" s="10"/>
@@ -24309,8 +24436,12 @@
       <c r="R123" s="9"/>
       <c r="T123" s="10"/>
       <c r="U123" s="11"/>
-      <c r="V123" s="12"/>
-      <c r="W123" s="13"/>
+      <c r="V123" s="12">
+        <v>1</v>
+      </c>
+      <c r="W123" s="13">
+        <v>1</v>
+      </c>
       <c r="Y123" s="6"/>
       <c r="Z123" s="7"/>
       <c r="AA123" s="8"/>
@@ -24341,31 +24472,29 @@
       <c r="BF123" s="9"/>
       <c r="BG123" s="4"/>
       <c r="BH123" s="46">
-        <f t="shared" ref="BH123:BH124" si="10">SUM(E123:BF123)</f>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="BI123" s="47">
-        <f t="shared" ref="BI123:BI124" si="11">(SUM(E123:BG123)*$D$2)</f>
-        <v>1.2</v>
+        <f t="shared" si="7"/>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="124" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A124" s="42" t="s">
-        <v>343</v>
+        <v>176</v>
       </c>
       <c r="B124" s="43">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C124" s="42" t="s">
         <v>64</v>
       </c>
       <c r="D124" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E124" s="6"/>
-      <c r="F124" s="7">
-        <v>3</v>
-      </c>
+      <c r="F124" s="7"/>
       <c r="G124" s="8"/>
       <c r="H124" s="9"/>
       <c r="J124" s="10"/>
@@ -24410,17 +24539,17 @@
       <c r="BF124" s="9"/>
       <c r="BG124" s="4"/>
       <c r="BH124" s="46">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="BI124" s="47">
-        <f t="shared" si="11"/>
-        <v>0.89999999999999991</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A125" s="42" t="s">
-        <v>349</v>
+        <v>175</v>
       </c>
       <c r="B125" s="43">
         <v>1</v>
@@ -24433,7 +24562,7 @@
       </c>
       <c r="E125" s="6"/>
       <c r="F125" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G125" s="8"/>
       <c r="H125" s="9"/>
@@ -24479,29 +24608,31 @@
       <c r="BF125" s="9"/>
       <c r="BG125" s="4"/>
       <c r="BH125" s="46">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" ref="BH125:BH126" si="14">SUM(E125:BF125)</f>
+        <v>4</v>
       </c>
       <c r="BI125" s="47">
-        <f t="shared" si="5"/>
-        <v>0.6</v>
+        <f t="shared" ref="BI125:BI126" si="15">(SUM(E125:BG125)*$D$2)</f>
+        <v>1.2</v>
       </c>
     </row>
     <row r="126" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A126" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="B126" s="42" t="s">
-        <v>53</v>
+        <v>343</v>
+      </c>
+      <c r="B126" s="43">
+        <v>1</v>
       </c>
       <c r="C126" s="42" t="s">
         <v>64</v>
       </c>
       <c r="D126" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E126" s="6"/>
-      <c r="F126" s="7"/>
+      <c r="F126" s="7">
+        <v>3</v>
+      </c>
       <c r="G126" s="8"/>
       <c r="H126" s="9"/>
       <c r="J126" s="10"/>
@@ -24546,32 +24677,32 @@
       <c r="BF126" s="9"/>
       <c r="BG126" s="4"/>
       <c r="BH126" s="46">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
       <c r="BI126" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="127" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A127" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="B127" s="42" t="s">
-        <v>53</v>
+        <v>349</v>
+      </c>
+      <c r="B127" s="43">
+        <v>1</v>
       </c>
       <c r="C127" s="42" t="s">
         <v>64</v>
       </c>
       <c r="D127" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E127" s="6"/>
-      <c r="F127" s="7"/>
-      <c r="G127" s="8">
-        <v>1</v>
-      </c>
+      <c r="F127" s="7">
+        <v>2</v>
+      </c>
+      <c r="G127" s="8"/>
       <c r="H127" s="9"/>
       <c r="J127" s="10"/>
       <c r="K127" s="11"/>
@@ -24615,17 +24746,17 @@
       <c r="BF127" s="9"/>
       <c r="BG127" s="4"/>
       <c r="BH127" s="46">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="BI127" s="47">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
+        <f t="shared" si="7"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="128" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A128" s="42" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B128" s="42" t="s">
         <v>53</v>
@@ -24637,9 +24768,7 @@
         <v>54</v>
       </c>
       <c r="E128" s="6"/>
-      <c r="F128" s="7">
-        <v>2</v>
-      </c>
+      <c r="F128" s="7"/>
       <c r="G128" s="8"/>
       <c r="H128" s="9"/>
       <c r="J128" s="10"/>
@@ -24684,17 +24813,17 @@
       <c r="BF128" s="9"/>
       <c r="BG128" s="4"/>
       <c r="BH128" s="46">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="BI128" s="47">
-        <f t="shared" si="5"/>
-        <v>0.6</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A129" s="42" t="s">
-        <v>351</v>
+        <v>173</v>
       </c>
       <c r="B129" s="42" t="s">
         <v>53</v>
@@ -24706,21 +24835,25 @@
         <v>54</v>
       </c>
       <c r="E129" s="6"/>
-      <c r="F129" s="7">
-        <v>3</v>
-      </c>
-      <c r="G129" s="8"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="8">
+        <v>1</v>
+      </c>
       <c r="H129" s="9"/>
       <c r="J129" s="10"/>
       <c r="K129" s="11"/>
-      <c r="L129" s="12"/>
+      <c r="L129" s="12">
+        <v>1</v>
+      </c>
       <c r="M129" s="13"/>
       <c r="O129" s="6"/>
       <c r="P129" s="7"/>
       <c r="Q129" s="8"/>
       <c r="R129" s="9"/>
       <c r="T129" s="10"/>
-      <c r="U129" s="11"/>
+      <c r="U129" s="11">
+        <v>1</v>
+      </c>
       <c r="V129" s="12"/>
       <c r="W129" s="13"/>
       <c r="Y129" s="6"/>
@@ -24753,21 +24886,26 @@
       <c r="BF129" s="9"/>
       <c r="BG129" s="4"/>
       <c r="BH129" s="46">
-        <f t="shared" ref="BH129" si="12">SUM(E129:BF129)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="BI129" s="47">
-        <f t="shared" ref="BI129" si="13">(SUM(E129:BG129)*$D$2)</f>
+        <f t="shared" si="7"/>
         <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="130" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A130" s="42" t="s">
-        <v>345</v>
-      </c>
-      <c r="B130" s="42"/>
+        <v>172</v>
+      </c>
+      <c r="B130" s="42" t="s">
+        <v>53</v>
+      </c>
       <c r="C130" s="42" t="s">
         <v>64</v>
+      </c>
+      <c r="D130" t="s">
+        <v>54</v>
       </c>
       <c r="E130" s="6"/>
       <c r="F130" s="7">
@@ -24817,23 +24955,39 @@
       <c r="BF130" s="9"/>
       <c r="BG130" s="4"/>
       <c r="BH130" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="BI130" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="131" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A131" s="42" t="s">
+        <v>351</v>
+      </c>
+      <c r="B131" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C131" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D131" t="s">
+        <v>54</v>
+      </c>
       <c r="E131" s="6"/>
-      <c r="F131" s="7"/>
+      <c r="F131" s="7">
+        <v>3</v>
+      </c>
       <c r="G131" s="8"/>
       <c r="H131" s="9"/>
       <c r="J131" s="10"/>
       <c r="K131" s="11"/>
       <c r="L131" s="12"/>
-      <c r="M131" s="13"/>
+      <c r="M131" s="13">
+        <v>3</v>
+      </c>
       <c r="O131" s="6"/>
       <c r="P131" s="7"/>
       <c r="Q131" s="8"/>
@@ -24872,37 +25026,37 @@
       <c r="BF131" s="9"/>
       <c r="BG131" s="4"/>
       <c r="BH131" s="46">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="BI131" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="132" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A132" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="B132" s="41">
-        <v>2</v>
-      </c>
-      <c r="C132" s="40" t="s">
-        <v>66</v>
+      <c r="A132" s="42" t="s">
+        <v>356</v>
+      </c>
+      <c r="B132" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C132" s="42" t="s">
+        <v>64</v>
       </c>
       <c r="D132" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E132" s="6"/>
-      <c r="F132" s="7">
-        <v>1</v>
-      </c>
+      <c r="F132" s="7"/>
       <c r="G132" s="8"/>
       <c r="H132" s="9"/>
       <c r="J132" s="10"/>
       <c r="K132" s="11"/>
       <c r="L132" s="12"/>
-      <c r="M132" s="13"/>
+      <c r="M132" s="13">
+        <v>3</v>
+      </c>
       <c r="O132" s="6"/>
       <c r="P132" s="7"/>
       <c r="Q132" s="8"/>
@@ -24941,29 +25095,26 @@
       <c r="BF132" s="9"/>
       <c r="BG132" s="4"/>
       <c r="BH132" s="46">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" ref="BH132" si="16">SUM(E132:BF132)</f>
+        <v>3</v>
       </c>
       <c r="BI132" s="47">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
+        <f t="shared" ref="BI132" si="17">(SUM(E132:BG132)*$D$2)</f>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="133" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A133" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="B133" s="41">
+      <c r="A133" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="B133" s="42"/>
+      <c r="C133" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="6"/>
+      <c r="F133" s="7">
         <v>2</v>
       </c>
-      <c r="C133" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="D133" t="s">
-        <v>52</v>
-      </c>
-      <c r="E133" s="6"/>
-      <c r="F133" s="7"/>
       <c r="G133" s="8"/>
       <c r="H133" s="9"/>
       <c r="J133" s="10"/>
@@ -25008,27 +25159,15 @@
       <c r="BF133" s="9"/>
       <c r="BG133" s="4"/>
       <c r="BH133" s="46">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="BI133" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="134" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A134" s="40" t="s">
-        <v>281</v>
-      </c>
-      <c r="B134" s="41">
-        <v>2</v>
-      </c>
-      <c r="C134" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="D134" t="s">
-        <v>52</v>
-      </c>
       <c r="E134" s="6"/>
       <c r="F134" s="7"/>
       <c r="G134" s="8"/>
@@ -25075,17 +25214,17 @@
       <c r="BF134" s="9"/>
       <c r="BG134" s="4"/>
       <c r="BH134" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI134" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A135" s="40" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B135" s="41">
         <v>2</v>
@@ -25097,13 +25236,17 @@
         <v>52</v>
       </c>
       <c r="E135" s="6"/>
-      <c r="F135" s="7"/>
+      <c r="F135" s="7">
+        <v>1</v>
+      </c>
       <c r="G135" s="8"/>
       <c r="H135" s="9"/>
       <c r="J135" s="10"/>
       <c r="K135" s="11"/>
       <c r="L135" s="12"/>
-      <c r="M135" s="13"/>
+      <c r="M135" s="13">
+        <v>2</v>
+      </c>
       <c r="O135" s="6"/>
       <c r="P135" s="7"/>
       <c r="Q135" s="8"/>
@@ -25142,17 +25285,17 @@
       <c r="BF135" s="9"/>
       <c r="BG135" s="4"/>
       <c r="BH135" s="46">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="BI135" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="136" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A136" s="40" t="s">
-        <v>215</v>
+        <v>280</v>
       </c>
       <c r="B136" s="41">
         <v>2</v>
@@ -25163,16 +25306,16 @@
       <c r="D136" t="s">
         <v>52</v>
       </c>
-      <c r="E136" s="6">
-        <v>4</v>
-      </c>
+      <c r="E136" s="6"/>
       <c r="F136" s="7"/>
       <c r="G136" s="8"/>
       <c r="H136" s="9"/>
       <c r="J136" s="10"/>
       <c r="K136" s="11"/>
       <c r="L136" s="12"/>
-      <c r="M136" s="13"/>
+      <c r="M136" s="13">
+        <v>2</v>
+      </c>
       <c r="O136" s="6"/>
       <c r="P136" s="7"/>
       <c r="Q136" s="8"/>
@@ -25211,17 +25354,17 @@
       <c r="BF136" s="9"/>
       <c r="BG136" s="4"/>
       <c r="BH136" s="46">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="BI136" s="47">
-        <f t="shared" si="5"/>
-        <v>1.2</v>
+        <f t="shared" si="7"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="137" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A137" s="40" t="s">
-        <v>327</v>
+        <v>281</v>
       </c>
       <c r="B137" s="41">
         <v>2</v>
@@ -25278,26 +25421,26 @@
       <c r="BF137" s="9"/>
       <c r="BG137" s="4"/>
       <c r="BH137" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI137" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A138" s="40" t="s">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="B138" s="41">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C138" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D138" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E138" s="6"/>
       <c r="F138" s="7"/>
@@ -25345,32 +25488,32 @@
       <c r="BF138" s="9"/>
       <c r="BG138" s="4"/>
       <c r="BH138" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI138" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A139" s="40" t="s">
-        <v>328</v>
+        <v>215</v>
       </c>
       <c r="B139" s="41">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C139" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D139" t="s">
-        <v>59</v>
-      </c>
-      <c r="E139" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="E139" s="6">
+        <v>4</v>
+      </c>
       <c r="F139" s="7"/>
-      <c r="G139" s="8">
-        <v>4</v>
-      </c>
+      <c r="G139" s="8"/>
       <c r="H139" s="9"/>
       <c r="J139" s="10"/>
       <c r="K139" s="11"/>
@@ -25381,9 +25524,15 @@
       <c r="Q139" s="8"/>
       <c r="R139" s="9"/>
       <c r="T139" s="10"/>
-      <c r="U139" s="11"/>
-      <c r="V139" s="12"/>
-      <c r="W139" s="13"/>
+      <c r="U139" s="11">
+        <v>4</v>
+      </c>
+      <c r="V139" s="12">
+        <v>2</v>
+      </c>
+      <c r="W139" s="13">
+        <v>3</v>
+      </c>
       <c r="Y139" s="6"/>
       <c r="Z139" s="7"/>
       <c r="AA139" s="8"/>
@@ -25414,30 +25563,28 @@
       <c r="BF139" s="9"/>
       <c r="BG139" s="4"/>
       <c r="BH139" s="46">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="BI139" s="47">
-        <f t="shared" si="5"/>
-        <v>1.2</v>
+        <f t="shared" si="7"/>
+        <v>3.9</v>
       </c>
     </row>
     <row r="140" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A140" s="40" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B140" s="41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C140" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D140" t="s">
-        <v>56</v>
-      </c>
-      <c r="E140" s="6">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E140" s="6"/>
       <c r="F140" s="7"/>
       <c r="G140" s="8"/>
       <c r="H140" s="9"/>
@@ -25483,31 +25630,29 @@
       <c r="BF140" s="9"/>
       <c r="BG140" s="4"/>
       <c r="BH140" s="46">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="BI140" s="47">
-        <f t="shared" si="5"/>
-        <v>0.89999999999999991</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A141" s="40" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B141" s="41">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C141" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D141" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E141" s="6"/>
-      <c r="F141" s="7">
-        <v>1</v>
-      </c>
+      <c r="F141" s="7"/>
       <c r="G141" s="8"/>
       <c r="H141" s="9"/>
       <c r="J141" s="10"/>
@@ -25552,38 +25697,44 @@
       <c r="BF141" s="9"/>
       <c r="BG141" s="4"/>
       <c r="BH141" s="46">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="BI141" s="47">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A142" s="40" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B142" s="41">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C142" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D142" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E142" s="6"/>
       <c r="F142" s="7"/>
-      <c r="G142" s="8"/>
+      <c r="G142" s="8">
+        <v>4</v>
+      </c>
       <c r="H142" s="9"/>
       <c r="J142" s="10"/>
       <c r="K142" s="11"/>
       <c r="L142" s="12"/>
       <c r="M142" s="13"/>
       <c r="O142" s="6"/>
-      <c r="P142" s="7"/>
-      <c r="Q142" s="8"/>
+      <c r="P142" s="7">
+        <v>6</v>
+      </c>
+      <c r="Q142" s="8">
+        <v>5</v>
+      </c>
       <c r="R142" s="9"/>
       <c r="T142" s="10"/>
       <c r="U142" s="11"/>
@@ -25619,17 +25770,17 @@
       <c r="BF142" s="9"/>
       <c r="BG142" s="4"/>
       <c r="BH142" s="46">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="BI142" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>4.5</v>
       </c>
     </row>
     <row r="143" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A143" s="40" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B143" s="41">
         <v>3</v>
@@ -25640,14 +25791,18 @@
       <c r="D143" t="s">
         <v>56</v>
       </c>
-      <c r="E143" s="6"/>
+      <c r="E143" s="6">
+        <v>3</v>
+      </c>
       <c r="F143" s="7"/>
       <c r="G143" s="8"/>
       <c r="H143" s="9"/>
       <c r="J143" s="10"/>
       <c r="K143" s="11"/>
       <c r="L143" s="12"/>
-      <c r="M143" s="13"/>
+      <c r="M143" s="13">
+        <v>6</v>
+      </c>
       <c r="O143" s="6"/>
       <c r="P143" s="7"/>
       <c r="Q143" s="8"/>
@@ -25655,7 +25810,9 @@
       <c r="T143" s="10"/>
       <c r="U143" s="11"/>
       <c r="V143" s="12"/>
-      <c r="W143" s="13"/>
+      <c r="W143" s="13">
+        <v>4</v>
+      </c>
       <c r="Y143" s="6"/>
       <c r="Z143" s="7"/>
       <c r="AA143" s="8"/>
@@ -25686,17 +25843,17 @@
       <c r="BF143" s="9"/>
       <c r="BG143" s="4"/>
       <c r="BH143" s="46">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="BI143" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>3.9</v>
       </c>
     </row>
     <row r="144" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A144" s="40" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B144" s="41">
         <v>3</v>
@@ -25709,7 +25866,7 @@
       </c>
       <c r="E144" s="6"/>
       <c r="F144" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G144" s="8"/>
       <c r="H144" s="9"/>
@@ -25755,17 +25912,17 @@
       <c r="BF144" s="9"/>
       <c r="BG144" s="4"/>
       <c r="BH144" s="46">
-        <f t="shared" ref="BH144:BH189" si="14">SUM(E144:BF144)</f>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="BI144" s="47">
-        <f t="shared" ref="BI144:BI189" si="15">(SUM(E144:BG144)*$D$2)</f>
-        <v>1.2</v>
+        <f t="shared" si="7"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="145" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A145" s="40" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B145" s="41">
         <v>3</v>
@@ -25822,26 +25979,26 @@
       <c r="BF145" s="9"/>
       <c r="BG145" s="4"/>
       <c r="BH145" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI145" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A146" s="40" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B146" s="41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C146" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D146" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E146" s="6"/>
       <c r="F146" s="7"/>
@@ -25889,37 +26046,43 @@
       <c r="BF146" s="9"/>
       <c r="BG146" s="4"/>
       <c r="BH146" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI146" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A147" s="40" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B147" s="41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C147" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D147" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E147" s="6"/>
-      <c r="F147" s="7"/>
+      <c r="F147" s="7">
+        <v>4</v>
+      </c>
       <c r="G147" s="8"/>
       <c r="H147" s="9"/>
       <c r="J147" s="10"/>
       <c r="K147" s="11"/>
-      <c r="L147" s="12"/>
+      <c r="L147" s="12">
+        <v>6</v>
+      </c>
       <c r="M147" s="13"/>
       <c r="O147" s="6"/>
-      <c r="P147" s="7"/>
+      <c r="P147" s="7">
+        <v>3</v>
+      </c>
       <c r="Q147" s="8"/>
       <c r="R147" s="9"/>
       <c r="T147" s="10"/>
@@ -25956,26 +26119,26 @@
       <c r="BF147" s="9"/>
       <c r="BG147" s="4"/>
       <c r="BH147" s="46">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" ref="BH147:BH193" si="18">SUM(E147:BF147)</f>
+        <v>13</v>
       </c>
       <c r="BI147" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" ref="BI147:BI193" si="19">(SUM(E147:BG147)*$D$2)</f>
+        <v>3.9</v>
       </c>
     </row>
     <row r="148" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A148" s="40" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B148" s="41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C148" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D148" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E148" s="6"/>
       <c r="F148" s="7"/>
@@ -26023,20 +26186,20 @@
       <c r="BF148" s="9"/>
       <c r="BG148" s="4"/>
       <c r="BH148" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BI148" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A149" s="40" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B149" s="41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C149" s="40" t="s">
         <v>66</v>
@@ -26045,9 +26208,7 @@
         <v>58</v>
       </c>
       <c r="E149" s="6"/>
-      <c r="F149" s="7">
-        <v>4</v>
-      </c>
+      <c r="F149" s="7"/>
       <c r="G149" s="8"/>
       <c r="H149" s="9"/>
       <c r="J149" s="10"/>
@@ -26092,17 +26253,17 @@
       <c r="BF149" s="9"/>
       <c r="BG149" s="4"/>
       <c r="BH149" s="46">
-        <f t="shared" si="14"/>
-        <v>4</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="BI149" s="47">
-        <f t="shared" si="15"/>
-        <v>1.2</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A150" s="40" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B150" s="41">
         <v>4</v>
@@ -26111,7 +26272,7 @@
         <v>66</v>
       </c>
       <c r="D150" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E150" s="6"/>
       <c r="F150" s="7"/>
@@ -26159,31 +26320,29 @@
       <c r="BF150" s="9"/>
       <c r="BG150" s="4"/>
       <c r="BH150" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BI150" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A151" s="40" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B151" s="41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C151" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D151" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E151" s="6"/>
-      <c r="F151" s="7">
-        <v>1</v>
-      </c>
+      <c r="F151" s="7"/>
       <c r="G151" s="8"/>
       <c r="H151" s="9"/>
       <c r="J151" s="10"/>
@@ -26228,35 +26387,37 @@
       <c r="BF151" s="9"/>
       <c r="BG151" s="4"/>
       <c r="BH151" s="46">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="BI151" s="47">
-        <f t="shared" si="15"/>
-        <v>0.3</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A152" s="40" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B152" s="41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C152" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D152" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E152" s="6"/>
       <c r="F152" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G152" s="8"/>
       <c r="H152" s="9"/>
       <c r="J152" s="10"/>
-      <c r="K152" s="11"/>
+      <c r="K152" s="11">
+        <v>6</v>
+      </c>
       <c r="L152" s="12"/>
       <c r="M152" s="13"/>
       <c r="O152" s="6"/>
@@ -26297,17 +26458,17 @@
       <c r="BF152" s="9"/>
       <c r="BG152" s="4"/>
       <c r="BH152" s="46">
-        <f t="shared" si="14"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>10</v>
       </c>
       <c r="BI152" s="47">
-        <f t="shared" si="15"/>
-        <v>0.6</v>
+        <f t="shared" si="19"/>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A153" s="40" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B153" s="41">
         <v>4</v>
@@ -26319,9 +26480,7 @@
         <v>55</v>
       </c>
       <c r="E153" s="6"/>
-      <c r="F153" s="7">
-        <v>2</v>
-      </c>
+      <c r="F153" s="7"/>
       <c r="G153" s="8"/>
       <c r="H153" s="9"/>
       <c r="J153" s="10"/>
@@ -26366,17 +26525,17 @@
       <c r="BF153" s="9"/>
       <c r="BG153" s="4"/>
       <c r="BH153" s="46">
-        <f t="shared" si="14"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="BI153" s="47">
-        <f t="shared" si="15"/>
-        <v>0.6</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A154" s="40" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B154" s="41">
         <v>4</v>
@@ -26388,7 +26547,9 @@
         <v>55</v>
       </c>
       <c r="E154" s="6"/>
-      <c r="F154" s="7"/>
+      <c r="F154" s="7">
+        <v>1</v>
+      </c>
       <c r="G154" s="8"/>
       <c r="H154" s="9"/>
       <c r="J154" s="10"/>
@@ -26433,17 +26594,17 @@
       <c r="BF154" s="9"/>
       <c r="BG154" s="4"/>
       <c r="BH154" s="46">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="BI154" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="155" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A155" s="40" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B155" s="41">
         <v>4</v>
@@ -26455,7 +26616,9 @@
         <v>55</v>
       </c>
       <c r="E155" s="6"/>
-      <c r="F155" s="7"/>
+      <c r="F155" s="7">
+        <v>2</v>
+      </c>
       <c r="G155" s="8"/>
       <c r="H155" s="9"/>
       <c r="J155" s="10"/>
@@ -26500,17 +26663,17 @@
       <c r="BF155" s="9"/>
       <c r="BG155" s="4"/>
       <c r="BH155" s="46">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="BI155" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="156" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A156" s="40" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B156" s="41">
         <v>4</v>
@@ -26569,17 +26732,17 @@
       <c r="BF156" s="9"/>
       <c r="BG156" s="4"/>
       <c r="BH156" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="BI156" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="157" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A157" s="40" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B157" s="41">
         <v>4</v>
@@ -26636,31 +26799,29 @@
       <c r="BF157" s="9"/>
       <c r="BG157" s="4"/>
       <c r="BH157" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BI157" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A158" s="40" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B158" s="41">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C158" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D158" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E158" s="6"/>
-      <c r="F158" s="7">
-        <v>5</v>
-      </c>
+      <c r="F158" s="7"/>
       <c r="G158" s="8"/>
       <c r="H158" s="9"/>
       <c r="J158" s="10"/>
@@ -26705,29 +26866,31 @@
       <c r="BF158" s="9"/>
       <c r="BG158" s="4"/>
       <c r="BH158" s="46">
-        <f t="shared" si="14"/>
-        <v>5</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="BI158" s="47">
-        <f t="shared" si="15"/>
-        <v>1.5</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A159" s="40" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B159" s="41">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C159" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D159" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E159" s="6"/>
-      <c r="F159" s="7"/>
+      <c r="F159" s="7">
+        <v>2</v>
+      </c>
       <c r="G159" s="8"/>
       <c r="H159" s="9"/>
       <c r="J159" s="10"/>
@@ -26772,26 +26935,26 @@
       <c r="BF159" s="9"/>
       <c r="BG159" s="4"/>
       <c r="BH159" s="46">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="BI159" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="160" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A160" s="40" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B160" s="41">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C160" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D160" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E160" s="6"/>
       <c r="F160" s="7"/>
@@ -26839,17 +27002,17 @@
       <c r="BF160" s="9"/>
       <c r="BG160" s="4"/>
       <c r="BH160" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BI160" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A161" s="40" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B161" s="41">
         <v>6</v>
@@ -26858,14 +27021,18 @@
         <v>66</v>
       </c>
       <c r="D161" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E161" s="6"/>
-      <c r="F161" s="7"/>
+      <c r="F161" s="7">
+        <v>5</v>
+      </c>
       <c r="G161" s="8"/>
       <c r="H161" s="9"/>
       <c r="J161" s="10"/>
-      <c r="K161" s="11"/>
+      <c r="K161" s="11">
+        <v>7</v>
+      </c>
       <c r="L161" s="12"/>
       <c r="M161" s="13"/>
       <c r="O161" s="6"/>
@@ -26906,17 +27073,17 @@
       <c r="BF161" s="9"/>
       <c r="BG161" s="4"/>
       <c r="BH161" s="46">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>12</v>
       </c>
       <c r="BI161" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="162" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A162" s="40" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B162" s="41">
         <v>6</v>
@@ -26925,12 +27092,10 @@
         <v>66</v>
       </c>
       <c r="D162" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E162" s="6"/>
-      <c r="F162" s="7">
-        <v>2</v>
-      </c>
+      <c r="F162" s="7"/>
       <c r="G162" s="8"/>
       <c r="H162" s="9"/>
       <c r="J162" s="10"/>
@@ -26939,7 +27104,9 @@
       <c r="M162" s="13"/>
       <c r="O162" s="6"/>
       <c r="P162" s="7"/>
-      <c r="Q162" s="8"/>
+      <c r="Q162" s="8">
+        <v>5</v>
+      </c>
       <c r="R162" s="9"/>
       <c r="T162" s="10"/>
       <c r="U162" s="11"/>
@@ -26975,26 +27142,26 @@
       <c r="BF162" s="9"/>
       <c r="BG162" s="4"/>
       <c r="BH162" s="46">
-        <f t="shared" si="14"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>5</v>
       </c>
       <c r="BI162" s="47">
-        <f t="shared" si="15"/>
-        <v>0.6</v>
+        <f t="shared" si="19"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="163" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A163" s="40" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B163" s="41">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C163" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D163" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E163" s="6"/>
       <c r="F163" s="7"/>
@@ -27042,36 +27209,30 @@
       <c r="BF163" s="9"/>
       <c r="BG163" s="4"/>
       <c r="BH163" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BI163" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A164" s="40" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B164" s="41">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C164" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D164" t="s">
-        <v>57</v>
-      </c>
-      <c r="E164" s="6">
-        <v>3</v>
-      </c>
-      <c r="F164" s="7">
-        <v>3</v>
-      </c>
-      <c r="G164" s="8">
-        <v>3</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E164" s="6"/>
+      <c r="F164" s="7"/>
+      <c r="G164" s="8"/>
       <c r="H164" s="9"/>
       <c r="J164" s="10"/>
       <c r="K164" s="11"/>
@@ -27115,29 +27276,31 @@
       <c r="BF164" s="9"/>
       <c r="BG164" s="4"/>
       <c r="BH164" s="46">
-        <f t="shared" si="14"/>
-        <v>9</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="BI164" s="47">
-        <f t="shared" si="15"/>
-        <v>2.6999999999999997</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A165" s="40" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B165" s="41">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C165" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D165" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E165" s="6"/>
-      <c r="F165" s="7"/>
+      <c r="F165" s="7">
+        <v>2</v>
+      </c>
       <c r="G165" s="8"/>
       <c r="H165" s="9"/>
       <c r="J165" s="10"/>
@@ -27182,17 +27345,17 @@
       <c r="BF165" s="9"/>
       <c r="BG165" s="4"/>
       <c r="BH165" s="46">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="BI165" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="166" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A166" s="40" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B166" s="41">
         <v>8</v>
@@ -27249,17 +27412,17 @@
       <c r="BF166" s="9"/>
       <c r="BG166" s="4"/>
       <c r="BH166" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BI166" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A167" s="40" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B167" s="41">
         <v>8</v>
@@ -27270,13 +27433,25 @@
       <c r="D167" t="s">
         <v>57</v>
       </c>
-      <c r="E167" s="6"/>
-      <c r="F167" s="7"/>
-      <c r="G167" s="8"/>
+      <c r="E167" s="6">
+        <v>3</v>
+      </c>
+      <c r="F167" s="7">
+        <v>3</v>
+      </c>
+      <c r="G167" s="8">
+        <v>3</v>
+      </c>
       <c r="H167" s="9"/>
-      <c r="J167" s="10"/>
-      <c r="K167" s="11"/>
-      <c r="L167" s="12"/>
+      <c r="J167" s="10">
+        <v>3</v>
+      </c>
+      <c r="K167" s="11">
+        <v>4</v>
+      </c>
+      <c r="L167" s="12">
+        <v>4</v>
+      </c>
       <c r="M167" s="13"/>
       <c r="O167" s="6"/>
       <c r="P167" s="7"/>
@@ -27316,20 +27491,20 @@
       <c r="BF167" s="9"/>
       <c r="BG167" s="4"/>
       <c r="BH167" s="46">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>20</v>
       </c>
       <c r="BI167" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A168" s="40" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B168" s="41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C168" s="40" t="s">
         <v>66</v>
@@ -27383,20 +27558,20 @@
       <c r="BF168" s="9"/>
       <c r="BG168" s="4"/>
       <c r="BH168" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BI168" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A169" s="40" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B169" s="41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C169" s="40" t="s">
         <v>66</v>
@@ -27405,9 +27580,7 @@
         <v>57</v>
       </c>
       <c r="E169" s="6"/>
-      <c r="F169" s="7">
-        <v>5</v>
-      </c>
+      <c r="F169" s="7"/>
       <c r="G169" s="8"/>
       <c r="H169" s="9"/>
       <c r="J169" s="10"/>
@@ -27452,20 +27625,20 @@
       <c r="BF169" s="9"/>
       <c r="BG169" s="4"/>
       <c r="BH169" s="46">
-        <f t="shared" si="14"/>
-        <v>5</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="BI169" s="47">
-        <f t="shared" si="15"/>
-        <v>1.5</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A170" s="40" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B170" s="41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C170" s="40" t="s">
         <v>66</v>
@@ -27519,17 +27692,17 @@
       <c r="BF170" s="9"/>
       <c r="BG170" s="4"/>
       <c r="BH170" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BI170" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A171" s="40" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="B171" s="41">
         <v>9</v>
@@ -27586,17 +27759,17 @@
       <c r="BF171" s="9"/>
       <c r="BG171" s="4"/>
       <c r="BH171" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BI171" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A172" s="40" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="B172" s="41">
         <v>9</v>
@@ -27608,12 +27781,16 @@
         <v>57</v>
       </c>
       <c r="E172" s="6"/>
-      <c r="F172" s="7"/>
+      <c r="F172" s="7">
+        <v>5</v>
+      </c>
       <c r="G172" s="8"/>
       <c r="H172" s="9"/>
       <c r="J172" s="10"/>
       <c r="K172" s="11"/>
-      <c r="L172" s="12"/>
+      <c r="L172" s="12">
+        <v>1</v>
+      </c>
       <c r="M172" s="13"/>
       <c r="O172" s="6"/>
       <c r="P172" s="7"/>
@@ -27653,26 +27830,26 @@
       <c r="BF172" s="9"/>
       <c r="BG172" s="4"/>
       <c r="BH172" s="46">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>6</v>
       </c>
       <c r="BI172" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="173" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A173" s="40" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B173" s="41">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C173" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D173" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E173" s="6"/>
       <c r="F173" s="7"/>
@@ -27720,31 +27897,29 @@
       <c r="BF173" s="9"/>
       <c r="BG173" s="4"/>
       <c r="BH173" s="46">
-        <f t="shared" ref="BH173" si="16">SUM(E173:BF173)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BI173" s="47">
-        <f t="shared" ref="BI173" si="17">(SUM(E173:BG173)*$D$2)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A174" s="40" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="B174" s="41">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C174" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D174" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E174" s="6"/>
-      <c r="F174" s="7">
-        <v>3</v>
-      </c>
+      <c r="F174" s="7"/>
       <c r="G174" s="8"/>
       <c r="H174" s="9"/>
       <c r="J174" s="10"/>
@@ -27789,26 +27964,26 @@
       <c r="BF174" s="9"/>
       <c r="BG174" s="4"/>
       <c r="BH174" s="46">
-        <f t="shared" si="14"/>
-        <v>3</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="BI174" s="47">
-        <f t="shared" si="15"/>
-        <v>0.89999999999999991</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A175" s="40" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="B175" s="41">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C175" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D175" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E175" s="6"/>
       <c r="F175" s="7"/>
@@ -27856,17 +28031,17 @@
       <c r="BF175" s="9"/>
       <c r="BG175" s="4"/>
       <c r="BH175" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BI175" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A176" s="40" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B176" s="41">
         <v>1</v>
@@ -27923,17 +28098,17 @@
       <c r="BF176" s="9"/>
       <c r="BG176" s="4"/>
       <c r="BH176" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="BH176" si="20">SUM(E176:BF176)</f>
         <v>0</v>
       </c>
       <c r="BI176" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="BI176" si="21">(SUM(E176:BG176)*$D$2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A177" s="40" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="B177" s="41">
         <v>1</v>
@@ -27946,11 +28121,9 @@
       </c>
       <c r="E177" s="6"/>
       <c r="F177" s="7">
-        <v>4</v>
-      </c>
-      <c r="G177" s="8">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G177" s="8"/>
       <c r="H177" s="9"/>
       <c r="J177" s="10"/>
       <c r="K177" s="11"/>
@@ -27994,17 +28167,17 @@
       <c r="BF177" s="9"/>
       <c r="BG177" s="4"/>
       <c r="BH177" s="46">
-        <f>SUM(E177:BF177)</f>
-        <v>5</v>
+        <f t="shared" si="18"/>
+        <v>3</v>
       </c>
       <c r="BI177" s="47">
-        <f>(SUM(E177:BG177)*$D$2)</f>
-        <v>1.5</v>
+        <f t="shared" si="19"/>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="178" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A178" s="40" t="s">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="B178" s="41">
         <v>1</v>
@@ -28016,9 +28189,7 @@
         <v>62</v>
       </c>
       <c r="E178" s="6"/>
-      <c r="F178" s="7">
-        <v>4</v>
-      </c>
+      <c r="F178" s="7"/>
       <c r="G178" s="8"/>
       <c r="H178" s="9"/>
       <c r="J178" s="10"/>
@@ -28063,20 +28234,20 @@
       <c r="BF178" s="9"/>
       <c r="BG178" s="4"/>
       <c r="BH178" s="46">
-        <f>SUM(E178:BF178)</f>
-        <v>4</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="BI178" s="47">
-        <f>(SUM(E178:BG178)*$D$2)</f>
-        <v>1.2</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A179" s="40" t="s">
-        <v>291</v>
-      </c>
-      <c r="B179" s="40" t="s">
-        <v>53</v>
+        <v>292</v>
+      </c>
+      <c r="B179" s="41">
+        <v>1</v>
       </c>
       <c r="C179" s="40" t="s">
         <v>66</v>
@@ -28085,9 +28256,7 @@
         <v>62</v>
       </c>
       <c r="E179" s="6"/>
-      <c r="F179" s="7">
-        <v>1</v>
-      </c>
+      <c r="F179" s="7"/>
       <c r="G179" s="8"/>
       <c r="H179" s="9"/>
       <c r="J179" s="10"/>
@@ -28132,20 +28301,20 @@
       <c r="BF179" s="9"/>
       <c r="BG179" s="4"/>
       <c r="BH179" s="46">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="BI179" s="47">
-        <f t="shared" si="15"/>
-        <v>0.3</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A180" s="40" t="s">
-        <v>290</v>
-      </c>
-      <c r="B180" s="40" t="s">
-        <v>53</v>
+        <v>330</v>
+      </c>
+      <c r="B180" s="41">
+        <v>1</v>
       </c>
       <c r="C180" s="40" t="s">
         <v>66</v>
@@ -28154,13 +28323,19 @@
         <v>62</v>
       </c>
       <c r="E180" s="6"/>
-      <c r="F180" s="7"/>
-      <c r="G180" s="8"/>
+      <c r="F180" s="7">
+        <v>4</v>
+      </c>
+      <c r="G180" s="8">
+        <v>1</v>
+      </c>
       <c r="H180" s="9"/>
       <c r="J180" s="10"/>
       <c r="K180" s="11"/>
       <c r="L180" s="12"/>
-      <c r="M180" s="13"/>
+      <c r="M180" s="13">
+        <v>3</v>
+      </c>
       <c r="O180" s="6"/>
       <c r="P180" s="7"/>
       <c r="Q180" s="8"/>
@@ -28199,29 +28374,31 @@
       <c r="BF180" s="9"/>
       <c r="BG180" s="4"/>
       <c r="BH180" s="46">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f>SUM(E180:BF180)</f>
+        <v>8</v>
       </c>
       <c r="BI180" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f>(SUM(E180:BG180)*$D$2)</f>
+        <v>2.4</v>
       </c>
     </row>
     <row r="181" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A181" s="40" t="s">
-        <v>289</v>
-      </c>
-      <c r="B181" s="40" t="s">
-        <v>53</v>
+        <v>350</v>
+      </c>
+      <c r="B181" s="41">
+        <v>1</v>
       </c>
       <c r="C181" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D181" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E181" s="6"/>
-      <c r="F181" s="7"/>
+      <c r="F181" s="7">
+        <v>4</v>
+      </c>
       <c r="G181" s="8"/>
       <c r="H181" s="9"/>
       <c r="J181" s="10"/>
@@ -28266,17 +28443,17 @@
       <c r="BF181" s="9"/>
       <c r="BG181" s="4"/>
       <c r="BH181" s="46">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f>SUM(E181:BF181)</f>
+        <v>4</v>
       </c>
       <c r="BI181" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f>(SUM(E181:BG181)*$D$2)</f>
+        <v>1.2</v>
       </c>
     </row>
     <row r="182" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A182" s="40" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B182" s="40" t="s">
         <v>53</v>
@@ -28285,10 +28462,12 @@
         <v>66</v>
       </c>
       <c r="D182" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E182" s="6"/>
-      <c r="F182" s="7"/>
+      <c r="F182" s="7">
+        <v>1</v>
+      </c>
       <c r="G182" s="8"/>
       <c r="H182" s="9"/>
       <c r="J182" s="10"/>
@@ -28333,17 +28512,17 @@
       <c r="BF182" s="9"/>
       <c r="BG182" s="4"/>
       <c r="BH182" s="46">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="BI182" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="183" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A183" s="40" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B183" s="40" t="s">
         <v>53</v>
@@ -28352,7 +28531,7 @@
         <v>66</v>
       </c>
       <c r="D183" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E183" s="6"/>
       <c r="F183" s="7"/>
@@ -28400,38 +28579,37 @@
       <c r="BF183" s="9"/>
       <c r="BG183" s="4"/>
       <c r="BH183" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BI183" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A184" s="40" t="s">
-        <v>286</v>
-      </c>
-      <c r="B184" s="40">
-        <v>7</v>
+        <v>289</v>
+      </c>
+      <c r="B184" s="40" t="s">
+        <v>53</v>
       </c>
       <c r="C184" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="E184" s="6">
-        <v>7</v>
-      </c>
-      <c r="F184" s="7">
-        <v>8</v>
-      </c>
-      <c r="G184" s="8">
-        <v>6</v>
-      </c>
+      <c r="D184" t="s">
+        <v>54</v>
+      </c>
+      <c r="E184" s="6"/>
+      <c r="F184" s="7"/>
+      <c r="G184" s="8"/>
       <c r="H184" s="9"/>
       <c r="J184" s="10"/>
       <c r="K184" s="11"/>
       <c r="L184" s="12"/>
-      <c r="M184" s="13"/>
+      <c r="M184" s="13">
+        <v>1</v>
+      </c>
       <c r="O184" s="6"/>
       <c r="P184" s="7"/>
       <c r="Q184" s="8"/>
@@ -28470,23 +28648,26 @@
       <c r="BF184" s="9"/>
       <c r="BG184" s="4"/>
       <c r="BH184" s="46">
-        <f t="shared" si="14"/>
-        <v>21</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="BI184" s="47">
-        <f t="shared" si="15"/>
-        <v>6.3</v>
+        <f t="shared" si="19"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="185" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A185" s="40" t="s">
-        <v>285</v>
-      </c>
-      <c r="B185" s="40">
-        <v>7</v>
+        <v>288</v>
+      </c>
+      <c r="B185" s="40" t="s">
+        <v>53</v>
       </c>
       <c r="C185" s="40" t="s">
         <v>66</v>
+      </c>
+      <c r="D185" t="s">
+        <v>54</v>
       </c>
       <c r="E185" s="6"/>
       <c r="F185" s="7"/>
@@ -28534,23 +28715,26 @@
       <c r="BF185" s="9"/>
       <c r="BG185" s="4"/>
       <c r="BH185" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BI185" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A186" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="B186" s="40">
-        <v>7</v>
+        <v>287</v>
+      </c>
+      <c r="B186" s="40" t="s">
+        <v>53</v>
       </c>
       <c r="C186" s="40" t="s">
         <v>66</v>
+      </c>
+      <c r="D186" t="s">
+        <v>54</v>
       </c>
       <c r="E186" s="6"/>
       <c r="F186" s="7"/>
@@ -28565,7 +28749,9 @@
       <c r="Q186" s="8"/>
       <c r="R186" s="9"/>
       <c r="T186" s="10"/>
-      <c r="U186" s="11"/>
+      <c r="U186" s="11">
+        <v>2</v>
+      </c>
       <c r="V186" s="12"/>
       <c r="W186" s="13"/>
       <c r="Y186" s="6"/>
@@ -28598,23 +28784,26 @@
       <c r="BF186" s="9"/>
       <c r="BG186" s="4"/>
       <c r="BH186" s="46">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" ref="BH186" si="22">SUM(E186:BF186)</f>
+        <v>2</v>
       </c>
       <c r="BI186" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" ref="BI186" si="23">(SUM(E186:BG186)*$D$2)</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="187" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A187" s="40" t="s">
-        <v>336</v>
-      </c>
-      <c r="B187" s="40">
-        <v>7</v>
+        <v>355</v>
+      </c>
+      <c r="B187" s="40" t="s">
+        <v>53</v>
       </c>
       <c r="C187" s="40" t="s">
         <v>66</v>
+      </c>
+      <c r="D187" t="s">
+        <v>54</v>
       </c>
       <c r="E187" s="6"/>
       <c r="F187" s="7"/>
@@ -28623,7 +28812,9 @@
       <c r="J187" s="10"/>
       <c r="K187" s="11"/>
       <c r="L187" s="12"/>
-      <c r="M187" s="13"/>
+      <c r="M187" s="13">
+        <v>3</v>
+      </c>
       <c r="O187" s="6"/>
       <c r="P187" s="7"/>
       <c r="Q187" s="8"/>
@@ -28662,40 +28853,56 @@
       <c r="BF187" s="9"/>
       <c r="BG187" s="4"/>
       <c r="BH187" s="46">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>3</v>
       </c>
       <c r="BI187" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="188" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A188" s="40" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B188" s="40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C188" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="E188" s="6"/>
-      <c r="F188" s="7"/>
-      <c r="G188" s="8"/>
+      <c r="E188" s="6">
+        <v>7</v>
+      </c>
+      <c r="F188" s="7">
+        <v>8</v>
+      </c>
+      <c r="G188" s="8">
+        <v>6</v>
+      </c>
       <c r="H188" s="9"/>
-      <c r="J188" s="10"/>
+      <c r="J188" s="10">
+        <v>5</v>
+      </c>
       <c r="K188" s="11"/>
-      <c r="L188" s="12"/>
+      <c r="L188" s="12">
+        <v>6</v>
+      </c>
       <c r="M188" s="13"/>
       <c r="O188" s="6"/>
       <c r="P188" s="7"/>
       <c r="Q188" s="8"/>
       <c r="R188" s="9"/>
       <c r="T188" s="10"/>
-      <c r="U188" s="11"/>
-      <c r="V188" s="12"/>
-      <c r="W188" s="13"/>
+      <c r="U188" s="11">
+        <v>7</v>
+      </c>
+      <c r="V188" s="12">
+        <v>7</v>
+      </c>
+      <c r="W188" s="13">
+        <v>5</v>
+      </c>
       <c r="Y188" s="6"/>
       <c r="Z188" s="7"/>
       <c r="AA188" s="8"/>
@@ -28726,20 +28933,20 @@
       <c r="BF188" s="9"/>
       <c r="BG188" s="4"/>
       <c r="BH188" s="46">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>51</v>
       </c>
       <c r="BI188" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>15.299999999999999</v>
       </c>
     </row>
     <row r="189" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A189" s="40" t="s">
-        <v>337</v>
+        <v>285</v>
       </c>
       <c r="B189" s="40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C189" s="40" t="s">
         <v>66</v>
@@ -28790,11 +28997,267 @@
       <c r="BF189" s="9"/>
       <c r="BG189" s="4"/>
       <c r="BH189" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BI189" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A190" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="B190" s="40">
+        <v>7</v>
+      </c>
+      <c r="C190" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E190" s="6"/>
+      <c r="F190" s="7"/>
+      <c r="G190" s="8"/>
+      <c r="H190" s="9"/>
+      <c r="J190" s="10"/>
+      <c r="K190" s="11"/>
+      <c r="L190" s="12"/>
+      <c r="M190" s="13"/>
+      <c r="O190" s="6"/>
+      <c r="P190" s="7"/>
+      <c r="Q190" s="8"/>
+      <c r="R190" s="9"/>
+      <c r="T190" s="10"/>
+      <c r="U190" s="11"/>
+      <c r="V190" s="12"/>
+      <c r="W190" s="13"/>
+      <c r="Y190" s="6"/>
+      <c r="Z190" s="7"/>
+      <c r="AA190" s="8"/>
+      <c r="AB190" s="9"/>
+      <c r="AD190" s="10"/>
+      <c r="AE190" s="11"/>
+      <c r="AF190" s="12"/>
+      <c r="AG190" s="13"/>
+      <c r="AI190" s="6"/>
+      <c r="AJ190" s="7"/>
+      <c r="AK190" s="8"/>
+      <c r="AL190" s="9"/>
+      <c r="AN190" s="10"/>
+      <c r="AO190" s="11"/>
+      <c r="AP190" s="12"/>
+      <c r="AQ190" s="13"/>
+      <c r="AS190" s="6"/>
+      <c r="AT190" s="7"/>
+      <c r="AU190" s="8"/>
+      <c r="AV190" s="9"/>
+      <c r="AX190" s="10"/>
+      <c r="AY190" s="11"/>
+      <c r="AZ190" s="12"/>
+      <c r="BA190" s="13"/>
+      <c r="BC190" s="6"/>
+      <c r="BD190" s="7"/>
+      <c r="BE190" s="8"/>
+      <c r="BF190" s="9"/>
+      <c r="BG190" s="4"/>
+      <c r="BH190" s="46">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BI190" s="47">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A191" s="40" t="s">
+        <v>336</v>
+      </c>
+      <c r="B191" s="40">
+        <v>7</v>
+      </c>
+      <c r="C191" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E191" s="6"/>
+      <c r="F191" s="7"/>
+      <c r="G191" s="8"/>
+      <c r="H191" s="9"/>
+      <c r="J191" s="10"/>
+      <c r="K191" s="11"/>
+      <c r="L191" s="12"/>
+      <c r="M191" s="13"/>
+      <c r="O191" s="6"/>
+      <c r="P191" s="7"/>
+      <c r="Q191" s="8"/>
+      <c r="R191" s="9"/>
+      <c r="T191" s="10"/>
+      <c r="U191" s="11"/>
+      <c r="V191" s="12"/>
+      <c r="W191" s="13"/>
+      <c r="Y191" s="6"/>
+      <c r="Z191" s="7"/>
+      <c r="AA191" s="8"/>
+      <c r="AB191" s="9"/>
+      <c r="AD191" s="10"/>
+      <c r="AE191" s="11"/>
+      <c r="AF191" s="12"/>
+      <c r="AG191" s="13"/>
+      <c r="AI191" s="6"/>
+      <c r="AJ191" s="7"/>
+      <c r="AK191" s="8"/>
+      <c r="AL191" s="9"/>
+      <c r="AN191" s="10"/>
+      <c r="AO191" s="11"/>
+      <c r="AP191" s="12"/>
+      <c r="AQ191" s="13"/>
+      <c r="AS191" s="6"/>
+      <c r="AT191" s="7"/>
+      <c r="AU191" s="8"/>
+      <c r="AV191" s="9"/>
+      <c r="AX191" s="10"/>
+      <c r="AY191" s="11"/>
+      <c r="AZ191" s="12"/>
+      <c r="BA191" s="13"/>
+      <c r="BC191" s="6"/>
+      <c r="BD191" s="7"/>
+      <c r="BE191" s="8"/>
+      <c r="BF191" s="9"/>
+      <c r="BG191" s="4"/>
+      <c r="BH191" s="46">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BI191" s="47">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A192" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="B192" s="40">
+        <v>8</v>
+      </c>
+      <c r="C192" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E192" s="6"/>
+      <c r="F192" s="7"/>
+      <c r="G192" s="8"/>
+      <c r="H192" s="9"/>
+      <c r="J192" s="10"/>
+      <c r="K192" s="11"/>
+      <c r="L192" s="12"/>
+      <c r="M192" s="13"/>
+      <c r="O192" s="6"/>
+      <c r="P192" s="7"/>
+      <c r="Q192" s="8"/>
+      <c r="R192" s="9"/>
+      <c r="T192" s="10"/>
+      <c r="U192" s="11"/>
+      <c r="V192" s="12"/>
+      <c r="W192" s="13"/>
+      <c r="Y192" s="6"/>
+      <c r="Z192" s="7"/>
+      <c r="AA192" s="8"/>
+      <c r="AB192" s="9"/>
+      <c r="AD192" s="10"/>
+      <c r="AE192" s="11"/>
+      <c r="AF192" s="12"/>
+      <c r="AG192" s="13"/>
+      <c r="AI192" s="6"/>
+      <c r="AJ192" s="7"/>
+      <c r="AK192" s="8"/>
+      <c r="AL192" s="9"/>
+      <c r="AN192" s="10"/>
+      <c r="AO192" s="11"/>
+      <c r="AP192" s="12"/>
+      <c r="AQ192" s="13"/>
+      <c r="AS192" s="6"/>
+      <c r="AT192" s="7"/>
+      <c r="AU192" s="8"/>
+      <c r="AV192" s="9"/>
+      <c r="AX192" s="10"/>
+      <c r="AY192" s="11"/>
+      <c r="AZ192" s="12"/>
+      <c r="BA192" s="13"/>
+      <c r="BC192" s="6"/>
+      <c r="BD192" s="7"/>
+      <c r="BE192" s="8"/>
+      <c r="BF192" s="9"/>
+      <c r="BG192" s="4"/>
+      <c r="BH192" s="46">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BI192" s="47">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A193" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="B193" s="40">
+        <v>8</v>
+      </c>
+      <c r="C193" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E193" s="6"/>
+      <c r="F193" s="7"/>
+      <c r="G193" s="8"/>
+      <c r="H193" s="9"/>
+      <c r="J193" s="10"/>
+      <c r="K193" s="11"/>
+      <c r="L193" s="12"/>
+      <c r="M193" s="13"/>
+      <c r="O193" s="6"/>
+      <c r="P193" s="7"/>
+      <c r="Q193" s="8"/>
+      <c r="R193" s="9"/>
+      <c r="T193" s="10"/>
+      <c r="U193" s="11"/>
+      <c r="V193" s="12"/>
+      <c r="W193" s="13"/>
+      <c r="Y193" s="6"/>
+      <c r="Z193" s="7"/>
+      <c r="AA193" s="8"/>
+      <c r="AB193" s="9"/>
+      <c r="AD193" s="10"/>
+      <c r="AE193" s="11"/>
+      <c r="AF193" s="12"/>
+      <c r="AG193" s="13"/>
+      <c r="AI193" s="6"/>
+      <c r="AJ193" s="7"/>
+      <c r="AK193" s="8"/>
+      <c r="AL193" s="9"/>
+      <c r="AN193" s="10"/>
+      <c r="AO193" s="11"/>
+      <c r="AP193" s="12"/>
+      <c r="AQ193" s="13"/>
+      <c r="AS193" s="6"/>
+      <c r="AT193" s="7"/>
+      <c r="AU193" s="8"/>
+      <c r="AV193" s="9"/>
+      <c r="AX193" s="10"/>
+      <c r="AY193" s="11"/>
+      <c r="AZ193" s="12"/>
+      <c r="BA193" s="13"/>
+      <c r="BC193" s="6"/>
+      <c r="BD193" s="7"/>
+      <c r="BE193" s="8"/>
+      <c r="BF193" s="9"/>
+      <c r="BG193" s="4"/>
+      <c r="BH193" s="46">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BI193" s="47">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Erin\Run Club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74EA078-A0F9-412E-9225-C989D085B989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4380D7-236B-4E19-BCC8-20FDA8FE5527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="398" activeTab="1" xr2:uid="{E0803456-148F-4C82-AA5A-324EB5FFE85D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="359">
   <si>
     <t>Student Name</t>
   </si>
@@ -1114,6 +1114,9 @@
   <si>
     <t>Evalyn Mc</t>
   </si>
+  <si>
+    <t>EVALYN Mc</t>
+  </si>
 </sst>
 </file>
 
@@ -1791,8 +1794,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BE177"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="BD179" sqref="BD179"/>
+    <sheetView topLeftCell="AT158" workbookViewId="0">
+      <selection activeCell="AW172" sqref="A172:XFD172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2224,7 +2227,7 @@
       </c>
       <c r="BD6" s="47">
         <f>(SUM(BE6,'Run distances (Term 2)'!BI9,'Run distances (Term 3)'!BI6,'Run distances (Term 4)'!BI6))</f>
-        <v>7.1999999999999993</v>
+        <v>7.5</v>
       </c>
       <c r="BE6" s="47">
         <f t="shared" ref="BE6:BE69" si="1">(SUM(E6:BB6)*$D$2)</f>
@@ -2448,7 +2451,7 @@
       </c>
       <c r="BD9" s="47">
         <f>(SUM(BE9,'Run distances (Term 2)'!BI12,'Run distances (Term 3)'!BI9,'Run distances (Term 4)'!BI9))</f>
-        <v>0.89999999999999991</v>
+        <v>1.5</v>
       </c>
       <c r="BE9" s="47">
         <f t="shared" si="1"/>
@@ -4146,7 +4149,7 @@
       </c>
       <c r="BD31" s="47">
         <f>(SUM(BE31,'Run distances (Term 2)'!BI35,'Run distances (Term 3)'!BI31,'Run distances (Term 4)'!BI31))</f>
-        <v>6.6</v>
+        <v>6.8999999999999995</v>
       </c>
       <c r="BE31" s="47">
         <f t="shared" si="1"/>
@@ -4516,7 +4519,7 @@
       </c>
       <c r="BD35" s="47">
         <f>(SUM(BE35,'Run distances (Term 2)'!BI39,'Run distances (Term 3)'!BI35,'Run distances (Term 4)'!BI35))</f>
-        <v>39.6</v>
+        <v>42</v>
       </c>
       <c r="BE35" s="47">
         <f t="shared" si="1"/>
@@ -5212,7 +5215,7 @@
       </c>
       <c r="BD43" s="47">
         <f>(SUM(BE43,'Run distances (Term 2)'!BI47,'Run distances (Term 3)'!BI43,'Run distances (Term 4)'!BI43))</f>
-        <v>6.3</v>
+        <v>6.8999999999999995</v>
       </c>
       <c r="BE43" s="47">
         <f t="shared" si="1"/>
@@ -5614,7 +5617,7 @@
       </c>
       <c r="BD48" s="47">
         <f>(SUM(BE48,'Run distances (Term 2)'!BI53,'Run distances (Term 3)'!BI48,'Run distances (Term 4)'!BI48))</f>
-        <v>91.8</v>
+        <v>102.6</v>
       </c>
       <c r="BE48" s="47">
         <f t="shared" si="1"/>
@@ -5744,7 +5747,7 @@
       </c>
       <c r="BD49" s="47">
         <f>(SUM(BE49,'Run distances (Term 2)'!BI54,'Run distances (Term 3)'!BI49,'Run distances (Term 4)'!BI49))</f>
-        <v>75.599999999999994</v>
+        <v>83.1</v>
       </c>
       <c r="BE49" s="47">
         <f t="shared" si="1"/>
@@ -5862,7 +5865,7 @@
       </c>
       <c r="BD50" s="47">
         <f>(SUM(BE50,'Run distances (Term 2)'!BI55,'Run distances (Term 3)'!BI50,'Run distances (Term 4)'!BI50))</f>
-        <v>28.799999999999997</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="BE50" s="47">
         <f t="shared" si="1"/>
@@ -5948,7 +5951,7 @@
       </c>
       <c r="BD51" s="47">
         <f>(SUM(BE51,'Run distances (Term 2)'!BI56,'Run distances (Term 3)'!BI51,'Run distances (Term 4)'!BI51))</f>
-        <v>6.6</v>
+        <v>7.7999999999999989</v>
       </c>
       <c r="BE51" s="47">
         <f t="shared" si="1"/>
@@ -6260,7 +6263,7 @@
       </c>
       <c r="BD55" s="47">
         <f>(SUM(BE55,'Run distances (Term 2)'!BI60,'Run distances (Term 3)'!BI55,'Run distances (Term 4)'!BI55))</f>
-        <v>0</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="BE55" s="47">
         <f t="shared" si="1"/>
@@ -6672,7 +6675,7 @@
       </c>
       <c r="BD60" s="47">
         <f>(SUM(BE60,'Run distances (Term 2)'!BI65,'Run distances (Term 3)'!BI60,'Run distances (Term 4)'!BI60))</f>
-        <v>17.7</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="BE60" s="47">
         <f t="shared" si="1"/>
@@ -6772,7 +6775,7 @@
       </c>
       <c r="BD61" s="47">
         <f>(SUM(BE61,'Run distances (Term 2)'!BI66,'Run distances (Term 3)'!BI61,'Run distances (Term 4)'!BI61))</f>
-        <v>20.399999999999999</v>
+        <v>22.2</v>
       </c>
       <c r="BE61" s="47">
         <f t="shared" si="1"/>
@@ -6844,7 +6847,7 @@
       </c>
       <c r="BD62" s="47">
         <f>(SUM(BE62,'Run distances (Term 2)'!BI67,'Run distances (Term 3)'!BI62,'Run distances (Term 4)'!BI62))</f>
-        <v>2.6999999999999997</v>
+        <v>3.3</v>
       </c>
       <c r="BE62" s="47">
         <f t="shared" si="1"/>
@@ -7071,7 +7074,7 @@
       </c>
       <c r="BD65" s="47">
         <f>(SUM(BE65,'Run distances (Term 2)'!BI70,'Run distances (Term 3)'!BI65,'Run distances (Term 4)'!BI65))</f>
-        <v>4.2</v>
+        <v>7.2</v>
       </c>
       <c r="BE65" s="47">
         <f t="shared" si="1"/>
@@ -7573,7 +7576,7 @@
       </c>
       <c r="BD72" s="47">
         <f>(SUM(BE72,'Run distances (Term 2)'!BI77,'Run distances (Term 3)'!BI72,'Run distances (Term 4)'!BI72))</f>
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="BE72" s="47">
         <f t="shared" si="10"/>
@@ -7647,7 +7650,7 @@
       </c>
       <c r="BD73" s="47">
         <f>(SUM(BE73,'Run distances (Term 2)'!BI78,'Run distances (Term 3)'!BI73,'Run distances (Term 4)'!BI73))</f>
-        <v>0.6</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="BE73" s="47">
         <f t="shared" si="10"/>
@@ -7807,7 +7810,7 @@
       </c>
       <c r="BD75" s="47">
         <f>(SUM(BE75,'Run distances (Term 2)'!BI80,'Run distances (Term 3)'!BI75,'Run distances (Term 4)'!BI75))</f>
-        <v>20.7</v>
+        <v>25.5</v>
       </c>
       <c r="BE75" s="47">
         <f t="shared" si="10"/>
@@ -8435,7 +8438,7 @@
       </c>
       <c r="BD83" s="47">
         <f>(SUM(BE83,'Run distances (Term 2)'!BI90,'Run distances (Term 3)'!BI83,'Run distances (Term 4)'!BI83))</f>
-        <v>1.2</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="BE83" s="47">
         <f t="shared" si="10"/>
@@ -9087,7 +9090,7 @@
       </c>
       <c r="BD91" s="47">
         <f>(SUM(BE91,'Run distances (Term 2)'!BI98,'Run distances (Term 3)'!BI91,'Run distances (Term 4)'!BI91))</f>
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="BE91" s="47">
         <f t="shared" si="10"/>
@@ -9237,7 +9240,7 @@
       </c>
       <c r="BD93" s="47">
         <f>(SUM(BE93,'Run distances (Term 2)'!BI100,'Run distances (Term 3)'!BI93,'Run distances (Term 4)'!BI93))</f>
-        <v>5.6999999999999993</v>
+        <v>6.3</v>
       </c>
       <c r="BE93" s="47">
         <f t="shared" si="10"/>
@@ -9703,7 +9706,7 @@
       </c>
       <c r="BD98" s="47">
         <f>(SUM(BE98,'Run distances (Term 2)'!BI105,'Run distances (Term 3)'!BI98,'Run distances (Term 4)'!BI98))</f>
-        <v>21.299999999999997</v>
+        <v>26.1</v>
       </c>
       <c r="BE98" s="47">
         <f t="shared" si="10"/>
@@ -9851,7 +9854,7 @@
       </c>
       <c r="BD100" s="47">
         <f>(SUM(BE100,'Run distances (Term 2)'!BI107,'Run distances (Term 3)'!BI100,'Run distances (Term 4)'!BI100))</f>
-        <v>2.6999999999999997</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="BE100" s="47">
         <f t="shared" si="10"/>
@@ -10617,7 +10620,7 @@
       </c>
       <c r="BD110" s="47">
         <f>(SUM(BE110,'Run distances (Term 2)'!BI117,'Run distances (Term 3)'!BI110,'Run distances (Term 4)'!BI110))</f>
-        <v>21.3</v>
+        <v>21.6</v>
       </c>
       <c r="BE110" s="47">
         <f t="shared" si="10"/>
@@ -11057,7 +11060,7 @@
       </c>
       <c r="BD115" s="47">
         <f>(SUM(BE115,'Run distances (Term 2)'!BI123,'Run distances (Term 3)'!BI115,'Run distances (Term 4)'!BI115))</f>
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="BE115" s="47">
         <f t="shared" si="10"/>
@@ -11355,7 +11358,7 @@
       </c>
       <c r="BD119" s="47">
         <f>(SUM(BE119,'Run distances (Term 2)'!BI129,'Run distances (Term 3)'!BI119,'Run distances (Term 4)'!BI119))</f>
-        <v>1.7999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="BE119" s="47">
         <f t="shared" si="10"/>
@@ -11743,7 +11746,7 @@
       </c>
       <c r="BD124" s="47">
         <f>(SUM(BE124,'Run distances (Term 2)'!BI137,'Run distances (Term 3)'!BI124,'Run distances (Term 4)'!BI124))</f>
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="BE124" s="47">
         <f t="shared" si="10"/>
@@ -11833,7 +11836,7 @@
       </c>
       <c r="BD125" s="47">
         <f>(SUM(BE125,'Run distances (Term 2)'!BI138,'Run distances (Term 3)'!BI125,'Run distances (Term 4)'!BI125))</f>
-        <v>10.5</v>
+        <v>11.4</v>
       </c>
       <c r="BE125" s="47">
         <f t="shared" si="10"/>
@@ -11929,7 +11932,7 @@
       </c>
       <c r="BD126" s="47">
         <f>(SUM(BE126,'Run distances (Term 2)'!BI139,'Run distances (Term 3)'!BI126,'Run distances (Term 4)'!BI126))</f>
-        <v>16.8</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="BE126" s="47">
         <f t="shared" si="10"/>
@@ -12249,7 +12252,7 @@
       </c>
       <c r="BD130" s="47">
         <f>(SUM(BE130,'Run distances (Term 2)'!BI143,'Run distances (Term 3)'!BI130,'Run distances (Term 4)'!BI130))</f>
-        <v>17.099999999999998</v>
+        <v>18.299999999999997</v>
       </c>
       <c r="BE130" s="47">
         <f t="shared" si="10"/>
@@ -12997,7 +13000,7 @@
       </c>
       <c r="BD139" s="47">
         <f>(SUM(BE139,'Run distances (Term 2)'!BI152,'Run distances (Term 3)'!BI139,'Run distances (Term 4)'!BI139))</f>
-        <v>8.1</v>
+        <v>9.6</v>
       </c>
       <c r="BE139" s="47">
         <f t="shared" si="24"/>
@@ -13805,7 +13808,7 @@
       </c>
       <c r="BD149" s="47">
         <f>(SUM(BE149,'Run distances (Term 2)'!BI162,'Run distances (Term 3)'!BI149,'Run distances (Term 4)'!BI149))</f>
-        <v>10.799999999999999</v>
+        <v>12.599999999999998</v>
       </c>
       <c r="BE149" s="47">
         <f t="shared" si="24"/>
@@ -14257,7 +14260,7 @@
       </c>
       <c r="BD154" s="47">
         <f>(SUM(BE154,'Run distances (Term 2)'!BI167,'Run distances (Term 3)'!BI154,'Run distances (Term 4)'!BI154))</f>
-        <v>20.7</v>
+        <v>22.2</v>
       </c>
       <c r="BE154" s="47">
         <f t="shared" si="24"/>
@@ -15255,7 +15258,7 @@
       </c>
       <c r="BD168" s="47">
         <f>(SUM(BE168,'Run distances (Term 2)'!BI183,'Run distances (Term 3)'!BI168,'Run distances (Term 4)'!BI168))</f>
-        <v>3.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="BE168" s="47">
         <f t="shared" si="24"/>
@@ -15614,7 +15617,7 @@
       </c>
       <c r="BD172" s="47">
         <f>(SUM(BE172,'Run distances (Term 2)'!BI188,'Run distances (Term 3)'!BI172,'Run distances (Term 4)'!BI172))</f>
-        <v>45.599999999999994</v>
+        <v>56.399999999999991</v>
       </c>
       <c r="BE172" s="47">
         <f t="shared" si="24"/>
@@ -15839,7 +15842,7 @@
       </c>
       <c r="BD175" s="47">
         <f>(SUM(BE175,'Run distances (Term 2)'!BI191,'Run distances (Term 3)'!BI175,'Run distances (Term 4)'!BI175))</f>
-        <v>0.89999999999999991</v>
+        <v>1.5</v>
       </c>
       <c r="BE175" s="47">
         <f t="shared" si="24"/>
@@ -16021,9 +16024,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2440E40C-0490-44B1-823E-D5C5232BF4FE}">
   <dimension ref="A1:BI193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X188" sqref="X188"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A188" sqref="A188:XFD188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16356,7 +16359,9 @@
       <c r="AI5" s="6"/>
       <c r="AJ5" s="7"/>
       <c r="AK5" s="8"/>
-      <c r="AL5" s="9"/>
+      <c r="AL5" s="9">
+        <v>2</v>
+      </c>
       <c r="AN5" s="10"/>
       <c r="AO5" s="11"/>
       <c r="AP5" s="12"/>
@@ -16376,11 +16381,11 @@
       <c r="BG5" s="4"/>
       <c r="BH5" s="46">
         <f>SUM(E5:BF5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BI5" s="47">
         <f>(SUM(E5:BG5)*$D$2)</f>
-        <v>0.3</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.35">
@@ -16634,7 +16639,9 @@
       <c r="AI9" s="6"/>
       <c r="AJ9" s="7"/>
       <c r="AK9" s="8"/>
-      <c r="AL9" s="9"/>
+      <c r="AL9" s="9">
+        <v>1</v>
+      </c>
       <c r="AN9" s="10"/>
       <c r="AO9" s="11"/>
       <c r="AP9" s="12"/>
@@ -16654,11 +16661,11 @@
       <c r="BG9" s="4"/>
       <c r="BH9" s="46">
         <f t="shared" ref="BH9:BH74" si="0">SUM(E9:BF9)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI9" s="47">
         <f t="shared" ref="BI9:BI74" si="1">(SUM(E9:BG9)*$D$2)</f>
-        <v>0.89999999999999991</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.35">
@@ -16837,7 +16844,9 @@
       <c r="AI12" s="6"/>
       <c r="AJ12" s="7"/>
       <c r="AK12" s="8"/>
-      <c r="AL12" s="9"/>
+      <c r="AL12" s="9">
+        <v>2</v>
+      </c>
       <c r="AN12" s="10"/>
       <c r="AO12" s="11"/>
       <c r="AP12" s="12"/>
@@ -16857,11 +16866,11 @@
       <c r="BG12" s="4"/>
       <c r="BH12" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI12" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.35">
@@ -18384,7 +18393,9 @@
       <c r="AI35" s="6"/>
       <c r="AJ35" s="7"/>
       <c r="AK35" s="8"/>
-      <c r="AL35" s="9"/>
+      <c r="AL35" s="9">
+        <v>1</v>
+      </c>
       <c r="AN35" s="10"/>
       <c r="AO35" s="11"/>
       <c r="AP35" s="12"/>
@@ -18404,11 +18415,11 @@
       <c r="BG35" s="4"/>
       <c r="BH35" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI35" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="36" spans="1:61" x14ac:dyDescent="0.35">
@@ -18666,9 +18677,13 @@
       <c r="AF39" s="12"/>
       <c r="AG39" s="13"/>
       <c r="AI39" s="6"/>
-      <c r="AJ39" s="7"/>
+      <c r="AJ39" s="7">
+        <v>5</v>
+      </c>
       <c r="AK39" s="8"/>
-      <c r="AL39" s="9"/>
+      <c r="AL39" s="9">
+        <v>3</v>
+      </c>
       <c r="AN39" s="10"/>
       <c r="AO39" s="11"/>
       <c r="AP39" s="12"/>
@@ -18688,11 +18703,11 @@
       <c r="BG39" s="4"/>
       <c r="BH39" s="46">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="BI39" s="47">
         <f t="shared" si="1"/>
-        <v>4.2</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="40" spans="1:61" x14ac:dyDescent="0.35">
@@ -19218,7 +19233,9 @@
       <c r="AD47" s="10"/>
       <c r="AE47" s="11"/>
       <c r="AF47" s="12"/>
-      <c r="AG47" s="13"/>
+      <c r="AG47" s="13">
+        <v>2</v>
+      </c>
       <c r="AI47" s="6"/>
       <c r="AJ47" s="7"/>
       <c r="AK47" s="8"/>
@@ -19242,11 +19259,11 @@
       <c r="BG47" s="4"/>
       <c r="BH47" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI47" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="48" spans="1:61" x14ac:dyDescent="0.35">
@@ -19645,15 +19662,29 @@
       <c r="AB53" s="9"/>
       <c r="AD53" s="10"/>
       <c r="AE53" s="11"/>
-      <c r="AF53" s="12"/>
-      <c r="AG53" s="13"/>
+      <c r="AF53" s="12">
+        <v>6</v>
+      </c>
+      <c r="AG53" s="13">
+        <v>4</v>
+      </c>
       <c r="AI53" s="6"/>
-      <c r="AJ53" s="7"/>
-      <c r="AK53" s="8"/>
-      <c r="AL53" s="9"/>
-      <c r="AN53" s="10"/>
+      <c r="AJ53" s="7">
+        <v>7</v>
+      </c>
+      <c r="AK53" s="8">
+        <v>5</v>
+      </c>
+      <c r="AL53" s="9">
+        <v>6</v>
+      </c>
+      <c r="AN53" s="10">
+        <v>5</v>
+      </c>
       <c r="AO53" s="11"/>
-      <c r="AP53" s="12"/>
+      <c r="AP53" s="12">
+        <v>3</v>
+      </c>
       <c r="AQ53" s="13"/>
       <c r="AS53" s="6"/>
       <c r="AT53" s="7"/>
@@ -19670,11 +19701,11 @@
       <c r="BG53" s="4"/>
       <c r="BH53" s="46">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="BI53" s="47">
         <f t="shared" si="1"/>
-        <v>26.099999999999998</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="54" spans="1:61" x14ac:dyDescent="0.35">
@@ -19732,12 +19763,22 @@
       <c r="AB54" s="9"/>
       <c r="AD54" s="10"/>
       <c r="AE54" s="11"/>
-      <c r="AF54" s="12"/>
-      <c r="AG54" s="13"/>
+      <c r="AF54" s="12">
+        <v>6</v>
+      </c>
+      <c r="AG54" s="13">
+        <v>2</v>
+      </c>
       <c r="AI54" s="6"/>
-      <c r="AJ54" s="7"/>
-      <c r="AK54" s="8"/>
-      <c r="AL54" s="9"/>
+      <c r="AJ54" s="7">
+        <v>7</v>
+      </c>
+      <c r="AK54" s="8">
+        <v>4</v>
+      </c>
+      <c r="AL54" s="9">
+        <v>6</v>
+      </c>
       <c r="AN54" s="10"/>
       <c r="AO54" s="11"/>
       <c r="AP54" s="12"/>
@@ -19757,11 +19798,11 @@
       <c r="BG54" s="4"/>
       <c r="BH54" s="46">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="BI54" s="47">
         <f t="shared" si="1"/>
-        <v>18.599999999999998</v>
+        <v>26.099999999999998</v>
       </c>
     </row>
     <row r="55" spans="1:61" x14ac:dyDescent="0.35">
@@ -19809,11 +19850,17 @@
       <c r="AG55" s="13"/>
       <c r="AI55" s="6"/>
       <c r="AJ55" s="7"/>
-      <c r="AK55" s="8"/>
-      <c r="AL55" s="9"/>
+      <c r="AK55" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL55" s="9">
+        <v>1</v>
+      </c>
       <c r="AN55" s="10"/>
       <c r="AO55" s="11"/>
-      <c r="AP55" s="12"/>
+      <c r="AP55" s="12">
+        <v>4</v>
+      </c>
       <c r="AQ55" s="13"/>
       <c r="AS55" s="6"/>
       <c r="AT55" s="7"/>
@@ -19830,11 +19877,11 @@
       <c r="BG55" s="4"/>
       <c r="BH55" s="46">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BI55" s="47">
         <f t="shared" si="1"/>
-        <v>2.6999999999999997</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="56" spans="1:61" x14ac:dyDescent="0.35">
@@ -19879,7 +19926,9 @@
       <c r="AI56" s="6"/>
       <c r="AJ56" s="7"/>
       <c r="AK56" s="8"/>
-      <c r="AL56" s="9"/>
+      <c r="AL56" s="9">
+        <v>4</v>
+      </c>
       <c r="AN56" s="10"/>
       <c r="AO56" s="11"/>
       <c r="AP56" s="12"/>
@@ -19899,11 +19948,11 @@
       <c r="BG56" s="4"/>
       <c r="BH56" s="46">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BI56" s="47">
         <f t="shared" si="1"/>
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="57" spans="1:61" x14ac:dyDescent="0.35">
@@ -20109,7 +20158,7 @@
     </row>
     <row r="60" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A60" s="44" t="s">
-        <v>233</v>
+        <v>358</v>
       </c>
       <c r="B60" s="45">
         <v>9</v>
@@ -20146,7 +20195,9 @@
       <c r="AG60" s="13"/>
       <c r="AI60" s="6"/>
       <c r="AJ60" s="7"/>
-      <c r="AK60" s="8"/>
+      <c r="AK60" s="8">
+        <v>3</v>
+      </c>
       <c r="AL60" s="9"/>
       <c r="AN60" s="10"/>
       <c r="AO60" s="11"/>
@@ -20167,11 +20218,11 @@
       <c r="BG60" s="4"/>
       <c r="BH60" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI60" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="61" spans="1:61" x14ac:dyDescent="0.35">
@@ -20490,10 +20541,16 @@
       <c r="AF65" s="12"/>
       <c r="AG65" s="13"/>
       <c r="AI65" s="6"/>
-      <c r="AJ65" s="7"/>
-      <c r="AK65" s="8"/>
+      <c r="AJ65" s="7">
+        <v>4</v>
+      </c>
+      <c r="AK65" s="8">
+        <v>1</v>
+      </c>
       <c r="AL65" s="9"/>
-      <c r="AN65" s="10"/>
+      <c r="AN65" s="10">
+        <v>3</v>
+      </c>
       <c r="AO65" s="11"/>
       <c r="AP65" s="12"/>
       <c r="AQ65" s="13"/>
@@ -20512,11 +20569,11 @@
       <c r="BG65" s="4"/>
       <c r="BH65" s="46">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="BI65" s="47">
         <f t="shared" si="1"/>
-        <v>3.5999999999999996</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:61" x14ac:dyDescent="0.35">
@@ -20565,10 +20622,13 @@
       <c r="AF66" s="12"/>
       <c r="AG66" s="13"/>
       <c r="AI66" s="6"/>
-      <c r="AJ66" s="7"/>
+      <c r="AJ66" s="7">
+        <v>2</v>
+      </c>
       <c r="AK66" s="8"/>
-      <c r="AL66" s="9"/>
-      <c r="AN66" s="10"/>
+      <c r="AL66" s="9">
+        <v>4</v>
+      </c>
       <c r="AO66" s="11"/>
       <c r="AP66" s="12"/>
       <c r="AQ66" s="13"/>
@@ -20587,11 +20647,11 @@
       <c r="BG66" s="4"/>
       <c r="BH66" s="46">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BI66" s="47">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="67" spans="1:61" x14ac:dyDescent="0.35">
@@ -20636,7 +20696,9 @@
       <c r="AI67" s="6"/>
       <c r="AJ67" s="7"/>
       <c r="AK67" s="8"/>
-      <c r="AL67" s="9"/>
+      <c r="AL67" s="9">
+        <v>2</v>
+      </c>
       <c r="AN67" s="10"/>
       <c r="AO67" s="11"/>
       <c r="AP67" s="12"/>
@@ -20656,11 +20718,11 @@
       <c r="BG67" s="4"/>
       <c r="BH67" s="46">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI67" s="47">
         <f t="shared" si="1"/>
-        <v>0.89999999999999991</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="68" spans="1:61" x14ac:dyDescent="0.35">
@@ -20843,7 +20905,9 @@
       <c r="AL70" s="9"/>
       <c r="AN70" s="10"/>
       <c r="AO70" s="11"/>
-      <c r="AP70" s="12"/>
+      <c r="AP70" s="12">
+        <v>10</v>
+      </c>
       <c r="AQ70" s="13"/>
       <c r="AS70" s="6"/>
       <c r="AT70" s="7"/>
@@ -20860,11 +20924,11 @@
       <c r="BG70" s="4"/>
       <c r="BH70" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BI70" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:61" x14ac:dyDescent="0.35">
@@ -21299,7 +21363,9 @@
       <c r="AI77" s="6"/>
       <c r="AJ77" s="7"/>
       <c r="AK77" s="8"/>
-      <c r="AL77" s="9"/>
+      <c r="AL77" s="9">
+        <v>2</v>
+      </c>
       <c r="AN77" s="10"/>
       <c r="AO77" s="11"/>
       <c r="AP77" s="12"/>
@@ -21319,11 +21385,11 @@
       <c r="BG77" s="4"/>
       <c r="BH77" s="46">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI77" s="47">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="78" spans="1:61" x14ac:dyDescent="0.35">
@@ -21366,7 +21432,9 @@
       <c r="AI78" s="6"/>
       <c r="AJ78" s="7"/>
       <c r="AK78" s="8"/>
-      <c r="AL78" s="9"/>
+      <c r="AL78" s="9">
+        <v>1</v>
+      </c>
       <c r="AN78" s="10"/>
       <c r="AO78" s="11"/>
       <c r="AP78" s="12"/>
@@ -21386,11 +21454,11 @@
       <c r="BG78" s="4"/>
       <c r="BH78" s="46">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI78" s="47">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="79" spans="1:61" x14ac:dyDescent="0.35">
@@ -21508,12 +21576,22 @@
       <c r="AF80" s="12"/>
       <c r="AG80" s="13"/>
       <c r="AI80" s="6"/>
-      <c r="AJ80" s="7"/>
-      <c r="AK80" s="8"/>
-      <c r="AL80" s="9"/>
-      <c r="AN80" s="10"/>
+      <c r="AJ80" s="7">
+        <v>4</v>
+      </c>
+      <c r="AK80" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL80" s="9">
+        <v>3</v>
+      </c>
+      <c r="AN80" s="10">
+        <v>3</v>
+      </c>
       <c r="AO80" s="11"/>
-      <c r="AP80" s="12"/>
+      <c r="AP80" s="12">
+        <v>4</v>
+      </c>
       <c r="AQ80" s="13"/>
       <c r="AS80" s="6"/>
       <c r="AT80" s="7"/>
@@ -21530,11 +21608,11 @@
       <c r="BG80" s="4"/>
       <c r="BH80" s="46">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="BI80" s="47">
         <f t="shared" si="7"/>
-        <v>3.9</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="81" spans="1:61" x14ac:dyDescent="0.35">
@@ -22188,7 +22266,9 @@
       <c r="AI90" s="6"/>
       <c r="AJ90" s="7"/>
       <c r="AK90" s="8"/>
-      <c r="AL90" s="9"/>
+      <c r="AL90" s="9">
+        <v>2</v>
+      </c>
       <c r="AN90" s="10"/>
       <c r="AO90" s="11"/>
       <c r="AP90" s="12"/>
@@ -22208,11 +22288,11 @@
       <c r="BG90" s="4"/>
       <c r="BH90" s="46">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BI90" s="47">
         <f t="shared" si="7"/>
-        <v>1.2</v>
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="91" spans="1:61" x14ac:dyDescent="0.35">
@@ -22734,7 +22814,9 @@
       <c r="AI98" s="6"/>
       <c r="AJ98" s="7"/>
       <c r="AK98" s="8"/>
-      <c r="AL98" s="9"/>
+      <c r="AL98" s="9">
+        <v>1</v>
+      </c>
       <c r="AN98" s="10"/>
       <c r="AO98" s="11"/>
       <c r="AP98" s="12"/>
@@ -22754,11 +22836,11 @@
       <c r="BG98" s="4"/>
       <c r="BH98" s="46">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI98" s="47">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="99" spans="1:61" x14ac:dyDescent="0.35">
@@ -22870,7 +22952,9 @@
       <c r="AI100" s="6"/>
       <c r="AJ100" s="7"/>
       <c r="AK100" s="8"/>
-      <c r="AL100" s="9"/>
+      <c r="AL100" s="9">
+        <v>2</v>
+      </c>
       <c r="AN100" s="10"/>
       <c r="AO100" s="11"/>
       <c r="AP100" s="12"/>
@@ -22890,11 +22974,11 @@
       <c r="BG100" s="4"/>
       <c r="BH100" s="46">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BI100" s="47">
         <f t="shared" si="7"/>
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="101" spans="1:61" x14ac:dyDescent="0.35">
@@ -23219,14 +23303,22 @@
       <c r="AD105" s="10"/>
       <c r="AE105" s="11"/>
       <c r="AF105" s="12"/>
-      <c r="AG105" s="13"/>
+      <c r="AG105" s="13">
+        <v>2</v>
+      </c>
       <c r="AI105" s="6"/>
-      <c r="AJ105" s="7"/>
+      <c r="AJ105" s="7">
+        <v>7</v>
+      </c>
       <c r="AK105" s="8"/>
-      <c r="AL105" s="9"/>
+      <c r="AL105" s="9">
+        <v>2</v>
+      </c>
       <c r="AN105" s="10"/>
       <c r="AO105" s="11"/>
-      <c r="AP105" s="12"/>
+      <c r="AP105" s="12">
+        <v>5</v>
+      </c>
       <c r="AQ105" s="13"/>
       <c r="AS105" s="6"/>
       <c r="AT105" s="7"/>
@@ -23243,11 +23335,11 @@
       <c r="BG105" s="4"/>
       <c r="BH105" s="46">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="BI105" s="47">
         <f t="shared" si="7"/>
-        <v>7.1999999999999993</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:61" x14ac:dyDescent="0.35">
@@ -23361,10 +23453,16 @@
       <c r="AF107" s="12"/>
       <c r="AG107" s="13"/>
       <c r="AI107" s="6"/>
-      <c r="AJ107" s="7"/>
+      <c r="AJ107" s="7">
+        <v>1</v>
+      </c>
       <c r="AK107" s="8"/>
-      <c r="AL107" s="9"/>
-      <c r="AN107" s="10"/>
+      <c r="AL107" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN107" s="10">
+        <v>1</v>
+      </c>
       <c r="AO107" s="11"/>
       <c r="AP107" s="12"/>
       <c r="AQ107" s="13"/>
@@ -23383,11 +23481,11 @@
       <c r="BG107" s="4"/>
       <c r="BH107" s="46">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BI107" s="47">
         <f t="shared" si="7"/>
-        <v>0.89999999999999991</v>
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="108" spans="1:61" x14ac:dyDescent="0.35">
@@ -24038,7 +24136,9 @@
       <c r="AG117" s="13"/>
       <c r="AI117" s="6"/>
       <c r="AJ117" s="7"/>
-      <c r="AK117" s="8"/>
+      <c r="AK117" s="8">
+        <v>1</v>
+      </c>
       <c r="AL117" s="9"/>
       <c r="AN117" s="10"/>
       <c r="AO117" s="11"/>
@@ -24059,11 +24159,11 @@
       <c r="BG117" s="4"/>
       <c r="BH117" s="46">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI117" s="47">
         <f t="shared" si="7"/>
-        <v>1.5</v>
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="118" spans="1:61" x14ac:dyDescent="0.35">
@@ -24452,8 +24552,12 @@
       <c r="AG123" s="13"/>
       <c r="AI123" s="6"/>
       <c r="AJ123" s="7"/>
-      <c r="AK123" s="8"/>
-      <c r="AL123" s="9"/>
+      <c r="AK123" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL123" s="9">
+        <v>1</v>
+      </c>
       <c r="AN123" s="10"/>
       <c r="AO123" s="11"/>
       <c r="AP123" s="12"/>
@@ -24473,11 +24577,11 @@
       <c r="BG123" s="4"/>
       <c r="BH123" s="46">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI123" s="47">
         <f t="shared" si="7"/>
-        <v>0.89999999999999991</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="124" spans="1:61" x14ac:dyDescent="0.35">
@@ -24865,9 +24969,13 @@
       <c r="AF129" s="12"/>
       <c r="AG129" s="13"/>
       <c r="AI129" s="6"/>
-      <c r="AJ129" s="7"/>
+      <c r="AJ129" s="7">
+        <v>1</v>
+      </c>
       <c r="AK129" s="8"/>
-      <c r="AL129" s="9"/>
+      <c r="AL129" s="9">
+        <v>1</v>
+      </c>
       <c r="AN129" s="10"/>
       <c r="AO129" s="11"/>
       <c r="AP129" s="12"/>
@@ -24887,11 +24995,11 @@
       <c r="BG129" s="4"/>
       <c r="BH129" s="46">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI129" s="47">
         <f t="shared" si="7"/>
-        <v>0.89999999999999991</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="130" spans="1:61" x14ac:dyDescent="0.35">
@@ -25076,7 +25184,9 @@
       <c r="AI132" s="6"/>
       <c r="AJ132" s="7"/>
       <c r="AK132" s="8"/>
-      <c r="AL132" s="9"/>
+      <c r="AL132" s="9">
+        <v>4</v>
+      </c>
       <c r="AN132" s="10"/>
       <c r="AO132" s="11"/>
       <c r="AP132" s="12"/>
@@ -25096,11 +25206,11 @@
       <c r="BG132" s="4"/>
       <c r="BH132" s="46">
         <f t="shared" ref="BH132" si="16">SUM(E132:BF132)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BI132" s="47">
         <f t="shared" ref="BI132" si="17">(SUM(E132:BG132)*$D$2)</f>
-        <v>0.89999999999999991</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="133" spans="1:61" x14ac:dyDescent="0.35">
@@ -25405,7 +25515,9 @@
       <c r="AL137" s="9"/>
       <c r="AN137" s="10"/>
       <c r="AO137" s="11"/>
-      <c r="AP137" s="12"/>
+      <c r="AP137" s="12">
+        <v>3</v>
+      </c>
       <c r="AQ137" s="13"/>
       <c r="AS137" s="6"/>
       <c r="AT137" s="7"/>
@@ -25422,11 +25534,11 @@
       <c r="BG137" s="4"/>
       <c r="BH137" s="46">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI137" s="47">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="138" spans="1:61" x14ac:dyDescent="0.35">
@@ -25472,7 +25584,9 @@
       <c r="AL138" s="9"/>
       <c r="AN138" s="10"/>
       <c r="AO138" s="11"/>
-      <c r="AP138" s="12"/>
+      <c r="AP138">
+        <v>3</v>
+      </c>
       <c r="AQ138" s="13"/>
       <c r="AS138" s="6"/>
       <c r="AT138" s="7"/>
@@ -25489,11 +25603,11 @@
       <c r="BG138" s="4"/>
       <c r="BH138" s="46">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI138" s="47">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="139" spans="1:61" x14ac:dyDescent="0.35">
@@ -25542,12 +25656,20 @@
       <c r="AF139" s="12"/>
       <c r="AG139" s="13"/>
       <c r="AI139" s="6"/>
-      <c r="AJ139" s="7"/>
-      <c r="AK139" s="8"/>
-      <c r="AL139" s="9"/>
+      <c r="AJ139" s="7">
+        <v>4</v>
+      </c>
+      <c r="AK139" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL139" s="9">
+        <v>3</v>
+      </c>
       <c r="AN139" s="10"/>
       <c r="AO139" s="11"/>
-      <c r="AP139" s="12"/>
+      <c r="AP139" s="12">
+        <v>3</v>
+      </c>
       <c r="AQ139" s="13"/>
       <c r="AS139" s="6"/>
       <c r="AT139" s="7"/>
@@ -25564,11 +25686,11 @@
       <c r="BG139" s="4"/>
       <c r="BH139" s="46">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="BI139" s="47">
         <f t="shared" si="7"/>
-        <v>3.9</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="140" spans="1:61" x14ac:dyDescent="0.35">
@@ -25824,7 +25946,9 @@
       <c r="AI143" s="6"/>
       <c r="AJ143" s="7"/>
       <c r="AK143" s="8"/>
-      <c r="AL143" s="9"/>
+      <c r="AL143" s="9">
+        <v>4</v>
+      </c>
       <c r="AN143" s="10"/>
       <c r="AO143" s="11"/>
       <c r="AP143" s="12"/>
@@ -25844,11 +25968,11 @@
       <c r="BG143" s="4"/>
       <c r="BH143" s="46">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BI143" s="47">
         <f t="shared" si="7"/>
-        <v>3.9</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="144" spans="1:61" x14ac:dyDescent="0.35">
@@ -26439,7 +26563,9 @@
       <c r="AI152" s="6"/>
       <c r="AJ152" s="7"/>
       <c r="AK152" s="8"/>
-      <c r="AL152" s="9"/>
+      <c r="AL152" s="9">
+        <v>5</v>
+      </c>
       <c r="AN152" s="10"/>
       <c r="AO152" s="11"/>
       <c r="AP152" s="12"/>
@@ -26459,11 +26585,11 @@
       <c r="BG152" s="4"/>
       <c r="BH152" s="46">
         <f t="shared" si="18"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BI152" s="47">
         <f t="shared" si="19"/>
-        <v>3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="153" spans="1:61" x14ac:dyDescent="0.35">
@@ -27123,10 +27249,14 @@
       <c r="AI162" s="6"/>
       <c r="AJ162" s="7"/>
       <c r="AK162" s="8"/>
-      <c r="AL162" s="9"/>
+      <c r="AL162" s="9">
+        <v>2</v>
+      </c>
       <c r="AN162" s="10"/>
       <c r="AO162" s="11"/>
-      <c r="AP162" s="12"/>
+      <c r="AP162" s="12">
+        <v>4</v>
+      </c>
       <c r="AQ162" s="13"/>
       <c r="AS162" s="6"/>
       <c r="AT162" s="7"/>
@@ -27143,11 +27273,11 @@
       <c r="BG162" s="4"/>
       <c r="BH162" s="46">
         <f t="shared" si="18"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BI162" s="47">
         <f t="shared" si="19"/>
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="163" spans="1:61" x14ac:dyDescent="0.35">
@@ -27468,12 +27598,16 @@
       <c r="AD167" s="10"/>
       <c r="AE167" s="11"/>
       <c r="AF167" s="12"/>
-      <c r="AG167" s="13"/>
+      <c r="AG167" s="13">
+        <v>3</v>
+      </c>
       <c r="AI167" s="6"/>
       <c r="AJ167" s="7"/>
       <c r="AK167" s="8"/>
       <c r="AL167" s="9"/>
-      <c r="AN167" s="10"/>
+      <c r="AN167" s="10">
+        <v>2</v>
+      </c>
       <c r="AO167" s="11"/>
       <c r="AP167" s="12"/>
       <c r="AQ167" s="13"/>
@@ -27492,11 +27626,11 @@
       <c r="BG167" s="4"/>
       <c r="BH167" s="46">
         <f t="shared" si="18"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="BI167" s="47">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="168" spans="1:61" x14ac:dyDescent="0.35">
@@ -28561,7 +28695,9 @@
       <c r="AJ183" s="7"/>
       <c r="AK183" s="8"/>
       <c r="AL183" s="9"/>
-      <c r="AN183" s="10"/>
+      <c r="AN183" s="10">
+        <v>3</v>
+      </c>
       <c r="AO183" s="11"/>
       <c r="AP183" s="12"/>
       <c r="AQ183" s="13"/>
@@ -28580,11 +28716,11 @@
       <c r="BG183" s="4"/>
       <c r="BH183" s="46">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI183" s="47">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="184" spans="1:61" x14ac:dyDescent="0.35">
@@ -28763,9 +28899,13 @@
       <c r="AF186" s="12"/>
       <c r="AG186" s="13"/>
       <c r="AI186" s="6"/>
-      <c r="AJ186" s="7"/>
+      <c r="AJ186" s="7">
+        <v>2</v>
+      </c>
       <c r="AK186" s="8"/>
-      <c r="AL186" s="9"/>
+      <c r="AL186" s="9">
+        <v>4</v>
+      </c>
       <c r="AN186" s="10"/>
       <c r="AO186" s="11"/>
       <c r="AP186" s="12"/>
@@ -28785,11 +28925,11 @@
       <c r="BG186" s="4"/>
       <c r="BH186" s="46">
         <f t="shared" ref="BH186" si="22">SUM(E186:BF186)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BI186" s="47">
         <f t="shared" ref="BI186" si="23">(SUM(E186:BG186)*$D$2)</f>
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="187" spans="1:61" x14ac:dyDescent="0.35">
@@ -28910,14 +29050,26 @@
       <c r="AD188" s="10"/>
       <c r="AE188" s="11"/>
       <c r="AF188" s="12"/>
-      <c r="AG188" s="13"/>
+      <c r="AG188" s="13">
+        <v>5</v>
+      </c>
       <c r="AI188" s="6"/>
-      <c r="AJ188" s="7"/>
-      <c r="AK188" s="8"/>
-      <c r="AL188" s="9"/>
-      <c r="AN188" s="10"/>
+      <c r="AJ188" s="7">
+        <v>7</v>
+      </c>
+      <c r="AK188" s="8">
+        <v>7</v>
+      </c>
+      <c r="AL188" s="9">
+        <v>5</v>
+      </c>
+      <c r="AN188" s="10">
+        <v>5</v>
+      </c>
       <c r="AO188" s="11"/>
-      <c r="AP188" s="12"/>
+      <c r="AP188" s="12">
+        <v>7</v>
+      </c>
       <c r="AQ188" s="13"/>
       <c r="AS188" s="6"/>
       <c r="AT188" s="7"/>
@@ -28934,11 +29086,11 @@
       <c r="BG188" s="4"/>
       <c r="BH188" s="46">
         <f t="shared" si="18"/>
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="BI188" s="47">
         <f t="shared" si="19"/>
-        <v>15.299999999999999</v>
+        <v>26.099999999999998</v>
       </c>
     </row>
     <row r="189" spans="1:61" x14ac:dyDescent="0.35">
@@ -29102,7 +29254,9 @@
       <c r="AD191" s="10"/>
       <c r="AE191" s="11"/>
       <c r="AF191" s="12"/>
-      <c r="AG191" s="13"/>
+      <c r="AG191" s="13">
+        <v>2</v>
+      </c>
       <c r="AI191" s="6"/>
       <c r="AJ191" s="7"/>
       <c r="AK191" s="8"/>
@@ -29126,11 +29280,11 @@
       <c r="BG191" s="4"/>
       <c r="BH191" s="46">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI191" s="47">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="192" spans="1:61" x14ac:dyDescent="0.35">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Erin\Run Club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD90591-1FA3-4306-88E4-D44E01B1EDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8CB78F-074C-439D-86E0-9511BA9627CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="398" firstSheet="1" activeTab="3" xr2:uid="{E0803456-148F-4C82-AA5A-324EB5FFE85D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2820" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2877" uniqueCount="452">
   <si>
     <t>Student Name</t>
   </si>
@@ -2087,8 +2087,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BE231"/>
   <sheetViews>
-    <sheetView topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156"/>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7832,7 +7832,9 @@
         <v>427</v>
       </c>
       <c r="B73" s="45"/>
-      <c r="C73" s="44"/>
+      <c r="C73" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="E73" s="10"/>
       <c r="F73" s="11"/>
       <c r="G73" s="12"/>
@@ -7891,7 +7893,9 @@
         <v>426</v>
       </c>
       <c r="B74" s="45"/>
-      <c r="C74" s="44"/>
+      <c r="C74" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="E74" s="10"/>
       <c r="F74" s="11"/>
       <c r="G74" s="12"/>
@@ -7950,7 +7954,9 @@
         <v>428</v>
       </c>
       <c r="B75" s="45"/>
-      <c r="C75" s="44"/>
+      <c r="C75" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="E75" s="10"/>
       <c r="F75" s="11"/>
       <c r="G75" s="12"/>
@@ -8009,7 +8015,9 @@
         <v>429</v>
       </c>
       <c r="B76" s="45"/>
-      <c r="C76" s="44"/>
+      <c r="C76" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="E76" s="10"/>
       <c r="F76" s="11"/>
       <c r="G76" s="12"/>
@@ -13474,7 +13482,9 @@
         <v>430</v>
       </c>
       <c r="B148" s="42"/>
-      <c r="C148" s="42"/>
+      <c r="C148" s="42" t="s">
+        <v>64</v>
+      </c>
       <c r="D148" s="51"/>
       <c r="E148" s="10"/>
       <c r="F148" s="11"/>
@@ -13534,7 +13544,9 @@
         <v>431</v>
       </c>
       <c r="B149" s="42"/>
-      <c r="C149" s="42"/>
+      <c r="C149" s="42" t="s">
+        <v>64</v>
+      </c>
       <c r="D149" s="51"/>
       <c r="E149" s="10"/>
       <c r="F149" s="11"/>
@@ -13594,7 +13606,9 @@
         <v>432</v>
       </c>
       <c r="B150" s="42"/>
-      <c r="C150" s="42"/>
+      <c r="C150" s="42" t="s">
+        <v>64</v>
+      </c>
       <c r="D150" s="51"/>
       <c r="E150" s="10"/>
       <c r="F150" s="11"/>
@@ -13654,7 +13668,9 @@
         <v>433</v>
       </c>
       <c r="B151" s="42"/>
-      <c r="C151" s="42"/>
+      <c r="C151" s="42" t="s">
+        <v>64</v>
+      </c>
       <c r="D151" s="51"/>
       <c r="E151" s="10"/>
       <c r="F151" s="11"/>
@@ -13714,7 +13730,9 @@
         <v>434</v>
       </c>
       <c r="B152" s="42"/>
-      <c r="C152" s="42"/>
+      <c r="C152" s="42" t="s">
+        <v>64</v>
+      </c>
       <c r="D152" s="51"/>
       <c r="E152" s="10"/>
       <c r="F152" s="11"/>
@@ -15614,7 +15632,9 @@
       <c r="B177" s="41">
         <v>5</v>
       </c>
-      <c r="C177" s="40"/>
+      <c r="C177" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="E177" s="10"/>
       <c r="F177" s="11"/>
       <c r="G177" s="12"/>
@@ -18923,7 +18943,9 @@
       <c r="B221" s="40">
         <v>3</v>
       </c>
-      <c r="C221" s="40"/>
+      <c r="C221" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="E221" s="10"/>
       <c r="F221" s="11"/>
       <c r="G221" s="12"/>
@@ -18982,7 +19004,9 @@
         <v>435</v>
       </c>
       <c r="B222" s="40"/>
-      <c r="C222" s="40"/>
+      <c r="C222" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="E222" s="10"/>
       <c r="F222" s="11"/>
       <c r="G222" s="12"/>
@@ -19041,7 +19065,9 @@
         <v>436</v>
       </c>
       <c r="B223" s="40"/>
-      <c r="C223" s="40"/>
+      <c r="C223" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="E223" s="10"/>
       <c r="F223" s="11"/>
       <c r="G223" s="12"/>
@@ -19100,7 +19126,9 @@
         <v>441</v>
       </c>
       <c r="B224" s="40"/>
-      <c r="C224" s="40"/>
+      <c r="C224" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="E224" s="10"/>
       <c r="F224" s="11"/>
       <c r="G224" s="12"/>
@@ -19159,7 +19187,9 @@
         <v>437</v>
       </c>
       <c r="B225" s="40"/>
-      <c r="C225" s="40"/>
+      <c r="C225" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="E225" s="10"/>
       <c r="F225" s="11"/>
       <c r="G225" s="12"/>
@@ -19218,7 +19248,9 @@
         <v>438</v>
       </c>
       <c r="B226" s="40"/>
-      <c r="C226" s="40"/>
+      <c r="C226" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="E226" s="10"/>
       <c r="F226" s="11"/>
       <c r="G226" s="12"/>
@@ -19277,7 +19309,9 @@
         <v>439</v>
       </c>
       <c r="B227" s="40"/>
-      <c r="C227" s="40"/>
+      <c r="C227" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="E227" s="10"/>
       <c r="F227" s="11"/>
       <c r="G227" s="12"/>
@@ -19336,7 +19370,9 @@
         <v>440</v>
       </c>
       <c r="B228" s="40"/>
-      <c r="C228" s="40"/>
+      <c r="C228" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="E228" s="10"/>
       <c r="F228" s="11"/>
       <c r="G228" s="12"/>
@@ -19395,7 +19431,9 @@
         <v>442</v>
       </c>
       <c r="B229" s="40"/>
-      <c r="C229" s="40"/>
+      <c r="C229" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="E229" s="10"/>
       <c r="F229" s="11"/>
       <c r="G229" s="12"/>
@@ -19454,7 +19492,9 @@
         <v>216</v>
       </c>
       <c r="B230" s="40"/>
-      <c r="C230" s="40"/>
+      <c r="C230" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="E230" s="10"/>
       <c r="F230" s="11"/>
       <c r="G230" s="12"/>
@@ -19591,9 +19631,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2440E40C-0490-44B1-823E-D5C5232BF4FE}">
   <dimension ref="A1:BI231"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A156" sqref="A156"/>
+      <selection pane="topRight" activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24635,7 +24675,9 @@
         <v>427</v>
       </c>
       <c r="B73" s="45"/>
-      <c r="C73" s="44"/>
+      <c r="C73" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="E73" s="6"/>
       <c r="F73" s="7"/>
       <c r="G73" s="8"/>
@@ -24695,7 +24737,9 @@
         <v>426</v>
       </c>
       <c r="B74" s="45"/>
-      <c r="C74" s="44"/>
+      <c r="C74" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="E74" s="6"/>
       <c r="F74" s="7"/>
       <c r="G74" s="8"/>
@@ -24755,7 +24799,9 @@
         <v>428</v>
       </c>
       <c r="B75" s="45"/>
-      <c r="C75" s="44"/>
+      <c r="C75" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="E75" s="6"/>
       <c r="F75" s="7"/>
       <c r="G75" s="8"/>
@@ -24815,7 +24861,9 @@
         <v>429</v>
       </c>
       <c r="B76" s="45"/>
-      <c r="C76" s="44"/>
+      <c r="C76" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="E76" s="6"/>
       <c r="F76" s="7"/>
       <c r="G76" s="8"/>
@@ -29722,7 +29770,9 @@
         <v>430</v>
       </c>
       <c r="B148" s="42"/>
-      <c r="C148" s="42"/>
+      <c r="C148" s="42" t="s">
+        <v>64</v>
+      </c>
       <c r="E148" s="6"/>
       <c r="F148" s="7"/>
       <c r="G148" s="8"/>
@@ -29782,7 +29832,9 @@
         <v>431</v>
       </c>
       <c r="B149" s="42"/>
-      <c r="C149" s="42"/>
+      <c r="C149" s="42" t="s">
+        <v>64</v>
+      </c>
       <c r="E149" s="6"/>
       <c r="F149" s="7"/>
       <c r="G149" s="8"/>
@@ -29842,7 +29894,9 @@
         <v>432</v>
       </c>
       <c r="B150" s="42"/>
-      <c r="C150" s="42"/>
+      <c r="C150" s="42" t="s">
+        <v>64</v>
+      </c>
       <c r="E150" s="6"/>
       <c r="F150" s="7"/>
       <c r="G150" s="8"/>
@@ -29902,7 +29956,9 @@
         <v>433</v>
       </c>
       <c r="B151" s="42"/>
-      <c r="C151" s="42"/>
+      <c r="C151" s="42" t="s">
+        <v>64</v>
+      </c>
       <c r="E151" s="6"/>
       <c r="F151" s="7"/>
       <c r="G151" s="8"/>
@@ -29962,7 +30018,9 @@
         <v>434</v>
       </c>
       <c r="B152" s="42"/>
-      <c r="C152" s="42"/>
+      <c r="C152" s="42" t="s">
+        <v>64</v>
+      </c>
       <c r="E152" s="6"/>
       <c r="F152" s="7"/>
       <c r="G152" s="8"/>
@@ -34725,7 +34783,9 @@
         <v>435</v>
       </c>
       <c r="B222" s="40"/>
-      <c r="C222" s="40"/>
+      <c r="C222" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="E222" s="6"/>
       <c r="F222" s="7"/>
       <c r="G222" s="8"/>
@@ -34785,7 +34845,9 @@
         <v>436</v>
       </c>
       <c r="B223" s="40"/>
-      <c r="C223" s="40"/>
+      <c r="C223" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="E223" s="6"/>
       <c r="F223" s="7"/>
       <c r="G223" s="8"/>
@@ -34845,7 +34907,9 @@
         <v>441</v>
       </c>
       <c r="B224" s="40"/>
-      <c r="C224" s="40"/>
+      <c r="C224" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="E224" s="6"/>
       <c r="F224" s="7"/>
       <c r="G224" s="8"/>
@@ -34905,7 +34969,9 @@
         <v>437</v>
       </c>
       <c r="B225" s="40"/>
-      <c r="C225" s="40"/>
+      <c r="C225" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="E225" s="6"/>
       <c r="F225" s="7"/>
       <c r="G225" s="8"/>
@@ -34965,7 +35031,9 @@
         <v>438</v>
       </c>
       <c r="B226" s="40"/>
-      <c r="C226" s="40"/>
+      <c r="C226" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="E226" s="6"/>
       <c r="F226" s="7"/>
       <c r="G226" s="8"/>
@@ -35025,7 +35093,9 @@
         <v>439</v>
       </c>
       <c r="B227" s="40"/>
-      <c r="C227" s="40"/>
+      <c r="C227" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="E227" s="6"/>
       <c r="F227" s="7"/>
       <c r="G227" s="8"/>
@@ -35085,7 +35155,9 @@
         <v>440</v>
       </c>
       <c r="B228" s="40"/>
-      <c r="C228" s="40"/>
+      <c r="C228" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="E228" s="6"/>
       <c r="F228" s="7"/>
       <c r="G228" s="8"/>
@@ -35145,7 +35217,9 @@
         <v>442</v>
       </c>
       <c r="B229" s="40"/>
-      <c r="C229" s="40"/>
+      <c r="C229" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="E229" s="6"/>
       <c r="F229" s="7"/>
       <c r="G229" s="8"/>
@@ -35205,7 +35279,9 @@
         <v>216</v>
       </c>
       <c r="B230" s="40"/>
-      <c r="C230" s="40"/>
+      <c r="C230" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="E230" s="6"/>
       <c r="F230" s="7"/>
       <c r="G230" s="8"/>
@@ -47182,9 +47258,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78868117-12A2-435A-BD63-4BC13C1CEFED}">
   <dimension ref="A1:BI234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y10" sqref="Y10"/>
+      <selection pane="topRight" activeCell="C231" sqref="C231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52559,7 +52635,9 @@
         <v>427</v>
       </c>
       <c r="B73" s="45"/>
-      <c r="C73" s="44"/>
+      <c r="C73" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="E73" s="6"/>
       <c r="F73" s="7"/>
       <c r="G73" s="8"/>
@@ -52625,7 +52703,9 @@
         <v>426</v>
       </c>
       <c r="B74" s="45"/>
-      <c r="C74" s="44"/>
+      <c r="C74" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="E74" s="6"/>
       <c r="F74" s="7"/>
       <c r="G74" s="8"/>
@@ -52689,7 +52769,9 @@
         <v>428</v>
       </c>
       <c r="B75" s="45"/>
-      <c r="C75" s="44"/>
+      <c r="C75" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="E75" s="6"/>
       <c r="F75" s="7"/>
       <c r="G75" s="8"/>
@@ -52753,7 +52835,9 @@
         <v>429</v>
       </c>
       <c r="B76" s="45"/>
-      <c r="C76" s="44"/>
+      <c r="C76" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="E76" s="6"/>
       <c r="F76" s="7"/>
       <c r="G76" s="8"/>
@@ -57678,7 +57762,9 @@
       <c r="B144" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C144" s="42"/>
+      <c r="C144" s="42" t="s">
+        <v>64</v>
+      </c>
       <c r="E144" s="6"/>
       <c r="F144" s="7"/>
       <c r="G144" s="8"/>
@@ -57947,7 +58033,9 @@
         <v>430</v>
       </c>
       <c r="B148" s="42"/>
-      <c r="C148" s="42"/>
+      <c r="C148" s="42" t="s">
+        <v>64</v>
+      </c>
       <c r="E148" s="6"/>
       <c r="F148" s="7"/>
       <c r="G148" s="8"/>
@@ -58013,7 +58101,9 @@
         <v>431</v>
       </c>
       <c r="B149" s="42"/>
-      <c r="C149" s="42"/>
+      <c r="C149" s="42" t="s">
+        <v>64</v>
+      </c>
       <c r="E149" s="6"/>
       <c r="F149" s="7"/>
       <c r="G149" s="8"/>
@@ -58075,7 +58165,9 @@
         <v>432</v>
       </c>
       <c r="B150" s="42"/>
-      <c r="C150" s="42"/>
+      <c r="C150" s="42" t="s">
+        <v>64</v>
+      </c>
       <c r="E150" s="6"/>
       <c r="F150" s="7"/>
       <c r="G150" s="8"/>
@@ -58137,7 +58229,9 @@
         <v>433</v>
       </c>
       <c r="B151" s="42"/>
-      <c r="C151" s="42"/>
+      <c r="C151" s="42" t="s">
+        <v>64</v>
+      </c>
       <c r="E151" s="6"/>
       <c r="F151" s="7"/>
       <c r="G151" s="8"/>
@@ -58201,7 +58295,9 @@
         <v>434</v>
       </c>
       <c r="B152" s="42"/>
-      <c r="C152" s="42"/>
+      <c r="C152" s="42" t="s">
+        <v>64</v>
+      </c>
       <c r="E152" s="6"/>
       <c r="F152" s="7"/>
       <c r="G152" s="8"/>
@@ -63284,7 +63380,9 @@
         <v>435</v>
       </c>
       <c r="B222" s="40"/>
-      <c r="C222" s="40"/>
+      <c r="C222" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="E222" s="6"/>
       <c r="F222" s="7"/>
       <c r="G222" s="8"/>
@@ -63350,7 +63448,9 @@
         <v>436</v>
       </c>
       <c r="B223" s="40"/>
-      <c r="C223" s="40"/>
+      <c r="C223" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="E223" s="6"/>
       <c r="F223" s="7"/>
       <c r="G223" s="8"/>
@@ -63416,7 +63516,9 @@
         <v>441</v>
       </c>
       <c r="B224" s="40"/>
-      <c r="C224" s="40"/>
+      <c r="C224" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="E224" s="6"/>
       <c r="F224" s="7"/>
       <c r="G224" s="8"/>
@@ -63478,7 +63580,9 @@
         <v>437</v>
       </c>
       <c r="B225" s="40"/>
-      <c r="C225" s="40"/>
+      <c r="C225" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="E225" s="6"/>
       <c r="F225" s="7"/>
       <c r="G225" s="8"/>
@@ -63540,7 +63644,9 @@
         <v>438</v>
       </c>
       <c r="B226" s="40"/>
-      <c r="C226" s="40"/>
+      <c r="C226" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="E226" s="6"/>
       <c r="F226" s="7"/>
       <c r="G226" s="8"/>
@@ -63602,7 +63708,9 @@
         <v>439</v>
       </c>
       <c r="B227" s="40"/>
-      <c r="C227" s="40"/>
+      <c r="C227" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="E227" s="6"/>
       <c r="F227" s="7"/>
       <c r="G227" s="8"/>
@@ -63664,7 +63772,9 @@
         <v>440</v>
       </c>
       <c r="B228" s="40"/>
-      <c r="C228" s="40"/>
+      <c r="C228" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="E228" s="6"/>
       <c r="F228" s="7"/>
       <c r="G228" s="8"/>
@@ -63726,7 +63836,9 @@
         <v>442</v>
       </c>
       <c r="B229" s="40"/>
-      <c r="C229" s="40"/>
+      <c r="C229" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="E229" s="6"/>
       <c r="F229" s="7"/>
       <c r="G229" s="8"/>
@@ -63788,7 +63900,9 @@
         <v>216</v>
       </c>
       <c r="B230" s="40"/>
-      <c r="C230" s="40"/>
+      <c r="C230" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="E230" s="6"/>
       <c r="F230" s="7"/>
       <c r="G230" s="8"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Erin\Run Club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8CB78F-074C-439D-86E0-9511BA9627CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D514F9-7A89-4EE4-9F08-8A759EA89BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="398" firstSheet="1" activeTab="3" xr2:uid="{E0803456-148F-4C82-AA5A-324EB5FFE85D}"/>
   </bookViews>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="BD8" s="47">
         <f>(SUM(BE8,'Run distances (Term 2)'!BI12,'Run distances (Term 3)'!BI8,'Run distances (Term 4)'!BI9))</f>
-        <v>7.1999999999999993</v>
+        <v>9</v>
       </c>
       <c r="BE8" s="47">
         <f t="shared" si="1"/>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="BD24" s="47">
         <f>(SUM(BE24,'Run distances (Term 2)'!BI24,'Run distances (Term 3)'!BI20,'Run distances (Term 4)'!BI24))</f>
-        <v>5.3999999999999995</v>
+        <v>5.9999999999999991</v>
       </c>
       <c r="BE24" s="47">
         <f t="shared" si="3"/>
@@ -3882,7 +3882,7 @@
       </c>
       <c r="BD25" s="47">
         <f>(SUM(BE25,'Run distances (Term 2)'!BI25,'Run distances (Term 3)'!BI21,'Run distances (Term 4)'!BI25))</f>
-        <v>22.5</v>
+        <v>23.7</v>
       </c>
       <c r="BE25" s="47">
         <f t="shared" si="3"/>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="BD27" s="47">
         <f>(SUM(BE27,'Run distances (Term 2)'!BI27,'Run distances (Term 3)'!BI23,'Run distances (Term 4)'!BI27))</f>
-        <v>15.899999999999999</v>
+        <v>18.3</v>
       </c>
       <c r="BE27" s="47">
         <f t="shared" si="3"/>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="BD28" s="47">
         <f>(SUM(BE28,'Run distances (Term 2)'!BI28,'Run distances (Term 3)'!BI24,'Run distances (Term 4)'!BI28))</f>
-        <v>16.2</v>
+        <v>17.099999999999998</v>
       </c>
       <c r="BE28" s="47">
         <f t="shared" si="3"/>
@@ -4420,7 +4420,7 @@
       </c>
       <c r="BD32" s="47">
         <f>(SUM(BE32,'Run distances (Term 2)'!BI32,'Run distances (Term 3)'!BI26,'Run distances (Term 4)'!BI32))</f>
-        <v>34.5</v>
+        <v>36.599999999999994</v>
       </c>
       <c r="BE32" s="47">
         <f t="shared" si="3"/>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="BD36" s="47">
         <f>(SUM(BE36,'Run distances (Term 2)'!BI36,'Run distances (Term 3)'!BI30,'Run distances (Term 4)'!BI36))</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BE36" s="47">
         <f t="shared" si="3"/>
@@ -4934,7 +4934,7 @@
       </c>
       <c r="BD38" s="47">
         <f>(SUM(BE38,'Run distances (Term 2)'!BI38,'Run distances (Term 3)'!BI32,'Run distances (Term 4)'!BI38))</f>
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="BE38" s="47">
         <f t="shared" si="3"/>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="BD39" s="47">
         <f>(SUM(BE39,'Run distances (Term 2)'!BI39,'Run distances (Term 3)'!BI33,'Run distances (Term 4)'!BI39))</f>
-        <v>12.6</v>
+        <v>12.899999999999999</v>
       </c>
       <c r="BE39" s="47">
         <f t="shared" si="3"/>
@@ -5096,7 +5096,7 @@
       </c>
       <c r="BD40" s="47">
         <f>(SUM(BE40,'Run distances (Term 2)'!BI40,'Run distances (Term 3)'!BI34,'Run distances (Term 4)'!BI40))</f>
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="BE40" s="47">
         <f t="shared" si="3"/>
@@ -5208,7 +5208,7 @@
       </c>
       <c r="BD41" s="47">
         <f>(SUM(BE41,'Run distances (Term 2)'!BI41,'Run distances (Term 3)'!BI35,'Run distances (Term 4)'!BI41))</f>
-        <v>56.1</v>
+        <v>56.4</v>
       </c>
       <c r="BE41" s="47">
         <f t="shared" si="3"/>
@@ -5290,7 +5290,7 @@
       </c>
       <c r="BD42" s="47">
         <f>(SUM(BE42,'Run distances (Term 2)'!BI42,'Run distances (Term 3)'!BI36,'Run distances (Term 4)'!BI42))</f>
-        <v>16.5</v>
+        <v>17.7</v>
       </c>
       <c r="BE42" s="47">
         <f t="shared" si="3"/>
@@ -5490,7 +5490,7 @@
       </c>
       <c r="BD44" s="47">
         <f>(SUM(BE44,'Run distances (Term 2)'!BI44,'Run distances (Term 3)'!BI38,'Run distances (Term 4)'!BI44))</f>
-        <v>43.199999999999996</v>
+        <v>45.9</v>
       </c>
       <c r="BE44" s="47">
         <f t="shared" si="3"/>
@@ -5904,7 +5904,7 @@
       </c>
       <c r="BD49" s="47">
         <f>(SUM(BE49,'Run distances (Term 2)'!BI49,'Run distances (Term 3)'!BI43,'Run distances (Term 4)'!BI49))</f>
-        <v>20.099999999999998</v>
+        <v>21</v>
       </c>
       <c r="BE49" s="47">
         <f t="shared" si="3"/>
@@ -6101,7 +6101,7 @@
       </c>
       <c r="BD52" s="47">
         <f>(SUM(BE52,'Run distances (Term 2)'!BI53,'Run distances (Term 3)'!BI46,'Run distances (Term 4)'!BI52))</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="BE52" s="47">
         <f t="shared" si="3"/>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="BD55" s="47">
         <f>(SUM(BE55,'Run distances (Term 2)'!BI56,'Run distances (Term 3)'!BI49,'Run distances (Term 4)'!BI55))</f>
-        <v>126.6</v>
+        <v>129.9</v>
       </c>
       <c r="BE55" s="47">
         <f t="shared" si="3"/>
@@ -6499,7 +6499,7 @@
       </c>
       <c r="BD56" s="47">
         <f>(SUM(BE56,'Run distances (Term 2)'!BI57,'Run distances (Term 3)'!BI50,'Run distances (Term 4)'!BI56))</f>
-        <v>82.8</v>
+        <v>83.7</v>
       </c>
       <c r="BE56" s="47">
         <f t="shared" si="3"/>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="BD57" s="47">
         <f>(SUM(BE57,'Run distances (Term 2)'!BI58,'Run distances (Term 3)'!BI51,'Run distances (Term 4)'!BI57))</f>
-        <v>35.699999999999996</v>
+        <v>37.199999999999996</v>
       </c>
       <c r="BE57" s="47">
         <f t="shared" si="3"/>
@@ -6703,7 +6703,7 @@
       </c>
       <c r="BD58" s="47">
         <f>(SUM(BE58,'Run distances (Term 2)'!BI59,'Run distances (Term 3)'!BI52,'Run distances (Term 4)'!BI58))</f>
-        <v>11.399999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="BE58" s="47">
         <f t="shared" si="3"/>
@@ -7185,7 +7185,7 @@
       </c>
       <c r="BD64" s="47">
         <f>(SUM(BE64,'Run distances (Term 2)'!BI65,'Run distances (Term 3)'!BI58,'Run distances (Term 4)'!BI64))</f>
-        <v>20.399999999999999</v>
+        <v>22.5</v>
       </c>
       <c r="BE64" s="47">
         <f t="shared" si="3"/>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="BD66" s="47">
         <f>(SUM(BE66,'Run distances (Term 2)'!BI67,'Run distances (Term 3)'!BI60,'Run distances (Term 4)'!BI66))</f>
-        <v>1.7999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="BE66" s="47">
         <f t="shared" si="3"/>
@@ -7390,7 +7390,7 @@
       </c>
       <c r="BD67" s="47">
         <f>(SUM(BE67,'Run distances (Term 2)'!BI68,'Run distances (Term 3)'!BI61,'Run distances (Term 4)'!BI67))</f>
-        <v>9</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="BE67" s="47">
         <f t="shared" si="3"/>
@@ -7490,7 +7490,7 @@
       </c>
       <c r="BD68" s="47">
         <f>(SUM(BE68,'Run distances (Term 2)'!BI68,'Run distances (Term 3)'!BI60,'Run distances (Term 4)'!BI68))</f>
-        <v>26.400000000000002</v>
+        <v>28.200000000000003</v>
       </c>
       <c r="BE68" s="47">
         <f t="shared" si="3"/>
@@ -7590,7 +7590,7 @@
       </c>
       <c r="BD69" s="47">
         <f>(SUM(BE69,'Run distances (Term 2)'!BI69,'Run distances (Term 3)'!BI61,'Run distances (Term 4)'!BI69))</f>
-        <v>33.299999999999997</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="BE69" s="47">
         <f t="shared" si="3"/>
@@ -7820,7 +7820,7 @@
       </c>
       <c r="BD72" s="47">
         <f>(SUM(BE72,'Run distances (Term 2)'!BI72,'Run distances (Term 3)'!BI64,'Run distances (Term 4)'!BI72))</f>
-        <v>31.799999999999997</v>
+        <v>36.6</v>
       </c>
       <c r="BE72" s="47">
         <f t="shared" si="3"/>
@@ -9495,7 +9495,7 @@
       </c>
       <c r="BD96" s="47">
         <f>(SUM(BE96,'Run distances (Term 2)'!BI96,'Run distances (Term 3)'!BI80,'Run distances (Term 4)'!BI96))</f>
-        <v>7.8</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="BE96" s="47">
         <f t="shared" si="12"/>
@@ -9733,7 +9733,7 @@
       </c>
       <c r="BD99" s="47">
         <f>(SUM(BE99,'Run distances (Term 2)'!BI99,'Run distances (Term 3)'!BI83,'Run distances (Term 4)'!BI99))</f>
-        <v>30.6</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="BE99" s="47">
         <f t="shared" si="12"/>
@@ -9799,7 +9799,7 @@
       </c>
       <c r="BD100" s="47">
         <f>(SUM(BE100,'Run distances (Term 2)'!BI100,'Run distances (Term 3)'!BI84,'Run distances (Term 4)'!BI100))</f>
-        <v>5.0999999999999996</v>
+        <v>6.8999999999999995</v>
       </c>
       <c r="BE100" s="47">
         <f t="shared" si="12"/>
@@ -10081,7 +10081,7 @@
       </c>
       <c r="BD104" s="47">
         <f>(SUM(BE104,'Run distances (Term 2)'!BI104,'Run distances (Term 3)'!BI85,'Run distances (Term 4)'!BI104))</f>
-        <v>11.399999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="BE104" s="47">
         <f t="shared" si="12"/>
@@ -10177,7 +10177,7 @@
       </c>
       <c r="BD105" s="47">
         <f>(SUM(BE105,'Run distances (Term 2)'!BI105,'Run distances (Term 3)'!BI86,'Run distances (Term 4)'!BI105))</f>
-        <v>19.2</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="BE105" s="47">
         <f t="shared" si="12"/>
@@ -10265,7 +10265,7 @@
       </c>
       <c r="BD106" s="47">
         <f>(SUM(BE106,'Run distances (Term 2)'!BI106,'Run distances (Term 3)'!BI87,'Run distances (Term 4)'!BI106))</f>
-        <v>21.9</v>
+        <v>23.1</v>
       </c>
       <c r="BE106" s="47">
         <f t="shared" si="12"/>
@@ -10349,7 +10349,7 @@
       </c>
       <c r="BD107" s="47">
         <f>(SUM(BE107,'Run distances (Term 2)'!BI107,'Run distances (Term 3)'!BI88,'Run distances (Term 4)'!BI107))</f>
-        <v>9.9</v>
+        <v>11.7</v>
       </c>
       <c r="BE107" s="47">
         <f t="shared" si="12"/>
@@ -10733,7 +10733,7 @@
       </c>
       <c r="BD112" s="47">
         <f>(SUM(BE112,'Run distances (Term 2)'!BI112,'Run distances (Term 3)'!BI93,'Run distances (Term 4)'!BI112))</f>
-        <v>11.7</v>
+        <v>12.899999999999999</v>
       </c>
       <c r="BE112" s="47">
         <f t="shared" si="12"/>
@@ -10843,7 +10843,7 @@
       </c>
       <c r="BD113" s="47">
         <f>(SUM(BE113,'Run distances (Term 2)'!BI113,'Run distances (Term 3)'!BI94,'Run distances (Term 4)'!BI113))</f>
-        <v>35.4</v>
+        <v>36</v>
       </c>
       <c r="BE113" s="47">
         <f t="shared" si="12"/>
@@ -11199,7 +11199,7 @@
       </c>
       <c r="BD117" s="47">
         <f>(SUM(BE117,'Run distances (Term 2)'!BI117,'Run distances (Term 3)'!BI98,'Run distances (Term 4)'!BI117))</f>
-        <v>38.4</v>
+        <v>40.5</v>
       </c>
       <c r="BE117" s="47">
         <f t="shared" si="12"/>
@@ -11347,7 +11347,7 @@
       </c>
       <c r="BD119" s="47">
         <f>(SUM(BE119,'Run distances (Term 2)'!BI119,'Run distances (Term 3)'!BI100,'Run distances (Term 4)'!BI119))</f>
-        <v>15.6</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="BE119" s="47">
         <f t="shared" si="12"/>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="BD121" s="47">
         <f>(SUM(BE121,'Run distances (Term 2)'!BI121,'Run distances (Term 3)'!BI102,'Run distances (Term 4)'!BI121))</f>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="BE121" s="47">
         <f t="shared" si="12"/>
@@ -11565,7 +11565,7 @@
       </c>
       <c r="BD122" s="47">
         <f>(SUM(BE122,'Run distances (Term 2)'!BI122,'Run distances (Term 3)'!BI103,'Run distances (Term 4)'!BI122))</f>
-        <v>10.799999999999999</v>
+        <v>12.6</v>
       </c>
       <c r="BE122" s="47">
         <f t="shared" si="12"/>
@@ -11931,7 +11931,7 @@
       </c>
       <c r="BD127" s="47">
         <f>(SUM(BE127,'Run distances (Term 2)'!BI127,'Run distances (Term 3)'!BI108,'Run distances (Term 4)'!BI127))</f>
-        <v>5.7</v>
+        <v>7.2</v>
       </c>
       <c r="BE127" s="47">
         <f t="shared" si="12"/>
@@ -12001,7 +12001,7 @@
       </c>
       <c r="BD128" s="47">
         <f>(SUM(BE128,'Run distances (Term 2)'!BI128,'Run distances (Term 3)'!BI109,'Run distances (Term 4)'!BI128))</f>
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="BE128" s="47">
         <f t="shared" si="12"/>
@@ -12113,7 +12113,7 @@
       </c>
       <c r="BD129" s="47">
         <f>(SUM(BE129,'Run distances (Term 2)'!BI129,'Run distances (Term 3)'!BI110,'Run distances (Term 4)'!BI129))</f>
-        <v>27.3</v>
+        <v>28.8</v>
       </c>
       <c r="BE129" s="47">
         <f t="shared" si="12"/>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="BD130" s="47">
         <f>(SUM(BE130,'Run distances (Term 2)'!BI130,'Run distances (Term 3)'!BI111,'Run distances (Term 4)'!BI130))</f>
-        <v>30.299999999999997</v>
+        <v>32.4</v>
       </c>
       <c r="BE130" s="47">
         <f t="shared" si="12"/>
@@ -12616,7 +12616,7 @@
       </c>
       <c r="BD135" s="47">
         <f>(SUM(BE135,'Run distances (Term 2)'!BI135,'Run distances (Term 3)'!BI115,'Run distances (Term 4)'!BI135))</f>
-        <v>10.5</v>
+        <v>11.1</v>
       </c>
       <c r="BE135" s="47">
         <f t="shared" si="12"/>
@@ -12836,7 +12836,7 @@
       </c>
       <c r="BD138" s="47">
         <f>(SUM(BE138,'Run distances (Term 2)'!BI138,'Run distances (Term 3)'!BI118,'Run distances (Term 4)'!BI138))</f>
-        <v>1.5</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="BE138" s="47">
         <f t="shared" si="12"/>
@@ -12902,7 +12902,7 @@
       </c>
       <c r="BD139" s="47">
         <f>(SUM(BE139,'Run distances (Term 2)'!BI139,'Run distances (Term 3)'!BI119,'Run distances (Term 4)'!BI139))</f>
-        <v>3.3</v>
+        <v>4.1999999999999993</v>
       </c>
       <c r="BE139" s="47">
         <f t="shared" si="12"/>
@@ -13046,7 +13046,7 @@
       </c>
       <c r="BD141" s="47">
         <f>(SUM(BE141,'Run distances (Term 2)'!BI141,'Run distances (Term 3)'!BI121,'Run distances (Term 4)'!BI141))</f>
-        <v>4.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="BE141" s="47">
         <f t="shared" si="12"/>
@@ -13148,7 +13148,7 @@
       </c>
       <c r="BD142" s="47">
         <f>(SUM(BE142,'Run distances (Term 2)'!BI142,'Run distances (Term 3)'!BI122,'Run distances (Term 4)'!BI142))</f>
-        <v>12.899999999999999</v>
+        <v>14.099999999999998</v>
       </c>
       <c r="BE142" s="47">
         <f t="shared" si="12"/>
@@ -13532,7 +13532,7 @@
       </c>
       <c r="BD148" s="47">
         <f>(SUM(BE148,'Run distances (Term 2)'!BI148,'Run distances (Term 3)'!BI128,'Run distances (Term 4)'!BI148))</f>
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="BE148" s="47">
         <f t="shared" si="12"/>
@@ -13594,7 +13594,7 @@
       </c>
       <c r="BD149" s="47">
         <f>(SUM(BE149,'Run distances (Term 2)'!BI149,'Run distances (Term 3)'!BI129,'Run distances (Term 4)'!BI149))</f>
-        <v>1.7999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="BE149" s="47">
         <f t="shared" si="12"/>
@@ -13780,7 +13780,7 @@
       </c>
       <c r="BD152" s="47">
         <f>(SUM(BE152,'Run distances (Term 2)'!BI152,'Run distances (Term 3)'!BI132,'Run distances (Term 4)'!BI152))</f>
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="BE152" s="47">
         <f t="shared" si="12"/>
@@ -14298,7 +14298,7 @@
       </c>
       <c r="BD160" s="47">
         <f>(SUM(BE160,'Run distances (Term 2)'!BI160,'Run distances (Term 3)'!BI124,'Run distances (Term 4)'!BI160))</f>
-        <v>17.100000000000001</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="BE160" s="47">
         <f t="shared" si="12"/>
@@ -15274,7 +15274,7 @@
       </c>
       <c r="BD172" s="47">
         <f>(SUM(BE172,'Run distances (Term 2)'!BI172,'Run distances (Term 3)'!BI135,'Run distances (Term 4)'!BI172))</f>
-        <v>9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="BE172" s="47">
         <f t="shared" si="27"/>
@@ -15681,7 +15681,7 @@
       </c>
       <c r="BD177" s="47">
         <f>(SUM(BE177,'Run distances (Term 2)'!BI177,'Run distances (Term 3)'!BI140,'Run distances (Term 4)'!BI177))</f>
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="BE177" s="47">
         <f t="shared" si="27"/>
@@ -15755,7 +15755,7 @@
       </c>
       <c r="BD178" s="47">
         <f>(SUM(BE178,'Run distances (Term 2)'!BI178,'Run distances (Term 3)'!BI140,'Run distances (Term 4)'!BI178))</f>
-        <v>5.4</v>
+        <v>5.6999999999999993</v>
       </c>
       <c r="BE178" s="47">
         <f t="shared" si="27"/>
@@ -15915,7 +15915,7 @@
       </c>
       <c r="BD180" s="47">
         <f>(SUM(BE180,'Run distances (Term 2)'!BI180,'Run distances (Term 3)'!BI142,'Run distances (Term 4)'!BI180))</f>
-        <v>11.399999999999999</v>
+        <v>12.899999999999999</v>
       </c>
       <c r="BE180" s="47">
         <f t="shared" si="26"/>
@@ -16067,7 +16067,7 @@
       </c>
       <c r="BD182" s="47">
         <f>(SUM(BE182,'Run distances (Term 2)'!BI182,'Run distances (Term 3)'!BI144,'Run distances (Term 4)'!BI182))</f>
-        <v>9.3000000000000007</v>
+        <v>9.6</v>
       </c>
       <c r="BE182" s="47">
         <f t="shared" si="26"/>
@@ -16241,7 +16241,7 @@
       </c>
       <c r="BD184" s="47">
         <f>(SUM(BE184,'Run distances (Term 2)'!BI184,'Run distances (Term 3)'!BI146,'Run distances (Term 4)'!BI184))</f>
-        <v>1.7999999999999998</v>
+        <v>3</v>
       </c>
       <c r="BE184" s="47">
         <f t="shared" si="26"/>
@@ -16941,7 +16941,7 @@
       </c>
       <c r="BD192" s="47">
         <f>(SUM(BE192,'Run distances (Term 2)'!BI192,'Run distances (Term 3)'!BI154,'Run distances (Term 4)'!BI192))</f>
-        <v>32.4</v>
+        <v>35.4</v>
       </c>
       <c r="BE192" s="47">
         <f t="shared" si="26"/>
@@ -17081,7 +17081,7 @@
       </c>
       <c r="BD194" s="47">
         <f>(SUM(BE194,'Run distances (Term 2)'!BI194,'Run distances (Term 3)'!BI156,'Run distances (Term 4)'!BI194))</f>
-        <v>3.9</v>
+        <v>5.9999999999999991</v>
       </c>
       <c r="BE194" s="47">
         <f t="shared" si="26"/>
@@ -17299,7 +17299,7 @@
       </c>
       <c r="BD197" s="47">
         <f>(SUM(BE197,'Run distances (Term 2)'!BI197,'Run distances (Term 3)'!BI159,'Run distances (Term 4)'!BI197))</f>
-        <v>10.5</v>
+        <v>11.1</v>
       </c>
       <c r="BE197" s="47">
         <f t="shared" si="26"/>
@@ -17511,7 +17511,7 @@
       </c>
       <c r="BD200" s="47">
         <f>(SUM(BE200,'Run distances (Term 2)'!BI200,'Run distances (Term 3)'!BI162,'Run distances (Term 4)'!BI200))</f>
-        <v>4.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="BE200" s="47">
         <f t="shared" si="26"/>
@@ -17647,7 +17647,7 @@
       </c>
       <c r="BD202" s="47">
         <f>(SUM(BE202,'Run distances (Term 2)'!BI202,'Run distances (Term 3)'!BI164,'Run distances (Term 4)'!BI202))</f>
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="BE202" s="47">
         <f t="shared" si="26"/>
@@ -17789,7 +17789,7 @@
       </c>
       <c r="BD204" s="47">
         <f>(SUM(BE204,'Run distances (Term 2)'!BI205,'Run distances (Term 3)'!BI166,'Run distances (Term 4)'!BI204))</f>
-        <v>3</v>
+        <v>4.1999999999999993</v>
       </c>
       <c r="BE204" s="47">
         <f t="shared" si="26"/>
@@ -17999,7 +17999,7 @@
       </c>
       <c r="BD207" s="47">
         <f>(SUM(BE207,'Run distances (Term 2)'!BI208,'Run distances (Term 3)'!BI169,'Run distances (Term 4)'!BI207))</f>
-        <v>5.6999999999999993</v>
+        <v>7.4999999999999991</v>
       </c>
       <c r="BE207" s="47">
         <f t="shared" si="26"/>
@@ -18083,7 +18083,7 @@
       </c>
       <c r="BD208" s="47">
         <f>(SUM(BE208,'Run distances (Term 2)'!BI209,'Run distances (Term 3)'!BI170,'Run distances (Term 4)'!BI208))</f>
-        <v>3.8999999999999995</v>
+        <v>4.8</v>
       </c>
       <c r="BE208" s="47">
         <f t="shared" si="26"/>
@@ -18394,7 +18394,7 @@
       </c>
       <c r="BD212" s="47">
         <f>(SUM(BE212,'Run distances (Term 2)'!BI213,'Run distances (Term 3)'!BI174,'Run distances (Term 4)'!BI212))</f>
-        <v>53.699999999999996</v>
+        <v>58.199999999999996</v>
       </c>
       <c r="BE212" s="47">
         <f t="shared" si="26"/>
@@ -18595,7 +18595,7 @@
       </c>
       <c r="BD215" s="47">
         <f>(SUM(BE215,'Run distances (Term 2)'!BI216,'Run distances (Term 3)'!BI177,'Run distances (Term 4)'!BI215))</f>
-        <v>13.2</v>
+        <v>14.1</v>
       </c>
       <c r="BE215" s="47">
         <f t="shared" si="26"/>
@@ -18674,7 +18674,7 @@
       </c>
       <c r="BD216" s="47">
         <f>(SUM(BE216,'Run distances (Term 2)'!BI217,'Run distances (Term 3)'!BI178,'Run distances (Term 4)'!BI216))</f>
-        <v>11.399999999999999</v>
+        <v>12.599999999999998</v>
       </c>
       <c r="BE216" s="47">
         <f t="shared" si="26"/>
@@ -18805,7 +18805,7 @@
       </c>
       <c r="BD218" s="47">
         <f>(SUM(BE218,'Run distances (Term 2)'!BI219,'Run distances (Term 3)'!BI180,'Run distances (Term 4)'!BI218))</f>
-        <v>9.9</v>
+        <v>10.799999999999999</v>
       </c>
       <c r="BE218" s="47">
         <f t="shared" si="26"/>
@@ -18929,7 +18929,7 @@
       </c>
       <c r="BD220" s="47">
         <f>(SUM(BE220,'Run distances (Term 2)'!BI221,'Run distances (Term 3)'!BI182,'Run distances (Term 4)'!BI220))</f>
-        <v>3.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="BE220" s="47">
         <f t="shared" si="26"/>
@@ -19114,7 +19114,7 @@
       </c>
       <c r="BD223" s="47">
         <f>(SUM(BE223,'Run distances (Term 2)'!BI224,'Run distances (Term 3)'!BI185,'Run distances (Term 4)'!BI223))</f>
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="BE223" s="47">
         <f t="shared" si="26"/>
@@ -47258,9 +47258,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78868117-12A2-435A-BD63-4BC13C1CEFED}">
   <dimension ref="A1:BI234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C231" sqref="C231"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB52" sqref="AB52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47873,8 +47873,12 @@
       <c r="Y9" s="6">
         <v>4</v>
       </c>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="8"/>
+      <c r="Z9" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>3</v>
+      </c>
       <c r="AB9" s="9"/>
       <c r="AD9" s="10"/>
       <c r="AE9" s="11"/>
@@ -47903,11 +47907,11 @@
       <c r="BG9" s="4"/>
       <c r="BH9" s="46">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="BI9" s="47">
         <f t="shared" si="1"/>
-        <v>7.1999999999999993</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.25">
@@ -48910,7 +48914,9 @@
       <c r="Y24" s="6">
         <v>1</v>
       </c>
-      <c r="Z24" s="7"/>
+      <c r="Z24" s="7">
+        <v>2</v>
+      </c>
       <c r="AA24" s="8"/>
       <c r="AB24" s="9"/>
       <c r="AD24" s="10"/>
@@ -48940,11 +48946,11 @@
       <c r="BG24" s="4"/>
       <c r="BH24" s="46">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BI24" s="47">
         <f t="shared" si="3"/>
-        <v>4.8</v>
+        <v>5.3999999999999995</v>
       </c>
     </row>
     <row r="25" spans="1:61" x14ac:dyDescent="0.25">
@@ -49001,7 +49007,9 @@
       <c r="Y25" s="6">
         <v>4</v>
       </c>
-      <c r="Z25" s="7"/>
+      <c r="Z25" s="7">
+        <v>4</v>
+      </c>
       <c r="AA25" s="8"/>
       <c r="AB25" s="9"/>
       <c r="AD25" s="10"/>
@@ -49031,11 +49039,11 @@
       <c r="BG25" s="4"/>
       <c r="BH25" s="46">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="BI25" s="47">
         <f t="shared" si="3"/>
-        <v>13.799999999999999</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:61" x14ac:dyDescent="0.25">
@@ -49165,7 +49173,9 @@
       <c r="Y27" s="6">
         <v>5</v>
       </c>
-      <c r="Z27" s="7"/>
+      <c r="Z27" s="7">
+        <v>8</v>
+      </c>
       <c r="AA27" s="8"/>
       <c r="AB27" s="9"/>
       <c r="AD27" s="10"/>
@@ -49195,11 +49205,11 @@
       <c r="BG27" s="4"/>
       <c r="BH27" s="46">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="BI27" s="47">
         <f t="shared" si="3"/>
-        <v>12.6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:61" x14ac:dyDescent="0.25">
@@ -49250,7 +49260,9 @@
         <v>9</v>
       </c>
       <c r="Y28" s="6"/>
-      <c r="Z28" s="7"/>
+      <c r="Z28" s="7">
+        <v>3</v>
+      </c>
       <c r="AA28" s="8"/>
       <c r="AB28" s="9"/>
       <c r="AD28" s="10"/>
@@ -49280,11 +49292,11 @@
       <c r="BG28" s="4"/>
       <c r="BH28" s="46">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="BI28" s="47">
         <f t="shared" si="3"/>
-        <v>14.399999999999999</v>
+        <v>15.299999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:61" x14ac:dyDescent="0.25">
@@ -49544,8 +49556,12 @@
         <v>12</v>
       </c>
       <c r="Y32" s="6"/>
-      <c r="Z32" s="7"/>
-      <c r="AA32" s="8"/>
+      <c r="Z32" s="7">
+        <v>4</v>
+      </c>
+      <c r="AA32" s="8">
+        <v>3</v>
+      </c>
       <c r="AB32" s="9"/>
       <c r="AD32" s="10"/>
       <c r="AE32" s="11"/>
@@ -49574,11 +49590,11 @@
       <c r="BG32" s="4"/>
       <c r="BH32" s="46">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="BI32" s="47">
         <f t="shared" si="3"/>
-        <v>8.1</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:61" x14ac:dyDescent="0.25">
@@ -49866,8 +49882,12 @@
       <c r="V36" s="12"/>
       <c r="W36" s="13"/>
       <c r="Y36" s="6"/>
-      <c r="Z36" s="7"/>
-      <c r="AA36" s="8"/>
+      <c r="Z36" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA36" s="8">
+        <v>5</v>
+      </c>
       <c r="AB36" s="9"/>
       <c r="AD36" s="10"/>
       <c r="AE36" s="11"/>
@@ -49896,11 +49916,11 @@
       <c r="BG36" s="4"/>
       <c r="BH36" s="46">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="BI36" s="47">
         <f t="shared" si="3"/>
-        <v>5.0999999999999996</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="37" spans="1:61" x14ac:dyDescent="0.25">
@@ -50017,7 +50037,9 @@
       </c>
       <c r="Y38" s="6"/>
       <c r="Z38" s="7"/>
-      <c r="AA38" s="8"/>
+      <c r="AA38" s="8">
+        <v>1</v>
+      </c>
       <c r="AB38" s="9"/>
       <c r="AD38" s="10"/>
       <c r="AE38" s="11"/>
@@ -50046,11 +50068,11 @@
       <c r="BG38" s="4"/>
       <c r="BH38" s="46">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BI38" s="47">
         <f t="shared" si="3"/>
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="39" spans="1:61" x14ac:dyDescent="0.25">
@@ -50097,7 +50119,9 @@
         <v>2</v>
       </c>
       <c r="Y39" s="6"/>
-      <c r="Z39" s="7"/>
+      <c r="Z39" s="7">
+        <v>1</v>
+      </c>
       <c r="AA39" s="8"/>
       <c r="AB39" s="9"/>
       <c r="AD39" s="10"/>
@@ -50127,11 +50151,11 @@
       <c r="BG39" s="4"/>
       <c r="BH39" s="46">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BI39" s="47">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="40" spans="1:61" x14ac:dyDescent="0.25">
@@ -50174,7 +50198,9 @@
         <v>8</v>
       </c>
       <c r="Y40" s="6"/>
-      <c r="Z40" s="7"/>
+      <c r="Z40" s="7">
+        <v>5</v>
+      </c>
       <c r="AA40" s="8"/>
       <c r="AB40" s="9"/>
       <c r="AD40" s="10"/>
@@ -50204,11 +50230,11 @@
       <c r="BG40" s="4"/>
       <c r="BH40" s="46">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="BI40" s="47">
         <f t="shared" si="3"/>
-        <v>7.1999999999999993</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="41" spans="1:61" x14ac:dyDescent="0.25">
@@ -50256,7 +50282,9 @@
       <c r="W41" s="13"/>
       <c r="Y41" s="6"/>
       <c r="Z41" s="7"/>
-      <c r="AA41" s="8"/>
+      <c r="AA41" s="8">
+        <v>1</v>
+      </c>
       <c r="AB41" s="9"/>
       <c r="AD41" s="10"/>
       <c r="AE41" s="11"/>
@@ -50285,11 +50313,11 @@
       <c r="BG41" s="4"/>
       <c r="BH41" s="46">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="BI41" s="47">
         <f t="shared" si="3"/>
-        <v>14.1</v>
+        <v>14.399999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:61" x14ac:dyDescent="0.25">
@@ -50330,7 +50358,9 @@
       <c r="Y42" s="6">
         <v>2</v>
       </c>
-      <c r="Z42" s="7"/>
+      <c r="Z42" s="7">
+        <v>4</v>
+      </c>
       <c r="AA42" s="8"/>
       <c r="AB42" s="9"/>
       <c r="AD42" s="10"/>
@@ -50360,11 +50390,11 @@
       <c r="BG42" s="4"/>
       <c r="BH42" s="46">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="BI42" s="47">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7.1999999999999993</v>
       </c>
     </row>
     <row r="43" spans="1:61" x14ac:dyDescent="0.25">
@@ -50488,8 +50518,12 @@
         <v>9</v>
       </c>
       <c r="Y44" s="6"/>
-      <c r="Z44" s="7"/>
-      <c r="AA44" s="8"/>
+      <c r="Z44" s="7">
+        <v>4</v>
+      </c>
+      <c r="AA44" s="8">
+        <v>5</v>
+      </c>
       <c r="AB44" s="9"/>
       <c r="AD44" s="10"/>
       <c r="AE44" s="11"/>
@@ -50518,11 +50552,11 @@
       <c r="BG44" s="4"/>
       <c r="BH44" s="46">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="BI44" s="47">
         <f t="shared" si="3"/>
-        <v>15.6</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="45" spans="1:61" x14ac:dyDescent="0.25">
@@ -50878,7 +50912,9 @@
         <v>4</v>
       </c>
       <c r="Z49" s="7"/>
-      <c r="AA49" s="8"/>
+      <c r="AA49" s="8">
+        <v>3</v>
+      </c>
       <c r="AB49" s="9"/>
       <c r="AD49" s="10"/>
       <c r="AE49" s="11"/>
@@ -50907,11 +50943,11 @@
       <c r="BG49" s="4"/>
       <c r="BH49" s="46">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="BI49" s="47">
         <f t="shared" si="3"/>
-        <v>13.2</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="50" spans="1:61" x14ac:dyDescent="0.25">
@@ -51082,7 +51118,9 @@
       <c r="W52" s="13"/>
       <c r="Y52" s="6"/>
       <c r="Z52" s="7"/>
-      <c r="AA52" s="8"/>
+      <c r="AA52" s="8">
+        <v>1</v>
+      </c>
       <c r="AB52" s="9"/>
       <c r="AD52" s="10"/>
       <c r="AE52" s="11"/>
@@ -51111,11 +51149,11 @@
       <c r="BG52" s="4"/>
       <c r="BH52" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI52" s="47">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="53" spans="1:61" x14ac:dyDescent="0.25">
@@ -51308,8 +51346,12 @@
       <c r="Y55" s="6">
         <v>8</v>
       </c>
-      <c r="Z55" s="7"/>
-      <c r="AA55" s="8"/>
+      <c r="Z55" s="7">
+        <v>8</v>
+      </c>
+      <c r="AA55" s="8">
+        <v>3</v>
+      </c>
       <c r="AB55" s="9"/>
       <c r="AD55" s="10"/>
       <c r="AE55" s="11"/>
@@ -51338,11 +51380,11 @@
       <c r="BG55" s="4"/>
       <c r="BH55" s="46">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="BI55" s="47">
         <f t="shared" si="3"/>
-        <v>34.799999999999997</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="56" spans="1:61" x14ac:dyDescent="0.25">
@@ -51396,7 +51438,9 @@
       <c r="W56" s="13"/>
       <c r="Y56" s="6"/>
       <c r="Z56" s="7"/>
-      <c r="AA56" s="8"/>
+      <c r="AA56" s="8">
+        <v>3</v>
+      </c>
       <c r="AB56" s="9"/>
       <c r="AD56" s="10"/>
       <c r="AE56" s="11"/>
@@ -51425,11 +51469,11 @@
       <c r="BG56" s="4"/>
       <c r="BH56" s="46">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="BI56" s="47">
         <f t="shared" si="3"/>
-        <v>21.3</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="57" spans="1:61" x14ac:dyDescent="0.25">
@@ -51478,8 +51522,12 @@
       <c r="Y57" s="6">
         <v>2</v>
       </c>
-      <c r="Z57" s="7"/>
-      <c r="AA57" s="8"/>
+      <c r="Z57" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA57" s="8">
+        <v>4</v>
+      </c>
       <c r="AB57" s="9"/>
       <c r="AD57" s="10"/>
       <c r="AE57" s="11"/>
@@ -51508,11 +51556,11 @@
       <c r="BG57" s="4"/>
       <c r="BH57" s="46">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="BI57" s="47">
         <f t="shared" si="3"/>
-        <v>7.1999999999999993</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="58" spans="1:61" x14ac:dyDescent="0.25">
@@ -51559,7 +51607,9 @@
         <v>5</v>
       </c>
       <c r="Y58" s="6"/>
-      <c r="Z58" s="7"/>
+      <c r="Z58" s="7">
+        <v>1</v>
+      </c>
       <c r="AA58" s="8"/>
       <c r="AB58" s="9"/>
       <c r="AD58" s="10"/>
@@ -51589,11 +51639,11 @@
       <c r="BG58" s="4"/>
       <c r="BH58" s="46">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BI58" s="47">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="59" spans="1:61" x14ac:dyDescent="0.25">
@@ -51981,8 +52031,12 @@
         <v>7</v>
       </c>
       <c r="Y64" s="6"/>
-      <c r="Z64" s="7"/>
-      <c r="AA64" s="8"/>
+      <c r="Z64" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA64" s="8">
+        <v>2</v>
+      </c>
       <c r="AB64" s="9"/>
       <c r="AD64" s="10"/>
       <c r="AE64" s="11"/>
@@ -52011,11 +52065,11 @@
       <c r="BG64" s="4"/>
       <c r="BH64" s="46">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="BI64" s="47">
         <f t="shared" si="3"/>
-        <v>7.1999999999999993</v>
+        <v>9.2999999999999989</v>
       </c>
     </row>
     <row r="65" spans="1:61" x14ac:dyDescent="0.25">
@@ -52129,8 +52183,12 @@
         <v>2</v>
       </c>
       <c r="Y66" s="6"/>
-      <c r="Z66" s="7"/>
-      <c r="AA66" s="8"/>
+      <c r="Z66" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA66" s="8">
+        <v>1</v>
+      </c>
       <c r="AB66" s="9"/>
       <c r="AD66" s="10"/>
       <c r="AE66" s="11"/>
@@ -52159,11 +52217,11 @@
       <c r="BG66" s="4"/>
       <c r="BH66" s="46">
         <f t="shared" ref="BH66:BH67" si="6">SUM(E66:BF66)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI66" s="47">
         <f t="shared" ref="BI66:BI67" si="7">(SUM(E66:BG66)*$D$2)</f>
-        <v>1.7999999999999998</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="67" spans="1:61" x14ac:dyDescent="0.25">
@@ -52204,7 +52262,9 @@
         <v>3</v>
       </c>
       <c r="Y67" s="6"/>
-      <c r="Z67" s="7"/>
+      <c r="Z67" s="7">
+        <v>1</v>
+      </c>
       <c r="AA67" s="8"/>
       <c r="AB67" s="9"/>
       <c r="AD67" s="10"/>
@@ -52234,11 +52294,11 @@
       <c r="BG67" s="4"/>
       <c r="BH67" s="46">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BI67" s="47">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="68" spans="1:61" x14ac:dyDescent="0.25">
@@ -52283,8 +52343,12 @@
         <v>5</v>
       </c>
       <c r="Y68" s="6"/>
-      <c r="Z68" s="7"/>
-      <c r="AA68" s="8"/>
+      <c r="Z68" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA68" s="8">
+        <v>4</v>
+      </c>
       <c r="AB68" s="9"/>
       <c r="AD68" s="10"/>
       <c r="AE68" s="11"/>
@@ -52313,11 +52377,11 @@
       <c r="BG68" s="4"/>
       <c r="BH68" s="46">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="BI68" s="47">
         <f t="shared" si="3"/>
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="69" spans="1:61" x14ac:dyDescent="0.25">
@@ -52364,8 +52428,12 @@
         <v>8</v>
       </c>
       <c r="Y69" s="6"/>
-      <c r="Z69" s="7"/>
-      <c r="AA69" s="8"/>
+      <c r="Z69" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA69" s="8">
+        <v>1</v>
+      </c>
       <c r="AB69" s="9"/>
       <c r="AD69" s="10"/>
       <c r="AE69" s="11"/>
@@ -52394,11 +52462,11 @@
       <c r="BG69" s="4"/>
       <c r="BH69" s="46">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BI69" s="47">
         <f t="shared" si="3"/>
-        <v>11.1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:61" x14ac:dyDescent="0.25">
@@ -52593,8 +52661,12 @@
       <c r="Y72" s="6">
         <v>7</v>
       </c>
-      <c r="Z72" s="7"/>
-      <c r="AA72" s="8"/>
+      <c r="Z72" s="7">
+        <v>11</v>
+      </c>
+      <c r="AA72" s="8">
+        <v>5</v>
+      </c>
       <c r="AB72" s="9"/>
       <c r="AD72" s="10"/>
       <c r="AE72" s="11"/>
@@ -52623,11 +52695,11 @@
       <c r="BG72" s="4"/>
       <c r="BH72" s="46">
         <f t="shared" ref="BH72:BH81" si="8">SUM(E72:BF72)</f>
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="BI72" s="47">
         <f t="shared" ref="BI72:BI81" si="9">(SUM(E72:BG72)*$D$2)</f>
-        <v>18.899999999999999</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="73" spans="1:61" x14ac:dyDescent="0.25">
@@ -54218,7 +54290,9 @@
       <c r="Y96" s="6">
         <v>2</v>
       </c>
-      <c r="Z96" s="7"/>
+      <c r="Z96" s="7">
+        <v>3</v>
+      </c>
       <c r="AA96" s="8"/>
       <c r="AB96" s="9"/>
       <c r="AD96" s="10"/>
@@ -54248,11 +54322,11 @@
       <c r="BG96" s="4"/>
       <c r="BH96" s="46">
         <f t="shared" ref="BH96:BH97" si="16">SUM(E96:BF96)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BI96" s="47">
         <f t="shared" ref="BI96:BI97" si="17">(SUM(E96:BG96)*$D$2)</f>
-        <v>6.3</v>
+        <v>7.1999999999999993</v>
       </c>
     </row>
     <row r="97" spans="1:61" x14ac:dyDescent="0.25">
@@ -54469,8 +54543,12 @@
       <c r="Y99" s="6">
         <v>5</v>
       </c>
-      <c r="Z99" s="7"/>
-      <c r="AA99" s="8"/>
+      <c r="Z99" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA99" s="8">
+        <v>4</v>
+      </c>
       <c r="AB99" s="9"/>
       <c r="AD99" s="10"/>
       <c r="AE99" s="11"/>
@@ -54499,11 +54577,11 @@
       <c r="BG99" s="4"/>
       <c r="BH99" s="46">
         <f t="shared" si="14"/>
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="BI99" s="47">
         <f t="shared" si="15"/>
-        <v>21.9</v>
+        <v>24.599999999999998</v>
       </c>
     </row>
     <row r="100" spans="1:61" x14ac:dyDescent="0.25">
@@ -54546,8 +54624,12 @@
       <c r="Y100" s="6">
         <v>1</v>
       </c>
-      <c r="Z100" s="7"/>
-      <c r="AA100" s="8"/>
+      <c r="Z100" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA100" s="8">
+        <v>3</v>
+      </c>
       <c r="AB100" s="9"/>
       <c r="AD100" s="10"/>
       <c r="AE100" s="11"/>
@@ -54576,11 +54658,11 @@
       <c r="BG100" s="4"/>
       <c r="BH100" s="46">
         <f t="shared" ref="BH100:BH101" si="18">SUM(E100:BF100)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="BI100" s="47">
         <f t="shared" ref="BI100:BI101" si="19">(SUM(E100:BG100)*$D$2)</f>
-        <v>5.0999999999999996</v>
+        <v>6.8999999999999995</v>
       </c>
     </row>
     <row r="101" spans="1:61" x14ac:dyDescent="0.25">
@@ -54858,7 +54940,9 @@
         <v>2</v>
       </c>
       <c r="Y104" s="6"/>
-      <c r="Z104" s="7"/>
+      <c r="Z104" s="7">
+        <v>1</v>
+      </c>
       <c r="AA104" s="8"/>
       <c r="AB104" s="9"/>
       <c r="AD104" s="10"/>
@@ -54888,11 +54972,11 @@
       <c r="BG104" s="4"/>
       <c r="BH104" s="46">
         <f t="shared" si="14"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BI104" s="47">
         <f t="shared" si="15"/>
-        <v>7.1999999999999993</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="105" spans="1:61" x14ac:dyDescent="0.25">
@@ -54930,7 +55014,9 @@
       </c>
       <c r="Y105" s="6"/>
       <c r="Z105" s="7"/>
-      <c r="AA105" s="8"/>
+      <c r="AA105" s="8">
+        <v>4</v>
+      </c>
       <c r="AB105" s="9"/>
       <c r="AD105" s="10"/>
       <c r="AE105" s="11"/>
@@ -54959,11 +55045,11 @@
       <c r="BG105" s="4"/>
       <c r="BH105" s="46">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BI105" s="47">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="106" spans="1:61" x14ac:dyDescent="0.25">
@@ -55015,7 +55101,9 @@
       </c>
       <c r="Y106" s="6"/>
       <c r="Z106" s="7"/>
-      <c r="AA106" s="8"/>
+      <c r="AA106" s="8">
+        <v>4</v>
+      </c>
       <c r="AB106" s="9"/>
       <c r="AD106" s="10"/>
       <c r="AE106" s="11"/>
@@ -55044,11 +55132,11 @@
       <c r="BG106" s="4"/>
       <c r="BH106" s="46">
         <f t="shared" si="14"/>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="BI106" s="47">
         <f t="shared" si="15"/>
-        <v>11.4</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="107" spans="1:61" x14ac:dyDescent="0.25">
@@ -55088,7 +55176,9 @@
       </c>
       <c r="Y107" s="6"/>
       <c r="Z107" s="7"/>
-      <c r="AA107" s="8"/>
+      <c r="AA107" s="8">
+        <v>6</v>
+      </c>
       <c r="AB107" s="9"/>
       <c r="AD107" s="10"/>
       <c r="AE107" s="11"/>
@@ -55117,11 +55207,11 @@
       <c r="BG107" s="4"/>
       <c r="BH107" s="46">
         <f t="shared" si="14"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BI107" s="47">
         <f t="shared" si="15"/>
-        <v>4.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:61" x14ac:dyDescent="0.25">
@@ -55444,7 +55534,9 @@
       <c r="Y112" s="6">
         <v>3</v>
       </c>
-      <c r="Z112" s="7"/>
+      <c r="Z112" s="7">
+        <v>4</v>
+      </c>
       <c r="AA112" s="8"/>
       <c r="AB112" s="9"/>
       <c r="AD112" s="10"/>
@@ -55474,11 +55566,11 @@
       <c r="BG112" s="4"/>
       <c r="BH112" s="46">
         <f t="shared" si="14"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BI112" s="47">
         <f t="shared" si="15"/>
-        <v>5.3999999999999995</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="113" spans="1:61" x14ac:dyDescent="0.25">
@@ -55523,7 +55615,9 @@
         <v>8</v>
       </c>
       <c r="Y113" s="6"/>
-      <c r="Z113" s="7"/>
+      <c r="Z113" s="7">
+        <v>2</v>
+      </c>
       <c r="AA113" s="8"/>
       <c r="AB113" s="9"/>
       <c r="AD113" s="10"/>
@@ -55553,11 +55647,11 @@
       <c r="BG113" s="4"/>
       <c r="BH113" s="46">
         <f t="shared" si="14"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="BI113" s="47">
         <f t="shared" si="15"/>
-        <v>9.2999999999999989</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="114" spans="1:61" x14ac:dyDescent="0.25">
@@ -55828,7 +55922,9 @@
         <v>1</v>
       </c>
       <c r="Z117" s="7"/>
-      <c r="AA117" s="8"/>
+      <c r="AA117" s="8">
+        <v>7</v>
+      </c>
       <c r="AB117" s="9"/>
       <c r="AD117" s="10"/>
       <c r="AE117" s="11"/>
@@ -55857,11 +55953,11 @@
       <c r="BG117" s="4"/>
       <c r="BH117" s="46">
         <f t="shared" si="14"/>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="BI117" s="47">
         <f t="shared" si="15"/>
-        <v>12.299999999999999</v>
+        <v>14.399999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:61" x14ac:dyDescent="0.25">
@@ -55978,7 +56074,9 @@
       </c>
       <c r="Y119" s="6"/>
       <c r="Z119" s="7"/>
-      <c r="AA119" s="8"/>
+      <c r="AA119" s="8">
+        <v>5</v>
+      </c>
       <c r="AB119" s="9"/>
       <c r="AD119" s="10"/>
       <c r="AE119" s="11"/>
@@ -56007,11 +56105,11 @@
       <c r="BG119" s="4"/>
       <c r="BH119" s="46">
         <f t="shared" si="14"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BI119" s="47">
         <f t="shared" si="15"/>
-        <v>12</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="120" spans="1:61" x14ac:dyDescent="0.25">
@@ -56117,8 +56215,12 @@
       <c r="Y121" s="6">
         <v>3</v>
       </c>
-      <c r="Z121" s="7"/>
-      <c r="AA121" s="8"/>
+      <c r="Z121" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA121" s="8">
+        <v>3</v>
+      </c>
       <c r="AB121" s="9"/>
       <c r="AD121" s="10"/>
       <c r="AE121" s="11"/>
@@ -56147,11 +56249,11 @@
       <c r="BG121" s="4"/>
       <c r="BH121" s="46">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BI121" s="47">
         <f t="shared" si="15"/>
-        <v>2.1</v>
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="122" spans="1:61" x14ac:dyDescent="0.25">
@@ -56202,8 +56304,12 @@
         <v>6</v>
       </c>
       <c r="Y122" s="6"/>
-      <c r="Z122" s="7"/>
-      <c r="AA122" s="8"/>
+      <c r="Z122" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA122" s="8">
+        <v>3</v>
+      </c>
       <c r="AB122" s="9"/>
       <c r="AD122" s="10"/>
       <c r="AE122" s="11"/>
@@ -56232,11 +56338,11 @@
       <c r="BG122" s="4"/>
       <c r="BH122" s="46">
         <f t="shared" si="14"/>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="BI122" s="47">
         <f t="shared" si="15"/>
-        <v>9.6</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="123" spans="1:61" x14ac:dyDescent="0.25">
@@ -56559,8 +56665,12 @@
       <c r="Y127" s="6">
         <v>3</v>
       </c>
-      <c r="Z127" s="7"/>
-      <c r="AA127" s="8"/>
+      <c r="Z127" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA127" s="8">
+        <v>3</v>
+      </c>
       <c r="AB127" s="9"/>
       <c r="AD127" s="10"/>
       <c r="AE127" s="11"/>
@@ -56589,11 +56699,11 @@
       <c r="BG127" s="4"/>
       <c r="BH127" s="46">
         <f t="shared" si="14"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BI127" s="47">
         <f t="shared" si="15"/>
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="128" spans="1:61" x14ac:dyDescent="0.25">
@@ -56630,8 +56740,12 @@
         <v>7</v>
       </c>
       <c r="Y128" s="6"/>
-      <c r="Z128" s="7"/>
-      <c r="AA128" s="8"/>
+      <c r="Z128" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA128" s="8">
+        <v>3</v>
+      </c>
       <c r="AB128" s="9"/>
       <c r="AD128" s="10"/>
       <c r="AE128" s="11"/>
@@ -56660,11 +56774,11 @@
       <c r="BG128" s="4"/>
       <c r="BH128" s="46">
         <f t="shared" ref="BH128" si="20">SUM(E128:BF128)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BI128" s="47">
         <f t="shared" ref="BI128" si="21">(SUM(E128:BG128)*$D$2)</f>
-        <v>3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="129" spans="1:61" x14ac:dyDescent="0.25">
@@ -56706,7 +56820,9 @@
         <v>2</v>
       </c>
       <c r="Z129" s="7"/>
-      <c r="AA129" s="8"/>
+      <c r="AA129" s="8">
+        <v>5</v>
+      </c>
       <c r="AB129" s="9"/>
       <c r="AD129" s="10"/>
       <c r="AE129" s="11"/>
@@ -56735,11 +56851,11 @@
       <c r="BG129" s="4"/>
       <c r="BH129" s="46">
         <f t="shared" si="14"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="BI129" s="47">
         <f t="shared" si="15"/>
-        <v>5.7</v>
+        <v>7.1999999999999993</v>
       </c>
     </row>
     <row r="130" spans="1:61" x14ac:dyDescent="0.25">
@@ -56786,8 +56902,12 @@
         <v>7</v>
       </c>
       <c r="Y130" s="6"/>
-      <c r="Z130" s="7"/>
-      <c r="AA130" s="8"/>
+      <c r="Z130" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA130" s="8">
+        <v>2</v>
+      </c>
       <c r="AB130" s="9"/>
       <c r="AD130" s="10"/>
       <c r="AE130" s="11"/>
@@ -56816,11 +56936,11 @@
       <c r="BG130" s="4"/>
       <c r="BH130" s="46">
         <f t="shared" si="14"/>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="BI130" s="47">
         <f t="shared" si="15"/>
-        <v>8.1</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:61" x14ac:dyDescent="0.25">
@@ -57133,7 +57253,9 @@
       </c>
       <c r="Y135" s="6"/>
       <c r="Z135" s="7"/>
-      <c r="AA135" s="8"/>
+      <c r="AA135" s="8">
+        <v>2</v>
+      </c>
       <c r="AB135" s="9"/>
       <c r="AD135" s="10"/>
       <c r="AE135" s="11"/>
@@ -57162,11 +57284,11 @@
       <c r="BG135" s="4"/>
       <c r="BH135" s="46">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BI135" s="47">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="136" spans="1:61" x14ac:dyDescent="0.25">
@@ -57346,7 +57468,9 @@
       <c r="W138" s="13"/>
       <c r="Y138" s="6"/>
       <c r="Z138" s="7"/>
-      <c r="AA138" s="8"/>
+      <c r="AA138" s="8">
+        <v>1</v>
+      </c>
       <c r="AB138" s="9"/>
       <c r="AD138" s="10"/>
       <c r="AE138" s="11"/>
@@ -57375,11 +57499,11 @@
       <c r="BG138" s="4"/>
       <c r="BH138" s="46">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI138" s="47">
         <f t="shared" si="23"/>
-        <v>0.6</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="139" spans="1:61" x14ac:dyDescent="0.25">
@@ -57424,7 +57548,9 @@
       <c r="Y139" s="6">
         <v>2</v>
       </c>
-      <c r="Z139" s="7"/>
+      <c r="Z139" s="7">
+        <v>3</v>
+      </c>
       <c r="AA139" s="8"/>
       <c r="AB139" s="9"/>
       <c r="AD139" s="10"/>
@@ -57454,11 +57580,11 @@
       <c r="BG139" s="4"/>
       <c r="BH139" s="46">
         <f t="shared" si="22"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BI139" s="47">
         <f t="shared" si="23"/>
-        <v>2.6999999999999997</v>
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="140" spans="1:61" x14ac:dyDescent="0.25">
@@ -57570,7 +57696,9 @@
         <v>3</v>
       </c>
       <c r="Y141" s="6"/>
-      <c r="Z141" s="7"/>
+      <c r="Z141" s="7">
+        <v>1</v>
+      </c>
       <c r="AA141" s="8"/>
       <c r="AB141" s="9"/>
       <c r="AD141" s="10"/>
@@ -57600,11 +57728,11 @@
       <c r="BG141" s="4"/>
       <c r="BH141" s="46">
         <f t="shared" si="14"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI141" s="47">
         <f t="shared" si="15"/>
-        <v>2.4</v>
+        <v>2.6999999999999997</v>
       </c>
     </row>
     <row r="142" spans="1:61" x14ac:dyDescent="0.25">
@@ -57643,8 +57771,12 @@
         <v>6</v>
       </c>
       <c r="Y142" s="6"/>
-      <c r="Z142" s="7"/>
-      <c r="AA142" s="8"/>
+      <c r="Z142" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA142" s="8">
+        <v>2</v>
+      </c>
       <c r="AB142" s="9"/>
       <c r="AD142" s="10"/>
       <c r="AE142" s="11"/>
@@ -57673,11 +57805,11 @@
       <c r="BG142" s="4"/>
       <c r="BH142" s="46">
         <f t="shared" si="14"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BI142" s="47">
         <f t="shared" si="15"/>
-        <v>4.2</v>
+        <v>5.3999999999999995</v>
       </c>
     </row>
     <row r="143" spans="1:61" x14ac:dyDescent="0.25">
@@ -58059,8 +58191,12 @@
         <v>4</v>
       </c>
       <c r="Y148" s="6"/>
-      <c r="Z148" s="7"/>
-      <c r="AA148" s="8"/>
+      <c r="Z148" s="7">
+        <v>4</v>
+      </c>
+      <c r="AA148" s="8">
+        <v>3</v>
+      </c>
       <c r="AB148" s="9"/>
       <c r="AD148" s="10"/>
       <c r="AE148" s="11"/>
@@ -58089,11 +58225,11 @@
       <c r="BG148" s="4"/>
       <c r="BH148" s="46">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BI148" s="47">
         <f t="shared" si="15"/>
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="149" spans="1:61" x14ac:dyDescent="0.25">
@@ -58123,7 +58259,9 @@
       <c r="V149" s="12"/>
       <c r="W149" s="13"/>
       <c r="Y149" s="6"/>
-      <c r="Z149" s="7"/>
+      <c r="Z149" s="7">
+        <v>1</v>
+      </c>
       <c r="AA149" s="8"/>
       <c r="AB149" s="9"/>
       <c r="AD149" s="10"/>
@@ -58153,11 +58291,11 @@
       <c r="BG149" s="4"/>
       <c r="BH149" s="46">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI149" s="47">
         <f t="shared" si="15"/>
-        <v>1.7999999999999998</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="150" spans="1:61" x14ac:dyDescent="0.25">
@@ -58319,7 +58457,9 @@
       <c r="Y152" s="6">
         <v>1</v>
       </c>
-      <c r="Z152" s="7"/>
+      <c r="Z152" s="7">
+        <v>4</v>
+      </c>
       <c r="AA152" s="8"/>
       <c r="AB152" s="9"/>
       <c r="AD152" s="10"/>
@@ -58349,11 +58489,11 @@
       <c r="BG152" s="4"/>
       <c r="BH152" s="46">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BI152" s="47">
         <f t="shared" si="15"/>
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="153" spans="1:61" x14ac:dyDescent="0.25">
@@ -58836,7 +58976,9 @@
         <v>7</v>
       </c>
       <c r="Z160" s="7"/>
-      <c r="AA160" s="8"/>
+      <c r="AA160" s="8">
+        <v>5</v>
+      </c>
       <c r="AB160" s="9"/>
       <c r="AD160" s="10"/>
       <c r="AE160" s="11"/>
@@ -58865,11 +59007,11 @@
       <c r="BG160" s="4"/>
       <c r="BH160" s="46">
         <f t="shared" si="14"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BI160" s="47">
         <f t="shared" si="15"/>
-        <v>8.6999999999999993</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="161" spans="1:61" x14ac:dyDescent="0.25">
@@ -59749,7 +59891,9 @@
       <c r="Y172" s="6">
         <v>4</v>
       </c>
-      <c r="Z172" s="7"/>
+      <c r="Z172" s="7">
+        <v>4</v>
+      </c>
       <c r="AA172" s="8"/>
       <c r="AB172" s="9"/>
       <c r="AD172" s="10"/>
@@ -59779,11 +59923,11 @@
       <c r="BG172" s="4"/>
       <c r="BH172" s="46">
         <f t="shared" si="28"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="BI172" s="47">
         <f t="shared" si="29"/>
-        <v>9</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="173" spans="1:61" x14ac:dyDescent="0.25">
@@ -60132,7 +60276,9 @@
       <c r="V177" s="12"/>
       <c r="W177" s="13"/>
       <c r="Y177" s="6"/>
-      <c r="Z177" s="7"/>
+      <c r="Z177" s="7">
+        <v>1</v>
+      </c>
       <c r="AA177" s="8"/>
       <c r="AB177" s="9"/>
       <c r="AD177" s="10"/>
@@ -60162,11 +60308,11 @@
       <c r="BG177" s="4"/>
       <c r="BH177" s="46">
         <f t="shared" si="28"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI177" s="47">
         <f t="shared" si="29"/>
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="178" spans="1:61" x14ac:dyDescent="0.25">
@@ -60208,7 +60354,9 @@
         <v>1</v>
       </c>
       <c r="Z178" s="7"/>
-      <c r="AA178" s="8"/>
+      <c r="AA178" s="8">
+        <v>1</v>
+      </c>
       <c r="AB178" s="9"/>
       <c r="AD178" s="10"/>
       <c r="AE178" s="11"/>
@@ -60237,11 +60385,11 @@
       <c r="BG178" s="4"/>
       <c r="BH178" s="46">
         <f t="shared" si="28"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BI178" s="47">
         <f t="shared" si="29"/>
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="179" spans="1:61" x14ac:dyDescent="0.25">
@@ -60363,8 +60511,12 @@
         <v>7</v>
       </c>
       <c r="Y180" s="6"/>
-      <c r="Z180" s="7"/>
-      <c r="AA180" s="8"/>
+      <c r="Z180" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA180" s="8">
+        <v>3</v>
+      </c>
       <c r="AB180" s="9"/>
       <c r="AD180" s="10"/>
       <c r="AE180" s="11"/>
@@ -60393,11 +60545,11 @@
       <c r="BG180" s="4"/>
       <c r="BH180" s="46">
         <f t="shared" si="28"/>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="BI180" s="47">
         <f t="shared" si="29"/>
-        <v>9.2999999999999989</v>
+        <v>10.799999999999999</v>
       </c>
     </row>
     <row r="181" spans="1:61" x14ac:dyDescent="0.25">
@@ -60514,7 +60666,9 @@
         <v>6</v>
       </c>
       <c r="Z182" s="7"/>
-      <c r="AA182" s="8"/>
+      <c r="AA182" s="8">
+        <v>1</v>
+      </c>
       <c r="AB182" s="9"/>
       <c r="AD182" s="10"/>
       <c r="AE182" s="11"/>
@@ -60543,11 +60697,11 @@
       <c r="BG182" s="4"/>
       <c r="BH182" s="46">
         <f t="shared" si="28"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BI182" s="47">
         <f t="shared" si="29"/>
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="183" spans="1:61" x14ac:dyDescent="0.25">
@@ -60654,7 +60808,9 @@
       <c r="W184" s="13"/>
       <c r="Y184" s="6"/>
       <c r="Z184" s="7"/>
-      <c r="AA184" s="8"/>
+      <c r="AA184" s="8">
+        <v>4</v>
+      </c>
       <c r="AB184" s="9"/>
       <c r="AD184" s="10"/>
       <c r="AE184" s="11"/>
@@ -60683,11 +60839,11 @@
       <c r="BG184" s="4"/>
       <c r="BH184" s="46">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BI184" s="47">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="185" spans="1:61" x14ac:dyDescent="0.25">
@@ -61247,8 +61403,12 @@
         <v>5</v>
       </c>
       <c r="Y192" s="6"/>
-      <c r="Z192" s="7"/>
-      <c r="AA192" s="8"/>
+      <c r="Z192" s="7">
+        <v>6</v>
+      </c>
+      <c r="AA192" s="8">
+        <v>4</v>
+      </c>
       <c r="AB192" s="9"/>
       <c r="AD192" s="10"/>
       <c r="AE192" s="11"/>
@@ -61277,11 +61437,11 @@
       <c r="BG192" s="4"/>
       <c r="BH192" s="46">
         <f t="shared" si="28"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="BI192" s="47">
         <f t="shared" si="29"/>
-        <v>10.199999999999999</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="193" spans="1:61" x14ac:dyDescent="0.25">
@@ -61389,8 +61549,12 @@
       <c r="Y194" s="6">
         <v>5</v>
       </c>
-      <c r="Z194" s="7"/>
-      <c r="AA194" s="8"/>
+      <c r="Z194" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA194" s="8">
+        <v>4</v>
+      </c>
       <c r="AB194" s="9"/>
       <c r="AD194" s="10"/>
       <c r="AE194" s="11"/>
@@ -61419,11 +61583,11 @@
       <c r="BG194" s="4"/>
       <c r="BH194" s="46">
         <f t="shared" si="28"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BI194" s="47">
         <f t="shared" si="29"/>
-        <v>3.3</v>
+        <v>5.3999999999999995</v>
       </c>
     </row>
     <row r="195" spans="1:61" x14ac:dyDescent="0.25">
@@ -61608,7 +61772,9 @@
       <c r="Y197" s="6">
         <v>2</v>
       </c>
-      <c r="Z197" s="7"/>
+      <c r="Z197" s="7">
+        <v>2</v>
+      </c>
       <c r="AA197" s="8"/>
       <c r="AB197" s="9"/>
       <c r="AD197" s="10"/>
@@ -61638,11 +61804,11 @@
       <c r="BG197" s="4"/>
       <c r="BH197" s="46">
         <f t="shared" si="28"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BI197" s="47">
         <f t="shared" si="29"/>
-        <v>6</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="198" spans="1:61" x14ac:dyDescent="0.25">
@@ -61821,7 +61987,9 @@
       <c r="Y200" s="6">
         <v>4</v>
       </c>
-      <c r="Z200" s="7"/>
+      <c r="Z200" s="7">
+        <v>1</v>
+      </c>
       <c r="AA200" s="8"/>
       <c r="AB200" s="9"/>
       <c r="AD200" s="10"/>
@@ -61851,11 +62019,11 @@
       <c r="BG200" s="4"/>
       <c r="BH200" s="46">
         <f t="shared" ref="BH200" si="36">SUM(E200:BF200)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BI200" s="47">
         <f t="shared" ref="BI200" si="37">(SUM(E200:BG200)*$D$2)</f>
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="201" spans="1:61" x14ac:dyDescent="0.25">
@@ -61959,7 +62127,9 @@
       <c r="V202" s="12"/>
       <c r="W202" s="13"/>
       <c r="Y202" s="6"/>
-      <c r="Z202" s="7"/>
+      <c r="Z202" s="7">
+        <v>2</v>
+      </c>
       <c r="AA202" s="8"/>
       <c r="AB202" s="9"/>
       <c r="AD202" s="10"/>
@@ -61989,11 +62159,11 @@
       <c r="BG202" s="4"/>
       <c r="BH202" s="46">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI202" s="47">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="203" spans="1:61" x14ac:dyDescent="0.25">
@@ -62103,7 +62273,9 @@
       <c r="Y204" s="6">
         <v>2</v>
       </c>
-      <c r="Z204" s="7"/>
+      <c r="Z204" s="7">
+        <v>4</v>
+      </c>
       <c r="AA204" s="8"/>
       <c r="AB204" s="9"/>
       <c r="AD204" s="10"/>
@@ -62133,11 +62305,11 @@
       <c r="BG204" s="4"/>
       <c r="BH204" s="46">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BI204" s="47">
         <f t="shared" si="29"/>
-        <v>1.5</v>
+        <v>2.6999999999999997</v>
       </c>
     </row>
     <row r="205" spans="1:61" x14ac:dyDescent="0.25">
@@ -62322,8 +62494,12 @@
       <c r="V207" s="12"/>
       <c r="W207" s="13"/>
       <c r="Y207" s="6"/>
-      <c r="Z207" s="7"/>
-      <c r="AA207" s="8"/>
+      <c r="Z207" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA207" s="8">
+        <v>3</v>
+      </c>
       <c r="AB207" s="9"/>
       <c r="AD207" s="10"/>
       <c r="AE207" s="11"/>
@@ -62352,11 +62528,11 @@
       <c r="BG207" s="4"/>
       <c r="BH207" s="46">
         <f t="shared" si="28"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BI207" s="47">
         <f t="shared" si="29"/>
-        <v>1.7999999999999998</v>
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="208" spans="1:61" x14ac:dyDescent="0.25">
@@ -62396,7 +62572,9 @@
         <v>1</v>
       </c>
       <c r="Z208" s="7"/>
-      <c r="AA208" s="8"/>
+      <c r="AA208" s="8">
+        <v>3</v>
+      </c>
       <c r="AB208" s="9"/>
       <c r="AD208" s="10"/>
       <c r="AE208" s="11"/>
@@ -62425,11 +62603,11 @@
       <c r="BG208" s="4"/>
       <c r="BH208" s="46">
         <f t="shared" si="28"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BI208" s="47">
         <f t="shared" si="29"/>
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="209" spans="1:61" x14ac:dyDescent="0.25">
@@ -62684,8 +62862,12 @@
         <v>11</v>
       </c>
       <c r="Y212" s="6"/>
-      <c r="Z212" s="7"/>
-      <c r="AA212" s="8"/>
+      <c r="Z212" s="7">
+        <v>8</v>
+      </c>
+      <c r="AA212" s="8">
+        <v>7</v>
+      </c>
       <c r="AB212" s="9"/>
       <c r="AD212" s="10"/>
       <c r="AE212" s="11"/>
@@ -62714,11 +62896,11 @@
       <c r="BG212" s="4"/>
       <c r="BH212" s="46">
         <f t="shared" si="28"/>
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="BI212" s="47">
         <f t="shared" si="29"/>
-        <v>23.4</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="213" spans="1:61" x14ac:dyDescent="0.25">
@@ -62907,7 +63089,9 @@
         <v>4</v>
       </c>
       <c r="Z215" s="7"/>
-      <c r="AA215" s="8"/>
+      <c r="AA215" s="8">
+        <v>3</v>
+      </c>
       <c r="AB215" s="9"/>
       <c r="AD215" s="10"/>
       <c r="AE215" s="11"/>
@@ -62936,11 +63120,11 @@
       <c r="BG215" s="4"/>
       <c r="BH215" s="46">
         <f t="shared" si="28"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="BI215" s="47">
         <f t="shared" si="29"/>
-        <v>12.299999999999999</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="216" spans="1:61" x14ac:dyDescent="0.25">
@@ -62977,7 +63161,9 @@
         <v>3</v>
       </c>
       <c r="Z216" s="7"/>
-      <c r="AA216" s="8"/>
+      <c r="AA216" s="8">
+        <v>4</v>
+      </c>
       <c r="AB216" s="9"/>
       <c r="AD216" s="10"/>
       <c r="AE216" s="11"/>
@@ -63006,11 +63192,11 @@
       <c r="BG216" s="4"/>
       <c r="BH216" s="46">
         <f t="shared" si="28"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BI216" s="47">
         <f t="shared" si="29"/>
-        <v>4.2</v>
+        <v>5.3999999999999995</v>
       </c>
     </row>
     <row r="217" spans="1:61" x14ac:dyDescent="0.25">
@@ -63118,7 +63304,9 @@
         <v>4</v>
       </c>
       <c r="Y218" s="6"/>
-      <c r="Z218" s="7"/>
+      <c r="Z218" s="7">
+        <v>3</v>
+      </c>
       <c r="AA218" s="8"/>
       <c r="AB218" s="9"/>
       <c r="AD218" s="10"/>
@@ -63148,11 +63336,11 @@
       <c r="BG218" s="4"/>
       <c r="BH218" s="46">
         <f t="shared" si="28"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BI218" s="47">
         <f t="shared" si="29"/>
-        <v>7.8</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="219" spans="1:61" x14ac:dyDescent="0.25">
@@ -63268,7 +63456,9 @@
       <c r="Y220" s="6">
         <v>3</v>
       </c>
-      <c r="Z220" s="7"/>
+      <c r="Z220" s="7">
+        <v>3</v>
+      </c>
       <c r="AA220" s="8"/>
       <c r="AB220" s="9"/>
       <c r="AD220" s="10"/>
@@ -63298,11 +63488,11 @@
       <c r="BG220" s="4"/>
       <c r="BH220" s="46">
         <f t="shared" si="28"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BI220" s="47">
         <f t="shared" si="29"/>
-        <v>3.5999999999999996</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="221" spans="1:61" x14ac:dyDescent="0.25">
@@ -63474,7 +63664,9 @@
       <c r="Y223" s="6">
         <v>3</v>
       </c>
-      <c r="Z223" s="7"/>
+      <c r="Z223" s="7">
+        <v>3</v>
+      </c>
       <c r="AA223" s="8"/>
       <c r="AB223" s="9"/>
       <c r="AD223" s="10"/>
@@ -63504,11 +63696,11 @@
       <c r="BG223" s="4"/>
       <c r="BH223" s="46">
         <f t="shared" si="40"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BI223" s="47">
         <f t="shared" si="41"/>
-        <v>3</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="224" spans="1:61" x14ac:dyDescent="0.25">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Erin\Run Club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916A09C3-58BA-4AED-91FE-635462265F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEE3B0D-7079-4538-BAD3-BE1BD7FB7AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="398" firstSheet="1" activeTab="3" xr2:uid="{E0803456-148F-4C82-AA5A-324EB5FFE85D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="398" xr2:uid="{E0803456-148F-4C82-AA5A-324EB5FFE85D}"/>
   </bookViews>
   <sheets>
     <sheet name="Run distances" sheetId="1" r:id="rId1"/>
@@ -2099,8 +2099,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BE236"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="A159" sqref="A159"/>
+    <sheetView tabSelected="1" topLeftCell="AD150" workbookViewId="0">
+      <selection activeCell="A215" sqref="A215:XFD215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19947,9 +19947,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2440E40C-0490-44B1-823E-D5C5232BF4FE}">
   <dimension ref="A1:BI236"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A159" sqref="A159"/>
+    <sheetView topLeftCell="A194" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A215" sqref="A215:XFD215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33514,7 +33514,7 @@
     </row>
     <row r="199" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A199" s="40" t="s">
-        <v>297</v>
+        <v>394</v>
       </c>
       <c r="B199" s="41">
         <v>9</v>
@@ -47888,9 +47888,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78868117-12A2-435A-BD63-4BC13C1CEFED}">
   <dimension ref="A1:BI239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG87" sqref="AG87"/>
+    <sheetView topLeftCell="A205" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A215" sqref="A215:XFD215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
